--- a/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -940,7 +940,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PPSN or an employee ID to be provided for a lookup RPN by employee request</t>
+      <t>PPSN or an employee ID must be provided for a lookup RPN by employee request</t>
     </r>
   </si>
 </sst>
@@ -1463,6 +1463,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1471,9 +1474,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -22191,18 +22191,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
     </row>
     <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
@@ -22841,7 +22841,7 @@
   <dimension ref="A1:BN461"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M109" sqref="M109"/>
     </sheetView>
   </sheetViews>
@@ -22961,23 +22961,23 @@
       <c r="BN1" s="20"/>
     </row>
     <row r="2" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -23031,23 +23031,23 @@
       <c r="BN2" s="21"/>
     </row>
     <row r="3" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -24037,23 +24037,23 @@
       <c r="O20" s="33"/>
     </row>
     <row r="21" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
@@ -26607,23 +26607,23 @@
       <c r="BN59" s="22"/>
     </row>
     <row r="60" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="98" t="s">
+      <c r="A60" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="98"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="98"/>
-      <c r="G60" s="98"/>
-      <c r="H60" s="98"/>
-      <c r="I60" s="98"/>
-      <c r="J60" s="98"/>
-      <c r="K60" s="98"/>
-      <c r="L60" s="98"/>
-      <c r="M60" s="98"/>
-      <c r="N60" s="98"/>
-      <c r="O60" s="98"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="99"/>
+      <c r="J60" s="99"/>
+      <c r="K60" s="99"/>
+      <c r="L60" s="99"/>
+      <c r="M60" s="99"/>
+      <c r="N60" s="99"/>
+      <c r="O60" s="99"/>
       <c r="P60" s="21"/>
       <c r="Q60" s="21"/>
       <c r="R60" s="21"/>
@@ -26677,23 +26677,23 @@
       <c r="BN60" s="21"/>
     </row>
     <row r="61" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="99" t="s">
+      <c r="A61" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B61" s="99"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="99"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
-      <c r="K61" s="99"/>
-      <c r="L61" s="99"/>
-      <c r="M61" s="99"/>
-      <c r="N61" s="99"/>
-      <c r="O61" s="99"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="100"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="100"/>
+      <c r="I61" s="100"/>
+      <c r="J61" s="100"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="100"/>
+      <c r="N61" s="100"/>
+      <c r="O61" s="100"/>
       <c r="P61" s="21"/>
       <c r="Q61" s="21"/>
       <c r="R61" s="21"/>
@@ -27872,23 +27872,23 @@
       <c r="BN73" s="22"/>
     </row>
     <row r="74" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="98" t="s">
+      <c r="A74" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="98"/>
-      <c r="C74" s="98"/>
-      <c r="D74" s="98"/>
-      <c r="E74" s="98"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="98"/>
-      <c r="H74" s="98"/>
-      <c r="I74" s="98"/>
-      <c r="J74" s="98"/>
-      <c r="K74" s="98"/>
-      <c r="L74" s="98"/>
-      <c r="M74" s="98"/>
-      <c r="N74" s="98"/>
-      <c r="O74" s="98"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="99"/>
+      <c r="K74" s="99"/>
+      <c r="L74" s="99"/>
+      <c r="M74" s="99"/>
+      <c r="N74" s="99"/>
+      <c r="O74" s="99"/>
       <c r="P74" s="21"/>
       <c r="Q74" s="21"/>
       <c r="R74" s="21"/>
@@ -27942,23 +27942,23 @@
       <c r="BN74" s="21"/>
     </row>
     <row r="75" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="99" t="s">
+      <c r="A75" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="99"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="99"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="99"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="99"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="99"/>
-      <c r="L75" s="99"/>
-      <c r="M75" s="99"/>
-      <c r="N75" s="99"/>
-      <c r="O75" s="99"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="100"/>
+      <c r="E75" s="100"/>
+      <c r="F75" s="100"/>
+      <c r="G75" s="100"/>
+      <c r="H75" s="100"/>
+      <c r="I75" s="100"/>
+      <c r="J75" s="100"/>
+      <c r="K75" s="100"/>
+      <c r="L75" s="100"/>
+      <c r="M75" s="100"/>
+      <c r="N75" s="100"/>
+      <c r="O75" s="100"/>
       <c r="P75" s="21"/>
       <c r="Q75" s="21"/>
       <c r="R75" s="21"/>
@@ -29137,23 +29137,23 @@
       <c r="BN87" s="22"/>
     </row>
     <row r="88" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="98" t="s">
+      <c r="A88" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="B88" s="98"/>
-      <c r="C88" s="98"/>
-      <c r="D88" s="98"/>
-      <c r="E88" s="98"/>
-      <c r="F88" s="98"/>
-      <c r="G88" s="98"/>
-      <c r="H88" s="98"/>
-      <c r="I88" s="98"/>
-      <c r="J88" s="98"/>
-      <c r="K88" s="98"/>
-      <c r="L88" s="98"/>
-      <c r="M88" s="98"/>
-      <c r="N88" s="98"/>
-      <c r="O88" s="98"/>
+      <c r="B88" s="99"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="99"/>
+      <c r="H88" s="99"/>
+      <c r="I88" s="99"/>
+      <c r="J88" s="99"/>
+      <c r="K88" s="99"/>
+      <c r="L88" s="99"/>
+      <c r="M88" s="99"/>
+      <c r="N88" s="99"/>
+      <c r="O88" s="99"/>
       <c r="P88" s="21"/>
       <c r="Q88" s="21"/>
       <c r="R88" s="21"/>
@@ -29207,23 +29207,23 @@
       <c r="BN88" s="21"/>
     </row>
     <row r="89" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="99" t="s">
+      <c r="A89" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B89" s="99"/>
-      <c r="C89" s="99"/>
-      <c r="D89" s="99"/>
-      <c r="E89" s="99"/>
-      <c r="F89" s="99"/>
-      <c r="G89" s="99"/>
-      <c r="H89" s="99"/>
-      <c r="I89" s="99"/>
-      <c r="J89" s="99"/>
-      <c r="K89" s="99"/>
-      <c r="L89" s="99"/>
-      <c r="M89" s="99"/>
-      <c r="N89" s="99"/>
-      <c r="O89" s="99"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="100"/>
+      <c r="E89" s="100"/>
+      <c r="F89" s="100"/>
+      <c r="G89" s="100"/>
+      <c r="H89" s="100"/>
+      <c r="I89" s="100"/>
+      <c r="J89" s="100"/>
+      <c r="K89" s="100"/>
+      <c r="L89" s="100"/>
+      <c r="M89" s="100"/>
+      <c r="N89" s="100"/>
+      <c r="O89" s="100"/>
       <c r="P89" s="21"/>
       <c r="Q89" s="21"/>
       <c r="R89" s="21"/>
@@ -31094,7 +31094,7 @@
       <c r="B109" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C109" s="100" t="s">
+      <c r="C109" s="97" t="s">
         <v>283</v>
       </c>
       <c r="D109" s="58" t="s">
@@ -31124,7 +31124,7 @@
       <c r="L109" s="58">
         <v>3014</v>
       </c>
-      <c r="M109" s="100" t="s">
+      <c r="M109" s="97" t="s">
         <v>283</v>
       </c>
       <c r="N109" s="30" t="s">
@@ -31186,23 +31186,23 @@
       <c r="BN109" s="21"/>
     </row>
     <row r="110" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A110" s="99" t="s">
+      <c r="A110" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="B110" s="99"/>
-      <c r="C110" s="99"/>
-      <c r="D110" s="99"/>
-      <c r="E110" s="99"/>
-      <c r="F110" s="99"/>
-      <c r="G110" s="99"/>
-      <c r="H110" s="99"/>
-      <c r="I110" s="99"/>
-      <c r="J110" s="99"/>
-      <c r="K110" s="99"/>
-      <c r="L110" s="99"/>
-      <c r="M110" s="99"/>
-      <c r="N110" s="99"/>
-      <c r="O110" s="99"/>
+      <c r="B110" s="100"/>
+      <c r="C110" s="100"/>
+      <c r="D110" s="100"/>
+      <c r="E110" s="100"/>
+      <c r="F110" s="100"/>
+      <c r="G110" s="100"/>
+      <c r="H110" s="100"/>
+      <c r="I110" s="100"/>
+      <c r="J110" s="100"/>
+      <c r="K110" s="100"/>
+      <c r="L110" s="100"/>
+      <c r="M110" s="100"/>
+      <c r="N110" s="100"/>
+      <c r="O110" s="100"/>
       <c r="P110" s="21"/>
       <c r="Q110" s="21"/>
       <c r="R110" s="21"/>
@@ -31452,23 +31452,23 @@
       <c r="BN112" s="22"/>
     </row>
     <row r="113" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A113" s="98" t="s">
+      <c r="A113" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="B113" s="98"/>
-      <c r="C113" s="98"/>
-      <c r="D113" s="98"/>
-      <c r="E113" s="98"/>
-      <c r="F113" s="98"/>
-      <c r="G113" s="98"/>
-      <c r="H113" s="98"/>
-      <c r="I113" s="98"/>
-      <c r="J113" s="98"/>
-      <c r="K113" s="98"/>
-      <c r="L113" s="98"/>
-      <c r="M113" s="98"/>
-      <c r="N113" s="98"/>
-      <c r="O113" s="98"/>
+      <c r="B113" s="99"/>
+      <c r="C113" s="99"/>
+      <c r="D113" s="99"/>
+      <c r="E113" s="99"/>
+      <c r="F113" s="99"/>
+      <c r="G113" s="99"/>
+      <c r="H113" s="99"/>
+      <c r="I113" s="99"/>
+      <c r="J113" s="99"/>
+      <c r="K113" s="99"/>
+      <c r="L113" s="99"/>
+      <c r="M113" s="99"/>
+      <c r="N113" s="99"/>
+      <c r="O113" s="99"/>
       <c r="P113" s="22"/>
       <c r="Q113" s="22"/>
       <c r="R113" s="22"/>
@@ -31522,23 +31522,23 @@
       <c r="BN113" s="22"/>
     </row>
     <row r="114" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A114" s="99" t="s">
+      <c r="A114" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B114" s="99"/>
-      <c r="C114" s="99"/>
-      <c r="D114" s="99"/>
-      <c r="E114" s="99"/>
-      <c r="F114" s="99"/>
-      <c r="G114" s="99"/>
-      <c r="H114" s="99"/>
-      <c r="I114" s="99"/>
-      <c r="J114" s="99"/>
-      <c r="K114" s="99"/>
-      <c r="L114" s="99"/>
-      <c r="M114" s="99"/>
-      <c r="N114" s="99"/>
-      <c r="O114" s="99"/>
+      <c r="B114" s="100"/>
+      <c r="C114" s="100"/>
+      <c r="D114" s="100"/>
+      <c r="E114" s="100"/>
+      <c r="F114" s="100"/>
+      <c r="G114" s="100"/>
+      <c r="H114" s="100"/>
+      <c r="I114" s="100"/>
+      <c r="J114" s="100"/>
+      <c r="K114" s="100"/>
+      <c r="L114" s="100"/>
+      <c r="M114" s="100"/>
+      <c r="N114" s="100"/>
+      <c r="O114" s="100"/>
       <c r="P114" s="22"/>
       <c r="Q114" s="22"/>
       <c r="R114" s="22"/>
@@ -32693,23 +32693,23 @@
       <c r="O128" s="33"/>
     </row>
     <row r="129" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A129" s="99" t="s">
+      <c r="A129" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="B129" s="99"/>
-      <c r="C129" s="99"/>
-      <c r="D129" s="99"/>
-      <c r="E129" s="99"/>
-      <c r="F129" s="99"/>
-      <c r="G129" s="99"/>
-      <c r="H129" s="99"/>
-      <c r="I129" s="99"/>
-      <c r="J129" s="99"/>
-      <c r="K129" s="99"/>
-      <c r="L129" s="99"/>
-      <c r="M129" s="99"/>
-      <c r="N129" s="99"/>
-      <c r="O129" s="99"/>
+      <c r="B129" s="100"/>
+      <c r="C129" s="100"/>
+      <c r="D129" s="100"/>
+      <c r="E129" s="100"/>
+      <c r="F129" s="100"/>
+      <c r="G129" s="100"/>
+      <c r="H129" s="100"/>
+      <c r="I129" s="100"/>
+      <c r="J129" s="100"/>
+      <c r="K129" s="100"/>
+      <c r="L129" s="100"/>
+      <c r="M129" s="100"/>
+      <c r="N129" s="100"/>
+      <c r="O129" s="100"/>
     </row>
     <row r="130" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
@@ -32994,42 +32994,42 @@
       </c>
     </row>
     <row r="136" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="98" t="s">
+      <c r="A136" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="B136" s="98"/>
-      <c r="C136" s="98"/>
-      <c r="D136" s="98"/>
-      <c r="E136" s="98"/>
-      <c r="F136" s="98"/>
-      <c r="G136" s="98"/>
-      <c r="H136" s="98"/>
-      <c r="I136" s="98"/>
-      <c r="J136" s="98"/>
-      <c r="K136" s="98"/>
-      <c r="L136" s="98"/>
-      <c r="M136" s="98"/>
-      <c r="N136" s="98"/>
-      <c r="O136" s="98"/>
+      <c r="B136" s="99"/>
+      <c r="C136" s="99"/>
+      <c r="D136" s="99"/>
+      <c r="E136" s="99"/>
+      <c r="F136" s="99"/>
+      <c r="G136" s="99"/>
+      <c r="H136" s="99"/>
+      <c r="I136" s="99"/>
+      <c r="J136" s="99"/>
+      <c r="K136" s="99"/>
+      <c r="L136" s="99"/>
+      <c r="M136" s="99"/>
+      <c r="N136" s="99"/>
+      <c r="O136" s="99"/>
     </row>
     <row r="137" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A137" s="99" t="s">
+      <c r="A137" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B137" s="99"/>
-      <c r="C137" s="99"/>
-      <c r="D137" s="99"/>
-      <c r="E137" s="99"/>
-      <c r="F137" s="99"/>
-      <c r="G137" s="99"/>
-      <c r="H137" s="99"/>
-      <c r="I137" s="99"/>
-      <c r="J137" s="99"/>
-      <c r="K137" s="99"/>
-      <c r="L137" s="99"/>
-      <c r="M137" s="99"/>
-      <c r="N137" s="99"/>
-      <c r="O137" s="99"/>
+      <c r="B137" s="100"/>
+      <c r="C137" s="100"/>
+      <c r="D137" s="100"/>
+      <c r="E137" s="100"/>
+      <c r="F137" s="100"/>
+      <c r="G137" s="100"/>
+      <c r="H137" s="100"/>
+      <c r="I137" s="100"/>
+      <c r="J137" s="100"/>
+      <c r="K137" s="100"/>
+      <c r="L137" s="100"/>
+      <c r="M137" s="100"/>
+      <c r="N137" s="100"/>
+      <c r="O137" s="100"/>
     </row>
     <row r="138" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="92">
@@ -39102,21 +39102,21 @@
   <autoFilter ref="G1:G461"/>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A136:O136"/>
+    <mergeCell ref="A137:O137"/>
+    <mergeCell ref="A129:O129"/>
+    <mergeCell ref="A110:O110"/>
+    <mergeCell ref="A114:O114"/>
+    <mergeCell ref="A89:O89"/>
+    <mergeCell ref="A88:O88"/>
+    <mergeCell ref="A113:O113"/>
+    <mergeCell ref="A75:O75"/>
+    <mergeCell ref="A61:O61"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A21:O21"/>
     <mergeCell ref="A60:O60"/>
     <mergeCell ref="A74:O74"/>
-    <mergeCell ref="A89:O89"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="A113:O113"/>
-    <mergeCell ref="A75:O75"/>
-    <mergeCell ref="A61:O61"/>
-    <mergeCell ref="A136:O136"/>
-    <mergeCell ref="A137:O137"/>
-    <mergeCell ref="A129:O129"/>
-    <mergeCell ref="A110:O110"/>
-    <mergeCell ref="A114:O114"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J69:J73 J130:J135 J51:J58 J83:J87 J7:J8 J66:J67 J80:J81 J93:J95 J118:J120 J141:J142 J10:J16 J144:J154 J122:J128 J111:J112 J28:J49 J25 J19:J20 J97:J109">

--- a/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -22841,8 +22841,8 @@
   <dimension ref="A1:BN461"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M109" sqref="M109"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -39102,21 +39102,21 @@
   <autoFilter ref="G1:G461"/>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A60:O60"/>
+    <mergeCell ref="A74:O74"/>
+    <mergeCell ref="A89:O89"/>
+    <mergeCell ref="A88:O88"/>
+    <mergeCell ref="A113:O113"/>
+    <mergeCell ref="A75:O75"/>
+    <mergeCell ref="A61:O61"/>
     <mergeCell ref="A136:O136"/>
     <mergeCell ref="A137:O137"/>
     <mergeCell ref="A129:O129"/>
     <mergeCell ref="A110:O110"/>
     <mergeCell ref="A114:O114"/>
-    <mergeCell ref="A89:O89"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="A113:O113"/>
-    <mergeCell ref="A75:O75"/>
-    <mergeCell ref="A61:O61"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A60:O60"/>
-    <mergeCell ref="A74:O74"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J69:J73 J130:J135 J51:J58 J83:J87 J7:J8 J66:J67 J80:J81 J93:J95 J118:J120 J141:J142 J10:J16 J144:J154 J122:J128 J111:J112 J28:J49 J25 J19:J20 J97:J109">

--- a/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8CE2B5-8E09-40FC-B031-AB4978167F21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$461</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$462</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$133</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="287">
   <si>
     <t>Payslip</t>
   </si>
@@ -943,11 +944,31 @@
       <t>PPSN or an employee ID must be provided for a lookup RPN by employee request</t>
     </r>
   </si>
+  <si>
+    <t>payPeriod</t>
+  </si>
+  <si>
+    <t>Invalid PayPeriod selected for chosen PayFrequency.</t>
+  </si>
+  <si>
+    <t>Pay Period must be between {number of period} when pay frequency is {payfrequency}
+Options include:
+•	1-53 where pay frequency is weekly;
+•	1-27 where pay frequency is fortnightly;
+•	1-24 where pay frequency is twice monthly;
+•	1-12 where pay frequency is monthly;
+•	1-14 where pay frequency is week-based monthly; 
+•	1-14 where pay frequency is four-weekly;
+•	1-4 where pay frequency is quarterly; 
+•	1-2 where pay frequency is bi-annual;
+•	1 where pay frequency is annual;
+•	1-52 where pay frequency is other.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1132,7 +1153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1196,12 +1217,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1475,6 +1533,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1505,7 +1572,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -22170,11 +22237,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:M65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B8:M66"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22823,6 +22890,15 @@
         <v>164</v>
       </c>
     </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="79"/>
+      <c r="C66" s="79">
+        <v>157</v>
+      </c>
+      <c r="D66" s="80" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:E9"/>
@@ -22834,15 +22910,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BN461"/>
+  <dimension ref="A1:BN462"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -26410,51 +26486,51 @@
       <c r="BM57" s="22"/>
       <c r="BN57" s="22"/>
     </row>
-    <row r="58" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>155</v>
-      </c>
-      <c r="B58" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="D58" s="4">
-        <v>16</v>
-      </c>
-      <c r="E58" s="24" t="s">
+      <c r="C58" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="54">
         <v>200</v>
       </c>
       <c r="H58" s="24" t="s">
         <v>219</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L58" s="10">
-        <v>2052</v>
-      </c>
-      <c r="M58" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="N58" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J58" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="53">
+        <v>2047</v>
+      </c>
+      <c r="M58" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="N58" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="O58" s="30" t="s">
-        <v>280</v>
+      <c r="O58" s="63" t="s">
+        <v>0</v>
       </c>
       <c r="P58" s="22"/>
       <c r="Q58" s="22"/>
@@ -26508,51 +26584,51 @@
       <c r="BM58" s="22"/>
       <c r="BN58" s="22"/>
     </row>
-    <row r="59" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>122</v>
-      </c>
-      <c r="B59" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="D59" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="54" t="s">
+      <c r="C59" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="D59" s="4">
+        <v>16</v>
+      </c>
+      <c r="E59" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F59" s="54" t="s">
+      <c r="F59" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G59" s="54">
+      <c r="G59" s="24">
         <v>200</v>
       </c>
       <c r="H59" s="24" t="s">
         <v>219</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="J59" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="K59" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" s="53">
-        <v>2047</v>
-      </c>
-      <c r="M59" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="N59" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L59" s="10">
+        <v>2052</v>
+      </c>
+      <c r="M59" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="N59" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="O59" s="63" t="s">
-        <v>0</v>
+      <c r="O59" s="30" t="s">
+        <v>280</v>
       </c>
       <c r="P59" s="22"/>
       <c r="Q59" s="22"/>
@@ -26606,94 +26682,122 @@
       <c r="BM59" s="22"/>
       <c r="BN59" s="22"/>
     </row>
-    <row r="60" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="99" t="s">
+    <row r="60" spans="1:66" s="7" customFormat="1" ht="220.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>156</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" s="4">
+        <v>55</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G60" s="24">
+        <v>200</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="J60" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="10">
+        <v>2053</v>
+      </c>
+      <c r="M60" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="N60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="22"/>
+      <c r="AE60" s="22"/>
+      <c r="AF60" s="22"/>
+      <c r="AG60" s="22"/>
+      <c r="AH60" s="22"/>
+      <c r="AI60" s="22"/>
+      <c r="AJ60" s="22"/>
+      <c r="AK60" s="22"/>
+      <c r="AL60" s="22"/>
+      <c r="AM60" s="22"/>
+      <c r="AN60" s="22"/>
+      <c r="AO60" s="22"/>
+      <c r="AP60" s="22"/>
+      <c r="AQ60" s="22"/>
+      <c r="AR60" s="22"/>
+      <c r="AS60" s="22"/>
+      <c r="AT60" s="22"/>
+      <c r="AU60" s="22"/>
+      <c r="AV60" s="22"/>
+      <c r="AW60" s="22"/>
+      <c r="AX60" s="22"/>
+      <c r="AY60" s="22"/>
+      <c r="AZ60" s="22"/>
+      <c r="BA60" s="22"/>
+      <c r="BB60" s="22"/>
+      <c r="BC60" s="22"/>
+      <c r="BD60" s="22"/>
+      <c r="BE60" s="22"/>
+      <c r="BF60" s="22"/>
+      <c r="BG60" s="22"/>
+      <c r="BH60" s="22"/>
+      <c r="BI60" s="22"/>
+      <c r="BJ60" s="22"/>
+      <c r="BK60" s="22"/>
+      <c r="BL60" s="22"/>
+      <c r="BM60" s="22"/>
+      <c r="BN60" s="22"/>
+    </row>
+    <row r="61" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="99"/>
-      <c r="F60" s="99"/>
-      <c r="G60" s="99"/>
-      <c r="H60" s="99"/>
-      <c r="I60" s="99"/>
-      <c r="J60" s="99"/>
-      <c r="K60" s="99"/>
-      <c r="L60" s="99"/>
-      <c r="M60" s="99"/>
-      <c r="N60" s="99"/>
-      <c r="O60" s="99"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="21"/>
-      <c r="AA60" s="21"/>
-      <c r="AB60" s="21"/>
-      <c r="AC60" s="21"/>
-      <c r="AD60" s="21"/>
-      <c r="AE60" s="21"/>
-      <c r="AF60" s="21"/>
-      <c r="AG60" s="21"/>
-      <c r="AH60" s="21"/>
-      <c r="AI60" s="21"/>
-      <c r="AJ60" s="21"/>
-      <c r="AK60" s="21"/>
-      <c r="AL60" s="21"/>
-      <c r="AM60" s="21"/>
-      <c r="AN60" s="21"/>
-      <c r="AO60" s="21"/>
-      <c r="AP60" s="21"/>
-      <c r="AQ60" s="21"/>
-      <c r="AR60" s="21"/>
-      <c r="AS60" s="21"/>
-      <c r="AT60" s="21"/>
-      <c r="AU60" s="21"/>
-      <c r="AV60" s="21"/>
-      <c r="AW60" s="21"/>
-      <c r="AX60" s="21"/>
-      <c r="AY60" s="21"/>
-      <c r="AZ60" s="21"/>
-      <c r="BA60" s="21"/>
-      <c r="BB60" s="21"/>
-      <c r="BC60" s="21"/>
-      <c r="BD60" s="21"/>
-      <c r="BE60" s="21"/>
-      <c r="BF60" s="21"/>
-      <c r="BG60" s="21"/>
-      <c r="BH60" s="21"/>
-      <c r="BI60" s="21"/>
-      <c r="BJ60" s="21"/>
-      <c r="BK60" s="21"/>
-      <c r="BL60" s="21"/>
-      <c r="BM60" s="21"/>
-      <c r="BN60" s="21"/>
-    </row>
-    <row r="61" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" s="100"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="100"/>
-      <c r="E61" s="100"/>
-      <c r="F61" s="100"/>
-      <c r="G61" s="100"/>
-      <c r="H61" s="100"/>
-      <c r="I61" s="100"/>
-      <c r="J61" s="100"/>
-      <c r="K61" s="100"/>
-      <c r="L61" s="100"/>
-      <c r="M61" s="100"/>
-      <c r="N61" s="100"/>
-      <c r="O61" s="100"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="102"/>
+      <c r="L61" s="102"/>
+      <c r="M61" s="102"/>
+      <c r="N61" s="102"/>
+      <c r="O61" s="103"/>
       <c r="P61" s="21"/>
       <c r="Q61" s="21"/>
       <c r="R61" s="21"/>
@@ -26746,52 +26850,24 @@
       <c r="BM61" s="21"/>
       <c r="BN61" s="21"/>
     </row>
-    <row r="62" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="92">
+    <row r="62" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" s="93" t="s">
-        <v>256</v>
-      </c>
-      <c r="D62" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F62" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="G62" s="92">
-        <v>403</v>
-      </c>
-      <c r="H62" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I62" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J62" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="K62" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="L62" s="92">
-        <v>1111</v>
-      </c>
-      <c r="M62" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="N62" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O62" s="30" t="s">
-        <v>61</v>
-      </c>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="100"/>
       <c r="P62" s="21"/>
       <c r="Q62" s="21"/>
       <c r="R62" s="21"/>
@@ -26844,15 +26920,15 @@
       <c r="BM62" s="21"/>
       <c r="BN62" s="21"/>
     </row>
-    <row r="63" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="92">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C63" s="93" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D63" s="92" t="s">
         <v>12</v>
@@ -26879,16 +26955,16 @@
         <v>34</v>
       </c>
       <c r="L63" s="92">
-        <v>1016</v>
+        <v>1111</v>
       </c>
       <c r="M63" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N63" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O63" s="93" t="s">
-        <v>12</v>
+        <v>255</v>
+      </c>
+      <c r="N63" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O63" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="P63" s="21"/>
       <c r="Q63" s="21"/>
@@ -26942,50 +27018,50 @@
       <c r="BM63" s="21"/>
       <c r="BN63" s="21"/>
     </row>
-    <row r="64" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>52</v>
+    <row r="64" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="92">
+        <v>146</v>
       </c>
       <c r="B64" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="C64" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G64" s="24">
-        <v>401</v>
-      </c>
-      <c r="H64" s="58" t="s">
+      <c r="G64" s="92">
+        <v>403</v>
+      </c>
+      <c r="H64" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I64" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="J64" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K64" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L64" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M64" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N64" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O64" s="49" t="s">
+      <c r="L64" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M64" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N64" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O64" s="93" t="s">
         <v>12</v>
       </c>
       <c r="P64" s="21"/>
@@ -27040,15 +27116,15 @@
       <c r="BM64" s="21"/>
       <c r="BN64" s="21"/>
     </row>
-    <row r="65" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="23" t="s">
-        <v>149</v>
+      <c r="C65" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>12</v>
@@ -27075,15 +27151,15 @@
         <v>34</v>
       </c>
       <c r="L65" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N65" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O65" s="47" t="s">
+      <c r="O65" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P65" s="21"/>
@@ -27138,15 +27214,15 @@
       <c r="BM65" s="21"/>
       <c r="BN65" s="21"/>
     </row>
-    <row r="66" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B66" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>12</v>
@@ -27158,7 +27234,7 @@
         <v>142</v>
       </c>
       <c r="G66" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H66" s="58" t="s">
         <v>218</v>
@@ -27166,85 +27242,85 @@
       <c r="I66" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J66" s="24" t="s">
+      <c r="J66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L66" s="24">
-        <v>1003</v>
-      </c>
-      <c r="M66" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="N66" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O66" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="22"/>
-      <c r="W66" s="22"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="22"/>
-      <c r="AA66" s="22"/>
-      <c r="AB66" s="22"/>
-      <c r="AC66" s="22"/>
-      <c r="AD66" s="22"/>
-      <c r="AE66" s="22"/>
-      <c r="AF66" s="22"/>
-      <c r="AG66" s="22"/>
-      <c r="AH66" s="22"/>
-      <c r="AI66" s="22"/>
-      <c r="AJ66" s="22"/>
-      <c r="AK66" s="22"/>
-      <c r="AL66" s="22"/>
-      <c r="AM66" s="22"/>
-      <c r="AN66" s="22"/>
-      <c r="AO66" s="22"/>
-      <c r="AP66" s="22"/>
-      <c r="AQ66" s="22"/>
-      <c r="AR66" s="22"/>
-      <c r="AS66" s="22"/>
-      <c r="AT66" s="22"/>
-      <c r="AU66" s="22"/>
-      <c r="AV66" s="22"/>
-      <c r="AW66" s="22"/>
-      <c r="AX66" s="22"/>
-      <c r="AY66" s="22"/>
-      <c r="AZ66" s="22"/>
-      <c r="BA66" s="22"/>
-      <c r="BB66" s="22"/>
-      <c r="BC66" s="22"/>
-      <c r="BD66" s="22"/>
-      <c r="BE66" s="22"/>
-      <c r="BF66" s="22"/>
-      <c r="BG66" s="22"/>
-      <c r="BH66" s="22"/>
-      <c r="BI66" s="22"/>
-      <c r="BJ66" s="22"/>
-      <c r="BK66" s="22"/>
-      <c r="BL66" s="22"/>
-      <c r="BM66" s="22"/>
-      <c r="BN66" s="22"/>
-    </row>
-    <row r="67" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K66" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L66" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M66" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N66" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O66" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="21"/>
+      <c r="W66" s="21"/>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="21"/>
+      <c r="Z66" s="21"/>
+      <c r="AA66" s="21"/>
+      <c r="AB66" s="21"/>
+      <c r="AC66" s="21"/>
+      <c r="AD66" s="21"/>
+      <c r="AE66" s="21"/>
+      <c r="AF66" s="21"/>
+      <c r="AG66" s="21"/>
+      <c r="AH66" s="21"/>
+      <c r="AI66" s="21"/>
+      <c r="AJ66" s="21"/>
+      <c r="AK66" s="21"/>
+      <c r="AL66" s="21"/>
+      <c r="AM66" s="21"/>
+      <c r="AN66" s="21"/>
+      <c r="AO66" s="21"/>
+      <c r="AP66" s="21"/>
+      <c r="AQ66" s="21"/>
+      <c r="AR66" s="21"/>
+      <c r="AS66" s="21"/>
+      <c r="AT66" s="21"/>
+      <c r="AU66" s="21"/>
+      <c r="AV66" s="21"/>
+      <c r="AW66" s="21"/>
+      <c r="AX66" s="21"/>
+      <c r="AY66" s="21"/>
+      <c r="AZ66" s="21"/>
+      <c r="BA66" s="21"/>
+      <c r="BB66" s="21"/>
+      <c r="BC66" s="21"/>
+      <c r="BD66" s="21"/>
+      <c r="BE66" s="21"/>
+      <c r="BF66" s="21"/>
+      <c r="BG66" s="21"/>
+      <c r="BH66" s="21"/>
+      <c r="BI66" s="21"/>
+      <c r="BJ66" s="21"/>
+      <c r="BK66" s="21"/>
+      <c r="BL66" s="21"/>
+      <c r="BM66" s="21"/>
+      <c r="BN66" s="21"/>
+    </row>
+    <row r="67" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>12</v>
@@ -27268,13 +27344,13 @@
         <v>7</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L67" s="25">
-        <v>1004</v>
+        <v>32</v>
+      </c>
+      <c r="L67" s="24">
+        <v>1003</v>
       </c>
       <c r="M67" s="32" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N67" s="30" t="s">
         <v>62</v>
@@ -27334,26 +27410,26 @@
       <c r="BM67" s="22"/>
       <c r="BN67" s="22"/>
     </row>
-    <row r="68" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="53" t="s">
+      <c r="C68" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="53" t="s">
+      <c r="E68" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F68" s="53" t="s">
+      <c r="F68" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G68" s="54">
+      <c r="G68" s="24">
         <v>400</v>
       </c>
       <c r="H68" s="58" t="s">
@@ -27362,46 +27438,97 @@
       <c r="I68" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J68" s="53" t="s">
+      <c r="J68" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K68" s="54" t="s">
+      <c r="K68" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L68" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M68" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N68" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O68" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L68" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M68" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O68" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="22"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="22"/>
+      <c r="AB68" s="22"/>
+      <c r="AC68" s="22"/>
+      <c r="AD68" s="22"/>
+      <c r="AE68" s="22"/>
+      <c r="AF68" s="22"/>
+      <c r="AG68" s="22"/>
+      <c r="AH68" s="22"/>
+      <c r="AI68" s="22"/>
+      <c r="AJ68" s="22"/>
+      <c r="AK68" s="22"/>
+      <c r="AL68" s="22"/>
+      <c r="AM68" s="22"/>
+      <c r="AN68" s="22"/>
+      <c r="AO68" s="22"/>
+      <c r="AP68" s="22"/>
+      <c r="AQ68" s="22"/>
+      <c r="AR68" s="22"/>
+      <c r="AS68" s="22"/>
+      <c r="AT68" s="22"/>
+      <c r="AU68" s="22"/>
+      <c r="AV68" s="22"/>
+      <c r="AW68" s="22"/>
+      <c r="AX68" s="22"/>
+      <c r="AY68" s="22"/>
+      <c r="AZ68" s="22"/>
+      <c r="BA68" s="22"/>
+      <c r="BB68" s="22"/>
+      <c r="BC68" s="22"/>
+      <c r="BD68" s="22"/>
+      <c r="BE68" s="22"/>
+      <c r="BF68" s="22"/>
+      <c r="BG68" s="22"/>
+      <c r="BH68" s="22"/>
+      <c r="BI68" s="22"/>
+      <c r="BJ68" s="22"/>
+      <c r="BK68" s="22"/>
+      <c r="BL68" s="22"/>
+      <c r="BM68" s="22"/>
+      <c r="BN68" s="22"/>
+    </row>
+    <row r="69" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="C69" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G69" s="24">
-        <v>403</v>
+      <c r="G69" s="54">
+        <v>400</v>
       </c>
       <c r="H69" s="58" t="s">
         <v>218</v>
@@ -27409,85 +27536,34 @@
       <c r="I69" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J69" s="24" t="s">
+      <c r="J69" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K69" s="24" t="s">
+      <c r="K69" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L69" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M69" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N69" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O69" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="22"/>
-      <c r="T69" s="22"/>
-      <c r="U69" s="22"/>
-      <c r="V69" s="22"/>
-      <c r="W69" s="22"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="22"/>
-      <c r="AA69" s="22"/>
-      <c r="AB69" s="22"/>
-      <c r="AC69" s="22"/>
-      <c r="AD69" s="22"/>
-      <c r="AE69" s="22"/>
-      <c r="AF69" s="22"/>
-      <c r="AG69" s="22"/>
-      <c r="AH69" s="22"/>
-      <c r="AI69" s="22"/>
-      <c r="AJ69" s="22"/>
-      <c r="AK69" s="22"/>
-      <c r="AL69" s="22"/>
-      <c r="AM69" s="22"/>
-      <c r="AN69" s="22"/>
-      <c r="AO69" s="22"/>
-      <c r="AP69" s="22"/>
-      <c r="AQ69" s="22"/>
-      <c r="AR69" s="22"/>
-      <c r="AS69" s="22"/>
-      <c r="AT69" s="22"/>
-      <c r="AU69" s="22"/>
-      <c r="AV69" s="22"/>
-      <c r="AW69" s="22"/>
-      <c r="AX69" s="22"/>
-      <c r="AY69" s="22"/>
-      <c r="AZ69" s="22"/>
-      <c r="BA69" s="22"/>
-      <c r="BB69" s="22"/>
-      <c r="BC69" s="22"/>
-      <c r="BD69" s="22"/>
-      <c r="BE69" s="22"/>
-      <c r="BF69" s="22"/>
-      <c r="BG69" s="22"/>
-      <c r="BH69" s="22"/>
-      <c r="BI69" s="22"/>
-      <c r="BJ69" s="22"/>
-      <c r="BK69" s="22"/>
-      <c r="BL69" s="22"/>
-      <c r="BM69" s="22"/>
-      <c r="BN69" s="22"/>
+      <c r="L69" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M69" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N69" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O69" s="63" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="70" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>12</v>
@@ -27511,13 +27587,13 @@
         <v>7</v>
       </c>
       <c r="K70" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L70" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M70" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N70" s="30" t="s">
         <v>62</v>
@@ -27579,13 +27655,13 @@
     </row>
     <row r="71" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>12</v>
@@ -27612,10 +27688,10 @@
         <v>32</v>
       </c>
       <c r="L71" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M71" s="32" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N71" s="30" t="s">
         <v>62</v>
@@ -27677,15 +27753,15 @@
     </row>
     <row r="72" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D72" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="4" t="s">
@@ -27707,19 +27783,19 @@
         <v>7</v>
       </c>
       <c r="K72" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L72" s="24">
-        <v>1011</v>
+        <v>32</v>
+      </c>
+      <c r="L72" s="25">
+        <v>1008</v>
       </c>
       <c r="M72" s="32" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="N72" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O72" s="30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P72" s="22"/>
       <c r="Q72" s="22"/>
@@ -27775,15 +27851,15 @@
     </row>
     <row r="73" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D73" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="4" t="s">
@@ -27793,7 +27869,7 @@
         <v>142</v>
       </c>
       <c r="G73" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H73" s="58" t="s">
         <v>218</v>
@@ -27801,23 +27877,23 @@
       <c r="I73" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="J73" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="K73" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L73" s="4">
-        <v>2501</v>
-      </c>
-      <c r="M73" s="30" t="s">
-        <v>42</v>
+      <c r="L73" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M73" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N73" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O73" s="30" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="P73" s="22"/>
       <c r="Q73" s="22"/>
@@ -27871,94 +27947,122 @@
       <c r="BM73" s="22"/>
       <c r="BN73" s="22"/>
     </row>
-    <row r="74" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="99" t="s">
+    <row r="74" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>61</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" s="24">
+        <v>404</v>
+      </c>
+      <c r="H74" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I74" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L74" s="4">
+        <v>2501</v>
+      </c>
+      <c r="M74" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="N74" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="O74" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="22"/>
+      <c r="U74" s="22"/>
+      <c r="V74" s="22"/>
+      <c r="W74" s="22"/>
+      <c r="X74" s="22"/>
+      <c r="Y74" s="22"/>
+      <c r="Z74" s="22"/>
+      <c r="AA74" s="22"/>
+      <c r="AB74" s="22"/>
+      <c r="AC74" s="22"/>
+      <c r="AD74" s="22"/>
+      <c r="AE74" s="22"/>
+      <c r="AF74" s="22"/>
+      <c r="AG74" s="22"/>
+      <c r="AH74" s="22"/>
+      <c r="AI74" s="22"/>
+      <c r="AJ74" s="22"/>
+      <c r="AK74" s="22"/>
+      <c r="AL74" s="22"/>
+      <c r="AM74" s="22"/>
+      <c r="AN74" s="22"/>
+      <c r="AO74" s="22"/>
+      <c r="AP74" s="22"/>
+      <c r="AQ74" s="22"/>
+      <c r="AR74" s="22"/>
+      <c r="AS74" s="22"/>
+      <c r="AT74" s="22"/>
+      <c r="AU74" s="22"/>
+      <c r="AV74" s="22"/>
+      <c r="AW74" s="22"/>
+      <c r="AX74" s="22"/>
+      <c r="AY74" s="22"/>
+      <c r="AZ74" s="22"/>
+      <c r="BA74" s="22"/>
+      <c r="BB74" s="22"/>
+      <c r="BC74" s="22"/>
+      <c r="BD74" s="22"/>
+      <c r="BE74" s="22"/>
+      <c r="BF74" s="22"/>
+      <c r="BG74" s="22"/>
+      <c r="BH74" s="22"/>
+      <c r="BI74" s="22"/>
+      <c r="BJ74" s="22"/>
+      <c r="BK74" s="22"/>
+      <c r="BL74" s="22"/>
+      <c r="BM74" s="22"/>
+      <c r="BN74" s="22"/>
+    </row>
+    <row r="75" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="99"/>
-      <c r="K74" s="99"/>
-      <c r="L74" s="99"/>
-      <c r="M74" s="99"/>
-      <c r="N74" s="99"/>
-      <c r="O74" s="99"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
-      <c r="V74" s="21"/>
-      <c r="W74" s="21"/>
-      <c r="X74" s="21"/>
-      <c r="Y74" s="21"/>
-      <c r="Z74" s="21"/>
-      <c r="AA74" s="21"/>
-      <c r="AB74" s="21"/>
-      <c r="AC74" s="21"/>
-      <c r="AD74" s="21"/>
-      <c r="AE74" s="21"/>
-      <c r="AF74" s="21"/>
-      <c r="AG74" s="21"/>
-      <c r="AH74" s="21"/>
-      <c r="AI74" s="21"/>
-      <c r="AJ74" s="21"/>
-      <c r="AK74" s="21"/>
-      <c r="AL74" s="21"/>
-      <c r="AM74" s="21"/>
-      <c r="AN74" s="21"/>
-      <c r="AO74" s="21"/>
-      <c r="AP74" s="21"/>
-      <c r="AQ74" s="21"/>
-      <c r="AR74" s="21"/>
-      <c r="AS74" s="21"/>
-      <c r="AT74" s="21"/>
-      <c r="AU74" s="21"/>
-      <c r="AV74" s="21"/>
-      <c r="AW74" s="21"/>
-      <c r="AX74" s="21"/>
-      <c r="AY74" s="21"/>
-      <c r="AZ74" s="21"/>
-      <c r="BA74" s="21"/>
-      <c r="BB74" s="21"/>
-      <c r="BC74" s="21"/>
-      <c r="BD74" s="21"/>
-      <c r="BE74" s="21"/>
-      <c r="BF74" s="21"/>
-      <c r="BG74" s="21"/>
-      <c r="BH74" s="21"/>
-      <c r="BI74" s="21"/>
-      <c r="BJ74" s="21"/>
-      <c r="BK74" s="21"/>
-      <c r="BL74" s="21"/>
-      <c r="BM74" s="21"/>
-      <c r="BN74" s="21"/>
-    </row>
-    <row r="75" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="100"/>
-      <c r="C75" s="100"/>
-      <c r="D75" s="100"/>
-      <c r="E75" s="100"/>
-      <c r="F75" s="100"/>
-      <c r="G75" s="100"/>
-      <c r="H75" s="100"/>
-      <c r="I75" s="100"/>
-      <c r="J75" s="100"/>
-      <c r="K75" s="100"/>
-      <c r="L75" s="100"/>
-      <c r="M75" s="100"/>
-      <c r="N75" s="100"/>
-      <c r="O75" s="100"/>
+      <c r="B75" s="99"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="99"/>
+      <c r="K75" s="99"/>
+      <c r="L75" s="99"/>
+      <c r="M75" s="99"/>
+      <c r="N75" s="99"/>
+      <c r="O75" s="99"/>
       <c r="P75" s="21"/>
       <c r="Q75" s="21"/>
       <c r="R75" s="21"/>
@@ -28011,52 +28115,24 @@
       <c r="BM75" s="21"/>
       <c r="BN75" s="21"/>
     </row>
-    <row r="76" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="92">
+    <row r="76" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C76" s="93" t="s">
-        <v>256</v>
-      </c>
-      <c r="D76" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F76" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="G76" s="92">
-        <v>403</v>
-      </c>
-      <c r="H76" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I76" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J76" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="K76" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="L76" s="92">
-        <v>1111</v>
-      </c>
-      <c r="M76" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="N76" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O76" s="30" t="s">
-        <v>61</v>
-      </c>
+      <c r="B76" s="100"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100"/>
+      <c r="H76" s="100"/>
+      <c r="I76" s="100"/>
+      <c r="J76" s="100"/>
+      <c r="K76" s="100"/>
+      <c r="L76" s="100"/>
+      <c r="M76" s="100"/>
+      <c r="N76" s="100"/>
+      <c r="O76" s="100"/>
       <c r="P76" s="21"/>
       <c r="Q76" s="21"/>
       <c r="R76" s="21"/>
@@ -28109,15 +28185,15 @@
       <c r="BM76" s="21"/>
       <c r="BN76" s="21"/>
     </row>
-    <row r="77" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="92">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B77" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C77" s="93" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D77" s="92" t="s">
         <v>12</v>
@@ -28144,16 +28220,16 @@
         <v>34</v>
       </c>
       <c r="L77" s="92">
-        <v>1016</v>
+        <v>1111</v>
       </c>
       <c r="M77" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N77" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O77" s="93" t="s">
-        <v>12</v>
+        <v>255</v>
+      </c>
+      <c r="N77" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O77" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="P77" s="21"/>
       <c r="Q77" s="21"/>
@@ -28207,50 +28283,50 @@
       <c r="BM77" s="21"/>
       <c r="BN77" s="21"/>
     </row>
-    <row r="78" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
-        <v>62</v>
+    <row r="78" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="92">
+        <v>146</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C78" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="C78" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G78" s="24">
-        <v>401</v>
-      </c>
-      <c r="H78" s="58" t="s">
+      <c r="G78" s="92">
+        <v>403</v>
+      </c>
+      <c r="H78" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I78" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J78" s="4" t="s">
+      <c r="J78" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="K78" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L78" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M78" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N78" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O78" s="49" t="s">
+      <c r="L78" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M78" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N78" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O78" s="93" t="s">
         <v>12</v>
       </c>
       <c r="P78" s="21"/>
@@ -28305,15 +28381,15 @@
       <c r="BM78" s="21"/>
       <c r="BN78" s="21"/>
     </row>
-    <row r="79" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
@@ -28340,15 +28416,15 @@
         <v>34</v>
       </c>
       <c r="L79" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M79" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N79" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O79" s="47" t="s">
+      <c r="O79" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P79" s="21"/>
@@ -28403,15 +28479,15 @@
       <c r="BM79" s="21"/>
       <c r="BN79" s="21"/>
     </row>
-    <row r="80" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>12</v>
@@ -28423,7 +28499,7 @@
         <v>142</v>
       </c>
       <c r="G80" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H80" s="58" t="s">
         <v>218</v>
@@ -28431,85 +28507,85 @@
       <c r="I80" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J80" s="25" t="s">
+      <c r="J80" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K80" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" s="25">
-        <v>1003</v>
-      </c>
-      <c r="M80" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="N80" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="22"/>
-      <c r="S80" s="22"/>
-      <c r="T80" s="22"/>
-      <c r="U80" s="22"/>
-      <c r="V80" s="22"/>
-      <c r="W80" s="22"/>
-      <c r="X80" s="22"/>
-      <c r="Y80" s="22"/>
-      <c r="Z80" s="22"/>
-      <c r="AA80" s="22"/>
-      <c r="AB80" s="22"/>
-      <c r="AC80" s="22"/>
-      <c r="AD80" s="22"/>
-      <c r="AE80" s="22"/>
-      <c r="AF80" s="22"/>
-      <c r="AG80" s="22"/>
-      <c r="AH80" s="22"/>
-      <c r="AI80" s="22"/>
-      <c r="AJ80" s="22"/>
-      <c r="AK80" s="22"/>
-      <c r="AL80" s="22"/>
-      <c r="AM80" s="22"/>
-      <c r="AN80" s="22"/>
-      <c r="AO80" s="22"/>
-      <c r="AP80" s="22"/>
-      <c r="AQ80" s="22"/>
-      <c r="AR80" s="22"/>
-      <c r="AS80" s="22"/>
-      <c r="AT80" s="22"/>
-      <c r="AU80" s="22"/>
-      <c r="AV80" s="22"/>
-      <c r="AW80" s="22"/>
-      <c r="AX80" s="22"/>
-      <c r="AY80" s="22"/>
-      <c r="AZ80" s="22"/>
-      <c r="BA80" s="22"/>
-      <c r="BB80" s="22"/>
-      <c r="BC80" s="22"/>
-      <c r="BD80" s="22"/>
-      <c r="BE80" s="22"/>
-      <c r="BF80" s="22"/>
-      <c r="BG80" s="22"/>
-      <c r="BH80" s="22"/>
-      <c r="BI80" s="22"/>
-      <c r="BJ80" s="22"/>
-      <c r="BK80" s="22"/>
-      <c r="BL80" s="22"/>
-      <c r="BM80" s="22"/>
-      <c r="BN80" s="22"/>
-    </row>
-    <row r="81" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L80" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M80" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N80" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O80" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="21"/>
+      <c r="U80" s="21"/>
+      <c r="V80" s="21"/>
+      <c r="W80" s="21"/>
+      <c r="X80" s="21"/>
+      <c r="Y80" s="21"/>
+      <c r="Z80" s="21"/>
+      <c r="AA80" s="21"/>
+      <c r="AB80" s="21"/>
+      <c r="AC80" s="21"/>
+      <c r="AD80" s="21"/>
+      <c r="AE80" s="21"/>
+      <c r="AF80" s="21"/>
+      <c r="AG80" s="21"/>
+      <c r="AH80" s="21"/>
+      <c r="AI80" s="21"/>
+      <c r="AJ80" s="21"/>
+      <c r="AK80" s="21"/>
+      <c r="AL80" s="21"/>
+      <c r="AM80" s="21"/>
+      <c r="AN80" s="21"/>
+      <c r="AO80" s="21"/>
+      <c r="AP80" s="21"/>
+      <c r="AQ80" s="21"/>
+      <c r="AR80" s="21"/>
+      <c r="AS80" s="21"/>
+      <c r="AT80" s="21"/>
+      <c r="AU80" s="21"/>
+      <c r="AV80" s="21"/>
+      <c r="AW80" s="21"/>
+      <c r="AX80" s="21"/>
+      <c r="AY80" s="21"/>
+      <c r="AZ80" s="21"/>
+      <c r="BA80" s="21"/>
+      <c r="BB80" s="21"/>
+      <c r="BC80" s="21"/>
+      <c r="BD80" s="21"/>
+      <c r="BE80" s="21"/>
+      <c r="BF80" s="21"/>
+      <c r="BG80" s="21"/>
+      <c r="BH80" s="21"/>
+      <c r="BI80" s="21"/>
+      <c r="BJ80" s="21"/>
+      <c r="BK80" s="21"/>
+      <c r="BL80" s="21"/>
+      <c r="BM80" s="21"/>
+      <c r="BN80" s="21"/>
+    </row>
+    <row r="81" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>12</v>
@@ -28529,22 +28605,22 @@
       <c r="I81" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J81" s="24" t="s">
+      <c r="J81" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L81" s="25">
-        <v>1004</v>
-      </c>
-      <c r="M81" s="30" t="s">
-        <v>25</v>
+        <v>1003</v>
+      </c>
+      <c r="M81" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="N81" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="O81" s="30" t="s">
+      <c r="O81" s="4" t="s">
         <v>45</v>
       </c>
       <c r="P81" s="22"/>
@@ -28599,26 +28675,26 @@
       <c r="BM81" s="22"/>
       <c r="BN81" s="22"/>
     </row>
-    <row r="82" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C82" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D82" s="53" t="s">
+      <c r="C82" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="53" t="s">
+      <c r="E82" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F82" s="53" t="s">
+      <c r="F82" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G82" s="54">
+      <c r="G82" s="24">
         <v>400</v>
       </c>
       <c r="H82" s="58" t="s">
@@ -28627,46 +28703,97 @@
       <c r="I82" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J82" s="53" t="s">
+      <c r="J82" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K82" s="54" t="s">
+      <c r="K82" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L82" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M82" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N82" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O82" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L82" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M82" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O82" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="22"/>
+      <c r="U82" s="22"/>
+      <c r="V82" s="22"/>
+      <c r="W82" s="22"/>
+      <c r="X82" s="22"/>
+      <c r="Y82" s="22"/>
+      <c r="Z82" s="22"/>
+      <c r="AA82" s="22"/>
+      <c r="AB82" s="22"/>
+      <c r="AC82" s="22"/>
+      <c r="AD82" s="22"/>
+      <c r="AE82" s="22"/>
+      <c r="AF82" s="22"/>
+      <c r="AG82" s="22"/>
+      <c r="AH82" s="22"/>
+      <c r="AI82" s="22"/>
+      <c r="AJ82" s="22"/>
+      <c r="AK82" s="22"/>
+      <c r="AL82" s="22"/>
+      <c r="AM82" s="22"/>
+      <c r="AN82" s="22"/>
+      <c r="AO82" s="22"/>
+      <c r="AP82" s="22"/>
+      <c r="AQ82" s="22"/>
+      <c r="AR82" s="22"/>
+      <c r="AS82" s="22"/>
+      <c r="AT82" s="22"/>
+      <c r="AU82" s="22"/>
+      <c r="AV82" s="22"/>
+      <c r="AW82" s="22"/>
+      <c r="AX82" s="22"/>
+      <c r="AY82" s="22"/>
+      <c r="AZ82" s="22"/>
+      <c r="BA82" s="22"/>
+      <c r="BB82" s="22"/>
+      <c r="BC82" s="22"/>
+      <c r="BD82" s="22"/>
+      <c r="BE82" s="22"/>
+      <c r="BF82" s="22"/>
+      <c r="BG82" s="22"/>
+      <c r="BH82" s="22"/>
+      <c r="BI82" s="22"/>
+      <c r="BJ82" s="22"/>
+      <c r="BK82" s="22"/>
+      <c r="BL82" s="22"/>
+      <c r="BM82" s="22"/>
+      <c r="BN82" s="22"/>
+    </row>
+    <row r="83" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B83" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D83" s="4" t="s">
+      <c r="C83" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G83" s="24">
-        <v>403</v>
+      <c r="G83" s="54">
+        <v>400</v>
       </c>
       <c r="H83" s="58" t="s">
         <v>218</v>
@@ -28674,85 +28801,34 @@
       <c r="I83" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J83" s="24" t="s">
+      <c r="J83" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K83" s="24" t="s">
+      <c r="K83" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L83" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M83" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N83" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O83" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="22"/>
-      <c r="T83" s="22"/>
-      <c r="U83" s="22"/>
-      <c r="V83" s="22"/>
-      <c r="W83" s="22"/>
-      <c r="X83" s="22"/>
-      <c r="Y83" s="22"/>
-      <c r="Z83" s="22"/>
-      <c r="AA83" s="22"/>
-      <c r="AB83" s="22"/>
-      <c r="AC83" s="22"/>
-      <c r="AD83" s="22"/>
-      <c r="AE83" s="22"/>
-      <c r="AF83" s="22"/>
-      <c r="AG83" s="22"/>
-      <c r="AH83" s="22"/>
-      <c r="AI83" s="22"/>
-      <c r="AJ83" s="22"/>
-      <c r="AK83" s="22"/>
-      <c r="AL83" s="22"/>
-      <c r="AM83" s="22"/>
-      <c r="AN83" s="22"/>
-      <c r="AO83" s="22"/>
-      <c r="AP83" s="22"/>
-      <c r="AQ83" s="22"/>
-      <c r="AR83" s="22"/>
-      <c r="AS83" s="22"/>
-      <c r="AT83" s="22"/>
-      <c r="AU83" s="22"/>
-      <c r="AV83" s="22"/>
-      <c r="AW83" s="22"/>
-      <c r="AX83" s="22"/>
-      <c r="AY83" s="22"/>
-      <c r="AZ83" s="22"/>
-      <c r="BA83" s="22"/>
-      <c r="BB83" s="22"/>
-      <c r="BC83" s="22"/>
-      <c r="BD83" s="22"/>
-      <c r="BE83" s="22"/>
-      <c r="BF83" s="22"/>
-      <c r="BG83" s="22"/>
-      <c r="BH83" s="22"/>
-      <c r="BI83" s="22"/>
-      <c r="BJ83" s="22"/>
-      <c r="BK83" s="22"/>
-      <c r="BL83" s="22"/>
-      <c r="BM83" s="22"/>
-      <c r="BN83" s="22"/>
+      <c r="L83" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M83" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N83" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O83" s="63" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="84" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>12</v>
@@ -28776,13 +28852,13 @@
         <v>7</v>
       </c>
       <c r="K84" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L84" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M84" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N84" s="30" t="s">
         <v>62</v>
@@ -28844,13 +28920,13 @@
     </row>
     <row r="85" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>12</v>
@@ -28877,10 +28953,10 @@
         <v>32</v>
       </c>
       <c r="L85" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M85" s="30" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N85" s="30" t="s">
         <v>62</v>
@@ -28942,15 +29018,15 @@
     </row>
     <row r="86" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D86" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="4" t="s">
@@ -28972,19 +29048,19 @@
         <v>7</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L86" s="24">
-        <v>1011</v>
-      </c>
-      <c r="M86" s="32" t="s">
-        <v>204</v>
+        <v>32</v>
+      </c>
+      <c r="L86" s="25">
+        <v>1008</v>
+      </c>
+      <c r="M86" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="N86" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O86" s="30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P86" s="22"/>
       <c r="Q86" s="22"/>
@@ -29040,15 +29116,15 @@
     </row>
     <row r="87" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -29058,7 +29134,7 @@
         <v>142</v>
       </c>
       <c r="G87" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H87" s="58" t="s">
         <v>218</v>
@@ -29066,23 +29142,23 @@
       <c r="I87" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J87" s="4" t="s">
+      <c r="J87" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K87" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L87" s="10">
-        <v>2506</v>
-      </c>
-      <c r="M87" s="30" t="s">
-        <v>41</v>
+      <c r="K87" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L87" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M87" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N87" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O87" s="30" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="P87" s="22"/>
       <c r="Q87" s="22"/>
@@ -29136,94 +29212,122 @@
       <c r="BM87" s="22"/>
       <c r="BN87" s="22"/>
     </row>
-    <row r="88" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="99" t="s">
+    <row r="88" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>71</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G88" s="24">
+        <v>404</v>
+      </c>
+      <c r="H88" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I88" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L88" s="10">
+        <v>2506</v>
+      </c>
+      <c r="M88" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N88" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O88" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="P88" s="22"/>
+      <c r="Q88" s="22"/>
+      <c r="R88" s="22"/>
+      <c r="S88" s="22"/>
+      <c r="T88" s="22"/>
+      <c r="U88" s="22"/>
+      <c r="V88" s="22"/>
+      <c r="W88" s="22"/>
+      <c r="X88" s="22"/>
+      <c r="Y88" s="22"/>
+      <c r="Z88" s="22"/>
+      <c r="AA88" s="22"/>
+      <c r="AB88" s="22"/>
+      <c r="AC88" s="22"/>
+      <c r="AD88" s="22"/>
+      <c r="AE88" s="22"/>
+      <c r="AF88" s="22"/>
+      <c r="AG88" s="22"/>
+      <c r="AH88" s="22"/>
+      <c r="AI88" s="22"/>
+      <c r="AJ88" s="22"/>
+      <c r="AK88" s="22"/>
+      <c r="AL88" s="22"/>
+      <c r="AM88" s="22"/>
+      <c r="AN88" s="22"/>
+      <c r="AO88" s="22"/>
+      <c r="AP88" s="22"/>
+      <c r="AQ88" s="22"/>
+      <c r="AR88" s="22"/>
+      <c r="AS88" s="22"/>
+      <c r="AT88" s="22"/>
+      <c r="AU88" s="22"/>
+      <c r="AV88" s="22"/>
+      <c r="AW88" s="22"/>
+      <c r="AX88" s="22"/>
+      <c r="AY88" s="22"/>
+      <c r="AZ88" s="22"/>
+      <c r="BA88" s="22"/>
+      <c r="BB88" s="22"/>
+      <c r="BC88" s="22"/>
+      <c r="BD88" s="22"/>
+      <c r="BE88" s="22"/>
+      <c r="BF88" s="22"/>
+      <c r="BG88" s="22"/>
+      <c r="BH88" s="22"/>
+      <c r="BI88" s="22"/>
+      <c r="BJ88" s="22"/>
+      <c r="BK88" s="22"/>
+      <c r="BL88" s="22"/>
+      <c r="BM88" s="22"/>
+      <c r="BN88" s="22"/>
+    </row>
+    <row r="89" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="B88" s="99"/>
-      <c r="C88" s="99"/>
-      <c r="D88" s="99"/>
-      <c r="E88" s="99"/>
-      <c r="F88" s="99"/>
-      <c r="G88" s="99"/>
-      <c r="H88" s="99"/>
-      <c r="I88" s="99"/>
-      <c r="J88" s="99"/>
-      <c r="K88" s="99"/>
-      <c r="L88" s="99"/>
-      <c r="M88" s="99"/>
-      <c r="N88" s="99"/>
-      <c r="O88" s="99"/>
-      <c r="P88" s="21"/>
-      <c r="Q88" s="21"/>
-      <c r="R88" s="21"/>
-      <c r="S88" s="21"/>
-      <c r="T88" s="21"/>
-      <c r="U88" s="21"/>
-      <c r="V88" s="21"/>
-      <c r="W88" s="21"/>
-      <c r="X88" s="21"/>
-      <c r="Y88" s="21"/>
-      <c r="Z88" s="21"/>
-      <c r="AA88" s="21"/>
-      <c r="AB88" s="21"/>
-      <c r="AC88" s="21"/>
-      <c r="AD88" s="21"/>
-      <c r="AE88" s="21"/>
-      <c r="AF88" s="21"/>
-      <c r="AG88" s="21"/>
-      <c r="AH88" s="21"/>
-      <c r="AI88" s="21"/>
-      <c r="AJ88" s="21"/>
-      <c r="AK88" s="21"/>
-      <c r="AL88" s="21"/>
-      <c r="AM88" s="21"/>
-      <c r="AN88" s="21"/>
-      <c r="AO88" s="21"/>
-      <c r="AP88" s="21"/>
-      <c r="AQ88" s="21"/>
-      <c r="AR88" s="21"/>
-      <c r="AS88" s="21"/>
-      <c r="AT88" s="21"/>
-      <c r="AU88" s="21"/>
-      <c r="AV88" s="21"/>
-      <c r="AW88" s="21"/>
-      <c r="AX88" s="21"/>
-      <c r="AY88" s="21"/>
-      <c r="AZ88" s="21"/>
-      <c r="BA88" s="21"/>
-      <c r="BB88" s="21"/>
-      <c r="BC88" s="21"/>
-      <c r="BD88" s="21"/>
-      <c r="BE88" s="21"/>
-      <c r="BF88" s="21"/>
-      <c r="BG88" s="21"/>
-      <c r="BH88" s="21"/>
-      <c r="BI88" s="21"/>
-      <c r="BJ88" s="21"/>
-      <c r="BK88" s="21"/>
-      <c r="BL88" s="21"/>
-      <c r="BM88" s="21"/>
-      <c r="BN88" s="21"/>
-    </row>
-    <row r="89" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B89" s="100"/>
-      <c r="C89" s="100"/>
-      <c r="D89" s="100"/>
-      <c r="E89" s="100"/>
-      <c r="F89" s="100"/>
-      <c r="G89" s="100"/>
-      <c r="H89" s="100"/>
-      <c r="I89" s="100"/>
-      <c r="J89" s="100"/>
-      <c r="K89" s="100"/>
-      <c r="L89" s="100"/>
-      <c r="M89" s="100"/>
-      <c r="N89" s="100"/>
-      <c r="O89" s="100"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="99"/>
+      <c r="F89" s="99"/>
+      <c r="G89" s="99"/>
+      <c r="H89" s="99"/>
+      <c r="I89" s="99"/>
+      <c r="J89" s="99"/>
+      <c r="K89" s="99"/>
+      <c r="L89" s="99"/>
+      <c r="M89" s="99"/>
+      <c r="N89" s="99"/>
+      <c r="O89" s="99"/>
       <c r="P89" s="21"/>
       <c r="Q89" s="21"/>
       <c r="R89" s="21"/>
@@ -29276,52 +29380,24 @@
       <c r="BM89" s="21"/>
       <c r="BN89" s="21"/>
     </row>
-    <row r="90" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="92">
-        <v>146</v>
-      </c>
-      <c r="B90" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C90" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D90" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F90" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="G90" s="92">
-        <v>403</v>
-      </c>
-      <c r="H90" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I90" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J90" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="K90" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="L90" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M90" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N90" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O90" s="93" t="s">
-        <v>12</v>
-      </c>
+    <row r="90" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="100"/>
+      <c r="C90" s="100"/>
+      <c r="D90" s="100"/>
+      <c r="E90" s="100"/>
+      <c r="F90" s="100"/>
+      <c r="G90" s="100"/>
+      <c r="H90" s="100"/>
+      <c r="I90" s="100"/>
+      <c r="J90" s="100"/>
+      <c r="K90" s="100"/>
+      <c r="L90" s="100"/>
+      <c r="M90" s="100"/>
+      <c r="N90" s="100"/>
+      <c r="O90" s="100"/>
       <c r="P90" s="21"/>
       <c r="Q90" s="21"/>
       <c r="R90" s="21"/>
@@ -29374,50 +29450,50 @@
       <c r="BM90" s="21"/>
       <c r="BN90" s="21"/>
     </row>
-    <row r="91" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
-        <v>72</v>
+    <row r="91" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="92">
+        <v>146</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C91" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D91" s="4" t="s">
+      <c r="C91" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D91" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G91" s="24">
-        <v>401</v>
-      </c>
-      <c r="H91" s="58" t="s">
+      <c r="G91" s="92">
+        <v>403</v>
+      </c>
+      <c r="H91" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I91" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="J91" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="K91" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L91" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M91" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N91" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O91" s="49" t="s">
+      <c r="L91" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M91" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N91" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O91" s="93" t="s">
         <v>12</v>
       </c>
       <c r="P91" s="21"/>
@@ -29472,15 +29548,15 @@
       <c r="BM91" s="21"/>
       <c r="BN91" s="21"/>
     </row>
-    <row r="92" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>12</v>
@@ -29507,15 +29583,15 @@
         <v>34</v>
       </c>
       <c r="L92" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M92" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N92" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O92" s="47" t="s">
+      <c r="O92" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P92" s="21"/>
@@ -29570,15 +29646,15 @@
       <c r="BM92" s="21"/>
       <c r="BN92" s="21"/>
     </row>
-    <row r="93" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B93" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>12</v>
@@ -29590,7 +29666,7 @@
         <v>142</v>
       </c>
       <c r="G93" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H93" s="58" t="s">
         <v>218</v>
@@ -29602,81 +29678,81 @@
         <v>7</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L93" s="10">
-        <v>1003</v>
-      </c>
-      <c r="M93" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N93" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="O93" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="22"/>
-      <c r="S93" s="22"/>
-      <c r="T93" s="22"/>
-      <c r="U93" s="22"/>
-      <c r="V93" s="22"/>
-      <c r="W93" s="22"/>
-      <c r="X93" s="22"/>
-      <c r="Y93" s="22"/>
-      <c r="Z93" s="22"/>
-      <c r="AA93" s="22"/>
-      <c r="AB93" s="22"/>
-      <c r="AC93" s="22"/>
-      <c r="AD93" s="22"/>
-      <c r="AE93" s="22"/>
-      <c r="AF93" s="22"/>
-      <c r="AG93" s="22"/>
-      <c r="AH93" s="22"/>
-      <c r="AI93" s="22"/>
-      <c r="AJ93" s="22"/>
-      <c r="AK93" s="22"/>
-      <c r="AL93" s="22"/>
-      <c r="AM93" s="22"/>
-      <c r="AN93" s="22"/>
-      <c r="AO93" s="22"/>
-      <c r="AP93" s="22"/>
-      <c r="AQ93" s="22"/>
-      <c r="AR93" s="22"/>
-      <c r="AS93" s="22"/>
-      <c r="AT93" s="22"/>
-      <c r="AU93" s="22"/>
-      <c r="AV93" s="22"/>
-      <c r="AW93" s="22"/>
-      <c r="AX93" s="22"/>
-      <c r="AY93" s="22"/>
-      <c r="AZ93" s="22"/>
-      <c r="BA93" s="22"/>
-      <c r="BB93" s="22"/>
-      <c r="BC93" s="22"/>
-      <c r="BD93" s="22"/>
-      <c r="BE93" s="22"/>
-      <c r="BF93" s="22"/>
-      <c r="BG93" s="22"/>
-      <c r="BH93" s="22"/>
-      <c r="BI93" s="22"/>
-      <c r="BJ93" s="22"/>
-      <c r="BK93" s="22"/>
-      <c r="BL93" s="22"/>
-      <c r="BM93" s="22"/>
-      <c r="BN93" s="22"/>
-    </row>
-    <row r="94" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="L93" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M93" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N93" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O93" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
+      <c r="U93" s="21"/>
+      <c r="V93" s="21"/>
+      <c r="W93" s="21"/>
+      <c r="X93" s="21"/>
+      <c r="Y93" s="21"/>
+      <c r="Z93" s="21"/>
+      <c r="AA93" s="21"/>
+      <c r="AB93" s="21"/>
+      <c r="AC93" s="21"/>
+      <c r="AD93" s="21"/>
+      <c r="AE93" s="21"/>
+      <c r="AF93" s="21"/>
+      <c r="AG93" s="21"/>
+      <c r="AH93" s="21"/>
+      <c r="AI93" s="21"/>
+      <c r="AJ93" s="21"/>
+      <c r="AK93" s="21"/>
+      <c r="AL93" s="21"/>
+      <c r="AM93" s="21"/>
+      <c r="AN93" s="21"/>
+      <c r="AO93" s="21"/>
+      <c r="AP93" s="21"/>
+      <c r="AQ93" s="21"/>
+      <c r="AR93" s="21"/>
+      <c r="AS93" s="21"/>
+      <c r="AT93" s="21"/>
+      <c r="AU93" s="21"/>
+      <c r="AV93" s="21"/>
+      <c r="AW93" s="21"/>
+      <c r="AX93" s="21"/>
+      <c r="AY93" s="21"/>
+      <c r="AZ93" s="21"/>
+      <c r="BA93" s="21"/>
+      <c r="BB93" s="21"/>
+      <c r="BC93" s="21"/>
+      <c r="BD93" s="21"/>
+      <c r="BE93" s="21"/>
+      <c r="BF93" s="21"/>
+      <c r="BG93" s="21"/>
+      <c r="BH93" s="21"/>
+      <c r="BI93" s="21"/>
+      <c r="BJ93" s="21"/>
+      <c r="BK93" s="21"/>
+      <c r="BL93" s="21"/>
+      <c r="BM93" s="21"/>
+      <c r="BN93" s="21"/>
+    </row>
+    <row r="94" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B94" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>150</v>
+      <c r="C94" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>12</v>
@@ -29700,13 +29776,13 @@
         <v>7</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L94" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M94" s="30" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N94" s="30" t="s">
         <v>133</v>
@@ -29766,15 +29842,15 @@
       <c r="BM94" s="22"/>
       <c r="BN94" s="22"/>
     </row>
-    <row r="95" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>12</v>
@@ -29798,13 +29874,13 @@
         <v>7</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L95" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M95" s="30" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N95" s="30" t="s">
         <v>133</v>
@@ -29864,26 +29940,26 @@
       <c r="BM95" s="22"/>
       <c r="BN95" s="22"/>
     </row>
-    <row r="96" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C96" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D96" s="53" t="s">
+      <c r="C96" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="53" t="s">
+      <c r="E96" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F96" s="53" t="s">
+      <c r="F96" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G96" s="54">
+      <c r="G96" s="24">
         <v>400</v>
       </c>
       <c r="H96" s="58" t="s">
@@ -29892,46 +29968,97 @@
       <c r="I96" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J96" s="53" t="s">
+      <c r="J96" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K96" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="L96" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M96" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N96" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O96" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K96" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L96" s="10">
+        <v>1005</v>
+      </c>
+      <c r="M96" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N96" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O96" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P96" s="22"/>
+      <c r="Q96" s="22"/>
+      <c r="R96" s="22"/>
+      <c r="S96" s="22"/>
+      <c r="T96" s="22"/>
+      <c r="U96" s="22"/>
+      <c r="V96" s="22"/>
+      <c r="W96" s="22"/>
+      <c r="X96" s="22"/>
+      <c r="Y96" s="22"/>
+      <c r="Z96" s="22"/>
+      <c r="AA96" s="22"/>
+      <c r="AB96" s="22"/>
+      <c r="AC96" s="22"/>
+      <c r="AD96" s="22"/>
+      <c r="AE96" s="22"/>
+      <c r="AF96" s="22"/>
+      <c r="AG96" s="22"/>
+      <c r="AH96" s="22"/>
+      <c r="AI96" s="22"/>
+      <c r="AJ96" s="22"/>
+      <c r="AK96" s="22"/>
+      <c r="AL96" s="22"/>
+      <c r="AM96" s="22"/>
+      <c r="AN96" s="22"/>
+      <c r="AO96" s="22"/>
+      <c r="AP96" s="22"/>
+      <c r="AQ96" s="22"/>
+      <c r="AR96" s="22"/>
+      <c r="AS96" s="22"/>
+      <c r="AT96" s="22"/>
+      <c r="AU96" s="22"/>
+      <c r="AV96" s="22"/>
+      <c r="AW96" s="22"/>
+      <c r="AX96" s="22"/>
+      <c r="AY96" s="22"/>
+      <c r="AZ96" s="22"/>
+      <c r="BA96" s="22"/>
+      <c r="BB96" s="22"/>
+      <c r="BC96" s="22"/>
+      <c r="BD96" s="22"/>
+      <c r="BE96" s="22"/>
+      <c r="BF96" s="22"/>
+      <c r="BG96" s="22"/>
+      <c r="BH96" s="22"/>
+      <c r="BI96" s="22"/>
+      <c r="BJ96" s="22"/>
+      <c r="BK96" s="22"/>
+      <c r="BL96" s="22"/>
+      <c r="BM96" s="22"/>
+      <c r="BN96" s="22"/>
+    </row>
+    <row r="97" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D97" s="4" t="s">
+      <c r="C97" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D97" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G97" s="24">
-        <v>403</v>
+      <c r="G97" s="54">
+        <v>400</v>
       </c>
       <c r="H97" s="58" t="s">
         <v>218</v>
@@ -29939,85 +30066,34 @@
       <c r="I97" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J97" s="4" t="s">
+      <c r="J97" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K97" s="4" t="s">
+      <c r="K97" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L97" s="10">
-        <v>1006</v>
-      </c>
-      <c r="M97" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N97" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="O97" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P97" s="22"/>
-      <c r="Q97" s="22"/>
-      <c r="R97" s="22"/>
-      <c r="S97" s="22"/>
-      <c r="T97" s="22"/>
-      <c r="U97" s="22"/>
-      <c r="V97" s="22"/>
-      <c r="W97" s="22"/>
-      <c r="X97" s="22"/>
-      <c r="Y97" s="22"/>
-      <c r="Z97" s="22"/>
-      <c r="AA97" s="22"/>
-      <c r="AB97" s="22"/>
-      <c r="AC97" s="22"/>
-      <c r="AD97" s="22"/>
-      <c r="AE97" s="22"/>
-      <c r="AF97" s="22"/>
-      <c r="AG97" s="22"/>
-      <c r="AH97" s="22"/>
-      <c r="AI97" s="22"/>
-      <c r="AJ97" s="22"/>
-      <c r="AK97" s="22"/>
-      <c r="AL97" s="22"/>
-      <c r="AM97" s="22"/>
-      <c r="AN97" s="22"/>
-      <c r="AO97" s="22"/>
-      <c r="AP97" s="22"/>
-      <c r="AQ97" s="22"/>
-      <c r="AR97" s="22"/>
-      <c r="AS97" s="22"/>
-      <c r="AT97" s="22"/>
-      <c r="AU97" s="22"/>
-      <c r="AV97" s="22"/>
-      <c r="AW97" s="22"/>
-      <c r="AX97" s="22"/>
-      <c r="AY97" s="22"/>
-      <c r="AZ97" s="22"/>
-      <c r="BA97" s="22"/>
-      <c r="BB97" s="22"/>
-      <c r="BC97" s="22"/>
-      <c r="BD97" s="22"/>
-      <c r="BE97" s="22"/>
-      <c r="BF97" s="22"/>
-      <c r="BG97" s="22"/>
-      <c r="BH97" s="22"/>
-      <c r="BI97" s="22"/>
-      <c r="BJ97" s="22"/>
-      <c r="BK97" s="22"/>
-      <c r="BL97" s="22"/>
-      <c r="BM97" s="22"/>
-      <c r="BN97" s="22"/>
+      <c r="L97" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M97" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N97" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O97" s="63" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="98" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>12</v>
@@ -30041,13 +30117,13 @@
         <v>7</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L98" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M98" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N98" s="30" t="s">
         <v>133</v>
@@ -30107,15 +30183,15 @@
       <c r="BM98" s="22"/>
       <c r="BN98" s="22"/>
     </row>
-    <row r="99" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>12</v>
@@ -30142,10 +30218,10 @@
         <v>32</v>
       </c>
       <c r="L99" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M99" s="30" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N99" s="30" t="s">
         <v>133</v>
@@ -30207,15 +30283,15 @@
     </row>
     <row r="100" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D100" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E100" s="4" t="s">
@@ -30237,19 +30313,19 @@
         <v>7</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L100" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M100" s="32" t="s">
-        <v>204</v>
+        <v>32</v>
+      </c>
+      <c r="L100" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M100" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="N100" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O100" s="30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P100" s="22"/>
       <c r="Q100" s="22"/>
@@ -30303,27 +30379,27 @@
       <c r="BM100" s="22"/>
       <c r="BN100" s="22"/>
     </row>
-    <row r="101" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D101" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D101" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>142</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G101" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H101" s="58" t="s">
         <v>218</v>
@@ -30337,17 +30413,17 @@
       <c r="K101" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L101" s="10">
-        <v>3001</v>
-      </c>
-      <c r="M101" s="30" t="s">
-        <v>213</v>
+      <c r="L101" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M101" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N101" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O101" s="30" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="P101" s="22"/>
       <c r="Q101" s="22"/>
@@ -30401,15 +30477,15 @@
       <c r="BM101" s="22"/>
       <c r="BN101" s="22"/>
     </row>
-    <row r="102" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>12</v>
@@ -30418,7 +30494,7 @@
         <v>142</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G102" s="24">
         <v>400</v>
@@ -30433,19 +30509,19 @@
         <v>7</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L102" s="10">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="M102" s="30" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="N102" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O102" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P102" s="22"/>
       <c r="Q102" s="22"/>
@@ -30500,14 +30576,14 @@
       <c r="BN102" s="22"/>
     </row>
     <row r="103" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A103" s="26">
-        <v>137</v>
+      <c r="A103" s="4">
+        <v>83</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C103" s="71" t="s">
-        <v>209</v>
+      <c r="C103" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>12</v>
@@ -30515,8 +30591,8 @@
       <c r="E103" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F103" s="26" t="s">
-        <v>143</v>
+      <c r="F103" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="G103" s="24">
         <v>400</v>
@@ -30533,17 +30609,17 @@
       <c r="K103" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L103" s="26">
-        <v>3009</v>
-      </c>
-      <c r="M103" s="71" t="s">
-        <v>209</v>
+      <c r="L103" s="10">
+        <v>3002</v>
+      </c>
+      <c r="M103" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="N103" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O103" s="33" t="s">
-        <v>214</v>
+      <c r="O103" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="P103" s="22"/>
       <c r="Q103" s="22"/>
@@ -30597,15 +30673,15 @@
       <c r="BM103" s="22"/>
       <c r="BN103" s="22"/>
     </row>
-    <row r="104" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A104" s="26">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C104" s="71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>12</v>
@@ -30629,81 +30705,81 @@
         <v>7</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L104" s="26">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="M104" s="71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N104" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O104" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="P104" s="21"/>
-      <c r="Q104" s="21"/>
-      <c r="R104" s="21"/>
-      <c r="S104" s="21"/>
-      <c r="T104" s="21"/>
-      <c r="U104" s="21"/>
-      <c r="V104" s="21"/>
-      <c r="W104" s="21"/>
-      <c r="X104" s="21"/>
-      <c r="Y104" s="21"/>
-      <c r="Z104" s="21"/>
-      <c r="AA104" s="21"/>
-      <c r="AB104" s="21"/>
-      <c r="AC104" s="21"/>
-      <c r="AD104" s="21"/>
-      <c r="AE104" s="21"/>
-      <c r="AF104" s="21"/>
-      <c r="AG104" s="21"/>
-      <c r="AH104" s="21"/>
-      <c r="AI104" s="21"/>
-      <c r="AJ104" s="21"/>
-      <c r="AK104" s="21"/>
-      <c r="AL104" s="21"/>
-      <c r="AM104" s="21"/>
-      <c r="AN104" s="21"/>
-      <c r="AO104" s="21"/>
-      <c r="AP104" s="21"/>
-      <c r="AQ104" s="21"/>
-      <c r="AR104" s="21"/>
-      <c r="AS104" s="21"/>
-      <c r="AT104" s="21"/>
-      <c r="AU104" s="21"/>
-      <c r="AV104" s="21"/>
-      <c r="AW104" s="21"/>
-      <c r="AX104" s="21"/>
-      <c r="AY104" s="21"/>
-      <c r="AZ104" s="21"/>
-      <c r="BA104" s="21"/>
-      <c r="BB104" s="21"/>
-      <c r="BC104" s="21"/>
-      <c r="BD104" s="21"/>
-      <c r="BE104" s="21"/>
-      <c r="BF104" s="21"/>
-      <c r="BG104" s="21"/>
-      <c r="BH104" s="21"/>
-      <c r="BI104" s="21"/>
-      <c r="BJ104" s="21"/>
-      <c r="BK104" s="21"/>
-      <c r="BL104" s="21"/>
-      <c r="BM104" s="21"/>
-      <c r="BN104" s="21"/>
-    </row>
-    <row r="105" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="P104" s="22"/>
+      <c r="Q104" s="22"/>
+      <c r="R104" s="22"/>
+      <c r="S104" s="22"/>
+      <c r="T104" s="22"/>
+      <c r="U104" s="22"/>
+      <c r="V104" s="22"/>
+      <c r="W104" s="22"/>
+      <c r="X104" s="22"/>
+      <c r="Y104" s="22"/>
+      <c r="Z104" s="22"/>
+      <c r="AA104" s="22"/>
+      <c r="AB104" s="22"/>
+      <c r="AC104" s="22"/>
+      <c r="AD104" s="22"/>
+      <c r="AE104" s="22"/>
+      <c r="AF104" s="22"/>
+      <c r="AG104" s="22"/>
+      <c r="AH104" s="22"/>
+      <c r="AI104" s="22"/>
+      <c r="AJ104" s="22"/>
+      <c r="AK104" s="22"/>
+      <c r="AL104" s="22"/>
+      <c r="AM104" s="22"/>
+      <c r="AN104" s="22"/>
+      <c r="AO104" s="22"/>
+      <c r="AP104" s="22"/>
+      <c r="AQ104" s="22"/>
+      <c r="AR104" s="22"/>
+      <c r="AS104" s="22"/>
+      <c r="AT104" s="22"/>
+      <c r="AU104" s="22"/>
+      <c r="AV104" s="22"/>
+      <c r="AW104" s="22"/>
+      <c r="AX104" s="22"/>
+      <c r="AY104" s="22"/>
+      <c r="AZ104" s="22"/>
+      <c r="BA104" s="22"/>
+      <c r="BB104" s="22"/>
+      <c r="BC104" s="22"/>
+      <c r="BD104" s="22"/>
+      <c r="BE104" s="22"/>
+      <c r="BF104" s="22"/>
+      <c r="BG104" s="22"/>
+      <c r="BH104" s="22"/>
+      <c r="BI104" s="22"/>
+      <c r="BJ104" s="22"/>
+      <c r="BK104" s="22"/>
+      <c r="BL104" s="22"/>
+      <c r="BM104" s="22"/>
+      <c r="BN104" s="22"/>
+    </row>
+    <row r="105" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C105" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>12</v>
@@ -30730,10 +30806,10 @@
         <v>32</v>
       </c>
       <c r="L105" s="26">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="M105" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N105" s="30" t="s">
         <v>133</v>
@@ -30793,15 +30869,15 @@
       <c r="BM105" s="21"/>
       <c r="BN105" s="21"/>
     </row>
-    <row r="106" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="26">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C106" s="71" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>12</v>
@@ -30813,7 +30889,7 @@
         <v>143</v>
       </c>
       <c r="G106" s="24">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H106" s="58" t="s">
         <v>218</v>
@@ -30828,16 +30904,16 @@
         <v>32</v>
       </c>
       <c r="L106" s="26">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="M106" s="71" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="N106" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O106" s="30" t="s">
-        <v>12</v>
+      <c r="O106" s="33" t="s">
+        <v>215</v>
       </c>
       <c r="P106" s="21"/>
       <c r="Q106" s="21"/>
@@ -30893,13 +30969,13 @@
     </row>
     <row r="107" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A107" s="26">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B107" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C107" s="84" t="s">
-        <v>231</v>
+      <c r="C107" s="71" t="s">
+        <v>223</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>12</v>
@@ -30907,11 +30983,11 @@
       <c r="E107" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>142</v>
+      <c r="F107" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="G107" s="24">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H107" s="58" t="s">
         <v>218</v>
@@ -30926,16 +31002,16 @@
         <v>32</v>
       </c>
       <c r="L107" s="26">
-        <v>3013</v>
-      </c>
-      <c r="M107" s="84" t="s">
-        <v>232</v>
+        <v>3012</v>
+      </c>
+      <c r="M107" s="71" t="s">
+        <v>224</v>
       </c>
       <c r="N107" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O107" s="30" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="P107" s="21"/>
       <c r="Q107" s="21"/>
@@ -30989,26 +31065,26 @@
       <c r="BM107" s="21"/>
       <c r="BN107" s="21"/>
     </row>
-    <row r="108" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A108" s="58">
-        <v>84</v>
-      </c>
-      <c r="B108" s="59" t="s">
+    <row r="108" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A108" s="26">
+        <v>141</v>
+      </c>
+      <c r="B108" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C108" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D108" s="58" t="s">
+      <c r="C108" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="72" t="s">
+      <c r="E108" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F108" s="72" t="s">
+      <c r="F108" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G108" s="58">
+      <c r="G108" s="24">
         <v>400</v>
       </c>
       <c r="H108" s="58" t="s">
@@ -31017,23 +31093,23 @@
       <c r="I108" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J108" s="58" t="s">
+      <c r="J108" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K108" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L108" s="58">
-        <v>1002</v>
-      </c>
-      <c r="M108" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="N108" s="59" t="s">
+      <c r="K108" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L108" s="26">
+        <v>3013</v>
+      </c>
+      <c r="M108" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="N108" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O108" s="59" t="s">
-        <v>68</v>
+      <c r="O108" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="P108" s="21"/>
       <c r="Q108" s="21"/>
@@ -31089,13 +31165,13 @@
     </row>
     <row r="109" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A109" s="58">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="B109" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C109" s="97" t="s">
-        <v>283</v>
+      <c r="C109" s="60" t="s">
+        <v>167</v>
       </c>
       <c r="D109" s="58" t="s">
         <v>12</v>
@@ -31122,16 +31198,16 @@
         <v>11</v>
       </c>
       <c r="L109" s="58">
-        <v>3014</v>
-      </c>
-      <c r="M109" s="97" t="s">
-        <v>283</v>
-      </c>
-      <c r="N109" s="30" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M109" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="N109" s="59" t="s">
         <v>133</v>
       </c>
       <c r="O109" s="59" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="P109" s="21"/>
       <c r="Q109" s="21"/>
@@ -31185,24 +31261,52 @@
       <c r="BM109" s="21"/>
       <c r="BN109" s="21"/>
     </row>
-    <row r="110" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A110" s="100" t="s">
-        <v>147</v>
-      </c>
-      <c r="B110" s="100"/>
-      <c r="C110" s="100"/>
-      <c r="D110" s="100"/>
-      <c r="E110" s="100"/>
-      <c r="F110" s="100"/>
-      <c r="G110" s="100"/>
-      <c r="H110" s="100"/>
-      <c r="I110" s="100"/>
-      <c r="J110" s="100"/>
-      <c r="K110" s="100"/>
-      <c r="L110" s="100"/>
-      <c r="M110" s="100"/>
-      <c r="N110" s="100"/>
-      <c r="O110" s="100"/>
+    <row r="110" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A110" s="58">
+        <v>156</v>
+      </c>
+      <c r="B110" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C110" s="97" t="s">
+        <v>283</v>
+      </c>
+      <c r="D110" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F110" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="G110" s="58">
+        <v>400</v>
+      </c>
+      <c r="H110" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I110" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J110" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K110" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L110" s="58">
+        <v>3014</v>
+      </c>
+      <c r="M110" s="97" t="s">
+        <v>283</v>
+      </c>
+      <c r="N110" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O110" s="59" t="s">
+        <v>282</v>
+      </c>
       <c r="P110" s="21"/>
       <c r="Q110" s="21"/>
       <c r="R110" s="21"/>
@@ -31255,220 +31359,220 @@
       <c r="BM110" s="21"/>
       <c r="BN110" s="21"/>
     </row>
-    <row r="111" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A111" s="38">
+    <row r="111" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A111" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="B111" s="100"/>
+      <c r="C111" s="100"/>
+      <c r="D111" s="100"/>
+      <c r="E111" s="100"/>
+      <c r="F111" s="100"/>
+      <c r="G111" s="100"/>
+      <c r="H111" s="100"/>
+      <c r="I111" s="100"/>
+      <c r="J111" s="100"/>
+      <c r="K111" s="100"/>
+      <c r="L111" s="100"/>
+      <c r="M111" s="100"/>
+      <c r="N111" s="100"/>
+      <c r="O111" s="100"/>
+      <c r="P111" s="21"/>
+      <c r="Q111" s="21"/>
+      <c r="R111" s="21"/>
+      <c r="S111" s="21"/>
+      <c r="T111" s="21"/>
+      <c r="U111" s="21"/>
+      <c r="V111" s="21"/>
+      <c r="W111" s="21"/>
+      <c r="X111" s="21"/>
+      <c r="Y111" s="21"/>
+      <c r="Z111" s="21"/>
+      <c r="AA111" s="21"/>
+      <c r="AB111" s="21"/>
+      <c r="AC111" s="21"/>
+      <c r="AD111" s="21"/>
+      <c r="AE111" s="21"/>
+      <c r="AF111" s="21"/>
+      <c r="AG111" s="21"/>
+      <c r="AH111" s="21"/>
+      <c r="AI111" s="21"/>
+      <c r="AJ111" s="21"/>
+      <c r="AK111" s="21"/>
+      <c r="AL111" s="21"/>
+      <c r="AM111" s="21"/>
+      <c r="AN111" s="21"/>
+      <c r="AO111" s="21"/>
+      <c r="AP111" s="21"/>
+      <c r="AQ111" s="21"/>
+      <c r="AR111" s="21"/>
+      <c r="AS111" s="21"/>
+      <c r="AT111" s="21"/>
+      <c r="AU111" s="21"/>
+      <c r="AV111" s="21"/>
+      <c r="AW111" s="21"/>
+      <c r="AX111" s="21"/>
+      <c r="AY111" s="21"/>
+      <c r="AZ111" s="21"/>
+      <c r="BA111" s="21"/>
+      <c r="BB111" s="21"/>
+      <c r="BC111" s="21"/>
+      <c r="BD111" s="21"/>
+      <c r="BE111" s="21"/>
+      <c r="BF111" s="21"/>
+      <c r="BG111" s="21"/>
+      <c r="BH111" s="21"/>
+      <c r="BI111" s="21"/>
+      <c r="BJ111" s="21"/>
+      <c r="BK111" s="21"/>
+      <c r="BL111" s="21"/>
+      <c r="BM111" s="21"/>
+      <c r="BN111" s="21"/>
+    </row>
+    <row r="112" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A112" s="38">
         <v>145</v>
-      </c>
-      <c r="B111" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C111" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="D111" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F111" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G111" s="24">
-        <v>400</v>
-      </c>
-      <c r="H111" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="I111" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J111" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="K111" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="L111" s="86">
-        <v>3008</v>
-      </c>
-      <c r="M111" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="N111" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="O111" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="P111" s="35"/>
-      <c r="Q111" s="35"/>
-      <c r="R111" s="35"/>
-      <c r="S111" s="35"/>
-      <c r="T111" s="35"/>
-      <c r="U111" s="35"/>
-      <c r="V111" s="35"/>
-      <c r="W111" s="35"/>
-      <c r="X111" s="35"/>
-      <c r="Y111" s="35"/>
-      <c r="Z111" s="35"/>
-      <c r="AA111" s="35"/>
-      <c r="AB111" s="35"/>
-      <c r="AC111" s="35"/>
-      <c r="AD111" s="35"/>
-      <c r="AE111" s="35"/>
-      <c r="AF111" s="35"/>
-      <c r="AG111" s="35"/>
-      <c r="AH111" s="35"/>
-      <c r="AI111" s="35"/>
-      <c r="AJ111" s="35"/>
-      <c r="AK111" s="35"/>
-      <c r="AL111" s="35"/>
-      <c r="AM111" s="35"/>
-      <c r="AN111" s="35"/>
-      <c r="AO111" s="35"/>
-      <c r="AP111" s="35"/>
-      <c r="AQ111" s="35"/>
-      <c r="AR111" s="35"/>
-      <c r="AS111" s="35"/>
-      <c r="AT111" s="35"/>
-      <c r="AU111" s="35"/>
-      <c r="AV111" s="35"/>
-      <c r="AW111" s="35"/>
-      <c r="AX111" s="35"/>
-      <c r="AY111" s="35"/>
-      <c r="AZ111" s="35"/>
-      <c r="BA111" s="35"/>
-      <c r="BB111" s="35"/>
-      <c r="BC111" s="35"/>
-      <c r="BD111" s="35"/>
-      <c r="BE111" s="35"/>
-      <c r="BF111" s="35"/>
-      <c r="BG111" s="35"/>
-      <c r="BH111" s="35"/>
-      <c r="BI111" s="35"/>
-      <c r="BJ111" s="35"/>
-      <c r="BK111" s="35"/>
-      <c r="BL111" s="35"/>
-      <c r="BM111" s="35"/>
-      <c r="BN111" s="35"/>
-    </row>
-    <row r="112" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
-        <v>85</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D112" s="4">
-        <v>8</v>
+      <c r="C112" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="D112" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>142</v>
       </c>
       <c r="F112" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G112" s="24">
+        <v>400</v>
+      </c>
+      <c r="H112" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="I112" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J112" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K112" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L112" s="86">
+        <v>3008</v>
+      </c>
+      <c r="M112" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="N112" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O112" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="P112" s="35"/>
+      <c r="Q112" s="35"/>
+      <c r="R112" s="35"/>
+      <c r="S112" s="35"/>
+      <c r="T112" s="35"/>
+      <c r="U112" s="35"/>
+      <c r="V112" s="35"/>
+      <c r="W112" s="35"/>
+      <c r="X112" s="35"/>
+      <c r="Y112" s="35"/>
+      <c r="Z112" s="35"/>
+      <c r="AA112" s="35"/>
+      <c r="AB112" s="35"/>
+      <c r="AC112" s="35"/>
+      <c r="AD112" s="35"/>
+      <c r="AE112" s="35"/>
+      <c r="AF112" s="35"/>
+      <c r="AG112" s="35"/>
+      <c r="AH112" s="35"/>
+      <c r="AI112" s="35"/>
+      <c r="AJ112" s="35"/>
+      <c r="AK112" s="35"/>
+      <c r="AL112" s="35"/>
+      <c r="AM112" s="35"/>
+      <c r="AN112" s="35"/>
+      <c r="AO112" s="35"/>
+      <c r="AP112" s="35"/>
+      <c r="AQ112" s="35"/>
+      <c r="AR112" s="35"/>
+      <c r="AS112" s="35"/>
+      <c r="AT112" s="35"/>
+      <c r="AU112" s="35"/>
+      <c r="AV112" s="35"/>
+      <c r="AW112" s="35"/>
+      <c r="AX112" s="35"/>
+      <c r="AY112" s="35"/>
+      <c r="AZ112" s="35"/>
+      <c r="BA112" s="35"/>
+      <c r="BB112" s="35"/>
+      <c r="BC112" s="35"/>
+      <c r="BD112" s="35"/>
+      <c r="BE112" s="35"/>
+      <c r="BF112" s="35"/>
+      <c r="BG112" s="35"/>
+      <c r="BH112" s="35"/>
+      <c r="BI112" s="35"/>
+      <c r="BJ112" s="35"/>
+      <c r="BK112" s="35"/>
+      <c r="BL112" s="35"/>
+      <c r="BM112" s="35"/>
+      <c r="BN112" s="35"/>
+    </row>
+    <row r="113" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>85</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113" s="4">
+        <v>8</v>
+      </c>
+      <c r="E113" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G112" s="44">
+      <c r="F113" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G113" s="44">
         <v>200</v>
       </c>
-      <c r="H112" s="24" t="s">
+      <c r="H113" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="I112" s="24" t="s">
+      <c r="I113" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="J112" s="4" t="s">
+      <c r="J113" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K112" s="4" t="s">
+      <c r="K113" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L112" s="4">
+      <c r="L113" s="4">
         <v>1010</v>
       </c>
-      <c r="M112" s="30" t="s">
+      <c r="M113" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N112" s="30" t="s">
+      <c r="N113" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O112" s="30" t="s">
+      <c r="O113" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="P112" s="22"/>
-      <c r="Q112" s="22"/>
-      <c r="R112" s="22"/>
-      <c r="S112" s="22"/>
-      <c r="T112" s="22"/>
-      <c r="U112" s="22"/>
-      <c r="V112" s="22"/>
-      <c r="W112" s="22"/>
-      <c r="X112" s="22"/>
-      <c r="Y112" s="22"/>
-      <c r="Z112" s="22"/>
-      <c r="AA112" s="22"/>
-      <c r="AB112" s="22"/>
-      <c r="AC112" s="22"/>
-      <c r="AD112" s="22"/>
-      <c r="AE112" s="22"/>
-      <c r="AF112" s="22"/>
-      <c r="AG112" s="22"/>
-      <c r="AH112" s="22"/>
-      <c r="AI112" s="22"/>
-      <c r="AJ112" s="22"/>
-      <c r="AK112" s="22"/>
-      <c r="AL112" s="22"/>
-      <c r="AM112" s="22"/>
-      <c r="AN112" s="22"/>
-      <c r="AO112" s="22"/>
-      <c r="AP112" s="22"/>
-      <c r="AQ112" s="22"/>
-      <c r="AR112" s="22"/>
-      <c r="AS112" s="22"/>
-      <c r="AT112" s="22"/>
-      <c r="AU112" s="22"/>
-      <c r="AV112" s="22"/>
-      <c r="AW112" s="22"/>
-      <c r="AX112" s="22"/>
-      <c r="AY112" s="22"/>
-      <c r="AZ112" s="22"/>
-      <c r="BA112" s="22"/>
-      <c r="BB112" s="22"/>
-      <c r="BC112" s="22"/>
-      <c r="BD112" s="22"/>
-      <c r="BE112" s="22"/>
-      <c r="BF112" s="22"/>
-      <c r="BG112" s="22"/>
-      <c r="BH112" s="22"/>
-      <c r="BI112" s="22"/>
-      <c r="BJ112" s="22"/>
-      <c r="BK112" s="22"/>
-      <c r="BL112" s="22"/>
-      <c r="BM112" s="22"/>
-      <c r="BN112" s="22"/>
-    </row>
-    <row r="113" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A113" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="B113" s="99"/>
-      <c r="C113" s="99"/>
-      <c r="D113" s="99"/>
-      <c r="E113" s="99"/>
-      <c r="F113" s="99"/>
-      <c r="G113" s="99"/>
-      <c r="H113" s="99"/>
-      <c r="I113" s="99"/>
-      <c r="J113" s="99"/>
-      <c r="K113" s="99"/>
-      <c r="L113" s="99"/>
-      <c r="M113" s="99"/>
-      <c r="N113" s="99"/>
-      <c r="O113" s="99"/>
       <c r="P113" s="22"/>
       <c r="Q113" s="22"/>
       <c r="R113" s="22"/>
@@ -31521,24 +31625,24 @@
       <c r="BM113" s="22"/>
       <c r="BN113" s="22"/>
     </row>
-    <row r="114" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A114" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B114" s="100"/>
-      <c r="C114" s="100"/>
-      <c r="D114" s="100"/>
-      <c r="E114" s="100"/>
-      <c r="F114" s="100"/>
-      <c r="G114" s="100"/>
-      <c r="H114" s="100"/>
-      <c r="I114" s="100"/>
-      <c r="J114" s="100"/>
-      <c r="K114" s="100"/>
-      <c r="L114" s="100"/>
-      <c r="M114" s="100"/>
-      <c r="N114" s="100"/>
-      <c r="O114" s="100"/>
+    <row r="114" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A114" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" s="99"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="99"/>
+      <c r="E114" s="99"/>
+      <c r="F114" s="99"/>
+      <c r="G114" s="99"/>
+      <c r="H114" s="99"/>
+      <c r="I114" s="99"/>
+      <c r="J114" s="99"/>
+      <c r="K114" s="99"/>
+      <c r="L114" s="99"/>
+      <c r="M114" s="99"/>
+      <c r="N114" s="99"/>
+      <c r="O114" s="99"/>
       <c r="P114" s="22"/>
       <c r="Q114" s="22"/>
       <c r="R114" s="22"/>
@@ -31591,160 +31695,183 @@
       <c r="BM114" s="22"/>
       <c r="BN114" s="22"/>
     </row>
-    <row r="115" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="92">
+    <row r="115" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A115" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115" s="100"/>
+      <c r="C115" s="100"/>
+      <c r="D115" s="100"/>
+      <c r="E115" s="100"/>
+      <c r="F115" s="100"/>
+      <c r="G115" s="100"/>
+      <c r="H115" s="100"/>
+      <c r="I115" s="100"/>
+      <c r="J115" s="100"/>
+      <c r="K115" s="100"/>
+      <c r="L115" s="100"/>
+      <c r="M115" s="100"/>
+      <c r="N115" s="100"/>
+      <c r="O115" s="100"/>
+      <c r="P115" s="22"/>
+      <c r="Q115" s="22"/>
+      <c r="R115" s="22"/>
+      <c r="S115" s="22"/>
+      <c r="T115" s="22"/>
+      <c r="U115" s="22"/>
+      <c r="V115" s="22"/>
+      <c r="W115" s="22"/>
+      <c r="X115" s="22"/>
+      <c r="Y115" s="22"/>
+      <c r="Z115" s="22"/>
+      <c r="AA115" s="22"/>
+      <c r="AB115" s="22"/>
+      <c r="AC115" s="22"/>
+      <c r="AD115" s="22"/>
+      <c r="AE115" s="22"/>
+      <c r="AF115" s="22"/>
+      <c r="AG115" s="22"/>
+      <c r="AH115" s="22"/>
+      <c r="AI115" s="22"/>
+      <c r="AJ115" s="22"/>
+      <c r="AK115" s="22"/>
+      <c r="AL115" s="22"/>
+      <c r="AM115" s="22"/>
+      <c r="AN115" s="22"/>
+      <c r="AO115" s="22"/>
+      <c r="AP115" s="22"/>
+      <c r="AQ115" s="22"/>
+      <c r="AR115" s="22"/>
+      <c r="AS115" s="22"/>
+      <c r="AT115" s="22"/>
+      <c r="AU115" s="22"/>
+      <c r="AV115" s="22"/>
+      <c r="AW115" s="22"/>
+      <c r="AX115" s="22"/>
+      <c r="AY115" s="22"/>
+      <c r="AZ115" s="22"/>
+      <c r="BA115" s="22"/>
+      <c r="BB115" s="22"/>
+      <c r="BC115" s="22"/>
+      <c r="BD115" s="22"/>
+      <c r="BE115" s="22"/>
+      <c r="BF115" s="22"/>
+      <c r="BG115" s="22"/>
+      <c r="BH115" s="22"/>
+      <c r="BI115" s="22"/>
+      <c r="BJ115" s="22"/>
+      <c r="BK115" s="22"/>
+      <c r="BL115" s="22"/>
+      <c r="BM115" s="22"/>
+      <c r="BN115" s="22"/>
+    </row>
+    <row r="116" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="92">
         <v>146</v>
-      </c>
-      <c r="B115" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C115" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D115" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F115" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="G115" s="92">
-        <v>403</v>
-      </c>
-      <c r="H115" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I115" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J115" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="K115" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="L115" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M115" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N115" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O115" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="P115" s="21"/>
-      <c r="Q115" s="21"/>
-      <c r="R115" s="21"/>
-      <c r="S115" s="21"/>
-      <c r="T115" s="21"/>
-      <c r="U115" s="21"/>
-      <c r="V115" s="21"/>
-      <c r="W115" s="21"/>
-      <c r="X115" s="21"/>
-      <c r="Y115" s="21"/>
-      <c r="Z115" s="21"/>
-      <c r="AA115" s="21"/>
-      <c r="AB115" s="21"/>
-      <c r="AC115" s="21"/>
-      <c r="AD115" s="21"/>
-      <c r="AE115" s="21"/>
-      <c r="AF115" s="21"/>
-      <c r="AG115" s="21"/>
-      <c r="AH115" s="21"/>
-      <c r="AI115" s="21"/>
-      <c r="AJ115" s="21"/>
-      <c r="AK115" s="21"/>
-      <c r="AL115" s="21"/>
-      <c r="AM115" s="21"/>
-      <c r="AN115" s="21"/>
-      <c r="AO115" s="21"/>
-      <c r="AP115" s="21"/>
-      <c r="AQ115" s="21"/>
-      <c r="AR115" s="21"/>
-      <c r="AS115" s="21"/>
-      <c r="AT115" s="21"/>
-      <c r="AU115" s="21"/>
-      <c r="AV115" s="21"/>
-      <c r="AW115" s="21"/>
-      <c r="AX115" s="21"/>
-      <c r="AY115" s="21"/>
-      <c r="AZ115" s="21"/>
-      <c r="BA115" s="21"/>
-      <c r="BB115" s="21"/>
-      <c r="BC115" s="21"/>
-      <c r="BD115" s="21"/>
-      <c r="BE115" s="21"/>
-      <c r="BF115" s="21"/>
-      <c r="BG115" s="21"/>
-      <c r="BH115" s="21"/>
-      <c r="BI115" s="21"/>
-      <c r="BJ115" s="21"/>
-      <c r="BK115" s="21"/>
-      <c r="BL115" s="21"/>
-      <c r="BM115" s="21"/>
-      <c r="BN115" s="21"/>
-    </row>
-    <row r="116" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
-        <v>86</v>
       </c>
       <c r="B116" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C116" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="D116" s="4" t="s">
+      <c r="C116" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D116" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G116" s="24">
-        <v>401</v>
-      </c>
-      <c r="H116" s="58" t="s">
+      <c r="G116" s="92">
+        <v>403</v>
+      </c>
+      <c r="H116" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I116" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J116" s="4" t="s">
+      <c r="J116" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K116" s="4" t="s">
+      <c r="K116" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L116" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M116" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N116" s="32" t="s">
+      <c r="L116" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M116" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N116" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O116" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="O116" s="49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="P116" s="21"/>
+      <c r="Q116" s="21"/>
+      <c r="R116" s="21"/>
+      <c r="S116" s="21"/>
+      <c r="T116" s="21"/>
+      <c r="U116" s="21"/>
+      <c r="V116" s="21"/>
+      <c r="W116" s="21"/>
+      <c r="X116" s="21"/>
+      <c r="Y116" s="21"/>
+      <c r="Z116" s="21"/>
+      <c r="AA116" s="21"/>
+      <c r="AB116" s="21"/>
+      <c r="AC116" s="21"/>
+      <c r="AD116" s="21"/>
+      <c r="AE116" s="21"/>
+      <c r="AF116" s="21"/>
+      <c r="AG116" s="21"/>
+      <c r="AH116" s="21"/>
+      <c r="AI116" s="21"/>
+      <c r="AJ116" s="21"/>
+      <c r="AK116" s="21"/>
+      <c r="AL116" s="21"/>
+      <c r="AM116" s="21"/>
+      <c r="AN116" s="21"/>
+      <c r="AO116" s="21"/>
+      <c r="AP116" s="21"/>
+      <c r="AQ116" s="21"/>
+      <c r="AR116" s="21"/>
+      <c r="AS116" s="21"/>
+      <c r="AT116" s="21"/>
+      <c r="AU116" s="21"/>
+      <c r="AV116" s="21"/>
+      <c r="AW116" s="21"/>
+      <c r="AX116" s="21"/>
+      <c r="AY116" s="21"/>
+      <c r="AZ116" s="21"/>
+      <c r="BA116" s="21"/>
+      <c r="BB116" s="21"/>
+      <c r="BC116" s="21"/>
+      <c r="BD116" s="21"/>
+      <c r="BE116" s="21"/>
+      <c r="BF116" s="21"/>
+      <c r="BG116" s="21"/>
+      <c r="BH116" s="21"/>
+      <c r="BI116" s="21"/>
+      <c r="BJ116" s="21"/>
+      <c r="BK116" s="21"/>
+      <c r="BL116" s="21"/>
+      <c r="BM116" s="21"/>
+      <c r="BN116" s="21"/>
+    </row>
+    <row r="117" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C117" s="23" t="s">
-        <v>149</v>
+      <c r="C117" s="51" t="s">
+        <v>156</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>12</v>
@@ -31771,78 +31898,27 @@
         <v>34</v>
       </c>
       <c r="L117" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M117" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N117" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O117" s="47" t="s">
+      <c r="O117" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="P117" s="22"/>
-      <c r="Q117" s="22"/>
-      <c r="R117" s="22"/>
-      <c r="S117" s="22"/>
-      <c r="T117" s="22"/>
-      <c r="U117" s="22"/>
-      <c r="V117" s="22"/>
-      <c r="W117" s="22"/>
-      <c r="X117" s="22"/>
-      <c r="Y117" s="22"/>
-      <c r="Z117" s="22"/>
-      <c r="AA117" s="22"/>
-      <c r="AB117" s="22"/>
-      <c r="AC117" s="22"/>
-      <c r="AD117" s="22"/>
-      <c r="AE117" s="22"/>
-      <c r="AF117" s="22"/>
-      <c r="AG117" s="22"/>
-      <c r="AH117" s="22"/>
-      <c r="AI117" s="22"/>
-      <c r="AJ117" s="22"/>
-      <c r="AK117" s="22"/>
-      <c r="AL117" s="22"/>
-      <c r="AM117" s="22"/>
-      <c r="AN117" s="22"/>
-      <c r="AO117" s="22"/>
-      <c r="AP117" s="22"/>
-      <c r="AQ117" s="22"/>
-      <c r="AR117" s="22"/>
-      <c r="AS117" s="22"/>
-      <c r="AT117" s="22"/>
-      <c r="AU117" s="22"/>
-      <c r="AV117" s="22"/>
-      <c r="AW117" s="22"/>
-      <c r="AX117" s="22"/>
-      <c r="AY117" s="22"/>
-      <c r="AZ117" s="22"/>
-      <c r="BA117" s="22"/>
-      <c r="BB117" s="22"/>
-      <c r="BC117" s="22"/>
-      <c r="BD117" s="22"/>
-      <c r="BE117" s="22"/>
-      <c r="BF117" s="22"/>
-      <c r="BG117" s="22"/>
-      <c r="BH117" s="22"/>
-      <c r="BI117" s="22"/>
-      <c r="BJ117" s="22"/>
-      <c r="BK117" s="22"/>
-      <c r="BL117" s="22"/>
-      <c r="BM117" s="22"/>
-      <c r="BN117" s="22"/>
     </row>
     <row r="118" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B118" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>12</v>
@@ -31854,7 +31930,7 @@
         <v>142</v>
       </c>
       <c r="G118" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H118" s="58" t="s">
         <v>218</v>
@@ -31866,19 +31942,19 @@
         <v>7</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L118" s="10">
-        <v>1003</v>
-      </c>
-      <c r="M118" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N118" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O118" s="30" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="L118" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M118" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N118" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O118" s="47" t="s">
+        <v>12</v>
       </c>
       <c r="P118" s="22"/>
       <c r="Q118" s="22"/>
@@ -31932,15 +32008,15 @@
       <c r="BM118" s="22"/>
       <c r="BN118" s="22"/>
     </row>
-    <row r="119" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>150</v>
+      <c r="C119" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>12</v>
@@ -31964,13 +32040,13 @@
         <v>7</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L119" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M119" s="30" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N119" s="30" t="s">
         <v>136</v>
@@ -32030,15 +32106,15 @@
       <c r="BM119" s="22"/>
       <c r="BN119" s="22"/>
     </row>
-    <row r="120" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>12</v>
@@ -32062,13 +32138,13 @@
         <v>7</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L120" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M120" s="30" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N120" s="30" t="s">
         <v>136</v>
@@ -32128,26 +32204,26 @@
       <c r="BM120" s="22"/>
       <c r="BN120" s="22"/>
     </row>
-    <row r="121" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C121" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D121" s="53" t="s">
+      <c r="C121" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E121" s="53" t="s">
+      <c r="E121" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F121" s="53" t="s">
+      <c r="F121" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G121" s="54">
+      <c r="G121" s="24">
         <v>400</v>
       </c>
       <c r="H121" s="58" t="s">
@@ -32156,23 +32232,23 @@
       <c r="I121" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J121" s="53" t="s">
+      <c r="J121" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K121" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="L121" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M121" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N121" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O121" s="63" t="s">
-        <v>12</v>
+      <c r="K121" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L121" s="10">
+        <v>1005</v>
+      </c>
+      <c r="M121" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N121" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O121" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="P121" s="22"/>
       <c r="Q121" s="22"/>
@@ -32226,27 +32302,27 @@
       <c r="BM121" s="22"/>
       <c r="BN121" s="22"/>
     </row>
-    <row r="122" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D122" s="4" t="s">
+      <c r="C122" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D122" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E122" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G122" s="24">
-        <v>404</v>
+      <c r="G122" s="54">
+        <v>400</v>
       </c>
       <c r="H122" s="58" t="s">
         <v>218</v>
@@ -32254,85 +32330,85 @@
       <c r="I122" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J122" s="4" t="s">
+      <c r="J122" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K122" s="4" t="s">
+      <c r="K122" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L122" s="10">
-        <v>1006</v>
-      </c>
-      <c r="M122" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N122" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O122" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P122" s="21"/>
-      <c r="Q122" s="21"/>
-      <c r="R122" s="21"/>
-      <c r="S122" s="21"/>
-      <c r="T122" s="21"/>
-      <c r="U122" s="21"/>
-      <c r="V122" s="21"/>
-      <c r="W122" s="21"/>
-      <c r="X122" s="21"/>
-      <c r="Y122" s="21"/>
-      <c r="Z122" s="21"/>
-      <c r="AA122" s="21"/>
-      <c r="AB122" s="21"/>
-      <c r="AC122" s="21"/>
-      <c r="AD122" s="21"/>
-      <c r="AE122" s="21"/>
-      <c r="AF122" s="21"/>
-      <c r="AG122" s="21"/>
-      <c r="AH122" s="21"/>
-      <c r="AI122" s="21"/>
-      <c r="AJ122" s="21"/>
-      <c r="AK122" s="21"/>
-      <c r="AL122" s="21"/>
-      <c r="AM122" s="21"/>
-      <c r="AN122" s="21"/>
-      <c r="AO122" s="21"/>
-      <c r="AP122" s="21"/>
-      <c r="AQ122" s="21"/>
-      <c r="AR122" s="21"/>
-      <c r="AS122" s="21"/>
-      <c r="AT122" s="21"/>
-      <c r="AU122" s="21"/>
-      <c r="AV122" s="21"/>
-      <c r="AW122" s="21"/>
-      <c r="AX122" s="21"/>
-      <c r="AY122" s="21"/>
-      <c r="AZ122" s="21"/>
-      <c r="BA122" s="21"/>
-      <c r="BB122" s="21"/>
-      <c r="BC122" s="21"/>
-      <c r="BD122" s="21"/>
-      <c r="BE122" s="21"/>
-      <c r="BF122" s="21"/>
-      <c r="BG122" s="21"/>
-      <c r="BH122" s="21"/>
-      <c r="BI122" s="21"/>
-      <c r="BJ122" s="21"/>
-      <c r="BK122" s="21"/>
-      <c r="BL122" s="21"/>
-      <c r="BM122" s="21"/>
-      <c r="BN122" s="21"/>
-    </row>
-    <row r="123" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L122" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M122" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N122" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O122" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="P122" s="22"/>
+      <c r="Q122" s="22"/>
+      <c r="R122" s="22"/>
+      <c r="S122" s="22"/>
+      <c r="T122" s="22"/>
+      <c r="U122" s="22"/>
+      <c r="V122" s="22"/>
+      <c r="W122" s="22"/>
+      <c r="X122" s="22"/>
+      <c r="Y122" s="22"/>
+      <c r="Z122" s="22"/>
+      <c r="AA122" s="22"/>
+      <c r="AB122" s="22"/>
+      <c r="AC122" s="22"/>
+      <c r="AD122" s="22"/>
+      <c r="AE122" s="22"/>
+      <c r="AF122" s="22"/>
+      <c r="AG122" s="22"/>
+      <c r="AH122" s="22"/>
+      <c r="AI122" s="22"/>
+      <c r="AJ122" s="22"/>
+      <c r="AK122" s="22"/>
+      <c r="AL122" s="22"/>
+      <c r="AM122" s="22"/>
+      <c r="AN122" s="22"/>
+      <c r="AO122" s="22"/>
+      <c r="AP122" s="22"/>
+      <c r="AQ122" s="22"/>
+      <c r="AR122" s="22"/>
+      <c r="AS122" s="22"/>
+      <c r="AT122" s="22"/>
+      <c r="AU122" s="22"/>
+      <c r="AV122" s="22"/>
+      <c r="AW122" s="22"/>
+      <c r="AX122" s="22"/>
+      <c r="AY122" s="22"/>
+      <c r="AZ122" s="22"/>
+      <c r="BA122" s="22"/>
+      <c r="BB122" s="22"/>
+      <c r="BC122" s="22"/>
+      <c r="BD122" s="22"/>
+      <c r="BE122" s="22"/>
+      <c r="BF122" s="22"/>
+      <c r="BG122" s="22"/>
+      <c r="BH122" s="22"/>
+      <c r="BI122" s="22"/>
+      <c r="BJ122" s="22"/>
+      <c r="BK122" s="22"/>
+      <c r="BL122" s="22"/>
+      <c r="BM122" s="22"/>
+      <c r="BN122" s="22"/>
+    </row>
+    <row r="123" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>12</v>
@@ -32356,13 +32432,13 @@
         <v>7</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L123" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M123" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N123" s="30" t="s">
         <v>136</v>
@@ -32370,16 +32446,67 @@
       <c r="O123" s="30" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="124" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="P123" s="21"/>
+      <c r="Q123" s="21"/>
+      <c r="R123" s="21"/>
+      <c r="S123" s="21"/>
+      <c r="T123" s="21"/>
+      <c r="U123" s="21"/>
+      <c r="V123" s="21"/>
+      <c r="W123" s="21"/>
+      <c r="X123" s="21"/>
+      <c r="Y123" s="21"/>
+      <c r="Z123" s="21"/>
+      <c r="AA123" s="21"/>
+      <c r="AB123" s="21"/>
+      <c r="AC123" s="21"/>
+      <c r="AD123" s="21"/>
+      <c r="AE123" s="21"/>
+      <c r="AF123" s="21"/>
+      <c r="AG123" s="21"/>
+      <c r="AH123" s="21"/>
+      <c r="AI123" s="21"/>
+      <c r="AJ123" s="21"/>
+      <c r="AK123" s="21"/>
+      <c r="AL123" s="21"/>
+      <c r="AM123" s="21"/>
+      <c r="AN123" s="21"/>
+      <c r="AO123" s="21"/>
+      <c r="AP123" s="21"/>
+      <c r="AQ123" s="21"/>
+      <c r="AR123" s="21"/>
+      <c r="AS123" s="21"/>
+      <c r="AT123" s="21"/>
+      <c r="AU123" s="21"/>
+      <c r="AV123" s="21"/>
+      <c r="AW123" s="21"/>
+      <c r="AX123" s="21"/>
+      <c r="AY123" s="21"/>
+      <c r="AZ123" s="21"/>
+      <c r="BA123" s="21"/>
+      <c r="BB123" s="21"/>
+      <c r="BC123" s="21"/>
+      <c r="BD123" s="21"/>
+      <c r="BE123" s="21"/>
+      <c r="BF123" s="21"/>
+      <c r="BG123" s="21"/>
+      <c r="BH123" s="21"/>
+      <c r="BI123" s="21"/>
+      <c r="BJ123" s="21"/>
+      <c r="BK123" s="21"/>
+      <c r="BL123" s="21"/>
+      <c r="BM123" s="21"/>
+      <c r="BN123" s="21"/>
+    </row>
+    <row r="124" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>12</v>
@@ -32391,7 +32518,7 @@
         <v>142</v>
       </c>
       <c r="G124" s="24">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H124" s="58" t="s">
         <v>218</v>
@@ -32406,10 +32533,10 @@
         <v>32</v>
       </c>
       <c r="L124" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M124" s="30" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N124" s="30" t="s">
         <v>136</v>
@@ -32418,15 +32545,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A125" s="26">
-        <v>141</v>
+    <row r="125" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>94</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C125" s="84" t="s">
-        <v>231</v>
+      <c r="C125" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>12</v>
@@ -32434,11 +32561,11 @@
       <c r="E125" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F125" s="26" t="s">
+      <c r="F125" s="4" t="s">
         <v>142</v>
       </c>
       <c r="G125" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H125" s="58" t="s">
         <v>218</v>
@@ -32452,91 +32579,40 @@
       <c r="K125" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L125" s="26">
-        <v>3013</v>
-      </c>
-      <c r="M125" s="84" t="s">
-        <v>232</v>
+      <c r="L125" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M125" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="N125" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O125" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="P125" s="21"/>
-      <c r="Q125" s="21"/>
-      <c r="R125" s="21"/>
-      <c r="S125" s="21"/>
-      <c r="T125" s="21"/>
-      <c r="U125" s="21"/>
-      <c r="V125" s="21"/>
-      <c r="W125" s="21"/>
-      <c r="X125" s="21"/>
-      <c r="Y125" s="21"/>
-      <c r="Z125" s="21"/>
-      <c r="AA125" s="21"/>
-      <c r="AB125" s="21"/>
-      <c r="AC125" s="21"/>
-      <c r="AD125" s="21"/>
-      <c r="AE125" s="21"/>
-      <c r="AF125" s="21"/>
-      <c r="AG125" s="21"/>
-      <c r="AH125" s="21"/>
-      <c r="AI125" s="21"/>
-      <c r="AJ125" s="21"/>
-      <c r="AK125" s="21"/>
-      <c r="AL125" s="21"/>
-      <c r="AM125" s="21"/>
-      <c r="AN125" s="21"/>
-      <c r="AO125" s="21"/>
-      <c r="AP125" s="21"/>
-      <c r="AQ125" s="21"/>
-      <c r="AR125" s="21"/>
-      <c r="AS125" s="21"/>
-      <c r="AT125" s="21"/>
-      <c r="AU125" s="21"/>
-      <c r="AV125" s="21"/>
-      <c r="AW125" s="21"/>
-      <c r="AX125" s="21"/>
-      <c r="AY125" s="21"/>
-      <c r="AZ125" s="21"/>
-      <c r="BA125" s="21"/>
-      <c r="BB125" s="21"/>
-      <c r="BC125" s="21"/>
-      <c r="BD125" s="21"/>
-      <c r="BE125" s="21"/>
-      <c r="BF125" s="21"/>
-      <c r="BG125" s="21"/>
-      <c r="BH125" s="21"/>
-      <c r="BI125" s="21"/>
-      <c r="BJ125" s="21"/>
-      <c r="BK125" s="21"/>
-      <c r="BL125" s="21"/>
-      <c r="BM125" s="21"/>
-      <c r="BN125" s="21"/>
-    </row>
-    <row r="126" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
-        <v>95</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A126" s="26">
+        <v>141</v>
       </c>
       <c r="B126" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D126" s="24" t="s">
+      <c r="C126" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G126" s="24">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H126" s="58" t="s">
         <v>218</v>
@@ -32548,32 +32624,83 @@
         <v>7</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L126" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M126" s="32" t="s">
-        <v>204</v>
+        <v>32</v>
+      </c>
+      <c r="L126" s="26">
+        <v>3013</v>
+      </c>
+      <c r="M126" s="84" t="s">
+        <v>232</v>
       </c>
       <c r="N126" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O126" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="P126" s="21"/>
+      <c r="Q126" s="21"/>
+      <c r="R126" s="21"/>
+      <c r="S126" s="21"/>
+      <c r="T126" s="21"/>
+      <c r="U126" s="21"/>
+      <c r="V126" s="21"/>
+      <c r="W126" s="21"/>
+      <c r="X126" s="21"/>
+      <c r="Y126" s="21"/>
+      <c r="Z126" s="21"/>
+      <c r="AA126" s="21"/>
+      <c r="AB126" s="21"/>
+      <c r="AC126" s="21"/>
+      <c r="AD126" s="21"/>
+      <c r="AE126" s="21"/>
+      <c r="AF126" s="21"/>
+      <c r="AG126" s="21"/>
+      <c r="AH126" s="21"/>
+      <c r="AI126" s="21"/>
+      <c r="AJ126" s="21"/>
+      <c r="AK126" s="21"/>
+      <c r="AL126" s="21"/>
+      <c r="AM126" s="21"/>
+      <c r="AN126" s="21"/>
+      <c r="AO126" s="21"/>
+      <c r="AP126" s="21"/>
+      <c r="AQ126" s="21"/>
+      <c r="AR126" s="21"/>
+      <c r="AS126" s="21"/>
+      <c r="AT126" s="21"/>
+      <c r="AU126" s="21"/>
+      <c r="AV126" s="21"/>
+      <c r="AW126" s="21"/>
+      <c r="AX126" s="21"/>
+      <c r="AY126" s="21"/>
+      <c r="AZ126" s="21"/>
+      <c r="BA126" s="21"/>
+      <c r="BB126" s="21"/>
+      <c r="BC126" s="21"/>
+      <c r="BD126" s="21"/>
+      <c r="BE126" s="21"/>
+      <c r="BF126" s="21"/>
+      <c r="BG126" s="21"/>
+      <c r="BH126" s="21"/>
+      <c r="BI126" s="21"/>
+      <c r="BJ126" s="21"/>
+      <c r="BK126" s="21"/>
+      <c r="BL126" s="21"/>
+      <c r="BM126" s="21"/>
+      <c r="BN126" s="21"/>
+    </row>
+    <row r="127" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B127" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D127" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D127" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E127" s="4" t="s">
@@ -32583,7 +32710,7 @@
         <v>142</v>
       </c>
       <c r="G127" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H127" s="58" t="s">
         <v>218</v>
@@ -32597,187 +32724,187 @@
       <c r="K127" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L127" s="10">
-        <v>4001</v>
-      </c>
-      <c r="M127" s="30" t="s">
-        <v>19</v>
+      <c r="L127" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M127" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N127" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O127" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="P127" s="22"/>
-      <c r="Q127" s="22"/>
-      <c r="R127" s="22"/>
-      <c r="S127" s="22"/>
-      <c r="T127" s="22"/>
-      <c r="U127" s="22"/>
-      <c r="V127" s="22"/>
-      <c r="W127" s="22"/>
-      <c r="X127" s="22"/>
-      <c r="Y127" s="22"/>
-      <c r="Z127" s="22"/>
-      <c r="AA127" s="22"/>
-      <c r="AB127" s="22"/>
-      <c r="AC127" s="22"/>
-      <c r="AD127" s="22"/>
-      <c r="AE127" s="22"/>
-      <c r="AF127" s="22"/>
-      <c r="AG127" s="22"/>
-      <c r="AH127" s="22"/>
-      <c r="AI127" s="22"/>
-      <c r="AJ127" s="22"/>
-      <c r="AK127" s="22"/>
-      <c r="AL127" s="22"/>
-      <c r="AM127" s="22"/>
-      <c r="AN127" s="22"/>
-      <c r="AO127" s="22"/>
-      <c r="AP127" s="22"/>
-      <c r="AQ127" s="22"/>
-      <c r="AR127" s="22"/>
-      <c r="AS127" s="22"/>
-      <c r="AT127" s="22"/>
-      <c r="AU127" s="22"/>
-      <c r="AV127" s="22"/>
-      <c r="AW127" s="22"/>
-      <c r="AX127" s="22"/>
-      <c r="AY127" s="22"/>
-      <c r="AZ127" s="22"/>
-      <c r="BA127" s="22"/>
-      <c r="BB127" s="22"/>
-      <c r="BC127" s="22"/>
-      <c r="BD127" s="22"/>
-      <c r="BE127" s="22"/>
-      <c r="BF127" s="22"/>
-      <c r="BG127" s="22"/>
-      <c r="BH127" s="22"/>
-      <c r="BI127" s="22"/>
-      <c r="BJ127" s="22"/>
-      <c r="BK127" s="22"/>
-      <c r="BL127" s="22"/>
-      <c r="BM127" s="22"/>
-      <c r="BN127" s="22"/>
-    </row>
-    <row r="128" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A128" s="26">
-        <v>142</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>96</v>
       </c>
       <c r="B128" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C128" s="84" t="s">
+      <c r="C128" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G128" s="24">
+        <v>400</v>
+      </c>
+      <c r="H128" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I128" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L128" s="10">
+        <v>4001</v>
+      </c>
+      <c r="M128" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N128" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O128" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P128" s="22"/>
+      <c r="Q128" s="22"/>
+      <c r="R128" s="22"/>
+      <c r="S128" s="22"/>
+      <c r="T128" s="22"/>
+      <c r="U128" s="22"/>
+      <c r="V128" s="22"/>
+      <c r="W128" s="22"/>
+      <c r="X128" s="22"/>
+      <c r="Y128" s="22"/>
+      <c r="Z128" s="22"/>
+      <c r="AA128" s="22"/>
+      <c r="AB128" s="22"/>
+      <c r="AC128" s="22"/>
+      <c r="AD128" s="22"/>
+      <c r="AE128" s="22"/>
+      <c r="AF128" s="22"/>
+      <c r="AG128" s="22"/>
+      <c r="AH128" s="22"/>
+      <c r="AI128" s="22"/>
+      <c r="AJ128" s="22"/>
+      <c r="AK128" s="22"/>
+      <c r="AL128" s="22"/>
+      <c r="AM128" s="22"/>
+      <c r="AN128" s="22"/>
+      <c r="AO128" s="22"/>
+      <c r="AP128" s="22"/>
+      <c r="AQ128" s="22"/>
+      <c r="AR128" s="22"/>
+      <c r="AS128" s="22"/>
+      <c r="AT128" s="22"/>
+      <c r="AU128" s="22"/>
+      <c r="AV128" s="22"/>
+      <c r="AW128" s="22"/>
+      <c r="AX128" s="22"/>
+      <c r="AY128" s="22"/>
+      <c r="AZ128" s="22"/>
+      <c r="BA128" s="22"/>
+      <c r="BB128" s="22"/>
+      <c r="BC128" s="22"/>
+      <c r="BD128" s="22"/>
+      <c r="BE128" s="22"/>
+      <c r="BF128" s="22"/>
+      <c r="BG128" s="22"/>
+      <c r="BH128" s="22"/>
+      <c r="BI128" s="22"/>
+      <c r="BJ128" s="22"/>
+      <c r="BK128" s="22"/>
+      <c r="BL128" s="22"/>
+      <c r="BM128" s="22"/>
+      <c r="BN128" s="22"/>
+    </row>
+    <row r="129" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A129" s="26">
+        <v>142</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C129" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="26"/>
-      <c r="G128" s="65">
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="65">
         <v>413</v>
       </c>
-      <c r="H128" s="65" t="s">
+      <c r="H129" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="I128" s="65"/>
-      <c r="J128" s="58" t="s">
+      <c r="I129" s="65"/>
+      <c r="J129" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K128" s="26"/>
-      <c r="L128" s="26"/>
-      <c r="M128" s="84" t="s">
+      <c r="K129" s="26"/>
+      <c r="L129" s="26"/>
+      <c r="M129" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="N128" s="33"/>
-      <c r="O128" s="33"/>
-    </row>
-    <row r="129" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A129" s="100" t="s">
+      <c r="N129" s="33"/>
+      <c r="O129" s="33"/>
+    </row>
+    <row r="130" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A130" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="B129" s="100"/>
-      <c r="C129" s="100"/>
-      <c r="D129" s="100"/>
-      <c r="E129" s="100"/>
-      <c r="F129" s="100"/>
-      <c r="G129" s="100"/>
-      <c r="H129" s="100"/>
-      <c r="I129" s="100"/>
-      <c r="J129" s="100"/>
-      <c r="K129" s="100"/>
-      <c r="L129" s="100"/>
-      <c r="M129" s="100"/>
-      <c r="N129" s="100"/>
-      <c r="O129" s="100"/>
-    </row>
-    <row r="130" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
+      <c r="B130" s="100"/>
+      <c r="C130" s="100"/>
+      <c r="D130" s="100"/>
+      <c r="E130" s="100"/>
+      <c r="F130" s="100"/>
+      <c r="G130" s="100"/>
+      <c r="H130" s="100"/>
+      <c r="I130" s="100"/>
+      <c r="J130" s="100"/>
+      <c r="K130" s="100"/>
+      <c r="L130" s="100"/>
+      <c r="M130" s="100"/>
+      <c r="N130" s="100"/>
+      <c r="O130" s="100"/>
+    </row>
+    <row r="131" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
         <v>154</v>
-      </c>
-      <c r="B130" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C130" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G130" s="4">
-        <v>200</v>
-      </c>
-      <c r="H130" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="I130" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J130" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L130" s="4">
-        <v>4006</v>
-      </c>
-      <c r="M130" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="N130" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="O130" s="49" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="131" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="8">
-        <v>151</v>
       </c>
       <c r="B131" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C131" s="96" t="s">
-        <v>271</v>
+      <c r="C131" s="49" t="s">
+        <v>277</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E131" s="5" t="s">
+      <c r="E131" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F131" s="5" t="s">
+      <c r="F131" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G131" s="38">
+      <c r="G131" s="4">
         <v>200</v>
       </c>
       <c r="H131" s="24" t="s">
@@ -32792,28 +32919,28 @@
       <c r="K131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L131" s="8">
-        <v>4005</v>
-      </c>
-      <c r="M131" s="96" t="s">
-        <v>271</v>
+      <c r="L131" s="4">
+        <v>4006</v>
+      </c>
+      <c r="M131" s="49" t="s">
+        <v>277</v>
       </c>
       <c r="N131" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O131" s="96" t="s">
-        <v>270</v>
+      <c r="O131" s="49" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
-        <v>97</v>
+      <c r="A132" s="8">
+        <v>151</v>
       </c>
       <c r="B132" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C132" s="23" t="s">
-        <v>87</v>
+      <c r="C132" s="96" t="s">
+        <v>271</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>12</v>
@@ -32836,33 +32963,33 @@
       <c r="J132" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K132" s="5" t="s">
-        <v>32</v>
+      <c r="K132" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="L132" s="8">
-        <v>4002</v>
-      </c>
-      <c r="M132" s="32" t="s">
-        <v>40</v>
+        <v>4005</v>
+      </c>
+      <c r="M132" s="96" t="s">
+        <v>271</v>
       </c>
       <c r="N132" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O132" s="31" t="s">
-        <v>64</v>
+      <c r="O132" s="96" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B133" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C133" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D133" s="26" t="s">
+      <c r="C133" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E133" s="5" t="s">
@@ -32883,31 +33010,31 @@
       <c r="J133" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K133" s="26" t="s">
+      <c r="K133" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L133" s="26">
-        <v>4003</v>
+      <c r="L133" s="8">
+        <v>4002</v>
       </c>
       <c r="M133" s="32" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="N133" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O133" s="33" t="s">
-        <v>1</v>
+      <c r="O133" s="31" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B134" s="31" t="s">
         <v>135</v>
       </c>
       <c r="C134" s="27" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="D134" s="26" t="s">
         <v>12</v>
@@ -32934,35 +33061,35 @@
         <v>32</v>
       </c>
       <c r="L134" s="26">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="M134" s="32" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="N134" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O134" s="31" t="s">
-        <v>186</v>
+      <c r="O134" s="33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B135" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D135" s="4">
-        <v>8</v>
-      </c>
-      <c r="E135" s="24" t="s">
+      <c r="C135" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F135" s="24" t="s">
+      <c r="F135" s="5" t="s">
         <v>142</v>
       </c>
       <c r="G135" s="38">
@@ -32974,217 +33101,217 @@
       <c r="I135" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J135" s="4" t="s">
+      <c r="J135" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K135" s="4" t="s">
+      <c r="K135" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L135" s="26">
+        <v>4004</v>
+      </c>
+      <c r="M135" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="N135" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="O135" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>99</v>
+      </c>
+      <c r="B136" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D136" s="4">
+        <v>8</v>
+      </c>
+      <c r="E136" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F136" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G136" s="38">
+        <v>200</v>
+      </c>
+      <c r="H136" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I136" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L135" s="4">
+      <c r="L136" s="4">
         <v>1010</v>
       </c>
-      <c r="M135" s="30" t="s">
+      <c r="M136" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N135" s="30" t="s">
+      <c r="N136" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="O135" s="30" t="s">
+      <c r="O136" s="30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="99" t="s">
+    <row r="137" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="B136" s="99"/>
-      <c r="C136" s="99"/>
-      <c r="D136" s="99"/>
-      <c r="E136" s="99"/>
-      <c r="F136" s="99"/>
-      <c r="G136" s="99"/>
-      <c r="H136" s="99"/>
-      <c r="I136" s="99"/>
-      <c r="J136" s="99"/>
-      <c r="K136" s="99"/>
-      <c r="L136" s="99"/>
-      <c r="M136" s="99"/>
-      <c r="N136" s="99"/>
-      <c r="O136" s="99"/>
-    </row>
-    <row r="137" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A137" s="100" t="s">
+      <c r="B137" s="99"/>
+      <c r="C137" s="99"/>
+      <c r="D137" s="99"/>
+      <c r="E137" s="99"/>
+      <c r="F137" s="99"/>
+      <c r="G137" s="99"/>
+      <c r="H137" s="99"/>
+      <c r="I137" s="99"/>
+      <c r="J137" s="99"/>
+      <c r="K137" s="99"/>
+      <c r="L137" s="99"/>
+      <c r="M137" s="99"/>
+      <c r="N137" s="99"/>
+      <c r="O137" s="99"/>
+    </row>
+    <row r="138" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A138" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B137" s="100"/>
-      <c r="C137" s="100"/>
-      <c r="D137" s="100"/>
-      <c r="E137" s="100"/>
-      <c r="F137" s="100"/>
-      <c r="G137" s="100"/>
-      <c r="H137" s="100"/>
-      <c r="I137" s="100"/>
-      <c r="J137" s="100"/>
-      <c r="K137" s="100"/>
-      <c r="L137" s="100"/>
-      <c r="M137" s="100"/>
-      <c r="N137" s="100"/>
-      <c r="O137" s="100"/>
-    </row>
-    <row r="138" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="92">
+      <c r="B138" s="100"/>
+      <c r="C138" s="100"/>
+      <c r="D138" s="100"/>
+      <c r="E138" s="100"/>
+      <c r="F138" s="100"/>
+      <c r="G138" s="100"/>
+      <c r="H138" s="100"/>
+      <c r="I138" s="100"/>
+      <c r="J138" s="100"/>
+      <c r="K138" s="100"/>
+      <c r="L138" s="100"/>
+      <c r="M138" s="100"/>
+      <c r="N138" s="100"/>
+      <c r="O138" s="100"/>
+    </row>
+    <row r="139" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="92">
         <v>146</v>
-      </c>
-      <c r="B138" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C138" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D138" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F138" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="G138" s="92">
-        <v>403</v>
-      </c>
-      <c r="H138" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I138" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J138" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="K138" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="L138" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M138" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N138" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O138" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="P138" s="21"/>
-      <c r="Q138" s="21"/>
-      <c r="R138" s="21"/>
-      <c r="S138" s="21"/>
-      <c r="T138" s="21"/>
-      <c r="U138" s="21"/>
-      <c r="V138" s="21"/>
-      <c r="W138" s="21"/>
-      <c r="X138" s="21"/>
-      <c r="Y138" s="21"/>
-      <c r="Z138" s="21"/>
-      <c r="AA138" s="21"/>
-      <c r="AB138" s="21"/>
-      <c r="AC138" s="21"/>
-      <c r="AD138" s="21"/>
-      <c r="AE138" s="21"/>
-      <c r="AF138" s="21"/>
-      <c r="AG138" s="21"/>
-      <c r="AH138" s="21"/>
-      <c r="AI138" s="21"/>
-      <c r="AJ138" s="21"/>
-      <c r="AK138" s="21"/>
-      <c r="AL138" s="21"/>
-      <c r="AM138" s="21"/>
-      <c r="AN138" s="21"/>
-      <c r="AO138" s="21"/>
-      <c r="AP138" s="21"/>
-      <c r="AQ138" s="21"/>
-      <c r="AR138" s="21"/>
-      <c r="AS138" s="21"/>
-      <c r="AT138" s="21"/>
-      <c r="AU138" s="21"/>
-      <c r="AV138" s="21"/>
-      <c r="AW138" s="21"/>
-      <c r="AX138" s="21"/>
-      <c r="AY138" s="21"/>
-      <c r="AZ138" s="21"/>
-      <c r="BA138" s="21"/>
-      <c r="BB138" s="21"/>
-      <c r="BC138" s="21"/>
-      <c r="BD138" s="21"/>
-      <c r="BE138" s="21"/>
-      <c r="BF138" s="21"/>
-      <c r="BG138" s="21"/>
-      <c r="BH138" s="21"/>
-      <c r="BI138" s="21"/>
-      <c r="BJ138" s="21"/>
-      <c r="BK138" s="21"/>
-      <c r="BL138" s="21"/>
-      <c r="BM138" s="21"/>
-      <c r="BN138" s="21"/>
-    </row>
-    <row r="139" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
-        <v>102</v>
       </c>
       <c r="B139" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C139" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D139" s="4" t="s">
+      <c r="C139" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D139" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="E139" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F139" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G139" s="24">
-        <v>401</v>
-      </c>
-      <c r="H139" s="65" t="s">
+      <c r="G139" s="92">
+        <v>403</v>
+      </c>
+      <c r="H139" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I139" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J139" s="4" t="s">
+      <c r="J139" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K139" s="4" t="s">
+      <c r="K139" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L139" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M139" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N139" s="32" t="s">
+      <c r="L139" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M139" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N139" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O139" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="O139" s="49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P139" s="21"/>
+      <c r="Q139" s="21"/>
+      <c r="R139" s="21"/>
+      <c r="S139" s="21"/>
+      <c r="T139" s="21"/>
+      <c r="U139" s="21"/>
+      <c r="V139" s="21"/>
+      <c r="W139" s="21"/>
+      <c r="X139" s="21"/>
+      <c r="Y139" s="21"/>
+      <c r="Z139" s="21"/>
+      <c r="AA139" s="21"/>
+      <c r="AB139" s="21"/>
+      <c r="AC139" s="21"/>
+      <c r="AD139" s="21"/>
+      <c r="AE139" s="21"/>
+      <c r="AF139" s="21"/>
+      <c r="AG139" s="21"/>
+      <c r="AH139" s="21"/>
+      <c r="AI139" s="21"/>
+      <c r="AJ139" s="21"/>
+      <c r="AK139" s="21"/>
+      <c r="AL139" s="21"/>
+      <c r="AM139" s="21"/>
+      <c r="AN139" s="21"/>
+      <c r="AO139" s="21"/>
+      <c r="AP139" s="21"/>
+      <c r="AQ139" s="21"/>
+      <c r="AR139" s="21"/>
+      <c r="AS139" s="21"/>
+      <c r="AT139" s="21"/>
+      <c r="AU139" s="21"/>
+      <c r="AV139" s="21"/>
+      <c r="AW139" s="21"/>
+      <c r="AX139" s="21"/>
+      <c r="AY139" s="21"/>
+      <c r="AZ139" s="21"/>
+      <c r="BA139" s="21"/>
+      <c r="BB139" s="21"/>
+      <c r="BC139" s="21"/>
+      <c r="BD139" s="21"/>
+      <c r="BE139" s="21"/>
+      <c r="BF139" s="21"/>
+      <c r="BG139" s="21"/>
+      <c r="BH139" s="21"/>
+      <c r="BI139" s="21"/>
+      <c r="BJ139" s="21"/>
+      <c r="BK139" s="21"/>
+      <c r="BL139" s="21"/>
+      <c r="BM139" s="21"/>
+      <c r="BN139" s="21"/>
+    </row>
+    <row r="140" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B140" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C140" s="23" t="s">
-        <v>149</v>
+      <c r="C140" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>12</v>
@@ -33211,39 +33338,39 @@
         <v>34</v>
       </c>
       <c r="L140" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M140" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N140" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O140" s="47" t="s">
+      <c r="O140" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B141" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="D141" s="24">
-        <v>201</v>
-      </c>
-      <c r="E141" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F141" s="24" t="s">
+      <c r="F141" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G141" s="44">
-        <v>400</v>
+      <c r="G141" s="24">
+        <v>401</v>
       </c>
       <c r="H141" s="65" t="s">
         <v>218</v>
@@ -33251,34 +33378,34 @@
       <c r="I141" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J141" s="24" t="s">
+      <c r="J141" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K141" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L141" s="40">
-        <v>1003</v>
-      </c>
-      <c r="M141" s="32" t="s">
-        <v>14</v>
+      <c r="K141" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L141" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M141" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="N141" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="O141" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="142" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="O141" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B142" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="D142" s="24">
         <v>201</v>
@@ -33289,7 +33416,7 @@
       <c r="F142" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G142" s="24">
+      <c r="G142" s="44">
         <v>400</v>
       </c>
       <c r="H142" s="65" t="s">
@@ -33302,13 +33429,13 @@
         <v>7</v>
       </c>
       <c r="K142" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L142" s="25">
-        <v>1004</v>
+        <v>32</v>
+      </c>
+      <c r="L142" s="40">
+        <v>1003</v>
       </c>
       <c r="M142" s="32" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N142" s="32" t="s">
         <v>57</v>
@@ -33317,26 +33444,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B143" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C143" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D143" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143" s="53" t="s">
+      <c r="C143" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D143" s="24">
+        <v>201</v>
+      </c>
+      <c r="E143" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F143" s="53" t="s">
+      <c r="F143" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G143" s="54">
+      <c r="G143" s="24">
         <v>400</v>
       </c>
       <c r="H143" s="65" t="s">
@@ -33345,46 +33472,46 @@
       <c r="I143" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J143" s="53" t="s">
+      <c r="J143" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K143" s="54" t="s">
+      <c r="K143" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L143" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M143" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N143" s="52" t="s">
+      <c r="L143" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M143" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N143" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O143" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="O143" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B144" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C144" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D144" s="24">
-        <v>202</v>
-      </c>
-      <c r="E144" s="24" t="s">
+      <c r="C144" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D144" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F144" s="24" t="s">
+      <c r="F144" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G144" s="44">
-        <v>403</v>
+      <c r="G144" s="54">
+        <v>400</v>
       </c>
       <c r="H144" s="65" t="s">
         <v>218</v>
@@ -33392,34 +33519,34 @@
       <c r="I144" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J144" s="24" t="s">
+      <c r="J144" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K144" s="24" t="s">
+      <c r="K144" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L144" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M144" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N144" s="32" t="s">
+      <c r="L144" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M144" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N144" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="O144" s="30" t="s">
-        <v>61</v>
+      <c r="O144" s="63" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B145" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D145" s="24">
         <v>202</v>
@@ -33443,13 +33570,13 @@
         <v>7</v>
       </c>
       <c r="K145" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L145" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M145" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N145" s="32" t="s">
         <v>57</v>
@@ -33458,15 +33585,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B146" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D146" s="24">
         <v>202</v>
@@ -33477,7 +33604,7 @@
       <c r="F146" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G146" s="24">
+      <c r="G146" s="44">
         <v>403</v>
       </c>
       <c r="H146" s="65" t="s">
@@ -33493,10 +33620,10 @@
         <v>32</v>
       </c>
       <c r="L146" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M146" s="32" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N146" s="32" t="s">
         <v>57</v>
@@ -33507,13 +33634,13 @@
     </row>
     <row r="147" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B147" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="D147" s="24">
         <v>202</v>
@@ -33539,11 +33666,11 @@
       <c r="K147" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L147" s="65">
-        <v>5001</v>
+      <c r="L147" s="25">
+        <v>1008</v>
       </c>
       <c r="M147" s="32" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="N147" s="32" t="s">
         <v>57</v>
@@ -33552,15 +33679,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B148" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D148" s="24">
         <v>202</v>
@@ -33571,7 +33698,7 @@
       <c r="F148" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G148" s="44">
+      <c r="G148" s="24">
         <v>403</v>
       </c>
       <c r="H148" s="65" t="s">
@@ -33584,42 +33711,42 @@
         <v>7</v>
       </c>
       <c r="K148" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L148" s="24">
-        <v>1011</v>
+        <v>32</v>
+      </c>
+      <c r="L148" s="65">
+        <v>5001</v>
       </c>
       <c r="M148" s="32" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="N148" s="32" t="s">
         <v>57</v>
       </c>
       <c r="O148" s="30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B149" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D149" s="4">
-        <v>203</v>
-      </c>
-      <c r="E149" s="4" t="s">
+      <c r="C149" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D149" s="24">
+        <v>202</v>
+      </c>
+      <c r="E149" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="F149" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G149" s="24">
-        <v>400</v>
+      <c r="G149" s="44">
+        <v>403</v>
       </c>
       <c r="H149" s="65" t="s">
         <v>218</v>
@@ -33627,34 +33754,34 @@
       <c r="I149" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J149" s="4" t="s">
+      <c r="J149" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K149" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L149" s="20">
-        <v>5005</v>
-      </c>
-      <c r="M149" s="30" t="s">
-        <v>180</v>
+      <c r="K149" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L149" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M149" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N149" s="32" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="O149" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="26">
-        <v>132</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>112</v>
       </c>
       <c r="B150" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C150" s="57" t="s">
-        <v>197</v>
+      <c r="C150" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="D150" s="4">
         <v>203</v>
@@ -33674,19 +33801,19 @@
       <c r="I150" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J150" s="58" t="s">
+      <c r="J150" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K150" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L150" s="26">
-        <v>3003</v>
-      </c>
-      <c r="M150" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="N150" s="33" t="s">
+      <c r="L150" s="20">
+        <v>5005</v>
+      </c>
+      <c r="M150" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="N150" s="32" t="s">
         <v>216</v>
       </c>
       <c r="O150" s="30" t="s">
@@ -33695,16 +33822,16 @@
     </row>
     <row r="151" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A151" s="26">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B151" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C151" s="57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D151" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>142</v>
@@ -33728,30 +33855,30 @@
         <v>11</v>
       </c>
       <c r="L151" s="26">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="M151" s="57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N151" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O151" s="56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="8">
-        <v>130</v>
+      <c r="O151" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="26">
+        <v>131</v>
       </c>
       <c r="B152" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C152" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>12</v>
+        <v>198</v>
+      </c>
+      <c r="D152" s="4">
+        <v>204</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>142</v>
@@ -33775,30 +33902,30 @@
         <v>11</v>
       </c>
       <c r="L152" s="26">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="M152" s="57" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N152" s="33" t="s">
         <v>216</v>
       </c>
       <c r="O152" s="56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B153" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C153" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="D153" s="4">
         <v>203</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>142</v>
@@ -33822,30 +33949,30 @@
         <v>11</v>
       </c>
       <c r="L153" s="26">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="M153" s="57" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N153" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O153" s="57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A154" s="26">
-        <v>129</v>
+      <c r="O153" s="56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="8">
+        <v>128</v>
       </c>
       <c r="B154" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C154" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>12</v>
+      <c r="C154" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D154" s="4">
+        <v>203</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>142</v>
@@ -33853,8 +33980,8 @@
       <c r="F154" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G154" s="65">
-        <v>404</v>
+      <c r="G154" s="24">
+        <v>400</v>
       </c>
       <c r="H154" s="65" t="s">
         <v>218</v>
@@ -33868,11 +33995,11 @@
       <c r="K154" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L154" s="66">
-        <v>3007</v>
-      </c>
-      <c r="M154" s="67" t="s">
-        <v>207</v>
+      <c r="L154" s="26">
+        <v>3006</v>
+      </c>
+      <c r="M154" s="57" t="s">
+        <v>200</v>
       </c>
       <c r="N154" s="33" t="s">
         <v>216</v>
@@ -33882,21 +34009,51 @@
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" s="20"/>
-      <c r="B155" s="21"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="45"/>
-      <c r="H155" s="45"/>
-      <c r="I155" s="45"/>
-      <c r="J155" s="20"/>
-      <c r="K155" s="20"/>
-      <c r="L155" s="20"/>
-      <c r="M155" s="34"/>
-      <c r="N155" s="21"/>
-      <c r="O155" s="21"/>
+      <c r="A155" s="26">
+        <v>129</v>
+      </c>
+      <c r="B155" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C155" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G155" s="65">
+        <v>404</v>
+      </c>
+      <c r="H155" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="I155" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J155" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L155" s="66">
+        <v>3007</v>
+      </c>
+      <c r="M155" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="N155" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="O155" s="57" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
@@ -33910,6 +34067,7 @@
       <c r="I156" s="45"/>
       <c r="J156" s="20"/>
       <c r="K156" s="20"/>
+      <c r="L156" s="20"/>
       <c r="M156" s="34"/>
       <c r="N156" s="21"/>
       <c r="O156" s="21"/>
@@ -33926,7 +34084,6 @@
       <c r="I157" s="45"/>
       <c r="J157" s="20"/>
       <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
       <c r="M157" s="34"/>
       <c r="N157" s="21"/>
       <c r="O157" s="21"/>
@@ -34198,6 +34355,7 @@
       <c r="I173" s="45"/>
       <c r="J173" s="20"/>
       <c r="K173" s="20"/>
+      <c r="L173" s="20"/>
       <c r="M173" s="34"/>
       <c r="N173" s="21"/>
       <c r="O173" s="21"/>
@@ -34214,7 +34372,6 @@
       <c r="I174" s="45"/>
       <c r="J174" s="20"/>
       <c r="K174" s="20"/>
-      <c r="L174" s="20"/>
       <c r="M174" s="34"/>
       <c r="N174" s="21"/>
       <c r="O174" s="21"/>
@@ -39098,34 +39255,51 @@
       <c r="N461" s="21"/>
       <c r="O461" s="21"/>
     </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A462" s="20"/>
+      <c r="B462" s="21"/>
+      <c r="C462" s="22"/>
+      <c r="D462" s="20"/>
+      <c r="E462" s="20"/>
+      <c r="F462" s="20"/>
+      <c r="G462" s="45"/>
+      <c r="H462" s="45"/>
+      <c r="I462" s="45"/>
+      <c r="J462" s="20"/>
+      <c r="K462" s="20"/>
+      <c r="L462" s="20"/>
+      <c r="M462" s="34"/>
+      <c r="N462" s="21"/>
+      <c r="O462" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="G1:G461"/>
+  <autoFilter ref="G1:G462" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A137:O137"/>
+    <mergeCell ref="A138:O138"/>
+    <mergeCell ref="A130:O130"/>
+    <mergeCell ref="A111:O111"/>
+    <mergeCell ref="A115:O115"/>
+    <mergeCell ref="A90:O90"/>
+    <mergeCell ref="A89:O89"/>
+    <mergeCell ref="A114:O114"/>
+    <mergeCell ref="A76:O76"/>
+    <mergeCell ref="A62:O62"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A60:O60"/>
-    <mergeCell ref="A74:O74"/>
-    <mergeCell ref="A89:O89"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="A113:O113"/>
+    <mergeCell ref="A61:O61"/>
     <mergeCell ref="A75:O75"/>
-    <mergeCell ref="A61:O61"/>
-    <mergeCell ref="A136:O136"/>
-    <mergeCell ref="A137:O137"/>
-    <mergeCell ref="A129:O129"/>
-    <mergeCell ref="A110:O110"/>
-    <mergeCell ref="A114:O114"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J69:J73 J130:J135 J51:J58 J83:J87 J7:J8 J66:J67 J80:J81 J93:J95 J118:J120 J141:J142 J10:J16 J144:J154 J122:J128 J111:J112 J28:J49 J25 J19:J20 J97:J109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J70:J74 J131:J136 J84:J88 J7:J8 J67:J68 J81:J82 J94:J96 J119:J121 J142:J143 J10:J16 J145:J155 J123:J129 J112:J113 J28:J49 J25 J19:J20 J98:J110 J51:J60" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K130:K132 K69:K73 K83:K87 K135 K7:K8 K66:K67 K80:K81 K93:K95 K118:K120 K141:K142 K10:K16 K97:K109 K144:K154 K122:K128 K111:K112 K25:K49 K19:K20 K51:K58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K131:K133 K70:K74 K84:K88 K136 K7:K8 K67:K68 K81:K82 K94:K96 K119:K121 K142:K143 K10:K16 K98:K110 K145:K155 K123:K129 K112:K113 K25:K49 K19:K20 K51:K60" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L69:L73 L10:L14 L83:L87 L112 L135 L51:L55 L148:L149 L144:L146 L7:L8 L66:L67 L80:L81 L93:L95 L118:L120 L141:L142 L16 L39:L48 L97:L102 L122:L124 L126:L128 L28 L30:L37 L25 L19:L20 L132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L70:L74 L10:L14 L84:L88 L113 L136 L51:L55 L149:L150 L145:L147 L7:L8 L67:L68 L81:L82 L94:L96 L119:L121 L142:L143 L16 L39:L48 L98:L103 L123:L125 L127:L129 L28 L30:L37 L25 L19:L20 L133" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -39137,8 +39311,8 @@
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="20" max="16383" man="1"/>
-    <brk id="59" max="16383" man="1"/>
-    <brk id="87" max="9" man="1"/>
+    <brk id="60" max="16383" man="1"/>
+    <brk id="88" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8CE2B5-8E09-40FC-B031-AB4978167F21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19C76D4-1D5F-4A65-8E84-A995F1A6CD83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$462</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$463</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$133</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$134</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="289">
   <si>
     <t>Payslip</t>
   </si>
@@ -964,6 +964,12 @@
 •	1 where pay frequency is annual;
 •	1-52 where pay frequency is other.</t>
   </si>
+  <si>
+    <t>Payslips containing J9 PRSI class cannot be amended or deleted.</t>
+  </si>
+  <si>
+    <t>lineItemID</t>
+  </si>
 </sst>
 </file>
 
@@ -22238,10 +22244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B8:M66"/>
+  <dimension ref="B8:M67"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A41" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22899,6 +22905,15 @@
         <v>164</v>
       </c>
     </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="79"/>
+      <c r="C67" s="79">
+        <v>158</v>
+      </c>
+      <c r="D67" s="80" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:E9"/>
@@ -22914,11 +22929,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BN462"/>
+  <dimension ref="A1:BN463"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -26684,7 +26699,7 @@
     </row>
     <row r="60" spans="1:66" s="7" customFormat="1" ht="220.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>100</v>
@@ -26780,94 +26795,122 @@
       <c r="BM60" s="22"/>
       <c r="BN60" s="22"/>
     </row>
-    <row r="61" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="101" t="s">
+    <row r="61" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>158</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="D61" s="4">
+        <v>56</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G61" s="24">
+        <v>200</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="J61" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="10">
+        <v>2054</v>
+      </c>
+      <c r="M61" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="N61" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O61" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="22"/>
+      <c r="T61" s="22"/>
+      <c r="U61" s="22"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
+      <c r="X61" s="22"/>
+      <c r="Y61" s="22"/>
+      <c r="Z61" s="22"/>
+      <c r="AA61" s="22"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="22"/>
+      <c r="AD61" s="22"/>
+      <c r="AE61" s="22"/>
+      <c r="AF61" s="22"/>
+      <c r="AG61" s="22"/>
+      <c r="AH61" s="22"/>
+      <c r="AI61" s="22"/>
+      <c r="AJ61" s="22"/>
+      <c r="AK61" s="22"/>
+      <c r="AL61" s="22"/>
+      <c r="AM61" s="22"/>
+      <c r="AN61" s="22"/>
+      <c r="AO61" s="22"/>
+      <c r="AP61" s="22"/>
+      <c r="AQ61" s="22"/>
+      <c r="AR61" s="22"/>
+      <c r="AS61" s="22"/>
+      <c r="AT61" s="22"/>
+      <c r="AU61" s="22"/>
+      <c r="AV61" s="22"/>
+      <c r="AW61" s="22"/>
+      <c r="AX61" s="22"/>
+      <c r="AY61" s="22"/>
+      <c r="AZ61" s="22"/>
+      <c r="BA61" s="22"/>
+      <c r="BB61" s="22"/>
+      <c r="BC61" s="22"/>
+      <c r="BD61" s="22"/>
+      <c r="BE61" s="22"/>
+      <c r="BF61" s="22"/>
+      <c r="BG61" s="22"/>
+      <c r="BH61" s="22"/>
+      <c r="BI61" s="22"/>
+      <c r="BJ61" s="22"/>
+      <c r="BK61" s="22"/>
+      <c r="BL61" s="22"/>
+      <c r="BM61" s="22"/>
+      <c r="BN61" s="22"/>
+    </row>
+    <row r="62" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="102"/>
-      <c r="C61" s="102"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="102"/>
-      <c r="I61" s="102"/>
-      <c r="J61" s="102"/>
-      <c r="K61" s="102"/>
-      <c r="L61" s="102"/>
-      <c r="M61" s="102"/>
-      <c r="N61" s="102"/>
-      <c r="O61" s="103"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="21"/>
-      <c r="T61" s="21"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="21"/>
-      <c r="W61" s="21"/>
-      <c r="X61" s="21"/>
-      <c r="Y61" s="21"/>
-      <c r="Z61" s="21"/>
-      <c r="AA61" s="21"/>
-      <c r="AB61" s="21"/>
-      <c r="AC61" s="21"/>
-      <c r="AD61" s="21"/>
-      <c r="AE61" s="21"/>
-      <c r="AF61" s="21"/>
-      <c r="AG61" s="21"/>
-      <c r="AH61" s="21"/>
-      <c r="AI61" s="21"/>
-      <c r="AJ61" s="21"/>
-      <c r="AK61" s="21"/>
-      <c r="AL61" s="21"/>
-      <c r="AM61" s="21"/>
-      <c r="AN61" s="21"/>
-      <c r="AO61" s="21"/>
-      <c r="AP61" s="21"/>
-      <c r="AQ61" s="21"/>
-      <c r="AR61" s="21"/>
-      <c r="AS61" s="21"/>
-      <c r="AT61" s="21"/>
-      <c r="AU61" s="21"/>
-      <c r="AV61" s="21"/>
-      <c r="AW61" s="21"/>
-      <c r="AX61" s="21"/>
-      <c r="AY61" s="21"/>
-      <c r="AZ61" s="21"/>
-      <c r="BA61" s="21"/>
-      <c r="BB61" s="21"/>
-      <c r="BC61" s="21"/>
-      <c r="BD61" s="21"/>
-      <c r="BE61" s="21"/>
-      <c r="BF61" s="21"/>
-      <c r="BG61" s="21"/>
-      <c r="BH61" s="21"/>
-      <c r="BI61" s="21"/>
-      <c r="BJ61" s="21"/>
-      <c r="BK61" s="21"/>
-      <c r="BL61" s="21"/>
-      <c r="BM61" s="21"/>
-      <c r="BN61" s="21"/>
-    </row>
-    <row r="62" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="100"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="100"/>
-      <c r="G62" s="100"/>
-      <c r="H62" s="100"/>
-      <c r="I62" s="100"/>
-      <c r="J62" s="100"/>
-      <c r="K62" s="100"/>
-      <c r="L62" s="100"/>
-      <c r="M62" s="100"/>
-      <c r="N62" s="100"/>
-      <c r="O62" s="100"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="102"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="102"/>
+      <c r="K62" s="102"/>
+      <c r="L62" s="102"/>
+      <c r="M62" s="102"/>
+      <c r="N62" s="102"/>
+      <c r="O62" s="103"/>
       <c r="P62" s="21"/>
       <c r="Q62" s="21"/>
       <c r="R62" s="21"/>
@@ -26920,52 +26963,24 @@
       <c r="BM62" s="21"/>
       <c r="BN62" s="21"/>
     </row>
-    <row r="63" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="92">
+    <row r="63" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B63" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C63" s="93" t="s">
-        <v>256</v>
-      </c>
-      <c r="D63" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F63" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="G63" s="92">
-        <v>403</v>
-      </c>
-      <c r="H63" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J63" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="K63" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="L63" s="92">
-        <v>1111</v>
-      </c>
-      <c r="M63" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="N63" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O63" s="30" t="s">
-        <v>61</v>
-      </c>
+      <c r="B63" s="100"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="100"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="100"/>
+      <c r="K63" s="100"/>
+      <c r="L63" s="100"/>
+      <c r="M63" s="100"/>
+      <c r="N63" s="100"/>
+      <c r="O63" s="100"/>
       <c r="P63" s="21"/>
       <c r="Q63" s="21"/>
       <c r="R63" s="21"/>
@@ -27018,15 +27033,15 @@
       <c r="BM63" s="21"/>
       <c r="BN63" s="21"/>
     </row>
-    <row r="64" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="92">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B64" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C64" s="93" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D64" s="92" t="s">
         <v>12</v>
@@ -27053,16 +27068,16 @@
         <v>34</v>
       </c>
       <c r="L64" s="92">
-        <v>1016</v>
+        <v>1111</v>
       </c>
       <c r="M64" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N64" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O64" s="93" t="s">
-        <v>12</v>
+        <v>255</v>
+      </c>
+      <c r="N64" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O64" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="P64" s="21"/>
       <c r="Q64" s="21"/>
@@ -27116,50 +27131,50 @@
       <c r="BM64" s="21"/>
       <c r="BN64" s="21"/>
     </row>
-    <row r="65" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>52</v>
+    <row r="65" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="92">
+        <v>146</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="C65" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D65" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G65" s="24">
-        <v>401</v>
-      </c>
-      <c r="H65" s="58" t="s">
+      <c r="G65" s="92">
+        <v>403</v>
+      </c>
+      <c r="H65" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I65" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="J65" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="K65" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L65" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M65" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N65" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O65" s="49" t="s">
+      <c r="L65" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M65" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N65" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O65" s="93" t="s">
         <v>12</v>
       </c>
       <c r="P65" s="21"/>
@@ -27214,15 +27229,15 @@
       <c r="BM65" s="21"/>
       <c r="BN65" s="21"/>
     </row>
-    <row r="66" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B66" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="23" t="s">
-        <v>149</v>
+      <c r="C66" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>12</v>
@@ -27249,15 +27264,15 @@
         <v>34</v>
       </c>
       <c r="L66" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M66" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N66" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O66" s="47" t="s">
+      <c r="O66" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P66" s="21"/>
@@ -27312,15 +27327,15 @@
       <c r="BM66" s="21"/>
       <c r="BN66" s="21"/>
     </row>
-    <row r="67" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>12</v>
@@ -27332,7 +27347,7 @@
         <v>142</v>
       </c>
       <c r="G67" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H67" s="58" t="s">
         <v>218</v>
@@ -27340,85 +27355,85 @@
       <c r="I67" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J67" s="24" t="s">
+      <c r="J67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K67" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L67" s="24">
-        <v>1003</v>
-      </c>
-      <c r="M67" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="N67" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O67" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="22"/>
-      <c r="U67" s="22"/>
-      <c r="V67" s="22"/>
-      <c r="W67" s="22"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="22"/>
-      <c r="Z67" s="22"/>
-      <c r="AA67" s="22"/>
-      <c r="AB67" s="22"/>
-      <c r="AC67" s="22"/>
-      <c r="AD67" s="22"/>
-      <c r="AE67" s="22"/>
-      <c r="AF67" s="22"/>
-      <c r="AG67" s="22"/>
-      <c r="AH67" s="22"/>
-      <c r="AI67" s="22"/>
-      <c r="AJ67" s="22"/>
-      <c r="AK67" s="22"/>
-      <c r="AL67" s="22"/>
-      <c r="AM67" s="22"/>
-      <c r="AN67" s="22"/>
-      <c r="AO67" s="22"/>
-      <c r="AP67" s="22"/>
-      <c r="AQ67" s="22"/>
-      <c r="AR67" s="22"/>
-      <c r="AS67" s="22"/>
-      <c r="AT67" s="22"/>
-      <c r="AU67" s="22"/>
-      <c r="AV67" s="22"/>
-      <c r="AW67" s="22"/>
-      <c r="AX67" s="22"/>
-      <c r="AY67" s="22"/>
-      <c r="AZ67" s="22"/>
-      <c r="BA67" s="22"/>
-      <c r="BB67" s="22"/>
-      <c r="BC67" s="22"/>
-      <c r="BD67" s="22"/>
-      <c r="BE67" s="22"/>
-      <c r="BF67" s="22"/>
-      <c r="BG67" s="22"/>
-      <c r="BH67" s="22"/>
-      <c r="BI67" s="22"/>
-      <c r="BJ67" s="22"/>
-      <c r="BK67" s="22"/>
-      <c r="BL67" s="22"/>
-      <c r="BM67" s="22"/>
-      <c r="BN67" s="22"/>
-    </row>
-    <row r="68" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K67" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L67" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M67" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N67" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O67" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="21"/>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="21"/>
+      <c r="Z67" s="21"/>
+      <c r="AA67" s="21"/>
+      <c r="AB67" s="21"/>
+      <c r="AC67" s="21"/>
+      <c r="AD67" s="21"/>
+      <c r="AE67" s="21"/>
+      <c r="AF67" s="21"/>
+      <c r="AG67" s="21"/>
+      <c r="AH67" s="21"/>
+      <c r="AI67" s="21"/>
+      <c r="AJ67" s="21"/>
+      <c r="AK67" s="21"/>
+      <c r="AL67" s="21"/>
+      <c r="AM67" s="21"/>
+      <c r="AN67" s="21"/>
+      <c r="AO67" s="21"/>
+      <c r="AP67" s="21"/>
+      <c r="AQ67" s="21"/>
+      <c r="AR67" s="21"/>
+      <c r="AS67" s="21"/>
+      <c r="AT67" s="21"/>
+      <c r="AU67" s="21"/>
+      <c r="AV67" s="21"/>
+      <c r="AW67" s="21"/>
+      <c r="AX67" s="21"/>
+      <c r="AY67" s="21"/>
+      <c r="AZ67" s="21"/>
+      <c r="BA67" s="21"/>
+      <c r="BB67" s="21"/>
+      <c r="BC67" s="21"/>
+      <c r="BD67" s="21"/>
+      <c r="BE67" s="21"/>
+      <c r="BF67" s="21"/>
+      <c r="BG67" s="21"/>
+      <c r="BH67" s="21"/>
+      <c r="BI67" s="21"/>
+      <c r="BJ67" s="21"/>
+      <c r="BK67" s="21"/>
+      <c r="BL67" s="21"/>
+      <c r="BM67" s="21"/>
+      <c r="BN67" s="21"/>
+    </row>
+    <row r="68" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>12</v>
@@ -27442,13 +27457,13 @@
         <v>7</v>
       </c>
       <c r="K68" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L68" s="25">
-        <v>1004</v>
+        <v>32</v>
+      </c>
+      <c r="L68" s="24">
+        <v>1003</v>
       </c>
       <c r="M68" s="32" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N68" s="30" t="s">
         <v>62</v>
@@ -27508,26 +27523,26 @@
       <c r="BM68" s="22"/>
       <c r="BN68" s="22"/>
     </row>
-    <row r="69" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D69" s="53" t="s">
+      <c r="C69" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="53" t="s">
+      <c r="E69" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F69" s="53" t="s">
+      <c r="F69" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G69" s="54">
+      <c r="G69" s="24">
         <v>400</v>
       </c>
       <c r="H69" s="58" t="s">
@@ -27536,46 +27551,97 @@
       <c r="I69" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J69" s="53" t="s">
+      <c r="J69" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K69" s="54" t="s">
+      <c r="K69" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L69" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M69" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N69" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O69" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L69" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M69" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O69" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="22"/>
+      <c r="AD69" s="22"/>
+      <c r="AE69" s="22"/>
+      <c r="AF69" s="22"/>
+      <c r="AG69" s="22"/>
+      <c r="AH69" s="22"/>
+      <c r="AI69" s="22"/>
+      <c r="AJ69" s="22"/>
+      <c r="AK69" s="22"/>
+      <c r="AL69" s="22"/>
+      <c r="AM69" s="22"/>
+      <c r="AN69" s="22"/>
+      <c r="AO69" s="22"/>
+      <c r="AP69" s="22"/>
+      <c r="AQ69" s="22"/>
+      <c r="AR69" s="22"/>
+      <c r="AS69" s="22"/>
+      <c r="AT69" s="22"/>
+      <c r="AU69" s="22"/>
+      <c r="AV69" s="22"/>
+      <c r="AW69" s="22"/>
+      <c r="AX69" s="22"/>
+      <c r="AY69" s="22"/>
+      <c r="AZ69" s="22"/>
+      <c r="BA69" s="22"/>
+      <c r="BB69" s="22"/>
+      <c r="BC69" s="22"/>
+      <c r="BD69" s="22"/>
+      <c r="BE69" s="22"/>
+      <c r="BF69" s="22"/>
+      <c r="BG69" s="22"/>
+      <c r="BH69" s="22"/>
+      <c r="BI69" s="22"/>
+      <c r="BJ69" s="22"/>
+      <c r="BK69" s="22"/>
+      <c r="BL69" s="22"/>
+      <c r="BM69" s="22"/>
+      <c r="BN69" s="22"/>
+    </row>
+    <row r="70" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" s="4" t="s">
+      <c r="C70" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G70" s="24">
-        <v>403</v>
+      <c r="G70" s="54">
+        <v>400</v>
       </c>
       <c r="H70" s="58" t="s">
         <v>218</v>
@@ -27583,85 +27649,34 @@
       <c r="I70" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J70" s="24" t="s">
+      <c r="J70" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K70" s="24" t="s">
+      <c r="K70" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L70" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M70" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N70" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O70" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="22"/>
-      <c r="S70" s="22"/>
-      <c r="T70" s="22"/>
-      <c r="U70" s="22"/>
-      <c r="V70" s="22"/>
-      <c r="W70" s="22"/>
-      <c r="X70" s="22"/>
-      <c r="Y70" s="22"/>
-      <c r="Z70" s="22"/>
-      <c r="AA70" s="22"/>
-      <c r="AB70" s="22"/>
-      <c r="AC70" s="22"/>
-      <c r="AD70" s="22"/>
-      <c r="AE70" s="22"/>
-      <c r="AF70" s="22"/>
-      <c r="AG70" s="22"/>
-      <c r="AH70" s="22"/>
-      <c r="AI70" s="22"/>
-      <c r="AJ70" s="22"/>
-      <c r="AK70" s="22"/>
-      <c r="AL70" s="22"/>
-      <c r="AM70" s="22"/>
-      <c r="AN70" s="22"/>
-      <c r="AO70" s="22"/>
-      <c r="AP70" s="22"/>
-      <c r="AQ70" s="22"/>
-      <c r="AR70" s="22"/>
-      <c r="AS70" s="22"/>
-      <c r="AT70" s="22"/>
-      <c r="AU70" s="22"/>
-      <c r="AV70" s="22"/>
-      <c r="AW70" s="22"/>
-      <c r="AX70" s="22"/>
-      <c r="AY70" s="22"/>
-      <c r="AZ70" s="22"/>
-      <c r="BA70" s="22"/>
-      <c r="BB70" s="22"/>
-      <c r="BC70" s="22"/>
-      <c r="BD70" s="22"/>
-      <c r="BE70" s="22"/>
-      <c r="BF70" s="22"/>
-      <c r="BG70" s="22"/>
-      <c r="BH70" s="22"/>
-      <c r="BI70" s="22"/>
-      <c r="BJ70" s="22"/>
-      <c r="BK70" s="22"/>
-      <c r="BL70" s="22"/>
-      <c r="BM70" s="22"/>
-      <c r="BN70" s="22"/>
+      <c r="L70" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M70" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N70" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O70" s="63" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="71" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>12</v>
@@ -27685,13 +27700,13 @@
         <v>7</v>
       </c>
       <c r="K71" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L71" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M71" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N71" s="30" t="s">
         <v>62</v>
@@ -27753,13 +27768,13 @@
     </row>
     <row r="72" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>12</v>
@@ -27786,10 +27801,10 @@
         <v>32</v>
       </c>
       <c r="L72" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M72" s="32" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N72" s="30" t="s">
         <v>62</v>
@@ -27851,15 +27866,15 @@
     </row>
     <row r="73" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D73" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="4" t="s">
@@ -27881,19 +27896,19 @@
         <v>7</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L73" s="24">
-        <v>1011</v>
+        <v>32</v>
+      </c>
+      <c r="L73" s="25">
+        <v>1008</v>
       </c>
       <c r="M73" s="32" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="N73" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O73" s="30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P73" s="22"/>
       <c r="Q73" s="22"/>
@@ -27949,15 +27964,15 @@
     </row>
     <row r="74" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B74" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D74" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="4" t="s">
@@ -27967,7 +27982,7 @@
         <v>142</v>
       </c>
       <c r="G74" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H74" s="58" t="s">
         <v>218</v>
@@ -27975,23 +27990,23 @@
       <c r="I74" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="J74" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="K74" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L74" s="4">
-        <v>2501</v>
-      </c>
-      <c r="M74" s="30" t="s">
-        <v>42</v>
+      <c r="L74" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M74" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N74" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O74" s="30" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="P74" s="22"/>
       <c r="Q74" s="22"/>
@@ -28045,94 +28060,122 @@
       <c r="BM74" s="22"/>
       <c r="BN74" s="22"/>
     </row>
-    <row r="75" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="99" t="s">
+    <row r="75" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>61</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G75" s="24">
+        <v>404</v>
+      </c>
+      <c r="H75" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L75" s="4">
+        <v>2501</v>
+      </c>
+      <c r="M75" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="N75" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="O75" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="22"/>
+      <c r="T75" s="22"/>
+      <c r="U75" s="22"/>
+      <c r="V75" s="22"/>
+      <c r="W75" s="22"/>
+      <c r="X75" s="22"/>
+      <c r="Y75" s="22"/>
+      <c r="Z75" s="22"/>
+      <c r="AA75" s="22"/>
+      <c r="AB75" s="22"/>
+      <c r="AC75" s="22"/>
+      <c r="AD75" s="22"/>
+      <c r="AE75" s="22"/>
+      <c r="AF75" s="22"/>
+      <c r="AG75" s="22"/>
+      <c r="AH75" s="22"/>
+      <c r="AI75" s="22"/>
+      <c r="AJ75" s="22"/>
+      <c r="AK75" s="22"/>
+      <c r="AL75" s="22"/>
+      <c r="AM75" s="22"/>
+      <c r="AN75" s="22"/>
+      <c r="AO75" s="22"/>
+      <c r="AP75" s="22"/>
+      <c r="AQ75" s="22"/>
+      <c r="AR75" s="22"/>
+      <c r="AS75" s="22"/>
+      <c r="AT75" s="22"/>
+      <c r="AU75" s="22"/>
+      <c r="AV75" s="22"/>
+      <c r="AW75" s="22"/>
+      <c r="AX75" s="22"/>
+      <c r="AY75" s="22"/>
+      <c r="AZ75" s="22"/>
+      <c r="BA75" s="22"/>
+      <c r="BB75" s="22"/>
+      <c r="BC75" s="22"/>
+      <c r="BD75" s="22"/>
+      <c r="BE75" s="22"/>
+      <c r="BF75" s="22"/>
+      <c r="BG75" s="22"/>
+      <c r="BH75" s="22"/>
+      <c r="BI75" s="22"/>
+      <c r="BJ75" s="22"/>
+      <c r="BK75" s="22"/>
+      <c r="BL75" s="22"/>
+      <c r="BM75" s="22"/>
+      <c r="BN75" s="22"/>
+    </row>
+    <row r="76" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="99"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="99"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="99"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="99"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="99"/>
-      <c r="L75" s="99"/>
-      <c r="M75" s="99"/>
-      <c r="N75" s="99"/>
-      <c r="O75" s="99"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="21"/>
-      <c r="V75" s="21"/>
-      <c r="W75" s="21"/>
-      <c r="X75" s="21"/>
-      <c r="Y75" s="21"/>
-      <c r="Z75" s="21"/>
-      <c r="AA75" s="21"/>
-      <c r="AB75" s="21"/>
-      <c r="AC75" s="21"/>
-      <c r="AD75" s="21"/>
-      <c r="AE75" s="21"/>
-      <c r="AF75" s="21"/>
-      <c r="AG75" s="21"/>
-      <c r="AH75" s="21"/>
-      <c r="AI75" s="21"/>
-      <c r="AJ75" s="21"/>
-      <c r="AK75" s="21"/>
-      <c r="AL75" s="21"/>
-      <c r="AM75" s="21"/>
-      <c r="AN75" s="21"/>
-      <c r="AO75" s="21"/>
-      <c r="AP75" s="21"/>
-      <c r="AQ75" s="21"/>
-      <c r="AR75" s="21"/>
-      <c r="AS75" s="21"/>
-      <c r="AT75" s="21"/>
-      <c r="AU75" s="21"/>
-      <c r="AV75" s="21"/>
-      <c r="AW75" s="21"/>
-      <c r="AX75" s="21"/>
-      <c r="AY75" s="21"/>
-      <c r="AZ75" s="21"/>
-      <c r="BA75" s="21"/>
-      <c r="BB75" s="21"/>
-      <c r="BC75" s="21"/>
-      <c r="BD75" s="21"/>
-      <c r="BE75" s="21"/>
-      <c r="BF75" s="21"/>
-      <c r="BG75" s="21"/>
-      <c r="BH75" s="21"/>
-      <c r="BI75" s="21"/>
-      <c r="BJ75" s="21"/>
-      <c r="BK75" s="21"/>
-      <c r="BL75" s="21"/>
-      <c r="BM75" s="21"/>
-      <c r="BN75" s="21"/>
-    </row>
-    <row r="76" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B76" s="100"/>
-      <c r="C76" s="100"/>
-      <c r="D76" s="100"/>
-      <c r="E76" s="100"/>
-      <c r="F76" s="100"/>
-      <c r="G76" s="100"/>
-      <c r="H76" s="100"/>
-      <c r="I76" s="100"/>
-      <c r="J76" s="100"/>
-      <c r="K76" s="100"/>
-      <c r="L76" s="100"/>
-      <c r="M76" s="100"/>
-      <c r="N76" s="100"/>
-      <c r="O76" s="100"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="99"/>
+      <c r="I76" s="99"/>
+      <c r="J76" s="99"/>
+      <c r="K76" s="99"/>
+      <c r="L76" s="99"/>
+      <c r="M76" s="99"/>
+      <c r="N76" s="99"/>
+      <c r="O76" s="99"/>
       <c r="P76" s="21"/>
       <c r="Q76" s="21"/>
       <c r="R76" s="21"/>
@@ -28185,52 +28228,24 @@
       <c r="BM76" s="21"/>
       <c r="BN76" s="21"/>
     </row>
-    <row r="77" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="92">
+    <row r="77" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B77" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="93" t="s">
-        <v>256</v>
-      </c>
-      <c r="D77" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F77" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="G77" s="92">
-        <v>403</v>
-      </c>
-      <c r="H77" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I77" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J77" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="K77" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="L77" s="92">
-        <v>1111</v>
-      </c>
-      <c r="M77" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="N77" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O77" s="30" t="s">
-        <v>61</v>
-      </c>
+      <c r="B77" s="100"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="100"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="100"/>
+      <c r="G77" s="100"/>
+      <c r="H77" s="100"/>
+      <c r="I77" s="100"/>
+      <c r="J77" s="100"/>
+      <c r="K77" s="100"/>
+      <c r="L77" s="100"/>
+      <c r="M77" s="100"/>
+      <c r="N77" s="100"/>
+      <c r="O77" s="100"/>
       <c r="P77" s="21"/>
       <c r="Q77" s="21"/>
       <c r="R77" s="21"/>
@@ -28283,15 +28298,15 @@
       <c r="BM77" s="21"/>
       <c r="BN77" s="21"/>
     </row>
-    <row r="78" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="92">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C78" s="93" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D78" s="92" t="s">
         <v>12</v>
@@ -28318,16 +28333,16 @@
         <v>34</v>
       </c>
       <c r="L78" s="92">
-        <v>1016</v>
+        <v>1111</v>
       </c>
       <c r="M78" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N78" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O78" s="93" t="s">
-        <v>12</v>
+        <v>255</v>
+      </c>
+      <c r="N78" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O78" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="P78" s="21"/>
       <c r="Q78" s="21"/>
@@ -28381,50 +28396,50 @@
       <c r="BM78" s="21"/>
       <c r="BN78" s="21"/>
     </row>
-    <row r="79" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
-        <v>62</v>
+    <row r="79" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="92">
+        <v>146</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C79" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D79" s="4" t="s">
+      <c r="C79" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D79" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G79" s="24">
-        <v>401</v>
-      </c>
-      <c r="H79" s="58" t="s">
+      <c r="G79" s="92">
+        <v>403</v>
+      </c>
+      <c r="H79" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I79" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="J79" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="K79" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L79" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M79" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N79" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O79" s="49" t="s">
+      <c r="L79" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M79" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N79" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O79" s="93" t="s">
         <v>12</v>
       </c>
       <c r="P79" s="21"/>
@@ -28479,15 +28494,15 @@
       <c r="BM79" s="21"/>
       <c r="BN79" s="21"/>
     </row>
-    <row r="80" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>12</v>
@@ -28514,15 +28529,15 @@
         <v>34</v>
       </c>
       <c r="L80" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M80" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N80" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O80" s="47" t="s">
+      <c r="O80" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P80" s="21"/>
@@ -28577,15 +28592,15 @@
       <c r="BM80" s="21"/>
       <c r="BN80" s="21"/>
     </row>
-    <row r="81" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>12</v>
@@ -28597,7 +28612,7 @@
         <v>142</v>
       </c>
       <c r="G81" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H81" s="58" t="s">
         <v>218</v>
@@ -28605,85 +28620,85 @@
       <c r="I81" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J81" s="25" t="s">
+      <c r="J81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K81" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L81" s="25">
-        <v>1003</v>
-      </c>
-      <c r="M81" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="N81" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O81" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="22"/>
-      <c r="S81" s="22"/>
-      <c r="T81" s="22"/>
-      <c r="U81" s="22"/>
-      <c r="V81" s="22"/>
-      <c r="W81" s="22"/>
-      <c r="X81" s="22"/>
-      <c r="Y81" s="22"/>
-      <c r="Z81" s="22"/>
-      <c r="AA81" s="22"/>
-      <c r="AB81" s="22"/>
-      <c r="AC81" s="22"/>
-      <c r="AD81" s="22"/>
-      <c r="AE81" s="22"/>
-      <c r="AF81" s="22"/>
-      <c r="AG81" s="22"/>
-      <c r="AH81" s="22"/>
-      <c r="AI81" s="22"/>
-      <c r="AJ81" s="22"/>
-      <c r="AK81" s="22"/>
-      <c r="AL81" s="22"/>
-      <c r="AM81" s="22"/>
-      <c r="AN81" s="22"/>
-      <c r="AO81" s="22"/>
-      <c r="AP81" s="22"/>
-      <c r="AQ81" s="22"/>
-      <c r="AR81" s="22"/>
-      <c r="AS81" s="22"/>
-      <c r="AT81" s="22"/>
-      <c r="AU81" s="22"/>
-      <c r="AV81" s="22"/>
-      <c r="AW81" s="22"/>
-      <c r="AX81" s="22"/>
-      <c r="AY81" s="22"/>
-      <c r="AZ81" s="22"/>
-      <c r="BA81" s="22"/>
-      <c r="BB81" s="22"/>
-      <c r="BC81" s="22"/>
-      <c r="BD81" s="22"/>
-      <c r="BE81" s="22"/>
-      <c r="BF81" s="22"/>
-      <c r="BG81" s="22"/>
-      <c r="BH81" s="22"/>
-      <c r="BI81" s="22"/>
-      <c r="BJ81" s="22"/>
-      <c r="BK81" s="22"/>
-      <c r="BL81" s="22"/>
-      <c r="BM81" s="22"/>
-      <c r="BN81" s="22"/>
-    </row>
-    <row r="82" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L81" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M81" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N81" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O81" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
+      <c r="S81" s="21"/>
+      <c r="T81" s="21"/>
+      <c r="U81" s="21"/>
+      <c r="V81" s="21"/>
+      <c r="W81" s="21"/>
+      <c r="X81" s="21"/>
+      <c r="Y81" s="21"/>
+      <c r="Z81" s="21"/>
+      <c r="AA81" s="21"/>
+      <c r="AB81" s="21"/>
+      <c r="AC81" s="21"/>
+      <c r="AD81" s="21"/>
+      <c r="AE81" s="21"/>
+      <c r="AF81" s="21"/>
+      <c r="AG81" s="21"/>
+      <c r="AH81" s="21"/>
+      <c r="AI81" s="21"/>
+      <c r="AJ81" s="21"/>
+      <c r="AK81" s="21"/>
+      <c r="AL81" s="21"/>
+      <c r="AM81" s="21"/>
+      <c r="AN81" s="21"/>
+      <c r="AO81" s="21"/>
+      <c r="AP81" s="21"/>
+      <c r="AQ81" s="21"/>
+      <c r="AR81" s="21"/>
+      <c r="AS81" s="21"/>
+      <c r="AT81" s="21"/>
+      <c r="AU81" s="21"/>
+      <c r="AV81" s="21"/>
+      <c r="AW81" s="21"/>
+      <c r="AX81" s="21"/>
+      <c r="AY81" s="21"/>
+      <c r="AZ81" s="21"/>
+      <c r="BA81" s="21"/>
+      <c r="BB81" s="21"/>
+      <c r="BC81" s="21"/>
+      <c r="BD81" s="21"/>
+      <c r="BE81" s="21"/>
+      <c r="BF81" s="21"/>
+      <c r="BG81" s="21"/>
+      <c r="BH81" s="21"/>
+      <c r="BI81" s="21"/>
+      <c r="BJ81" s="21"/>
+      <c r="BK81" s="21"/>
+      <c r="BL81" s="21"/>
+      <c r="BM81" s="21"/>
+      <c r="BN81" s="21"/>
+    </row>
+    <row r="82" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>12</v>
@@ -28703,22 +28718,22 @@
       <c r="I82" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J82" s="24" t="s">
+      <c r="J82" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L82" s="25">
-        <v>1004</v>
-      </c>
-      <c r="M82" s="30" t="s">
-        <v>25</v>
+        <v>1003</v>
+      </c>
+      <c r="M82" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="N82" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="O82" s="30" t="s">
+      <c r="O82" s="4" t="s">
         <v>45</v>
       </c>
       <c r="P82" s="22"/>
@@ -28773,26 +28788,26 @@
       <c r="BM82" s="22"/>
       <c r="BN82" s="22"/>
     </row>
-    <row r="83" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B83" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D83" s="53" t="s">
+      <c r="C83" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="53" t="s">
+      <c r="E83" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F83" s="53" t="s">
+      <c r="F83" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G83" s="54">
+      <c r="G83" s="24">
         <v>400</v>
       </c>
       <c r="H83" s="58" t="s">
@@ -28801,46 +28816,97 @@
       <c r="I83" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J83" s="53" t="s">
+      <c r="J83" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K83" s="54" t="s">
+      <c r="K83" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L83" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M83" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N83" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O83" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L83" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M83" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O83" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="22"/>
+      <c r="T83" s="22"/>
+      <c r="U83" s="22"/>
+      <c r="V83" s="22"/>
+      <c r="W83" s="22"/>
+      <c r="X83" s="22"/>
+      <c r="Y83" s="22"/>
+      <c r="Z83" s="22"/>
+      <c r="AA83" s="22"/>
+      <c r="AB83" s="22"/>
+      <c r="AC83" s="22"/>
+      <c r="AD83" s="22"/>
+      <c r="AE83" s="22"/>
+      <c r="AF83" s="22"/>
+      <c r="AG83" s="22"/>
+      <c r="AH83" s="22"/>
+      <c r="AI83" s="22"/>
+      <c r="AJ83" s="22"/>
+      <c r="AK83" s="22"/>
+      <c r="AL83" s="22"/>
+      <c r="AM83" s="22"/>
+      <c r="AN83" s="22"/>
+      <c r="AO83" s="22"/>
+      <c r="AP83" s="22"/>
+      <c r="AQ83" s="22"/>
+      <c r="AR83" s="22"/>
+      <c r="AS83" s="22"/>
+      <c r="AT83" s="22"/>
+      <c r="AU83" s="22"/>
+      <c r="AV83" s="22"/>
+      <c r="AW83" s="22"/>
+      <c r="AX83" s="22"/>
+      <c r="AY83" s="22"/>
+      <c r="AZ83" s="22"/>
+      <c r="BA83" s="22"/>
+      <c r="BB83" s="22"/>
+      <c r="BC83" s="22"/>
+      <c r="BD83" s="22"/>
+      <c r="BE83" s="22"/>
+      <c r="BF83" s="22"/>
+      <c r="BG83" s="22"/>
+      <c r="BH83" s="22"/>
+      <c r="BI83" s="22"/>
+      <c r="BJ83" s="22"/>
+      <c r="BK83" s="22"/>
+      <c r="BL83" s="22"/>
+      <c r="BM83" s="22"/>
+      <c r="BN83" s="22"/>
+    </row>
+    <row r="84" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D84" s="4" t="s">
+      <c r="C84" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G84" s="24">
-        <v>403</v>
+      <c r="G84" s="54">
+        <v>400</v>
       </c>
       <c r="H84" s="58" t="s">
         <v>218</v>
@@ -28848,85 +28914,34 @@
       <c r="I84" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J84" s="24" t="s">
+      <c r="J84" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K84" s="24" t="s">
+      <c r="K84" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L84" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M84" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N84" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O84" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="22"/>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="22"/>
-      <c r="AA84" s="22"/>
-      <c r="AB84" s="22"/>
-      <c r="AC84" s="22"/>
-      <c r="AD84" s="22"/>
-      <c r="AE84" s="22"/>
-      <c r="AF84" s="22"/>
-      <c r="AG84" s="22"/>
-      <c r="AH84" s="22"/>
-      <c r="AI84" s="22"/>
-      <c r="AJ84" s="22"/>
-      <c r="AK84" s="22"/>
-      <c r="AL84" s="22"/>
-      <c r="AM84" s="22"/>
-      <c r="AN84" s="22"/>
-      <c r="AO84" s="22"/>
-      <c r="AP84" s="22"/>
-      <c r="AQ84" s="22"/>
-      <c r="AR84" s="22"/>
-      <c r="AS84" s="22"/>
-      <c r="AT84" s="22"/>
-      <c r="AU84" s="22"/>
-      <c r="AV84" s="22"/>
-      <c r="AW84" s="22"/>
-      <c r="AX84" s="22"/>
-      <c r="AY84" s="22"/>
-      <c r="AZ84" s="22"/>
-      <c r="BA84" s="22"/>
-      <c r="BB84" s="22"/>
-      <c r="BC84" s="22"/>
-      <c r="BD84" s="22"/>
-      <c r="BE84" s="22"/>
-      <c r="BF84" s="22"/>
-      <c r="BG84" s="22"/>
-      <c r="BH84" s="22"/>
-      <c r="BI84" s="22"/>
-      <c r="BJ84" s="22"/>
-      <c r="BK84" s="22"/>
-      <c r="BL84" s="22"/>
-      <c r="BM84" s="22"/>
-      <c r="BN84" s="22"/>
+      <c r="L84" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M84" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N84" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O84" s="63" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="85" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>12</v>
@@ -28950,13 +28965,13 @@
         <v>7</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L85" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M85" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N85" s="30" t="s">
         <v>62</v>
@@ -29018,13 +29033,13 @@
     </row>
     <row r="86" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>12</v>
@@ -29051,10 +29066,10 @@
         <v>32</v>
       </c>
       <c r="L86" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M86" s="30" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N86" s="30" t="s">
         <v>62</v>
@@ -29116,15 +29131,15 @@
     </row>
     <row r="87" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D87" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -29146,19 +29161,19 @@
         <v>7</v>
       </c>
       <c r="K87" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L87" s="24">
-        <v>1011</v>
-      </c>
-      <c r="M87" s="32" t="s">
-        <v>204</v>
+        <v>32</v>
+      </c>
+      <c r="L87" s="25">
+        <v>1008</v>
+      </c>
+      <c r="M87" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="N87" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O87" s="30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P87" s="22"/>
       <c r="Q87" s="22"/>
@@ -29214,15 +29229,15 @@
     </row>
     <row r="88" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B88" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D88" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="4" t="s">
@@ -29232,7 +29247,7 @@
         <v>142</v>
       </c>
       <c r="G88" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H88" s="58" t="s">
         <v>218</v>
@@ -29240,23 +29255,23 @@
       <c r="I88" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J88" s="4" t="s">
+      <c r="J88" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K88" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L88" s="10">
-        <v>2506</v>
-      </c>
-      <c r="M88" s="30" t="s">
-        <v>41</v>
+      <c r="K88" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L88" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M88" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N88" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O88" s="30" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="P88" s="22"/>
       <c r="Q88" s="22"/>
@@ -29310,94 +29325,122 @@
       <c r="BM88" s="22"/>
       <c r="BN88" s="22"/>
     </row>
-    <row r="89" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="99" t="s">
+    <row r="89" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>71</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G89" s="24">
+        <v>404</v>
+      </c>
+      <c r="H89" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I89" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L89" s="10">
+        <v>2506</v>
+      </c>
+      <c r="M89" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N89" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O89" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="P89" s="22"/>
+      <c r="Q89" s="22"/>
+      <c r="R89" s="22"/>
+      <c r="S89" s="22"/>
+      <c r="T89" s="22"/>
+      <c r="U89" s="22"/>
+      <c r="V89" s="22"/>
+      <c r="W89" s="22"/>
+      <c r="X89" s="22"/>
+      <c r="Y89" s="22"/>
+      <c r="Z89" s="22"/>
+      <c r="AA89" s="22"/>
+      <c r="AB89" s="22"/>
+      <c r="AC89" s="22"/>
+      <c r="AD89" s="22"/>
+      <c r="AE89" s="22"/>
+      <c r="AF89" s="22"/>
+      <c r="AG89" s="22"/>
+      <c r="AH89" s="22"/>
+      <c r="AI89" s="22"/>
+      <c r="AJ89" s="22"/>
+      <c r="AK89" s="22"/>
+      <c r="AL89" s="22"/>
+      <c r="AM89" s="22"/>
+      <c r="AN89" s="22"/>
+      <c r="AO89" s="22"/>
+      <c r="AP89" s="22"/>
+      <c r="AQ89" s="22"/>
+      <c r="AR89" s="22"/>
+      <c r="AS89" s="22"/>
+      <c r="AT89" s="22"/>
+      <c r="AU89" s="22"/>
+      <c r="AV89" s="22"/>
+      <c r="AW89" s="22"/>
+      <c r="AX89" s="22"/>
+      <c r="AY89" s="22"/>
+      <c r="AZ89" s="22"/>
+      <c r="BA89" s="22"/>
+      <c r="BB89" s="22"/>
+      <c r="BC89" s="22"/>
+      <c r="BD89" s="22"/>
+      <c r="BE89" s="22"/>
+      <c r="BF89" s="22"/>
+      <c r="BG89" s="22"/>
+      <c r="BH89" s="22"/>
+      <c r="BI89" s="22"/>
+      <c r="BJ89" s="22"/>
+      <c r="BK89" s="22"/>
+      <c r="BL89" s="22"/>
+      <c r="BM89" s="22"/>
+      <c r="BN89" s="22"/>
+    </row>
+    <row r="90" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="99"/>
-      <c r="C89" s="99"/>
-      <c r="D89" s="99"/>
-      <c r="E89" s="99"/>
-      <c r="F89" s="99"/>
-      <c r="G89" s="99"/>
-      <c r="H89" s="99"/>
-      <c r="I89" s="99"/>
-      <c r="J89" s="99"/>
-      <c r="K89" s="99"/>
-      <c r="L89" s="99"/>
-      <c r="M89" s="99"/>
-      <c r="N89" s="99"/>
-      <c r="O89" s="99"/>
-      <c r="P89" s="21"/>
-      <c r="Q89" s="21"/>
-      <c r="R89" s="21"/>
-      <c r="S89" s="21"/>
-      <c r="T89" s="21"/>
-      <c r="U89" s="21"/>
-      <c r="V89" s="21"/>
-      <c r="W89" s="21"/>
-      <c r="X89" s="21"/>
-      <c r="Y89" s="21"/>
-      <c r="Z89" s="21"/>
-      <c r="AA89" s="21"/>
-      <c r="AB89" s="21"/>
-      <c r="AC89" s="21"/>
-      <c r="AD89" s="21"/>
-      <c r="AE89" s="21"/>
-      <c r="AF89" s="21"/>
-      <c r="AG89" s="21"/>
-      <c r="AH89" s="21"/>
-      <c r="AI89" s="21"/>
-      <c r="AJ89" s="21"/>
-      <c r="AK89" s="21"/>
-      <c r="AL89" s="21"/>
-      <c r="AM89" s="21"/>
-      <c r="AN89" s="21"/>
-      <c r="AO89" s="21"/>
-      <c r="AP89" s="21"/>
-      <c r="AQ89" s="21"/>
-      <c r="AR89" s="21"/>
-      <c r="AS89" s="21"/>
-      <c r="AT89" s="21"/>
-      <c r="AU89" s="21"/>
-      <c r="AV89" s="21"/>
-      <c r="AW89" s="21"/>
-      <c r="AX89" s="21"/>
-      <c r="AY89" s="21"/>
-      <c r="AZ89" s="21"/>
-      <c r="BA89" s="21"/>
-      <c r="BB89" s="21"/>
-      <c r="BC89" s="21"/>
-      <c r="BD89" s="21"/>
-      <c r="BE89" s="21"/>
-      <c r="BF89" s="21"/>
-      <c r="BG89" s="21"/>
-      <c r="BH89" s="21"/>
-      <c r="BI89" s="21"/>
-      <c r="BJ89" s="21"/>
-      <c r="BK89" s="21"/>
-      <c r="BL89" s="21"/>
-      <c r="BM89" s="21"/>
-      <c r="BN89" s="21"/>
-    </row>
-    <row r="90" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B90" s="100"/>
-      <c r="C90" s="100"/>
-      <c r="D90" s="100"/>
-      <c r="E90" s="100"/>
-      <c r="F90" s="100"/>
-      <c r="G90" s="100"/>
-      <c r="H90" s="100"/>
-      <c r="I90" s="100"/>
-      <c r="J90" s="100"/>
-      <c r="K90" s="100"/>
-      <c r="L90" s="100"/>
-      <c r="M90" s="100"/>
-      <c r="N90" s="100"/>
-      <c r="O90" s="100"/>
+      <c r="B90" s="99"/>
+      <c r="C90" s="99"/>
+      <c r="D90" s="99"/>
+      <c r="E90" s="99"/>
+      <c r="F90" s="99"/>
+      <c r="G90" s="99"/>
+      <c r="H90" s="99"/>
+      <c r="I90" s="99"/>
+      <c r="J90" s="99"/>
+      <c r="K90" s="99"/>
+      <c r="L90" s="99"/>
+      <c r="M90" s="99"/>
+      <c r="N90" s="99"/>
+      <c r="O90" s="99"/>
       <c r="P90" s="21"/>
       <c r="Q90" s="21"/>
       <c r="R90" s="21"/>
@@ -29450,52 +29493,24 @@
       <c r="BM90" s="21"/>
       <c r="BN90" s="21"/>
     </row>
-    <row r="91" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="92">
-        <v>146</v>
-      </c>
-      <c r="B91" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C91" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D91" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F91" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="G91" s="92">
-        <v>403</v>
-      </c>
-      <c r="H91" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I91" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J91" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="K91" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="L91" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M91" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N91" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O91" s="93" t="s">
-        <v>12</v>
-      </c>
+    <row r="91" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" s="100"/>
+      <c r="C91" s="100"/>
+      <c r="D91" s="100"/>
+      <c r="E91" s="100"/>
+      <c r="F91" s="100"/>
+      <c r="G91" s="100"/>
+      <c r="H91" s="100"/>
+      <c r="I91" s="100"/>
+      <c r="J91" s="100"/>
+      <c r="K91" s="100"/>
+      <c r="L91" s="100"/>
+      <c r="M91" s="100"/>
+      <c r="N91" s="100"/>
+      <c r="O91" s="100"/>
       <c r="P91" s="21"/>
       <c r="Q91" s="21"/>
       <c r="R91" s="21"/>
@@ -29548,50 +29563,50 @@
       <c r="BM91" s="21"/>
       <c r="BN91" s="21"/>
     </row>
-    <row r="92" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
-        <v>72</v>
+    <row r="92" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="92">
+        <v>146</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D92" s="4" t="s">
+      <c r="C92" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D92" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G92" s="24">
-        <v>401</v>
-      </c>
-      <c r="H92" s="58" t="s">
+      <c r="G92" s="92">
+        <v>403</v>
+      </c>
+      <c r="H92" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I92" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J92" s="4" t="s">
+      <c r="J92" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="K92" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L92" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M92" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N92" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O92" s="49" t="s">
+      <c r="L92" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M92" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N92" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O92" s="93" t="s">
         <v>12</v>
       </c>
       <c r="P92" s="21"/>
@@ -29646,15 +29661,15 @@
       <c r="BM92" s="21"/>
       <c r="BN92" s="21"/>
     </row>
-    <row r="93" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B93" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>12</v>
@@ -29681,15 +29696,15 @@
         <v>34</v>
       </c>
       <c r="L93" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M93" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N93" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O93" s="47" t="s">
+      <c r="O93" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P93" s="21"/>
@@ -29744,15 +29759,15 @@
       <c r="BM93" s="21"/>
       <c r="BN93" s="21"/>
     </row>
-    <row r="94" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B94" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>12</v>
@@ -29764,7 +29779,7 @@
         <v>142</v>
       </c>
       <c r="G94" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H94" s="58" t="s">
         <v>218</v>
@@ -29776,81 +29791,81 @@
         <v>7</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L94" s="10">
-        <v>1003</v>
-      </c>
-      <c r="M94" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N94" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="O94" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="P94" s="22"/>
-      <c r="Q94" s="22"/>
-      <c r="R94" s="22"/>
-      <c r="S94" s="22"/>
-      <c r="T94" s="22"/>
-      <c r="U94" s="22"/>
-      <c r="V94" s="22"/>
-      <c r="W94" s="22"/>
-      <c r="X94" s="22"/>
-      <c r="Y94" s="22"/>
-      <c r="Z94" s="22"/>
-      <c r="AA94" s="22"/>
-      <c r="AB94" s="22"/>
-      <c r="AC94" s="22"/>
-      <c r="AD94" s="22"/>
-      <c r="AE94" s="22"/>
-      <c r="AF94" s="22"/>
-      <c r="AG94" s="22"/>
-      <c r="AH94" s="22"/>
-      <c r="AI94" s="22"/>
-      <c r="AJ94" s="22"/>
-      <c r="AK94" s="22"/>
-      <c r="AL94" s="22"/>
-      <c r="AM94" s="22"/>
-      <c r="AN94" s="22"/>
-      <c r="AO94" s="22"/>
-      <c r="AP94" s="22"/>
-      <c r="AQ94" s="22"/>
-      <c r="AR94" s="22"/>
-      <c r="AS94" s="22"/>
-      <c r="AT94" s="22"/>
-      <c r="AU94" s="22"/>
-      <c r="AV94" s="22"/>
-      <c r="AW94" s="22"/>
-      <c r="AX94" s="22"/>
-      <c r="AY94" s="22"/>
-      <c r="AZ94" s="22"/>
-      <c r="BA94" s="22"/>
-      <c r="BB94" s="22"/>
-      <c r="BC94" s="22"/>
-      <c r="BD94" s="22"/>
-      <c r="BE94" s="22"/>
-      <c r="BF94" s="22"/>
-      <c r="BG94" s="22"/>
-      <c r="BH94" s="22"/>
-      <c r="BI94" s="22"/>
-      <c r="BJ94" s="22"/>
-      <c r="BK94" s="22"/>
-      <c r="BL94" s="22"/>
-      <c r="BM94" s="22"/>
-      <c r="BN94" s="22"/>
-    </row>
-    <row r="95" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="L94" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M94" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N94" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O94" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P94" s="21"/>
+      <c r="Q94" s="21"/>
+      <c r="R94" s="21"/>
+      <c r="S94" s="21"/>
+      <c r="T94" s="21"/>
+      <c r="U94" s="21"/>
+      <c r="V94" s="21"/>
+      <c r="W94" s="21"/>
+      <c r="X94" s="21"/>
+      <c r="Y94" s="21"/>
+      <c r="Z94" s="21"/>
+      <c r="AA94" s="21"/>
+      <c r="AB94" s="21"/>
+      <c r="AC94" s="21"/>
+      <c r="AD94" s="21"/>
+      <c r="AE94" s="21"/>
+      <c r="AF94" s="21"/>
+      <c r="AG94" s="21"/>
+      <c r="AH94" s="21"/>
+      <c r="AI94" s="21"/>
+      <c r="AJ94" s="21"/>
+      <c r="AK94" s="21"/>
+      <c r="AL94" s="21"/>
+      <c r="AM94" s="21"/>
+      <c r="AN94" s="21"/>
+      <c r="AO94" s="21"/>
+      <c r="AP94" s="21"/>
+      <c r="AQ94" s="21"/>
+      <c r="AR94" s="21"/>
+      <c r="AS94" s="21"/>
+      <c r="AT94" s="21"/>
+      <c r="AU94" s="21"/>
+      <c r="AV94" s="21"/>
+      <c r="AW94" s="21"/>
+      <c r="AX94" s="21"/>
+      <c r="AY94" s="21"/>
+      <c r="AZ94" s="21"/>
+      <c r="BA94" s="21"/>
+      <c r="BB94" s="21"/>
+      <c r="BC94" s="21"/>
+      <c r="BD94" s="21"/>
+      <c r="BE94" s="21"/>
+      <c r="BF94" s="21"/>
+      <c r="BG94" s="21"/>
+      <c r="BH94" s="21"/>
+      <c r="BI94" s="21"/>
+      <c r="BJ94" s="21"/>
+      <c r="BK94" s="21"/>
+      <c r="BL94" s="21"/>
+      <c r="BM94" s="21"/>
+      <c r="BN94" s="21"/>
+    </row>
+    <row r="95" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>150</v>
+      <c r="C95" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>12</v>
@@ -29874,13 +29889,13 @@
         <v>7</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L95" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M95" s="30" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N95" s="30" t="s">
         <v>133</v>
@@ -29940,15 +29955,15 @@
       <c r="BM95" s="22"/>
       <c r="BN95" s="22"/>
     </row>
-    <row r="96" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>12</v>
@@ -29972,13 +29987,13 @@
         <v>7</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L96" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M96" s="30" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N96" s="30" t="s">
         <v>133</v>
@@ -30038,26 +30053,26 @@
       <c r="BM96" s="22"/>
       <c r="BN96" s="22"/>
     </row>
-    <row r="97" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C97" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D97" s="53" t="s">
+      <c r="C97" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="53" t="s">
+      <c r="E97" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F97" s="53" t="s">
+      <c r="F97" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G97" s="54">
+      <c r="G97" s="24">
         <v>400</v>
       </c>
       <c r="H97" s="58" t="s">
@@ -30066,46 +30081,97 @@
       <c r="I97" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J97" s="53" t="s">
+      <c r="J97" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K97" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="L97" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M97" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N97" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O97" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K97" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L97" s="10">
+        <v>1005</v>
+      </c>
+      <c r="M97" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N97" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O97" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P97" s="22"/>
+      <c r="Q97" s="22"/>
+      <c r="R97" s="22"/>
+      <c r="S97" s="22"/>
+      <c r="T97" s="22"/>
+      <c r="U97" s="22"/>
+      <c r="V97" s="22"/>
+      <c r="W97" s="22"/>
+      <c r="X97" s="22"/>
+      <c r="Y97" s="22"/>
+      <c r="Z97" s="22"/>
+      <c r="AA97" s="22"/>
+      <c r="AB97" s="22"/>
+      <c r="AC97" s="22"/>
+      <c r="AD97" s="22"/>
+      <c r="AE97" s="22"/>
+      <c r="AF97" s="22"/>
+      <c r="AG97" s="22"/>
+      <c r="AH97" s="22"/>
+      <c r="AI97" s="22"/>
+      <c r="AJ97" s="22"/>
+      <c r="AK97" s="22"/>
+      <c r="AL97" s="22"/>
+      <c r="AM97" s="22"/>
+      <c r="AN97" s="22"/>
+      <c r="AO97" s="22"/>
+      <c r="AP97" s="22"/>
+      <c r="AQ97" s="22"/>
+      <c r="AR97" s="22"/>
+      <c r="AS97" s="22"/>
+      <c r="AT97" s="22"/>
+      <c r="AU97" s="22"/>
+      <c r="AV97" s="22"/>
+      <c r="AW97" s="22"/>
+      <c r="AX97" s="22"/>
+      <c r="AY97" s="22"/>
+      <c r="AZ97" s="22"/>
+      <c r="BA97" s="22"/>
+      <c r="BB97" s="22"/>
+      <c r="BC97" s="22"/>
+      <c r="BD97" s="22"/>
+      <c r="BE97" s="22"/>
+      <c r="BF97" s="22"/>
+      <c r="BG97" s="22"/>
+      <c r="BH97" s="22"/>
+      <c r="BI97" s="22"/>
+      <c r="BJ97" s="22"/>
+      <c r="BK97" s="22"/>
+      <c r="BL97" s="22"/>
+      <c r="BM97" s="22"/>
+      <c r="BN97" s="22"/>
+    </row>
+    <row r="98" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D98" s="4" t="s">
+      <c r="C98" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D98" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G98" s="24">
-        <v>403</v>
+      <c r="G98" s="54">
+        <v>400</v>
       </c>
       <c r="H98" s="58" t="s">
         <v>218</v>
@@ -30113,85 +30179,34 @@
       <c r="I98" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J98" s="4" t="s">
+      <c r="J98" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K98" s="4" t="s">
+      <c r="K98" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L98" s="10">
-        <v>1006</v>
-      </c>
-      <c r="M98" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N98" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="O98" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P98" s="22"/>
-      <c r="Q98" s="22"/>
-      <c r="R98" s="22"/>
-      <c r="S98" s="22"/>
-      <c r="T98" s="22"/>
-      <c r="U98" s="22"/>
-      <c r="V98" s="22"/>
-      <c r="W98" s="22"/>
-      <c r="X98" s="22"/>
-      <c r="Y98" s="22"/>
-      <c r="Z98" s="22"/>
-      <c r="AA98" s="22"/>
-      <c r="AB98" s="22"/>
-      <c r="AC98" s="22"/>
-      <c r="AD98" s="22"/>
-      <c r="AE98" s="22"/>
-      <c r="AF98" s="22"/>
-      <c r="AG98" s="22"/>
-      <c r="AH98" s="22"/>
-      <c r="AI98" s="22"/>
-      <c r="AJ98" s="22"/>
-      <c r="AK98" s="22"/>
-      <c r="AL98" s="22"/>
-      <c r="AM98" s="22"/>
-      <c r="AN98" s="22"/>
-      <c r="AO98" s="22"/>
-      <c r="AP98" s="22"/>
-      <c r="AQ98" s="22"/>
-      <c r="AR98" s="22"/>
-      <c r="AS98" s="22"/>
-      <c r="AT98" s="22"/>
-      <c r="AU98" s="22"/>
-      <c r="AV98" s="22"/>
-      <c r="AW98" s="22"/>
-      <c r="AX98" s="22"/>
-      <c r="AY98" s="22"/>
-      <c r="AZ98" s="22"/>
-      <c r="BA98" s="22"/>
-      <c r="BB98" s="22"/>
-      <c r="BC98" s="22"/>
-      <c r="BD98" s="22"/>
-      <c r="BE98" s="22"/>
-      <c r="BF98" s="22"/>
-      <c r="BG98" s="22"/>
-      <c r="BH98" s="22"/>
-      <c r="BI98" s="22"/>
-      <c r="BJ98" s="22"/>
-      <c r="BK98" s="22"/>
-      <c r="BL98" s="22"/>
-      <c r="BM98" s="22"/>
-      <c r="BN98" s="22"/>
+      <c r="L98" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M98" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N98" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O98" s="63" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="99" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>12</v>
@@ -30215,13 +30230,13 @@
         <v>7</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L99" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M99" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N99" s="30" t="s">
         <v>133</v>
@@ -30281,15 +30296,15 @@
       <c r="BM99" s="22"/>
       <c r="BN99" s="22"/>
     </row>
-    <row r="100" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>12</v>
@@ -30316,10 +30331,10 @@
         <v>32</v>
       </c>
       <c r="L100" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M100" s="30" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N100" s="30" t="s">
         <v>133</v>
@@ -30381,15 +30396,15 @@
     </row>
     <row r="101" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D101" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E101" s="4" t="s">
@@ -30411,19 +30426,19 @@
         <v>7</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L101" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M101" s="32" t="s">
-        <v>204</v>
+        <v>32</v>
+      </c>
+      <c r="L101" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M101" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="N101" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O101" s="30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P101" s="22"/>
       <c r="Q101" s="22"/>
@@ -30477,27 +30492,27 @@
       <c r="BM101" s="22"/>
       <c r="BN101" s="22"/>
     </row>
-    <row r="102" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D102" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D102" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>142</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G102" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H102" s="58" t="s">
         <v>218</v>
@@ -30511,17 +30526,17 @@
       <c r="K102" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L102" s="10">
-        <v>3001</v>
-      </c>
-      <c r="M102" s="30" t="s">
-        <v>213</v>
+      <c r="L102" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M102" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N102" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O102" s="30" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="P102" s="22"/>
       <c r="Q102" s="22"/>
@@ -30575,15 +30590,15 @@
       <c r="BM102" s="22"/>
       <c r="BN102" s="22"/>
     </row>
-    <row r="103" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>12</v>
@@ -30592,7 +30607,7 @@
         <v>142</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G103" s="24">
         <v>400</v>
@@ -30607,19 +30622,19 @@
         <v>7</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L103" s="10">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="M103" s="30" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="N103" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O103" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P103" s="22"/>
       <c r="Q103" s="22"/>
@@ -30674,14 +30689,14 @@
       <c r="BN103" s="22"/>
     </row>
     <row r="104" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A104" s="26">
-        <v>137</v>
+      <c r="A104" s="4">
+        <v>83</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C104" s="71" t="s">
-        <v>209</v>
+      <c r="C104" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>12</v>
@@ -30689,8 +30704,8 @@
       <c r="E104" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F104" s="26" t="s">
-        <v>143</v>
+      <c r="F104" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="G104" s="24">
         <v>400</v>
@@ -30707,17 +30722,17 @@
       <c r="K104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L104" s="26">
-        <v>3009</v>
-      </c>
-      <c r="M104" s="71" t="s">
-        <v>209</v>
+      <c r="L104" s="10">
+        <v>3002</v>
+      </c>
+      <c r="M104" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="N104" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O104" s="33" t="s">
-        <v>214</v>
+      <c r="O104" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="P104" s="22"/>
       <c r="Q104" s="22"/>
@@ -30771,15 +30786,15 @@
       <c r="BM104" s="22"/>
       <c r="BN104" s="22"/>
     </row>
-    <row r="105" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A105" s="26">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C105" s="71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>12</v>
@@ -30803,81 +30818,81 @@
         <v>7</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L105" s="26">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="M105" s="71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N105" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O105" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="P105" s="21"/>
-      <c r="Q105" s="21"/>
-      <c r="R105" s="21"/>
-      <c r="S105" s="21"/>
-      <c r="T105" s="21"/>
-      <c r="U105" s="21"/>
-      <c r="V105" s="21"/>
-      <c r="W105" s="21"/>
-      <c r="X105" s="21"/>
-      <c r="Y105" s="21"/>
-      <c r="Z105" s="21"/>
-      <c r="AA105" s="21"/>
-      <c r="AB105" s="21"/>
-      <c r="AC105" s="21"/>
-      <c r="AD105" s="21"/>
-      <c r="AE105" s="21"/>
-      <c r="AF105" s="21"/>
-      <c r="AG105" s="21"/>
-      <c r="AH105" s="21"/>
-      <c r="AI105" s="21"/>
-      <c r="AJ105" s="21"/>
-      <c r="AK105" s="21"/>
-      <c r="AL105" s="21"/>
-      <c r="AM105" s="21"/>
-      <c r="AN105" s="21"/>
-      <c r="AO105" s="21"/>
-      <c r="AP105" s="21"/>
-      <c r="AQ105" s="21"/>
-      <c r="AR105" s="21"/>
-      <c r="AS105" s="21"/>
-      <c r="AT105" s="21"/>
-      <c r="AU105" s="21"/>
-      <c r="AV105" s="21"/>
-      <c r="AW105" s="21"/>
-      <c r="AX105" s="21"/>
-      <c r="AY105" s="21"/>
-      <c r="AZ105" s="21"/>
-      <c r="BA105" s="21"/>
-      <c r="BB105" s="21"/>
-      <c r="BC105" s="21"/>
-      <c r="BD105" s="21"/>
-      <c r="BE105" s="21"/>
-      <c r="BF105" s="21"/>
-      <c r="BG105" s="21"/>
-      <c r="BH105" s="21"/>
-      <c r="BI105" s="21"/>
-      <c r="BJ105" s="21"/>
-      <c r="BK105" s="21"/>
-      <c r="BL105" s="21"/>
-      <c r="BM105" s="21"/>
-      <c r="BN105" s="21"/>
-    </row>
-    <row r="106" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="P105" s="22"/>
+      <c r="Q105" s="22"/>
+      <c r="R105" s="22"/>
+      <c r="S105" s="22"/>
+      <c r="T105" s="22"/>
+      <c r="U105" s="22"/>
+      <c r="V105" s="22"/>
+      <c r="W105" s="22"/>
+      <c r="X105" s="22"/>
+      <c r="Y105" s="22"/>
+      <c r="Z105" s="22"/>
+      <c r="AA105" s="22"/>
+      <c r="AB105" s="22"/>
+      <c r="AC105" s="22"/>
+      <c r="AD105" s="22"/>
+      <c r="AE105" s="22"/>
+      <c r="AF105" s="22"/>
+      <c r="AG105" s="22"/>
+      <c r="AH105" s="22"/>
+      <c r="AI105" s="22"/>
+      <c r="AJ105" s="22"/>
+      <c r="AK105" s="22"/>
+      <c r="AL105" s="22"/>
+      <c r="AM105" s="22"/>
+      <c r="AN105" s="22"/>
+      <c r="AO105" s="22"/>
+      <c r="AP105" s="22"/>
+      <c r="AQ105" s="22"/>
+      <c r="AR105" s="22"/>
+      <c r="AS105" s="22"/>
+      <c r="AT105" s="22"/>
+      <c r="AU105" s="22"/>
+      <c r="AV105" s="22"/>
+      <c r="AW105" s="22"/>
+      <c r="AX105" s="22"/>
+      <c r="AY105" s="22"/>
+      <c r="AZ105" s="22"/>
+      <c r="BA105" s="22"/>
+      <c r="BB105" s="22"/>
+      <c r="BC105" s="22"/>
+      <c r="BD105" s="22"/>
+      <c r="BE105" s="22"/>
+      <c r="BF105" s="22"/>
+      <c r="BG105" s="22"/>
+      <c r="BH105" s="22"/>
+      <c r="BI105" s="22"/>
+      <c r="BJ105" s="22"/>
+      <c r="BK105" s="22"/>
+      <c r="BL105" s="22"/>
+      <c r="BM105" s="22"/>
+      <c r="BN105" s="22"/>
+    </row>
+    <row r="106" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="26">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C106" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>12</v>
@@ -30904,10 +30919,10 @@
         <v>32</v>
       </c>
       <c r="L106" s="26">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="M106" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N106" s="30" t="s">
         <v>133</v>
@@ -30967,15 +30982,15 @@
       <c r="BM106" s="21"/>
       <c r="BN106" s="21"/>
     </row>
-    <row r="107" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="26">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B107" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C107" s="71" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>12</v>
@@ -30987,7 +31002,7 @@
         <v>143</v>
       </c>
       <c r="G107" s="24">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H107" s="58" t="s">
         <v>218</v>
@@ -31002,16 +31017,16 @@
         <v>32</v>
       </c>
       <c r="L107" s="26">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="M107" s="71" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="N107" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O107" s="30" t="s">
-        <v>12</v>
+      <c r="O107" s="33" t="s">
+        <v>215</v>
       </c>
       <c r="P107" s="21"/>
       <c r="Q107" s="21"/>
@@ -31067,13 +31082,13 @@
     </row>
     <row r="108" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A108" s="26">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B108" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C108" s="84" t="s">
-        <v>231</v>
+      <c r="C108" s="71" t="s">
+        <v>223</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>12</v>
@@ -31081,11 +31096,11 @@
       <c r="E108" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>142</v>
+      <c r="F108" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="G108" s="24">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H108" s="58" t="s">
         <v>218</v>
@@ -31100,16 +31115,16 @@
         <v>32</v>
       </c>
       <c r="L108" s="26">
-        <v>3013</v>
-      </c>
-      <c r="M108" s="84" t="s">
-        <v>232</v>
+        <v>3012</v>
+      </c>
+      <c r="M108" s="71" t="s">
+        <v>224</v>
       </c>
       <c r="N108" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O108" s="30" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="P108" s="21"/>
       <c r="Q108" s="21"/>
@@ -31163,26 +31178,26 @@
       <c r="BM108" s="21"/>
       <c r="BN108" s="21"/>
     </row>
-    <row r="109" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A109" s="58">
-        <v>84</v>
-      </c>
-      <c r="B109" s="59" t="s">
+    <row r="109" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A109" s="26">
+        <v>141</v>
+      </c>
+      <c r="B109" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C109" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D109" s="58" t="s">
+      <c r="C109" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="72" t="s">
+      <c r="E109" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F109" s="72" t="s">
+      <c r="F109" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G109" s="58">
+      <c r="G109" s="24">
         <v>400</v>
       </c>
       <c r="H109" s="58" t="s">
@@ -31191,23 +31206,23 @@
       <c r="I109" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J109" s="58" t="s">
+      <c r="J109" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K109" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L109" s="58">
-        <v>1002</v>
-      </c>
-      <c r="M109" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="N109" s="59" t="s">
+      <c r="K109" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L109" s="26">
+        <v>3013</v>
+      </c>
+      <c r="M109" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="N109" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O109" s="59" t="s">
-        <v>68</v>
+      <c r="O109" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="P109" s="21"/>
       <c r="Q109" s="21"/>
@@ -31263,13 +31278,13 @@
     </row>
     <row r="110" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A110" s="58">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="B110" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C110" s="97" t="s">
-        <v>283</v>
+      <c r="C110" s="60" t="s">
+        <v>167</v>
       </c>
       <c r="D110" s="58" t="s">
         <v>12</v>
@@ -31296,16 +31311,16 @@
         <v>11</v>
       </c>
       <c r="L110" s="58">
-        <v>3014</v>
-      </c>
-      <c r="M110" s="97" t="s">
-        <v>283</v>
-      </c>
-      <c r="N110" s="30" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M110" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="N110" s="59" t="s">
         <v>133</v>
       </c>
       <c r="O110" s="59" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="P110" s="21"/>
       <c r="Q110" s="21"/>
@@ -31359,24 +31374,52 @@
       <c r="BM110" s="21"/>
       <c r="BN110" s="21"/>
     </row>
-    <row r="111" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A111" s="100" t="s">
-        <v>147</v>
-      </c>
-      <c r="B111" s="100"/>
-      <c r="C111" s="100"/>
-      <c r="D111" s="100"/>
-      <c r="E111" s="100"/>
-      <c r="F111" s="100"/>
-      <c r="G111" s="100"/>
-      <c r="H111" s="100"/>
-      <c r="I111" s="100"/>
-      <c r="J111" s="100"/>
-      <c r="K111" s="100"/>
-      <c r="L111" s="100"/>
-      <c r="M111" s="100"/>
-      <c r="N111" s="100"/>
-      <c r="O111" s="100"/>
+    <row r="111" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A111" s="58">
+        <v>156</v>
+      </c>
+      <c r="B111" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" s="97" t="s">
+        <v>283</v>
+      </c>
+      <c r="D111" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F111" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="G111" s="58">
+        <v>400</v>
+      </c>
+      <c r="H111" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I111" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J111" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K111" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L111" s="58">
+        <v>3014</v>
+      </c>
+      <c r="M111" s="97" t="s">
+        <v>283</v>
+      </c>
+      <c r="N111" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O111" s="59" t="s">
+        <v>282</v>
+      </c>
       <c r="P111" s="21"/>
       <c r="Q111" s="21"/>
       <c r="R111" s="21"/>
@@ -31429,220 +31472,220 @@
       <c r="BM111" s="21"/>
       <c r="BN111" s="21"/>
     </row>
-    <row r="112" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A112" s="38">
+    <row r="112" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A112" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" s="100"/>
+      <c r="C112" s="100"/>
+      <c r="D112" s="100"/>
+      <c r="E112" s="100"/>
+      <c r="F112" s="100"/>
+      <c r="G112" s="100"/>
+      <c r="H112" s="100"/>
+      <c r="I112" s="100"/>
+      <c r="J112" s="100"/>
+      <c r="K112" s="100"/>
+      <c r="L112" s="100"/>
+      <c r="M112" s="100"/>
+      <c r="N112" s="100"/>
+      <c r="O112" s="100"/>
+      <c r="P112" s="21"/>
+      <c r="Q112" s="21"/>
+      <c r="R112" s="21"/>
+      <c r="S112" s="21"/>
+      <c r="T112" s="21"/>
+      <c r="U112" s="21"/>
+      <c r="V112" s="21"/>
+      <c r="W112" s="21"/>
+      <c r="X112" s="21"/>
+      <c r="Y112" s="21"/>
+      <c r="Z112" s="21"/>
+      <c r="AA112" s="21"/>
+      <c r="AB112" s="21"/>
+      <c r="AC112" s="21"/>
+      <c r="AD112" s="21"/>
+      <c r="AE112" s="21"/>
+      <c r="AF112" s="21"/>
+      <c r="AG112" s="21"/>
+      <c r="AH112" s="21"/>
+      <c r="AI112" s="21"/>
+      <c r="AJ112" s="21"/>
+      <c r="AK112" s="21"/>
+      <c r="AL112" s="21"/>
+      <c r="AM112" s="21"/>
+      <c r="AN112" s="21"/>
+      <c r="AO112" s="21"/>
+      <c r="AP112" s="21"/>
+      <c r="AQ112" s="21"/>
+      <c r="AR112" s="21"/>
+      <c r="AS112" s="21"/>
+      <c r="AT112" s="21"/>
+      <c r="AU112" s="21"/>
+      <c r="AV112" s="21"/>
+      <c r="AW112" s="21"/>
+      <c r="AX112" s="21"/>
+      <c r="AY112" s="21"/>
+      <c r="AZ112" s="21"/>
+      <c r="BA112" s="21"/>
+      <c r="BB112" s="21"/>
+      <c r="BC112" s="21"/>
+      <c r="BD112" s="21"/>
+      <c r="BE112" s="21"/>
+      <c r="BF112" s="21"/>
+      <c r="BG112" s="21"/>
+      <c r="BH112" s="21"/>
+      <c r="BI112" s="21"/>
+      <c r="BJ112" s="21"/>
+      <c r="BK112" s="21"/>
+      <c r="BL112" s="21"/>
+      <c r="BM112" s="21"/>
+      <c r="BN112" s="21"/>
+    </row>
+    <row r="113" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A113" s="38">
         <v>145</v>
-      </c>
-      <c r="B112" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C112" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="D112" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F112" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G112" s="24">
-        <v>400</v>
-      </c>
-      <c r="H112" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="I112" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J112" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="K112" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="L112" s="86">
-        <v>3008</v>
-      </c>
-      <c r="M112" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="N112" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="O112" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="P112" s="35"/>
-      <c r="Q112" s="35"/>
-      <c r="R112" s="35"/>
-      <c r="S112" s="35"/>
-      <c r="T112" s="35"/>
-      <c r="U112" s="35"/>
-      <c r="V112" s="35"/>
-      <c r="W112" s="35"/>
-      <c r="X112" s="35"/>
-      <c r="Y112" s="35"/>
-      <c r="Z112" s="35"/>
-      <c r="AA112" s="35"/>
-      <c r="AB112" s="35"/>
-      <c r="AC112" s="35"/>
-      <c r="AD112" s="35"/>
-      <c r="AE112" s="35"/>
-      <c r="AF112" s="35"/>
-      <c r="AG112" s="35"/>
-      <c r="AH112" s="35"/>
-      <c r="AI112" s="35"/>
-      <c r="AJ112" s="35"/>
-      <c r="AK112" s="35"/>
-      <c r="AL112" s="35"/>
-      <c r="AM112" s="35"/>
-      <c r="AN112" s="35"/>
-      <c r="AO112" s="35"/>
-      <c r="AP112" s="35"/>
-      <c r="AQ112" s="35"/>
-      <c r="AR112" s="35"/>
-      <c r="AS112" s="35"/>
-      <c r="AT112" s="35"/>
-      <c r="AU112" s="35"/>
-      <c r="AV112" s="35"/>
-      <c r="AW112" s="35"/>
-      <c r="AX112" s="35"/>
-      <c r="AY112" s="35"/>
-      <c r="AZ112" s="35"/>
-      <c r="BA112" s="35"/>
-      <c r="BB112" s="35"/>
-      <c r="BC112" s="35"/>
-      <c r="BD112" s="35"/>
-      <c r="BE112" s="35"/>
-      <c r="BF112" s="35"/>
-      <c r="BG112" s="35"/>
-      <c r="BH112" s="35"/>
-      <c r="BI112" s="35"/>
-      <c r="BJ112" s="35"/>
-      <c r="BK112" s="35"/>
-      <c r="BL112" s="35"/>
-      <c r="BM112" s="35"/>
-      <c r="BN112" s="35"/>
-    </row>
-    <row r="113" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
-        <v>85</v>
       </c>
       <c r="B113" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D113" s="4">
-        <v>8</v>
+      <c r="C113" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="D113" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>142</v>
       </c>
       <c r="F113" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G113" s="24">
+        <v>400</v>
+      </c>
+      <c r="H113" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="I113" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J113" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K113" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L113" s="86">
+        <v>3008</v>
+      </c>
+      <c r="M113" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="N113" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O113" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="P113" s="35"/>
+      <c r="Q113" s="35"/>
+      <c r="R113" s="35"/>
+      <c r="S113" s="35"/>
+      <c r="T113" s="35"/>
+      <c r="U113" s="35"/>
+      <c r="V113" s="35"/>
+      <c r="W113" s="35"/>
+      <c r="X113" s="35"/>
+      <c r="Y113" s="35"/>
+      <c r="Z113" s="35"/>
+      <c r="AA113" s="35"/>
+      <c r="AB113" s="35"/>
+      <c r="AC113" s="35"/>
+      <c r="AD113" s="35"/>
+      <c r="AE113" s="35"/>
+      <c r="AF113" s="35"/>
+      <c r="AG113" s="35"/>
+      <c r="AH113" s="35"/>
+      <c r="AI113" s="35"/>
+      <c r="AJ113" s="35"/>
+      <c r="AK113" s="35"/>
+      <c r="AL113" s="35"/>
+      <c r="AM113" s="35"/>
+      <c r="AN113" s="35"/>
+      <c r="AO113" s="35"/>
+      <c r="AP113" s="35"/>
+      <c r="AQ113" s="35"/>
+      <c r="AR113" s="35"/>
+      <c r="AS113" s="35"/>
+      <c r="AT113" s="35"/>
+      <c r="AU113" s="35"/>
+      <c r="AV113" s="35"/>
+      <c r="AW113" s="35"/>
+      <c r="AX113" s="35"/>
+      <c r="AY113" s="35"/>
+      <c r="AZ113" s="35"/>
+      <c r="BA113" s="35"/>
+      <c r="BB113" s="35"/>
+      <c r="BC113" s="35"/>
+      <c r="BD113" s="35"/>
+      <c r="BE113" s="35"/>
+      <c r="BF113" s="35"/>
+      <c r="BG113" s="35"/>
+      <c r="BH113" s="35"/>
+      <c r="BI113" s="35"/>
+      <c r="BJ113" s="35"/>
+      <c r="BK113" s="35"/>
+      <c r="BL113" s="35"/>
+      <c r="BM113" s="35"/>
+      <c r="BN113" s="35"/>
+    </row>
+    <row r="114" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>85</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D114" s="4">
+        <v>8</v>
+      </c>
+      <c r="E114" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G113" s="44">
+      <c r="F114" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G114" s="44">
         <v>200</v>
       </c>
-      <c r="H113" s="24" t="s">
+      <c r="H114" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="I113" s="24" t="s">
+      <c r="I114" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="J113" s="4" t="s">
+      <c r="J114" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K113" s="4" t="s">
+      <c r="K114" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L113" s="4">
+      <c r="L114" s="4">
         <v>1010</v>
       </c>
-      <c r="M113" s="30" t="s">
+      <c r="M114" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N113" s="30" t="s">
+      <c r="N114" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O113" s="30" t="s">
+      <c r="O114" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="P113" s="22"/>
-      <c r="Q113" s="22"/>
-      <c r="R113" s="22"/>
-      <c r="S113" s="22"/>
-      <c r="T113" s="22"/>
-      <c r="U113" s="22"/>
-      <c r="V113" s="22"/>
-      <c r="W113" s="22"/>
-      <c r="X113" s="22"/>
-      <c r="Y113" s="22"/>
-      <c r="Z113" s="22"/>
-      <c r="AA113" s="22"/>
-      <c r="AB113" s="22"/>
-      <c r="AC113" s="22"/>
-      <c r="AD113" s="22"/>
-      <c r="AE113" s="22"/>
-      <c r="AF113" s="22"/>
-      <c r="AG113" s="22"/>
-      <c r="AH113" s="22"/>
-      <c r="AI113" s="22"/>
-      <c r="AJ113" s="22"/>
-      <c r="AK113" s="22"/>
-      <c r="AL113" s="22"/>
-      <c r="AM113" s="22"/>
-      <c r="AN113" s="22"/>
-      <c r="AO113" s="22"/>
-      <c r="AP113" s="22"/>
-      <c r="AQ113" s="22"/>
-      <c r="AR113" s="22"/>
-      <c r="AS113" s="22"/>
-      <c r="AT113" s="22"/>
-      <c r="AU113" s="22"/>
-      <c r="AV113" s="22"/>
-      <c r="AW113" s="22"/>
-      <c r="AX113" s="22"/>
-      <c r="AY113" s="22"/>
-      <c r="AZ113" s="22"/>
-      <c r="BA113" s="22"/>
-      <c r="BB113" s="22"/>
-      <c r="BC113" s="22"/>
-      <c r="BD113" s="22"/>
-      <c r="BE113" s="22"/>
-      <c r="BF113" s="22"/>
-      <c r="BG113" s="22"/>
-      <c r="BH113" s="22"/>
-      <c r="BI113" s="22"/>
-      <c r="BJ113" s="22"/>
-      <c r="BK113" s="22"/>
-      <c r="BL113" s="22"/>
-      <c r="BM113" s="22"/>
-      <c r="BN113" s="22"/>
-    </row>
-    <row r="114" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A114" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="B114" s="99"/>
-      <c r="C114" s="99"/>
-      <c r="D114" s="99"/>
-      <c r="E114" s="99"/>
-      <c r="F114" s="99"/>
-      <c r="G114" s="99"/>
-      <c r="H114" s="99"/>
-      <c r="I114" s="99"/>
-      <c r="J114" s="99"/>
-      <c r="K114" s="99"/>
-      <c r="L114" s="99"/>
-      <c r="M114" s="99"/>
-      <c r="N114" s="99"/>
-      <c r="O114" s="99"/>
       <c r="P114" s="22"/>
       <c r="Q114" s="22"/>
       <c r="R114" s="22"/>
@@ -31695,24 +31738,24 @@
       <c r="BM114" s="22"/>
       <c r="BN114" s="22"/>
     </row>
-    <row r="115" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A115" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B115" s="100"/>
-      <c r="C115" s="100"/>
-      <c r="D115" s="100"/>
-      <c r="E115" s="100"/>
-      <c r="F115" s="100"/>
-      <c r="G115" s="100"/>
-      <c r="H115" s="100"/>
-      <c r="I115" s="100"/>
-      <c r="J115" s="100"/>
-      <c r="K115" s="100"/>
-      <c r="L115" s="100"/>
-      <c r="M115" s="100"/>
-      <c r="N115" s="100"/>
-      <c r="O115" s="100"/>
+    <row r="115" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A115" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115" s="99"/>
+      <c r="C115" s="99"/>
+      <c r="D115" s="99"/>
+      <c r="E115" s="99"/>
+      <c r="F115" s="99"/>
+      <c r="G115" s="99"/>
+      <c r="H115" s="99"/>
+      <c r="I115" s="99"/>
+      <c r="J115" s="99"/>
+      <c r="K115" s="99"/>
+      <c r="L115" s="99"/>
+      <c r="M115" s="99"/>
+      <c r="N115" s="99"/>
+      <c r="O115" s="99"/>
       <c r="P115" s="22"/>
       <c r="Q115" s="22"/>
       <c r="R115" s="22"/>
@@ -31765,160 +31808,183 @@
       <c r="BM115" s="22"/>
       <c r="BN115" s="22"/>
     </row>
-    <row r="116" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="92">
+    <row r="116" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A116" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B116" s="100"/>
+      <c r="C116" s="100"/>
+      <c r="D116" s="100"/>
+      <c r="E116" s="100"/>
+      <c r="F116" s="100"/>
+      <c r="G116" s="100"/>
+      <c r="H116" s="100"/>
+      <c r="I116" s="100"/>
+      <c r="J116" s="100"/>
+      <c r="K116" s="100"/>
+      <c r="L116" s="100"/>
+      <c r="M116" s="100"/>
+      <c r="N116" s="100"/>
+      <c r="O116" s="100"/>
+      <c r="P116" s="22"/>
+      <c r="Q116" s="22"/>
+      <c r="R116" s="22"/>
+      <c r="S116" s="22"/>
+      <c r="T116" s="22"/>
+      <c r="U116" s="22"/>
+      <c r="V116" s="22"/>
+      <c r="W116" s="22"/>
+      <c r="X116" s="22"/>
+      <c r="Y116" s="22"/>
+      <c r="Z116" s="22"/>
+      <c r="AA116" s="22"/>
+      <c r="AB116" s="22"/>
+      <c r="AC116" s="22"/>
+      <c r="AD116" s="22"/>
+      <c r="AE116" s="22"/>
+      <c r="AF116" s="22"/>
+      <c r="AG116" s="22"/>
+      <c r="AH116" s="22"/>
+      <c r="AI116" s="22"/>
+      <c r="AJ116" s="22"/>
+      <c r="AK116" s="22"/>
+      <c r="AL116" s="22"/>
+      <c r="AM116" s="22"/>
+      <c r="AN116" s="22"/>
+      <c r="AO116" s="22"/>
+      <c r="AP116" s="22"/>
+      <c r="AQ116" s="22"/>
+      <c r="AR116" s="22"/>
+      <c r="AS116" s="22"/>
+      <c r="AT116" s="22"/>
+      <c r="AU116" s="22"/>
+      <c r="AV116" s="22"/>
+      <c r="AW116" s="22"/>
+      <c r="AX116" s="22"/>
+      <c r="AY116" s="22"/>
+      <c r="AZ116" s="22"/>
+      <c r="BA116" s="22"/>
+      <c r="BB116" s="22"/>
+      <c r="BC116" s="22"/>
+      <c r="BD116" s="22"/>
+      <c r="BE116" s="22"/>
+      <c r="BF116" s="22"/>
+      <c r="BG116" s="22"/>
+      <c r="BH116" s="22"/>
+      <c r="BI116" s="22"/>
+      <c r="BJ116" s="22"/>
+      <c r="BK116" s="22"/>
+      <c r="BL116" s="22"/>
+      <c r="BM116" s="22"/>
+      <c r="BN116" s="22"/>
+    </row>
+    <row r="117" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="92">
         <v>146</v>
-      </c>
-      <c r="B116" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C116" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D116" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F116" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="G116" s="92">
-        <v>403</v>
-      </c>
-      <c r="H116" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I116" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J116" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="K116" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="L116" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M116" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N116" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O116" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="P116" s="21"/>
-      <c r="Q116" s="21"/>
-      <c r="R116" s="21"/>
-      <c r="S116" s="21"/>
-      <c r="T116" s="21"/>
-      <c r="U116" s="21"/>
-      <c r="V116" s="21"/>
-      <c r="W116" s="21"/>
-      <c r="X116" s="21"/>
-      <c r="Y116" s="21"/>
-      <c r="Z116" s="21"/>
-      <c r="AA116" s="21"/>
-      <c r="AB116" s="21"/>
-      <c r="AC116" s="21"/>
-      <c r="AD116" s="21"/>
-      <c r="AE116" s="21"/>
-      <c r="AF116" s="21"/>
-      <c r="AG116" s="21"/>
-      <c r="AH116" s="21"/>
-      <c r="AI116" s="21"/>
-      <c r="AJ116" s="21"/>
-      <c r="AK116" s="21"/>
-      <c r="AL116" s="21"/>
-      <c r="AM116" s="21"/>
-      <c r="AN116" s="21"/>
-      <c r="AO116" s="21"/>
-      <c r="AP116" s="21"/>
-      <c r="AQ116" s="21"/>
-      <c r="AR116" s="21"/>
-      <c r="AS116" s="21"/>
-      <c r="AT116" s="21"/>
-      <c r="AU116" s="21"/>
-      <c r="AV116" s="21"/>
-      <c r="AW116" s="21"/>
-      <c r="AX116" s="21"/>
-      <c r="AY116" s="21"/>
-      <c r="AZ116" s="21"/>
-      <c r="BA116" s="21"/>
-      <c r="BB116" s="21"/>
-      <c r="BC116" s="21"/>
-      <c r="BD116" s="21"/>
-      <c r="BE116" s="21"/>
-      <c r="BF116" s="21"/>
-      <c r="BG116" s="21"/>
-      <c r="BH116" s="21"/>
-      <c r="BI116" s="21"/>
-      <c r="BJ116" s="21"/>
-      <c r="BK116" s="21"/>
-      <c r="BL116" s="21"/>
-      <c r="BM116" s="21"/>
-      <c r="BN116" s="21"/>
-    </row>
-    <row r="117" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
-        <v>86</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C117" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="D117" s="4" t="s">
+      <c r="C117" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D117" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F117" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G117" s="24">
-        <v>401</v>
-      </c>
-      <c r="H117" s="58" t="s">
+      <c r="G117" s="92">
+        <v>403</v>
+      </c>
+      <c r="H117" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I117" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J117" s="4" t="s">
+      <c r="J117" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K117" s="4" t="s">
+      <c r="K117" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L117" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M117" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N117" s="32" t="s">
+      <c r="L117" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M117" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N117" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O117" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="O117" s="49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="P117" s="21"/>
+      <c r="Q117" s="21"/>
+      <c r="R117" s="21"/>
+      <c r="S117" s="21"/>
+      <c r="T117" s="21"/>
+      <c r="U117" s="21"/>
+      <c r="V117" s="21"/>
+      <c r="W117" s="21"/>
+      <c r="X117" s="21"/>
+      <c r="Y117" s="21"/>
+      <c r="Z117" s="21"/>
+      <c r="AA117" s="21"/>
+      <c r="AB117" s="21"/>
+      <c r="AC117" s="21"/>
+      <c r="AD117" s="21"/>
+      <c r="AE117" s="21"/>
+      <c r="AF117" s="21"/>
+      <c r="AG117" s="21"/>
+      <c r="AH117" s="21"/>
+      <c r="AI117" s="21"/>
+      <c r="AJ117" s="21"/>
+      <c r="AK117" s="21"/>
+      <c r="AL117" s="21"/>
+      <c r="AM117" s="21"/>
+      <c r="AN117" s="21"/>
+      <c r="AO117" s="21"/>
+      <c r="AP117" s="21"/>
+      <c r="AQ117" s="21"/>
+      <c r="AR117" s="21"/>
+      <c r="AS117" s="21"/>
+      <c r="AT117" s="21"/>
+      <c r="AU117" s="21"/>
+      <c r="AV117" s="21"/>
+      <c r="AW117" s="21"/>
+      <c r="AX117" s="21"/>
+      <c r="AY117" s="21"/>
+      <c r="AZ117" s="21"/>
+      <c r="BA117" s="21"/>
+      <c r="BB117" s="21"/>
+      <c r="BC117" s="21"/>
+      <c r="BD117" s="21"/>
+      <c r="BE117" s="21"/>
+      <c r="BF117" s="21"/>
+      <c r="BG117" s="21"/>
+      <c r="BH117" s="21"/>
+      <c r="BI117" s="21"/>
+      <c r="BJ117" s="21"/>
+      <c r="BK117" s="21"/>
+      <c r="BL117" s="21"/>
+      <c r="BM117" s="21"/>
+      <c r="BN117" s="21"/>
+    </row>
+    <row r="118" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B118" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C118" s="23" t="s">
-        <v>149</v>
+      <c r="C118" s="51" t="s">
+        <v>156</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>12</v>
@@ -31945,78 +32011,27 @@
         <v>34</v>
       </c>
       <c r="L118" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M118" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N118" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O118" s="47" t="s">
+      <c r="O118" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="P118" s="22"/>
-      <c r="Q118" s="22"/>
-      <c r="R118" s="22"/>
-      <c r="S118" s="22"/>
-      <c r="T118" s="22"/>
-      <c r="U118" s="22"/>
-      <c r="V118" s="22"/>
-      <c r="W118" s="22"/>
-      <c r="X118" s="22"/>
-      <c r="Y118" s="22"/>
-      <c r="Z118" s="22"/>
-      <c r="AA118" s="22"/>
-      <c r="AB118" s="22"/>
-      <c r="AC118" s="22"/>
-      <c r="AD118" s="22"/>
-      <c r="AE118" s="22"/>
-      <c r="AF118" s="22"/>
-      <c r="AG118" s="22"/>
-      <c r="AH118" s="22"/>
-      <c r="AI118" s="22"/>
-      <c r="AJ118" s="22"/>
-      <c r="AK118" s="22"/>
-      <c r="AL118" s="22"/>
-      <c r="AM118" s="22"/>
-      <c r="AN118" s="22"/>
-      <c r="AO118" s="22"/>
-      <c r="AP118" s="22"/>
-      <c r="AQ118" s="22"/>
-      <c r="AR118" s="22"/>
-      <c r="AS118" s="22"/>
-      <c r="AT118" s="22"/>
-      <c r="AU118" s="22"/>
-      <c r="AV118" s="22"/>
-      <c r="AW118" s="22"/>
-      <c r="AX118" s="22"/>
-      <c r="AY118" s="22"/>
-      <c r="AZ118" s="22"/>
-      <c r="BA118" s="22"/>
-      <c r="BB118" s="22"/>
-      <c r="BC118" s="22"/>
-      <c r="BD118" s="22"/>
-      <c r="BE118" s="22"/>
-      <c r="BF118" s="22"/>
-      <c r="BG118" s="22"/>
-      <c r="BH118" s="22"/>
-      <c r="BI118" s="22"/>
-      <c r="BJ118" s="22"/>
-      <c r="BK118" s="22"/>
-      <c r="BL118" s="22"/>
-      <c r="BM118" s="22"/>
-      <c r="BN118" s="22"/>
     </row>
     <row r="119" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>12</v>
@@ -32028,7 +32043,7 @@
         <v>142</v>
       </c>
       <c r="G119" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H119" s="58" t="s">
         <v>218</v>
@@ -32040,19 +32055,19 @@
         <v>7</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L119" s="10">
-        <v>1003</v>
-      </c>
-      <c r="M119" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N119" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O119" s="30" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="L119" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M119" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N119" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O119" s="47" t="s">
+        <v>12</v>
       </c>
       <c r="P119" s="22"/>
       <c r="Q119" s="22"/>
@@ -32106,15 +32121,15 @@
       <c r="BM119" s="22"/>
       <c r="BN119" s="22"/>
     </row>
-    <row r="120" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>150</v>
+      <c r="C120" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>12</v>
@@ -32138,13 +32153,13 @@
         <v>7</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L120" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M120" s="30" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N120" s="30" t="s">
         <v>136</v>
@@ -32204,15 +32219,15 @@
       <c r="BM120" s="22"/>
       <c r="BN120" s="22"/>
     </row>
-    <row r="121" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>12</v>
@@ -32236,13 +32251,13 @@
         <v>7</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L121" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M121" s="30" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N121" s="30" t="s">
         <v>136</v>
@@ -32302,26 +32317,26 @@
       <c r="BM121" s="22"/>
       <c r="BN121" s="22"/>
     </row>
-    <row r="122" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C122" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D122" s="53" t="s">
+      <c r="C122" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E122" s="53" t="s">
+      <c r="E122" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F122" s="53" t="s">
+      <c r="F122" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G122" s="54">
+      <c r="G122" s="24">
         <v>400</v>
       </c>
       <c r="H122" s="58" t="s">
@@ -32330,23 +32345,23 @@
       <c r="I122" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J122" s="53" t="s">
+      <c r="J122" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K122" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="L122" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M122" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N122" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O122" s="63" t="s">
-        <v>12</v>
+      <c r="K122" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L122" s="10">
+        <v>1005</v>
+      </c>
+      <c r="M122" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N122" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O122" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="P122" s="22"/>
       <c r="Q122" s="22"/>
@@ -32400,27 +32415,27 @@
       <c r="BM122" s="22"/>
       <c r="BN122" s="22"/>
     </row>
-    <row r="123" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D123" s="4" t="s">
+      <c r="C123" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D123" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E123" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G123" s="24">
-        <v>404</v>
+      <c r="G123" s="54">
+        <v>400</v>
       </c>
       <c r="H123" s="58" t="s">
         <v>218</v>
@@ -32428,85 +32443,85 @@
       <c r="I123" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J123" s="4" t="s">
+      <c r="J123" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K123" s="4" t="s">
+      <c r="K123" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L123" s="10">
-        <v>1006</v>
-      </c>
-      <c r="M123" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N123" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O123" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P123" s="21"/>
-      <c r="Q123" s="21"/>
-      <c r="R123" s="21"/>
-      <c r="S123" s="21"/>
-      <c r="T123" s="21"/>
-      <c r="U123" s="21"/>
-      <c r="V123" s="21"/>
-      <c r="W123" s="21"/>
-      <c r="X123" s="21"/>
-      <c r="Y123" s="21"/>
-      <c r="Z123" s="21"/>
-      <c r="AA123" s="21"/>
-      <c r="AB123" s="21"/>
-      <c r="AC123" s="21"/>
-      <c r="AD123" s="21"/>
-      <c r="AE123" s="21"/>
-      <c r="AF123" s="21"/>
-      <c r="AG123" s="21"/>
-      <c r="AH123" s="21"/>
-      <c r="AI123" s="21"/>
-      <c r="AJ123" s="21"/>
-      <c r="AK123" s="21"/>
-      <c r="AL123" s="21"/>
-      <c r="AM123" s="21"/>
-      <c r="AN123" s="21"/>
-      <c r="AO123" s="21"/>
-      <c r="AP123" s="21"/>
-      <c r="AQ123" s="21"/>
-      <c r="AR123" s="21"/>
-      <c r="AS123" s="21"/>
-      <c r="AT123" s="21"/>
-      <c r="AU123" s="21"/>
-      <c r="AV123" s="21"/>
-      <c r="AW123" s="21"/>
-      <c r="AX123" s="21"/>
-      <c r="AY123" s="21"/>
-      <c r="AZ123" s="21"/>
-      <c r="BA123" s="21"/>
-      <c r="BB123" s="21"/>
-      <c r="BC123" s="21"/>
-      <c r="BD123" s="21"/>
-      <c r="BE123" s="21"/>
-      <c r="BF123" s="21"/>
-      <c r="BG123" s="21"/>
-      <c r="BH123" s="21"/>
-      <c r="BI123" s="21"/>
-      <c r="BJ123" s="21"/>
-      <c r="BK123" s="21"/>
-      <c r="BL123" s="21"/>
-      <c r="BM123" s="21"/>
-      <c r="BN123" s="21"/>
-    </row>
-    <row r="124" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L123" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M123" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N123" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O123" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="P123" s="22"/>
+      <c r="Q123" s="22"/>
+      <c r="R123" s="22"/>
+      <c r="S123" s="22"/>
+      <c r="T123" s="22"/>
+      <c r="U123" s="22"/>
+      <c r="V123" s="22"/>
+      <c r="W123" s="22"/>
+      <c r="X123" s="22"/>
+      <c r="Y123" s="22"/>
+      <c r="Z123" s="22"/>
+      <c r="AA123" s="22"/>
+      <c r="AB123" s="22"/>
+      <c r="AC123" s="22"/>
+      <c r="AD123" s="22"/>
+      <c r="AE123" s="22"/>
+      <c r="AF123" s="22"/>
+      <c r="AG123" s="22"/>
+      <c r="AH123" s="22"/>
+      <c r="AI123" s="22"/>
+      <c r="AJ123" s="22"/>
+      <c r="AK123" s="22"/>
+      <c r="AL123" s="22"/>
+      <c r="AM123" s="22"/>
+      <c r="AN123" s="22"/>
+      <c r="AO123" s="22"/>
+      <c r="AP123" s="22"/>
+      <c r="AQ123" s="22"/>
+      <c r="AR123" s="22"/>
+      <c r="AS123" s="22"/>
+      <c r="AT123" s="22"/>
+      <c r="AU123" s="22"/>
+      <c r="AV123" s="22"/>
+      <c r="AW123" s="22"/>
+      <c r="AX123" s="22"/>
+      <c r="AY123" s="22"/>
+      <c r="AZ123" s="22"/>
+      <c r="BA123" s="22"/>
+      <c r="BB123" s="22"/>
+      <c r="BC123" s="22"/>
+      <c r="BD123" s="22"/>
+      <c r="BE123" s="22"/>
+      <c r="BF123" s="22"/>
+      <c r="BG123" s="22"/>
+      <c r="BH123" s="22"/>
+      <c r="BI123" s="22"/>
+      <c r="BJ123" s="22"/>
+      <c r="BK123" s="22"/>
+      <c r="BL123" s="22"/>
+      <c r="BM123" s="22"/>
+      <c r="BN123" s="22"/>
+    </row>
+    <row r="124" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>12</v>
@@ -32530,13 +32545,13 @@
         <v>7</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L124" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M124" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N124" s="30" t="s">
         <v>136</v>
@@ -32544,16 +32559,67 @@
       <c r="O124" s="30" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="125" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="P124" s="21"/>
+      <c r="Q124" s="21"/>
+      <c r="R124" s="21"/>
+      <c r="S124" s="21"/>
+      <c r="T124" s="21"/>
+      <c r="U124" s="21"/>
+      <c r="V124" s="21"/>
+      <c r="W124" s="21"/>
+      <c r="X124" s="21"/>
+      <c r="Y124" s="21"/>
+      <c r="Z124" s="21"/>
+      <c r="AA124" s="21"/>
+      <c r="AB124" s="21"/>
+      <c r="AC124" s="21"/>
+      <c r="AD124" s="21"/>
+      <c r="AE124" s="21"/>
+      <c r="AF124" s="21"/>
+      <c r="AG124" s="21"/>
+      <c r="AH124" s="21"/>
+      <c r="AI124" s="21"/>
+      <c r="AJ124" s="21"/>
+      <c r="AK124" s="21"/>
+      <c r="AL124" s="21"/>
+      <c r="AM124" s="21"/>
+      <c r="AN124" s="21"/>
+      <c r="AO124" s="21"/>
+      <c r="AP124" s="21"/>
+      <c r="AQ124" s="21"/>
+      <c r="AR124" s="21"/>
+      <c r="AS124" s="21"/>
+      <c r="AT124" s="21"/>
+      <c r="AU124" s="21"/>
+      <c r="AV124" s="21"/>
+      <c r="AW124" s="21"/>
+      <c r="AX124" s="21"/>
+      <c r="AY124" s="21"/>
+      <c r="AZ124" s="21"/>
+      <c r="BA124" s="21"/>
+      <c r="BB124" s="21"/>
+      <c r="BC124" s="21"/>
+      <c r="BD124" s="21"/>
+      <c r="BE124" s="21"/>
+      <c r="BF124" s="21"/>
+      <c r="BG124" s="21"/>
+      <c r="BH124" s="21"/>
+      <c r="BI124" s="21"/>
+      <c r="BJ124" s="21"/>
+      <c r="BK124" s="21"/>
+      <c r="BL124" s="21"/>
+      <c r="BM124" s="21"/>
+      <c r="BN124" s="21"/>
+    </row>
+    <row r="125" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>12</v>
@@ -32565,7 +32631,7 @@
         <v>142</v>
       </c>
       <c r="G125" s="24">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H125" s="58" t="s">
         <v>218</v>
@@ -32580,10 +32646,10 @@
         <v>32</v>
       </c>
       <c r="L125" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M125" s="30" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N125" s="30" t="s">
         <v>136</v>
@@ -32592,15 +32658,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="126" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A126" s="26">
-        <v>141</v>
+    <row r="126" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>94</v>
       </c>
       <c r="B126" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="84" t="s">
-        <v>231</v>
+      <c r="C126" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>12</v>
@@ -32608,11 +32674,11 @@
       <c r="E126" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F126" s="26" t="s">
+      <c r="F126" s="4" t="s">
         <v>142</v>
       </c>
       <c r="G126" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H126" s="58" t="s">
         <v>218</v>
@@ -32626,91 +32692,40 @@
       <c r="K126" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L126" s="26">
-        <v>3013</v>
-      </c>
-      <c r="M126" s="84" t="s">
-        <v>232</v>
+      <c r="L126" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M126" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="N126" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O126" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="P126" s="21"/>
-      <c r="Q126" s="21"/>
-      <c r="R126" s="21"/>
-      <c r="S126" s="21"/>
-      <c r="T126" s="21"/>
-      <c r="U126" s="21"/>
-      <c r="V126" s="21"/>
-      <c r="W126" s="21"/>
-      <c r="X126" s="21"/>
-      <c r="Y126" s="21"/>
-      <c r="Z126" s="21"/>
-      <c r="AA126" s="21"/>
-      <c r="AB126" s="21"/>
-      <c r="AC126" s="21"/>
-      <c r="AD126" s="21"/>
-      <c r="AE126" s="21"/>
-      <c r="AF126" s="21"/>
-      <c r="AG126" s="21"/>
-      <c r="AH126" s="21"/>
-      <c r="AI126" s="21"/>
-      <c r="AJ126" s="21"/>
-      <c r="AK126" s="21"/>
-      <c r="AL126" s="21"/>
-      <c r="AM126" s="21"/>
-      <c r="AN126" s="21"/>
-      <c r="AO126" s="21"/>
-      <c r="AP126" s="21"/>
-      <c r="AQ126" s="21"/>
-      <c r="AR126" s="21"/>
-      <c r="AS126" s="21"/>
-      <c r="AT126" s="21"/>
-      <c r="AU126" s="21"/>
-      <c r="AV126" s="21"/>
-      <c r="AW126" s="21"/>
-      <c r="AX126" s="21"/>
-      <c r="AY126" s="21"/>
-      <c r="AZ126" s="21"/>
-      <c r="BA126" s="21"/>
-      <c r="BB126" s="21"/>
-      <c r="BC126" s="21"/>
-      <c r="BD126" s="21"/>
-      <c r="BE126" s="21"/>
-      <c r="BF126" s="21"/>
-      <c r="BG126" s="21"/>
-      <c r="BH126" s="21"/>
-      <c r="BI126" s="21"/>
-      <c r="BJ126" s="21"/>
-      <c r="BK126" s="21"/>
-      <c r="BL126" s="21"/>
-      <c r="BM126" s="21"/>
-      <c r="BN126" s="21"/>
-    </row>
-    <row r="127" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
-        <v>95</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A127" s="26">
+        <v>141</v>
       </c>
       <c r="B127" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D127" s="24" t="s">
+      <c r="C127" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F127" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G127" s="24">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H127" s="58" t="s">
         <v>218</v>
@@ -32722,32 +32737,83 @@
         <v>7</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L127" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M127" s="32" t="s">
-        <v>204</v>
+        <v>32</v>
+      </c>
+      <c r="L127" s="26">
+        <v>3013</v>
+      </c>
+      <c r="M127" s="84" t="s">
+        <v>232</v>
       </c>
       <c r="N127" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O127" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="P127" s="21"/>
+      <c r="Q127" s="21"/>
+      <c r="R127" s="21"/>
+      <c r="S127" s="21"/>
+      <c r="T127" s="21"/>
+      <c r="U127" s="21"/>
+      <c r="V127" s="21"/>
+      <c r="W127" s="21"/>
+      <c r="X127" s="21"/>
+      <c r="Y127" s="21"/>
+      <c r="Z127" s="21"/>
+      <c r="AA127" s="21"/>
+      <c r="AB127" s="21"/>
+      <c r="AC127" s="21"/>
+      <c r="AD127" s="21"/>
+      <c r="AE127" s="21"/>
+      <c r="AF127" s="21"/>
+      <c r="AG127" s="21"/>
+      <c r="AH127" s="21"/>
+      <c r="AI127" s="21"/>
+      <c r="AJ127" s="21"/>
+      <c r="AK127" s="21"/>
+      <c r="AL127" s="21"/>
+      <c r="AM127" s="21"/>
+      <c r="AN127" s="21"/>
+      <c r="AO127" s="21"/>
+      <c r="AP127" s="21"/>
+      <c r="AQ127" s="21"/>
+      <c r="AR127" s="21"/>
+      <c r="AS127" s="21"/>
+      <c r="AT127" s="21"/>
+      <c r="AU127" s="21"/>
+      <c r="AV127" s="21"/>
+      <c r="AW127" s="21"/>
+      <c r="AX127" s="21"/>
+      <c r="AY127" s="21"/>
+      <c r="AZ127" s="21"/>
+      <c r="BA127" s="21"/>
+      <c r="BB127" s="21"/>
+      <c r="BC127" s="21"/>
+      <c r="BD127" s="21"/>
+      <c r="BE127" s="21"/>
+      <c r="BF127" s="21"/>
+      <c r="BG127" s="21"/>
+      <c r="BH127" s="21"/>
+      <c r="BI127" s="21"/>
+      <c r="BJ127" s="21"/>
+      <c r="BK127" s="21"/>
+      <c r="BL127" s="21"/>
+      <c r="BM127" s="21"/>
+      <c r="BN127" s="21"/>
+    </row>
+    <row r="128" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B128" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D128" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D128" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E128" s="4" t="s">
@@ -32757,7 +32823,7 @@
         <v>142</v>
       </c>
       <c r="G128" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H128" s="58" t="s">
         <v>218</v>
@@ -32771,187 +32837,187 @@
       <c r="K128" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L128" s="10">
-        <v>4001</v>
-      </c>
-      <c r="M128" s="30" t="s">
-        <v>19</v>
+      <c r="L128" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M128" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N128" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O128" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="P128" s="22"/>
-      <c r="Q128" s="22"/>
-      <c r="R128" s="22"/>
-      <c r="S128" s="22"/>
-      <c r="T128" s="22"/>
-      <c r="U128" s="22"/>
-      <c r="V128" s="22"/>
-      <c r="W128" s="22"/>
-      <c r="X128" s="22"/>
-      <c r="Y128" s="22"/>
-      <c r="Z128" s="22"/>
-      <c r="AA128" s="22"/>
-      <c r="AB128" s="22"/>
-      <c r="AC128" s="22"/>
-      <c r="AD128" s="22"/>
-      <c r="AE128" s="22"/>
-      <c r="AF128" s="22"/>
-      <c r="AG128" s="22"/>
-      <c r="AH128" s="22"/>
-      <c r="AI128" s="22"/>
-      <c r="AJ128" s="22"/>
-      <c r="AK128" s="22"/>
-      <c r="AL128" s="22"/>
-      <c r="AM128" s="22"/>
-      <c r="AN128" s="22"/>
-      <c r="AO128" s="22"/>
-      <c r="AP128" s="22"/>
-      <c r="AQ128" s="22"/>
-      <c r="AR128" s="22"/>
-      <c r="AS128" s="22"/>
-      <c r="AT128" s="22"/>
-      <c r="AU128" s="22"/>
-      <c r="AV128" s="22"/>
-      <c r="AW128" s="22"/>
-      <c r="AX128" s="22"/>
-      <c r="AY128" s="22"/>
-      <c r="AZ128" s="22"/>
-      <c r="BA128" s="22"/>
-      <c r="BB128" s="22"/>
-      <c r="BC128" s="22"/>
-      <c r="BD128" s="22"/>
-      <c r="BE128" s="22"/>
-      <c r="BF128" s="22"/>
-      <c r="BG128" s="22"/>
-      <c r="BH128" s="22"/>
-      <c r="BI128" s="22"/>
-      <c r="BJ128" s="22"/>
-      <c r="BK128" s="22"/>
-      <c r="BL128" s="22"/>
-      <c r="BM128" s="22"/>
-      <c r="BN128" s="22"/>
-    </row>
-    <row r="129" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A129" s="26">
-        <v>142</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>96</v>
       </c>
       <c r="B129" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="84" t="s">
+      <c r="C129" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G129" s="24">
+        <v>400</v>
+      </c>
+      <c r="H129" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I129" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L129" s="10">
+        <v>4001</v>
+      </c>
+      <c r="M129" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N129" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O129" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P129" s="22"/>
+      <c r="Q129" s="22"/>
+      <c r="R129" s="22"/>
+      <c r="S129" s="22"/>
+      <c r="T129" s="22"/>
+      <c r="U129" s="22"/>
+      <c r="V129" s="22"/>
+      <c r="W129" s="22"/>
+      <c r="X129" s="22"/>
+      <c r="Y129" s="22"/>
+      <c r="Z129" s="22"/>
+      <c r="AA129" s="22"/>
+      <c r="AB129" s="22"/>
+      <c r="AC129" s="22"/>
+      <c r="AD129" s="22"/>
+      <c r="AE129" s="22"/>
+      <c r="AF129" s="22"/>
+      <c r="AG129" s="22"/>
+      <c r="AH129" s="22"/>
+      <c r="AI129" s="22"/>
+      <c r="AJ129" s="22"/>
+      <c r="AK129" s="22"/>
+      <c r="AL129" s="22"/>
+      <c r="AM129" s="22"/>
+      <c r="AN129" s="22"/>
+      <c r="AO129" s="22"/>
+      <c r="AP129" s="22"/>
+      <c r="AQ129" s="22"/>
+      <c r="AR129" s="22"/>
+      <c r="AS129" s="22"/>
+      <c r="AT129" s="22"/>
+      <c r="AU129" s="22"/>
+      <c r="AV129" s="22"/>
+      <c r="AW129" s="22"/>
+      <c r="AX129" s="22"/>
+      <c r="AY129" s="22"/>
+      <c r="AZ129" s="22"/>
+      <c r="BA129" s="22"/>
+      <c r="BB129" s="22"/>
+      <c r="BC129" s="22"/>
+      <c r="BD129" s="22"/>
+      <c r="BE129" s="22"/>
+      <c r="BF129" s="22"/>
+      <c r="BG129" s="22"/>
+      <c r="BH129" s="22"/>
+      <c r="BI129" s="22"/>
+      <c r="BJ129" s="22"/>
+      <c r="BK129" s="22"/>
+      <c r="BL129" s="22"/>
+      <c r="BM129" s="22"/>
+      <c r="BN129" s="22"/>
+    </row>
+    <row r="130" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A130" s="26">
+        <v>142</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C130" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="65">
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="65">
         <v>413</v>
       </c>
-      <c r="H129" s="65" t="s">
+      <c r="H130" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="I129" s="65"/>
-      <c r="J129" s="58" t="s">
+      <c r="I130" s="65"/>
+      <c r="J130" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K129" s="26"/>
-      <c r="L129" s="26"/>
-      <c r="M129" s="84" t="s">
+      <c r="K130" s="26"/>
+      <c r="L130" s="26"/>
+      <c r="M130" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="N129" s="33"/>
-      <c r="O129" s="33"/>
-    </row>
-    <row r="130" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A130" s="100" t="s">
+      <c r="N130" s="33"/>
+      <c r="O130" s="33"/>
+    </row>
+    <row r="131" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A131" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="B130" s="100"/>
-      <c r="C130" s="100"/>
-      <c r="D130" s="100"/>
-      <c r="E130" s="100"/>
-      <c r="F130" s="100"/>
-      <c r="G130" s="100"/>
-      <c r="H130" s="100"/>
-      <c r="I130" s="100"/>
-      <c r="J130" s="100"/>
-      <c r="K130" s="100"/>
-      <c r="L130" s="100"/>
-      <c r="M130" s="100"/>
-      <c r="N130" s="100"/>
-      <c r="O130" s="100"/>
-    </row>
-    <row r="131" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
+      <c r="B131" s="100"/>
+      <c r="C131" s="100"/>
+      <c r="D131" s="100"/>
+      <c r="E131" s="100"/>
+      <c r="F131" s="100"/>
+      <c r="G131" s="100"/>
+      <c r="H131" s="100"/>
+      <c r="I131" s="100"/>
+      <c r="J131" s="100"/>
+      <c r="K131" s="100"/>
+      <c r="L131" s="100"/>
+      <c r="M131" s="100"/>
+      <c r="N131" s="100"/>
+      <c r="O131" s="100"/>
+    </row>
+    <row r="132" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
         <v>154</v>
-      </c>
-      <c r="B131" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C131" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G131" s="4">
-        <v>200</v>
-      </c>
-      <c r="H131" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="I131" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K131" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L131" s="4">
-        <v>4006</v>
-      </c>
-      <c r="M131" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="N131" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="O131" s="49" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="132" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="8">
-        <v>151</v>
       </c>
       <c r="B132" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C132" s="96" t="s">
-        <v>271</v>
+      <c r="C132" s="49" t="s">
+        <v>277</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E132" s="5" t="s">
+      <c r="E132" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F132" s="5" t="s">
+      <c r="F132" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G132" s="38">
+      <c r="G132" s="4">
         <v>200</v>
       </c>
       <c r="H132" s="24" t="s">
@@ -32966,28 +33032,28 @@
       <c r="K132" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L132" s="8">
-        <v>4005</v>
-      </c>
-      <c r="M132" s="96" t="s">
-        <v>271</v>
+      <c r="L132" s="4">
+        <v>4006</v>
+      </c>
+      <c r="M132" s="49" t="s">
+        <v>277</v>
       </c>
       <c r="N132" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O132" s="96" t="s">
-        <v>270</v>
+      <c r="O132" s="49" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="133" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
-        <v>97</v>
+      <c r="A133" s="8">
+        <v>151</v>
       </c>
       <c r="B133" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C133" s="23" t="s">
-        <v>87</v>
+      <c r="C133" s="96" t="s">
+        <v>271</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>12</v>
@@ -33010,33 +33076,33 @@
       <c r="J133" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K133" s="5" t="s">
-        <v>32</v>
+      <c r="K133" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="L133" s="8">
-        <v>4002</v>
-      </c>
-      <c r="M133" s="32" t="s">
-        <v>40</v>
+        <v>4005</v>
+      </c>
+      <c r="M133" s="96" t="s">
+        <v>271</v>
       </c>
       <c r="N133" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O133" s="31" t="s">
-        <v>64</v>
+      <c r="O133" s="96" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B134" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C134" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D134" s="26" t="s">
+      <c r="C134" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E134" s="5" t="s">
@@ -33057,31 +33123,31 @@
       <c r="J134" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K134" s="26" t="s">
+      <c r="K134" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L134" s="26">
-        <v>4003</v>
+      <c r="L134" s="8">
+        <v>4002</v>
       </c>
       <c r="M134" s="32" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="N134" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O134" s="33" t="s">
-        <v>1</v>
+      <c r="O134" s="31" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="135" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B135" s="31" t="s">
         <v>135</v>
       </c>
       <c r="C135" s="27" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="D135" s="26" t="s">
         <v>12</v>
@@ -33108,35 +33174,35 @@
         <v>32</v>
       </c>
       <c r="L135" s="26">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="M135" s="32" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="N135" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O135" s="31" t="s">
-        <v>186</v>
+      <c r="O135" s="33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B136" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D136" s="4">
-        <v>8</v>
-      </c>
-      <c r="E136" s="24" t="s">
+      <c r="C136" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D136" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F136" s="24" t="s">
+      <c r="F136" s="5" t="s">
         <v>142</v>
       </c>
       <c r="G136" s="38">
@@ -33148,217 +33214,217 @@
       <c r="I136" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J136" s="4" t="s">
+      <c r="J136" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K136" s="4" t="s">
+      <c r="K136" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L136" s="26">
+        <v>4004</v>
+      </c>
+      <c r="M136" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="N136" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="O136" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>99</v>
+      </c>
+      <c r="B137" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D137" s="4">
+        <v>8</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G137" s="38">
+        <v>200</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I137" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L136" s="4">
+      <c r="L137" s="4">
         <v>1010</v>
       </c>
-      <c r="M136" s="30" t="s">
+      <c r="M137" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N136" s="30" t="s">
+      <c r="N137" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="O136" s="30" t="s">
+      <c r="O137" s="30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="99" t="s">
+    <row r="138" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="B137" s="99"/>
-      <c r="C137" s="99"/>
-      <c r="D137" s="99"/>
-      <c r="E137" s="99"/>
-      <c r="F137" s="99"/>
-      <c r="G137" s="99"/>
-      <c r="H137" s="99"/>
-      <c r="I137" s="99"/>
-      <c r="J137" s="99"/>
-      <c r="K137" s="99"/>
-      <c r="L137" s="99"/>
-      <c r="M137" s="99"/>
-      <c r="N137" s="99"/>
-      <c r="O137" s="99"/>
-    </row>
-    <row r="138" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A138" s="100" t="s">
+      <c r="B138" s="99"/>
+      <c r="C138" s="99"/>
+      <c r="D138" s="99"/>
+      <c r="E138" s="99"/>
+      <c r="F138" s="99"/>
+      <c r="G138" s="99"/>
+      <c r="H138" s="99"/>
+      <c r="I138" s="99"/>
+      <c r="J138" s="99"/>
+      <c r="K138" s="99"/>
+      <c r="L138" s="99"/>
+      <c r="M138" s="99"/>
+      <c r="N138" s="99"/>
+      <c r="O138" s="99"/>
+    </row>
+    <row r="139" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A139" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B138" s="100"/>
-      <c r="C138" s="100"/>
-      <c r="D138" s="100"/>
-      <c r="E138" s="100"/>
-      <c r="F138" s="100"/>
-      <c r="G138" s="100"/>
-      <c r="H138" s="100"/>
-      <c r="I138" s="100"/>
-      <c r="J138" s="100"/>
-      <c r="K138" s="100"/>
-      <c r="L138" s="100"/>
-      <c r="M138" s="100"/>
-      <c r="N138" s="100"/>
-      <c r="O138" s="100"/>
-    </row>
-    <row r="139" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="92">
+      <c r="B139" s="100"/>
+      <c r="C139" s="100"/>
+      <c r="D139" s="100"/>
+      <c r="E139" s="100"/>
+      <c r="F139" s="100"/>
+      <c r="G139" s="100"/>
+      <c r="H139" s="100"/>
+      <c r="I139" s="100"/>
+      <c r="J139" s="100"/>
+      <c r="K139" s="100"/>
+      <c r="L139" s="100"/>
+      <c r="M139" s="100"/>
+      <c r="N139" s="100"/>
+      <c r="O139" s="100"/>
+    </row>
+    <row r="140" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="92">
         <v>146</v>
-      </c>
-      <c r="B139" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C139" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D139" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F139" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="G139" s="92">
-        <v>403</v>
-      </c>
-      <c r="H139" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I139" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J139" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="K139" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="L139" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M139" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N139" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O139" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="P139" s="21"/>
-      <c r="Q139" s="21"/>
-      <c r="R139" s="21"/>
-      <c r="S139" s="21"/>
-      <c r="T139" s="21"/>
-      <c r="U139" s="21"/>
-      <c r="V139" s="21"/>
-      <c r="W139" s="21"/>
-      <c r="X139" s="21"/>
-      <c r="Y139" s="21"/>
-      <c r="Z139" s="21"/>
-      <c r="AA139" s="21"/>
-      <c r="AB139" s="21"/>
-      <c r="AC139" s="21"/>
-      <c r="AD139" s="21"/>
-      <c r="AE139" s="21"/>
-      <c r="AF139" s="21"/>
-      <c r="AG139" s="21"/>
-      <c r="AH139" s="21"/>
-      <c r="AI139" s="21"/>
-      <c r="AJ139" s="21"/>
-      <c r="AK139" s="21"/>
-      <c r="AL139" s="21"/>
-      <c r="AM139" s="21"/>
-      <c r="AN139" s="21"/>
-      <c r="AO139" s="21"/>
-      <c r="AP139" s="21"/>
-      <c r="AQ139" s="21"/>
-      <c r="AR139" s="21"/>
-      <c r="AS139" s="21"/>
-      <c r="AT139" s="21"/>
-      <c r="AU139" s="21"/>
-      <c r="AV139" s="21"/>
-      <c r="AW139" s="21"/>
-      <c r="AX139" s="21"/>
-      <c r="AY139" s="21"/>
-      <c r="AZ139" s="21"/>
-      <c r="BA139" s="21"/>
-      <c r="BB139" s="21"/>
-      <c r="BC139" s="21"/>
-      <c r="BD139" s="21"/>
-      <c r="BE139" s="21"/>
-      <c r="BF139" s="21"/>
-      <c r="BG139" s="21"/>
-      <c r="BH139" s="21"/>
-      <c r="BI139" s="21"/>
-      <c r="BJ139" s="21"/>
-      <c r="BK139" s="21"/>
-      <c r="BL139" s="21"/>
-      <c r="BM139" s="21"/>
-      <c r="BN139" s="21"/>
-    </row>
-    <row r="140" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A140" s="4">
-        <v>102</v>
       </c>
       <c r="B140" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C140" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D140" s="4" t="s">
+      <c r="C140" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D140" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E140" s="4" t="s">
+      <c r="E140" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F140" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G140" s="24">
-        <v>401</v>
-      </c>
-      <c r="H140" s="65" t="s">
+      <c r="G140" s="92">
+        <v>403</v>
+      </c>
+      <c r="H140" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I140" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J140" s="4" t="s">
+      <c r="J140" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K140" s="4" t="s">
+      <c r="K140" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L140" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M140" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N140" s="32" t="s">
+      <c r="L140" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M140" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N140" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O140" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="O140" s="49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P140" s="21"/>
+      <c r="Q140" s="21"/>
+      <c r="R140" s="21"/>
+      <c r="S140" s="21"/>
+      <c r="T140" s="21"/>
+      <c r="U140" s="21"/>
+      <c r="V140" s="21"/>
+      <c r="W140" s="21"/>
+      <c r="X140" s="21"/>
+      <c r="Y140" s="21"/>
+      <c r="Z140" s="21"/>
+      <c r="AA140" s="21"/>
+      <c r="AB140" s="21"/>
+      <c r="AC140" s="21"/>
+      <c r="AD140" s="21"/>
+      <c r="AE140" s="21"/>
+      <c r="AF140" s="21"/>
+      <c r="AG140" s="21"/>
+      <c r="AH140" s="21"/>
+      <c r="AI140" s="21"/>
+      <c r="AJ140" s="21"/>
+      <c r="AK140" s="21"/>
+      <c r="AL140" s="21"/>
+      <c r="AM140" s="21"/>
+      <c r="AN140" s="21"/>
+      <c r="AO140" s="21"/>
+      <c r="AP140" s="21"/>
+      <c r="AQ140" s="21"/>
+      <c r="AR140" s="21"/>
+      <c r="AS140" s="21"/>
+      <c r="AT140" s="21"/>
+      <c r="AU140" s="21"/>
+      <c r="AV140" s="21"/>
+      <c r="AW140" s="21"/>
+      <c r="AX140" s="21"/>
+      <c r="AY140" s="21"/>
+      <c r="AZ140" s="21"/>
+      <c r="BA140" s="21"/>
+      <c r="BB140" s="21"/>
+      <c r="BC140" s="21"/>
+      <c r="BD140" s="21"/>
+      <c r="BE140" s="21"/>
+      <c r="BF140" s="21"/>
+      <c r="BG140" s="21"/>
+      <c r="BH140" s="21"/>
+      <c r="BI140" s="21"/>
+      <c r="BJ140" s="21"/>
+      <c r="BK140" s="21"/>
+      <c r="BL140" s="21"/>
+      <c r="BM140" s="21"/>
+      <c r="BN140" s="21"/>
+    </row>
+    <row r="141" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B141" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C141" s="23" t="s">
-        <v>149</v>
+      <c r="C141" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>12</v>
@@ -33385,39 +33451,39 @@
         <v>34</v>
       </c>
       <c r="L141" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M141" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N141" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O141" s="47" t="s">
+      <c r="O141" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B142" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="D142" s="24">
-        <v>201</v>
-      </c>
-      <c r="E142" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F142" s="24" t="s">
+      <c r="F142" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G142" s="44">
-        <v>400</v>
+      <c r="G142" s="24">
+        <v>401</v>
       </c>
       <c r="H142" s="65" t="s">
         <v>218</v>
@@ -33425,34 +33491,34 @@
       <c r="I142" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J142" s="24" t="s">
+      <c r="J142" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K142" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L142" s="40">
-        <v>1003</v>
-      </c>
-      <c r="M142" s="32" t="s">
-        <v>14</v>
+      <c r="K142" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L142" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M142" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="N142" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="O142" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="143" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="O142" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B143" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="D143" s="24">
         <v>201</v>
@@ -33463,7 +33529,7 @@
       <c r="F143" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G143" s="24">
+      <c r="G143" s="44">
         <v>400</v>
       </c>
       <c r="H143" s="65" t="s">
@@ -33476,13 +33542,13 @@
         <v>7</v>
       </c>
       <c r="K143" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L143" s="25">
-        <v>1004</v>
+        <v>32</v>
+      </c>
+      <c r="L143" s="40">
+        <v>1003</v>
       </c>
       <c r="M143" s="32" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N143" s="32" t="s">
         <v>57</v>
@@ -33491,26 +33557,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B144" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C144" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D144" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144" s="53" t="s">
+      <c r="C144" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D144" s="24">
+        <v>201</v>
+      </c>
+      <c r="E144" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F144" s="53" t="s">
+      <c r="F144" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G144" s="54">
+      <c r="G144" s="24">
         <v>400</v>
       </c>
       <c r="H144" s="65" t="s">
@@ -33519,46 +33585,46 @@
       <c r="I144" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J144" s="53" t="s">
+      <c r="J144" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K144" s="54" t="s">
+      <c r="K144" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L144" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M144" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N144" s="52" t="s">
+      <c r="L144" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M144" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N144" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O144" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O144" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B145" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C145" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D145" s="24">
-        <v>202</v>
-      </c>
-      <c r="E145" s="24" t="s">
+      <c r="C145" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D145" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F145" s="24" t="s">
+      <c r="F145" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G145" s="44">
-        <v>403</v>
+      <c r="G145" s="54">
+        <v>400</v>
       </c>
       <c r="H145" s="65" t="s">
         <v>218</v>
@@ -33566,34 +33632,34 @@
       <c r="I145" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J145" s="24" t="s">
+      <c r="J145" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K145" s="24" t="s">
+      <c r="K145" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L145" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M145" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N145" s="32" t="s">
+      <c r="L145" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M145" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N145" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="O145" s="30" t="s">
-        <v>61</v>
+      <c r="O145" s="63" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B146" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D146" s="24">
         <v>202</v>
@@ -33617,13 +33683,13 @@
         <v>7</v>
       </c>
       <c r="K146" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L146" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M146" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N146" s="32" t="s">
         <v>57</v>
@@ -33632,15 +33698,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B147" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D147" s="24">
         <v>202</v>
@@ -33651,7 +33717,7 @@
       <c r="F147" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G147" s="24">
+      <c r="G147" s="44">
         <v>403</v>
       </c>
       <c r="H147" s="65" t="s">
@@ -33667,10 +33733,10 @@
         <v>32</v>
       </c>
       <c r="L147" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M147" s="32" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N147" s="32" t="s">
         <v>57</v>
@@ -33681,13 +33747,13 @@
     </row>
     <row r="148" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B148" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="D148" s="24">
         <v>202</v>
@@ -33713,11 +33779,11 @@
       <c r="K148" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L148" s="65">
-        <v>5001</v>
+      <c r="L148" s="25">
+        <v>1008</v>
       </c>
       <c r="M148" s="32" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="N148" s="32" t="s">
         <v>57</v>
@@ -33726,15 +33792,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B149" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D149" s="24">
         <v>202</v>
@@ -33745,7 +33811,7 @@
       <c r="F149" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G149" s="44">
+      <c r="G149" s="24">
         <v>403</v>
       </c>
       <c r="H149" s="65" t="s">
@@ -33758,42 +33824,42 @@
         <v>7</v>
       </c>
       <c r="K149" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L149" s="24">
-        <v>1011</v>
+        <v>32</v>
+      </c>
+      <c r="L149" s="65">
+        <v>5001</v>
       </c>
       <c r="M149" s="32" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="N149" s="32" t="s">
         <v>57</v>
       </c>
       <c r="O149" s="30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B150" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D150" s="4">
-        <v>203</v>
-      </c>
-      <c r="E150" s="4" t="s">
+      <c r="C150" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D150" s="24">
+        <v>202</v>
+      </c>
+      <c r="E150" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F150" s="4" t="s">
+      <c r="F150" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G150" s="24">
-        <v>400</v>
+      <c r="G150" s="44">
+        <v>403</v>
       </c>
       <c r="H150" s="65" t="s">
         <v>218</v>
@@ -33801,34 +33867,34 @@
       <c r="I150" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J150" s="4" t="s">
+      <c r="J150" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K150" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L150" s="20">
-        <v>5005</v>
-      </c>
-      <c r="M150" s="30" t="s">
-        <v>180</v>
+      <c r="K150" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L150" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M150" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N150" s="32" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="O150" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="26">
-        <v>132</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>112</v>
       </c>
       <c r="B151" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C151" s="57" t="s">
-        <v>197</v>
+      <c r="C151" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="D151" s="4">
         <v>203</v>
@@ -33848,19 +33914,19 @@
       <c r="I151" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J151" s="58" t="s">
+      <c r="J151" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L151" s="26">
-        <v>3003</v>
-      </c>
-      <c r="M151" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="N151" s="33" t="s">
+      <c r="L151" s="20">
+        <v>5005</v>
+      </c>
+      <c r="M151" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="N151" s="32" t="s">
         <v>216</v>
       </c>
       <c r="O151" s="30" t="s">
@@ -33869,16 +33935,16 @@
     </row>
     <row r="152" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A152" s="26">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B152" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C152" s="57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D152" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>142</v>
@@ -33902,30 +33968,30 @@
         <v>11</v>
       </c>
       <c r="L152" s="26">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="M152" s="57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N152" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O152" s="56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="8">
-        <v>130</v>
+      <c r="O152" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="26">
+        <v>131</v>
       </c>
       <c r="B153" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C153" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>12</v>
+        <v>198</v>
+      </c>
+      <c r="D153" s="4">
+        <v>204</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>142</v>
@@ -33949,30 +34015,30 @@
         <v>11</v>
       </c>
       <c r="L153" s="26">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="M153" s="57" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N153" s="33" t="s">
         <v>216</v>
       </c>
       <c r="O153" s="56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B154" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C154" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="D154" s="4">
         <v>203</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>142</v>
@@ -33996,30 +34062,30 @@
         <v>11</v>
       </c>
       <c r="L154" s="26">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="M154" s="57" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N154" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O154" s="57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" s="26">
-        <v>129</v>
+      <c r="O154" s="56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="8">
+        <v>128</v>
       </c>
       <c r="B155" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C155" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>12</v>
+      <c r="C155" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D155" s="4">
+        <v>203</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>142</v>
@@ -34027,8 +34093,8 @@
       <c r="F155" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G155" s="65">
-        <v>404</v>
+      <c r="G155" s="24">
+        <v>400</v>
       </c>
       <c r="H155" s="65" t="s">
         <v>218</v>
@@ -34042,11 +34108,11 @@
       <c r="K155" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L155" s="66">
-        <v>3007</v>
-      </c>
-      <c r="M155" s="67" t="s">
-        <v>207</v>
+      <c r="L155" s="26">
+        <v>3006</v>
+      </c>
+      <c r="M155" s="57" t="s">
+        <v>200</v>
       </c>
       <c r="N155" s="33" t="s">
         <v>216</v>
@@ -34056,21 +34122,51 @@
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A156" s="20"/>
-      <c r="B156" s="21"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="20"/>
-      <c r="E156" s="20"/>
-      <c r="F156" s="20"/>
-      <c r="G156" s="45"/>
-      <c r="H156" s="45"/>
-      <c r="I156" s="45"/>
-      <c r="J156" s="20"/>
-      <c r="K156" s="20"/>
-      <c r="L156" s="20"/>
-      <c r="M156" s="34"/>
-      <c r="N156" s="21"/>
-      <c r="O156" s="21"/>
+      <c r="A156" s="26">
+        <v>129</v>
+      </c>
+      <c r="B156" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C156" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G156" s="65">
+        <v>404</v>
+      </c>
+      <c r="H156" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="I156" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J156" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L156" s="66">
+        <v>3007</v>
+      </c>
+      <c r="M156" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="N156" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="O156" s="57" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
@@ -34084,6 +34180,7 @@
       <c r="I157" s="45"/>
       <c r="J157" s="20"/>
       <c r="K157" s="20"/>
+      <c r="L157" s="20"/>
       <c r="M157" s="34"/>
       <c r="N157" s="21"/>
       <c r="O157" s="21"/>
@@ -34100,7 +34197,6 @@
       <c r="I158" s="45"/>
       <c r="J158" s="20"/>
       <c r="K158" s="20"/>
-      <c r="L158" s="20"/>
       <c r="M158" s="34"/>
       <c r="N158" s="21"/>
       <c r="O158" s="21"/>
@@ -34372,6 +34468,7 @@
       <c r="I174" s="45"/>
       <c r="J174" s="20"/>
       <c r="K174" s="20"/>
+      <c r="L174" s="20"/>
       <c r="M174" s="34"/>
       <c r="N174" s="21"/>
       <c r="O174" s="21"/>
@@ -34388,7 +34485,6 @@
       <c r="I175" s="45"/>
       <c r="J175" s="20"/>
       <c r="K175" s="20"/>
-      <c r="L175" s="20"/>
       <c r="M175" s="34"/>
       <c r="N175" s="21"/>
       <c r="O175" s="21"/>
@@ -39272,34 +39368,51 @@
       <c r="N462" s="21"/>
       <c r="O462" s="21"/>
     </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A463" s="20"/>
+      <c r="B463" s="21"/>
+      <c r="C463" s="22"/>
+      <c r="D463" s="20"/>
+      <c r="E463" s="20"/>
+      <c r="F463" s="20"/>
+      <c r="G463" s="45"/>
+      <c r="H463" s="45"/>
+      <c r="I463" s="45"/>
+      <c r="J463" s="20"/>
+      <c r="K463" s="20"/>
+      <c r="L463" s="20"/>
+      <c r="M463" s="34"/>
+      <c r="N463" s="21"/>
+      <c r="O463" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="G1:G462" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="G1:G463" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A137:O137"/>
     <mergeCell ref="A138:O138"/>
-    <mergeCell ref="A130:O130"/>
-    <mergeCell ref="A111:O111"/>
+    <mergeCell ref="A139:O139"/>
+    <mergeCell ref="A131:O131"/>
+    <mergeCell ref="A112:O112"/>
+    <mergeCell ref="A116:O116"/>
+    <mergeCell ref="A91:O91"/>
+    <mergeCell ref="A90:O90"/>
     <mergeCell ref="A115:O115"/>
-    <mergeCell ref="A90:O90"/>
-    <mergeCell ref="A89:O89"/>
-    <mergeCell ref="A114:O114"/>
-    <mergeCell ref="A76:O76"/>
-    <mergeCell ref="A62:O62"/>
+    <mergeCell ref="A77:O77"/>
+    <mergeCell ref="A63:O63"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A61:O61"/>
-    <mergeCell ref="A75:O75"/>
+    <mergeCell ref="A62:O62"/>
+    <mergeCell ref="A76:O76"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J70:J74 J131:J136 J84:J88 J7:J8 J67:J68 J81:J82 J94:J96 J119:J121 J142:J143 J10:J16 J145:J155 J123:J129 J112:J113 J28:J49 J25 J19:J20 J98:J110 J51:J60" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J71:J75 J132:J137 J85:J89 J7:J8 J68:J69 J82:J83 J95:J97 J120:J122 J143:J144 J10:J16 J146:J156 J124:J130 J113:J114 J28:J49 J25 J19:J20 J99:J111 J51:J61" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K131:K133 K70:K74 K84:K88 K136 K7:K8 K67:K68 K81:K82 K94:K96 K119:K121 K142:K143 K10:K16 K98:K110 K145:K155 K123:K129 K112:K113 K25:K49 K19:K20 K51:K60" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K132:K134 K71:K75 K85:K89 K137 K7:K8 K68:K69 K82:K83 K95:K97 K120:K122 K143:K144 K10:K16 K99:K111 K146:K156 K124:K130 K113:K114 K25:K49 K19:K20 K51:K61" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L70:L74 L10:L14 L84:L88 L113 L136 L51:L55 L149:L150 L145:L147 L7:L8 L67:L68 L81:L82 L94:L96 L119:L121 L142:L143 L16 L39:L48 L98:L103 L123:L125 L127:L129 L28 L30:L37 L25 L19:L20 L133" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L71:L75 L10:L14 L85:L89 L114 L137 L51:L55 L150:L151 L146:L148 L7:L8 L68:L69 L82:L83 L95:L97 L120:L122 L143:L144 L16 L39:L48 L99:L104 L124:L126 L128:L130 L28 L30:L37 L25 L19:L20 L134" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -39311,8 +39424,8 @@
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="20" max="16383" man="1"/>
-    <brk id="60" max="16383" man="1"/>
-    <brk id="88" max="9" man="1"/>
+    <brk id="61" max="16383" man="1"/>
+    <brk id="89" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19C76D4-1D5F-4A65-8E84-A995F1A6CD83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD5ECD-9523-4D3E-B31B-264865C0591B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22933,7 +22933,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -26806,7 +26806,7 @@
         <v>287</v>
       </c>
       <c r="D61" s="4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E61" s="24" t="s">
         <v>142</v>
@@ -39389,21 +39389,21 @@
   <autoFilter ref="G1:G463" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A62:O62"/>
+    <mergeCell ref="A76:O76"/>
+    <mergeCell ref="A91:O91"/>
+    <mergeCell ref="A90:O90"/>
+    <mergeCell ref="A115:O115"/>
+    <mergeCell ref="A77:O77"/>
+    <mergeCell ref="A63:O63"/>
     <mergeCell ref="A138:O138"/>
     <mergeCell ref="A139:O139"/>
     <mergeCell ref="A131:O131"/>
     <mergeCell ref="A112:O112"/>
     <mergeCell ref="A116:O116"/>
-    <mergeCell ref="A91:O91"/>
-    <mergeCell ref="A90:O90"/>
-    <mergeCell ref="A115:O115"/>
-    <mergeCell ref="A77:O77"/>
-    <mergeCell ref="A63:O63"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A62:O62"/>
-    <mergeCell ref="A76:O76"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J71:J75 J132:J137 J85:J89 J7:J8 J68:J69 J82:J83 J95:J97 J120:J122 J143:J144 J10:J16 J146:J156 J124:J130 J113:J114 J28:J49 J25 J19:J20 J99:J111 J51:J61" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD5ECD-9523-4D3E-B31B-264865C0591B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EFA3F7-177E-4B9A-85D1-93A53AE61D84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$463</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$462</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$134</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$133</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="287">
   <si>
     <t>Payslip</t>
   </si>
@@ -964,12 +964,6 @@
 •	1 where pay frequency is annual;
 •	1-52 where pay frequency is other.</t>
   </si>
-  <si>
-    <t>Payslips containing J9 PRSI class cannot be amended or deleted.</t>
-  </si>
-  <si>
-    <t>lineItemID</t>
-  </si>
 </sst>
 </file>
 
@@ -22244,10 +22238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B8:M67"/>
+  <dimension ref="B8:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85:D91"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22905,15 +22899,6 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="79"/>
-      <c r="C67" s="79">
-        <v>158</v>
-      </c>
-      <c r="D67" s="80" t="s">
-        <v>164</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:E9"/>
@@ -22929,11 +22914,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BN463"/>
+  <dimension ref="A1:BN462"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -26795,122 +26780,94 @@
       <c r="BM60" s="22"/>
       <c r="BN60" s="22"/>
     </row>
-    <row r="61" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>158</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="85" t="s">
-        <v>287</v>
-      </c>
-      <c r="D61" s="4">
-        <v>31</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G61" s="24">
-        <v>200</v>
-      </c>
-      <c r="H61" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="I61" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="J61" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L61" s="10">
-        <v>2054</v>
-      </c>
-      <c r="M61" s="85" t="s">
-        <v>287</v>
-      </c>
-      <c r="N61" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O61" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="22"/>
-      <c r="U61" s="22"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
-      <c r="AE61" s="22"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="22"/>
-      <c r="AH61" s="22"/>
-      <c r="AI61" s="22"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="22"/>
-      <c r="AL61" s="22"/>
-      <c r="AM61" s="22"/>
-      <c r="AN61" s="22"/>
-      <c r="AO61" s="22"/>
-      <c r="AP61" s="22"/>
-      <c r="AQ61" s="22"/>
-      <c r="AR61" s="22"/>
-      <c r="AS61" s="22"/>
-      <c r="AT61" s="22"/>
-      <c r="AU61" s="22"/>
-      <c r="AV61" s="22"/>
-      <c r="AW61" s="22"/>
-      <c r="AX61" s="22"/>
-      <c r="AY61" s="22"/>
-      <c r="AZ61" s="22"/>
-      <c r="BA61" s="22"/>
-      <c r="BB61" s="22"/>
-      <c r="BC61" s="22"/>
-      <c r="BD61" s="22"/>
-      <c r="BE61" s="22"/>
-      <c r="BF61" s="22"/>
-      <c r="BG61" s="22"/>
-      <c r="BH61" s="22"/>
-      <c r="BI61" s="22"/>
-      <c r="BJ61" s="22"/>
-      <c r="BK61" s="22"/>
-      <c r="BL61" s="22"/>
-      <c r="BM61" s="22"/>
-      <c r="BN61" s="22"/>
-    </row>
-    <row r="62" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="101" t="s">
+    <row r="61" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="102"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="102"/>
-      <c r="I62" s="102"/>
-      <c r="J62" s="102"/>
-      <c r="K62" s="102"/>
-      <c r="L62" s="102"/>
-      <c r="M62" s="102"/>
-      <c r="N62" s="102"/>
-      <c r="O62" s="103"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="102"/>
+      <c r="L61" s="102"/>
+      <c r="M61" s="102"/>
+      <c r="N61" s="102"/>
+      <c r="O61" s="103"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
+      <c r="AB61" s="21"/>
+      <c r="AC61" s="21"/>
+      <c r="AD61" s="21"/>
+      <c r="AE61" s="21"/>
+      <c r="AF61" s="21"/>
+      <c r="AG61" s="21"/>
+      <c r="AH61" s="21"/>
+      <c r="AI61" s="21"/>
+      <c r="AJ61" s="21"/>
+      <c r="AK61" s="21"/>
+      <c r="AL61" s="21"/>
+      <c r="AM61" s="21"/>
+      <c r="AN61" s="21"/>
+      <c r="AO61" s="21"/>
+      <c r="AP61" s="21"/>
+      <c r="AQ61" s="21"/>
+      <c r="AR61" s="21"/>
+      <c r="AS61" s="21"/>
+      <c r="AT61" s="21"/>
+      <c r="AU61" s="21"/>
+      <c r="AV61" s="21"/>
+      <c r="AW61" s="21"/>
+      <c r="AX61" s="21"/>
+      <c r="AY61" s="21"/>
+      <c r="AZ61" s="21"/>
+      <c r="BA61" s="21"/>
+      <c r="BB61" s="21"/>
+      <c r="BC61" s="21"/>
+      <c r="BD61" s="21"/>
+      <c r="BE61" s="21"/>
+      <c r="BF61" s="21"/>
+      <c r="BG61" s="21"/>
+      <c r="BH61" s="21"/>
+      <c r="BI61" s="21"/>
+      <c r="BJ61" s="21"/>
+      <c r="BK61" s="21"/>
+      <c r="BL61" s="21"/>
+      <c r="BM61" s="21"/>
+      <c r="BN61" s="21"/>
+    </row>
+    <row r="62" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="100"/>
       <c r="P62" s="21"/>
       <c r="Q62" s="21"/>
       <c r="R62" s="21"/>
@@ -26963,24 +26920,52 @@
       <c r="BM62" s="21"/>
       <c r="BN62" s="21"/>
     </row>
-    <row r="63" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="100" t="s">
+    <row r="63" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="92">
         <v>148</v>
       </c>
-      <c r="B63" s="100"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="100"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="100"/>
-      <c r="K63" s="100"/>
-      <c r="L63" s="100"/>
-      <c r="M63" s="100"/>
-      <c r="N63" s="100"/>
-      <c r="O63" s="100"/>
+      <c r="B63" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="G63" s="92">
+        <v>403</v>
+      </c>
+      <c r="H63" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J63" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L63" s="92">
+        <v>1111</v>
+      </c>
+      <c r="M63" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="N63" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O63" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="P63" s="21"/>
       <c r="Q63" s="21"/>
       <c r="R63" s="21"/>
@@ -27033,15 +27018,15 @@
       <c r="BM63" s="21"/>
       <c r="BN63" s="21"/>
     </row>
-    <row r="64" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="92">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B64" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C64" s="93" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D64" s="92" t="s">
         <v>12</v>
@@ -27068,16 +27053,16 @@
         <v>34</v>
       </c>
       <c r="L64" s="92">
-        <v>1111</v>
+        <v>1016</v>
       </c>
       <c r="M64" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="N64" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O64" s="30" t="s">
-        <v>61</v>
+        <v>248</v>
+      </c>
+      <c r="N64" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O64" s="93" t="s">
+        <v>12</v>
       </c>
       <c r="P64" s="21"/>
       <c r="Q64" s="21"/>
@@ -27131,50 +27116,50 @@
       <c r="BM64" s="21"/>
       <c r="BN64" s="21"/>
     </row>
-    <row r="65" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="92">
-        <v>146</v>
+    <row r="65" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>52</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D65" s="92" t="s">
+      <c r="C65" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="92" t="s">
+      <c r="E65" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F65" s="92" t="s">
+      <c r="F65" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G65" s="92">
-        <v>403</v>
-      </c>
-      <c r="H65" s="92" t="s">
+      <c r="G65" s="24">
+        <v>401</v>
+      </c>
+      <c r="H65" s="58" t="s">
         <v>218</v>
       </c>
       <c r="I65" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J65" s="92" t="s">
+      <c r="J65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K65" s="92" t="s">
+      <c r="K65" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L65" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M65" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N65" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O65" s="93" t="s">
+      <c r="L65" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M65" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N65" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O65" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P65" s="21"/>
@@ -27229,15 +27214,15 @@
       <c r="BM65" s="21"/>
       <c r="BN65" s="21"/>
     </row>
-    <row r="66" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B66" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="32" t="s">
-        <v>156</v>
+      <c r="C66" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>12</v>
@@ -27264,15 +27249,15 @@
         <v>34</v>
       </c>
       <c r="L66" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M66" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N66" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O66" s="49" t="s">
+      <c r="O66" s="47" t="s">
         <v>12</v>
       </c>
       <c r="P66" s="21"/>
@@ -27327,15 +27312,15 @@
       <c r="BM66" s="21"/>
       <c r="BN66" s="21"/>
     </row>
-    <row r="67" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>12</v>
@@ -27347,7 +27332,7 @@
         <v>142</v>
       </c>
       <c r="G67" s="24">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H67" s="58" t="s">
         <v>218</v>
@@ -27355,85 +27340,85 @@
       <c r="I67" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="J67" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K67" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L67" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M67" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="N67" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O67" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="21"/>
-      <c r="X67" s="21"/>
-      <c r="Y67" s="21"/>
-      <c r="Z67" s="21"/>
-      <c r="AA67" s="21"/>
-      <c r="AB67" s="21"/>
-      <c r="AC67" s="21"/>
-      <c r="AD67" s="21"/>
-      <c r="AE67" s="21"/>
-      <c r="AF67" s="21"/>
-      <c r="AG67" s="21"/>
-      <c r="AH67" s="21"/>
-      <c r="AI67" s="21"/>
-      <c r="AJ67" s="21"/>
-      <c r="AK67" s="21"/>
-      <c r="AL67" s="21"/>
-      <c r="AM67" s="21"/>
-      <c r="AN67" s="21"/>
-      <c r="AO67" s="21"/>
-      <c r="AP67" s="21"/>
-      <c r="AQ67" s="21"/>
-      <c r="AR67" s="21"/>
-      <c r="AS67" s="21"/>
-      <c r="AT67" s="21"/>
-      <c r="AU67" s="21"/>
-      <c r="AV67" s="21"/>
-      <c r="AW67" s="21"/>
-      <c r="AX67" s="21"/>
-      <c r="AY67" s="21"/>
-      <c r="AZ67" s="21"/>
-      <c r="BA67" s="21"/>
-      <c r="BB67" s="21"/>
-      <c r="BC67" s="21"/>
-      <c r="BD67" s="21"/>
-      <c r="BE67" s="21"/>
-      <c r="BF67" s="21"/>
-      <c r="BG67" s="21"/>
-      <c r="BH67" s="21"/>
-      <c r="BI67" s="21"/>
-      <c r="BJ67" s="21"/>
-      <c r="BK67" s="21"/>
-      <c r="BL67" s="21"/>
-      <c r="BM67" s="21"/>
-      <c r="BN67" s="21"/>
-    </row>
-    <row r="68" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K67" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L67" s="24">
+        <v>1003</v>
+      </c>
+      <c r="M67" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N67" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O67" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="22"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="22"/>
+      <c r="V67" s="22"/>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="22"/>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="22"/>
+      <c r="AB67" s="22"/>
+      <c r="AC67" s="22"/>
+      <c r="AD67" s="22"/>
+      <c r="AE67" s="22"/>
+      <c r="AF67" s="22"/>
+      <c r="AG67" s="22"/>
+      <c r="AH67" s="22"/>
+      <c r="AI67" s="22"/>
+      <c r="AJ67" s="22"/>
+      <c r="AK67" s="22"/>
+      <c r="AL67" s="22"/>
+      <c r="AM67" s="22"/>
+      <c r="AN67" s="22"/>
+      <c r="AO67" s="22"/>
+      <c r="AP67" s="22"/>
+      <c r="AQ67" s="22"/>
+      <c r="AR67" s="22"/>
+      <c r="AS67" s="22"/>
+      <c r="AT67" s="22"/>
+      <c r="AU67" s="22"/>
+      <c r="AV67" s="22"/>
+      <c r="AW67" s="22"/>
+      <c r="AX67" s="22"/>
+      <c r="AY67" s="22"/>
+      <c r="AZ67" s="22"/>
+      <c r="BA67" s="22"/>
+      <c r="BB67" s="22"/>
+      <c r="BC67" s="22"/>
+      <c r="BD67" s="22"/>
+      <c r="BE67" s="22"/>
+      <c r="BF67" s="22"/>
+      <c r="BG67" s="22"/>
+      <c r="BH67" s="22"/>
+      <c r="BI67" s="22"/>
+      <c r="BJ67" s="22"/>
+      <c r="BK67" s="22"/>
+      <c r="BL67" s="22"/>
+      <c r="BM67" s="22"/>
+      <c r="BN67" s="22"/>
+    </row>
+    <row r="68" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>12</v>
@@ -27457,13 +27442,13 @@
         <v>7</v>
       </c>
       <c r="K68" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L68" s="24">
-        <v>1003</v>
+        <v>11</v>
+      </c>
+      <c r="L68" s="25">
+        <v>1004</v>
       </c>
       <c r="M68" s="32" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N68" s="30" t="s">
         <v>62</v>
@@ -27523,26 +27508,26 @@
       <c r="BM68" s="22"/>
       <c r="BN68" s="22"/>
     </row>
-    <row r="69" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="C69" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G69" s="24">
+      <c r="G69" s="54">
         <v>400</v>
       </c>
       <c r="H69" s="58" t="s">
@@ -27551,97 +27536,46 @@
       <c r="I69" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J69" s="24" t="s">
+      <c r="J69" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K69" s="24" t="s">
+      <c r="K69" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L69" s="25">
-        <v>1004</v>
-      </c>
-      <c r="M69" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="N69" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O69" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="22"/>
-      <c r="T69" s="22"/>
-      <c r="U69" s="22"/>
-      <c r="V69" s="22"/>
-      <c r="W69" s="22"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="22"/>
-      <c r="AA69" s="22"/>
-      <c r="AB69" s="22"/>
-      <c r="AC69" s="22"/>
-      <c r="AD69" s="22"/>
-      <c r="AE69" s="22"/>
-      <c r="AF69" s="22"/>
-      <c r="AG69" s="22"/>
-      <c r="AH69" s="22"/>
-      <c r="AI69" s="22"/>
-      <c r="AJ69" s="22"/>
-      <c r="AK69" s="22"/>
-      <c r="AL69" s="22"/>
-      <c r="AM69" s="22"/>
-      <c r="AN69" s="22"/>
-      <c r="AO69" s="22"/>
-      <c r="AP69" s="22"/>
-      <c r="AQ69" s="22"/>
-      <c r="AR69" s="22"/>
-      <c r="AS69" s="22"/>
-      <c r="AT69" s="22"/>
-      <c r="AU69" s="22"/>
-      <c r="AV69" s="22"/>
-      <c r="AW69" s="22"/>
-      <c r="AX69" s="22"/>
-      <c r="AY69" s="22"/>
-      <c r="AZ69" s="22"/>
-      <c r="BA69" s="22"/>
-      <c r="BB69" s="22"/>
-      <c r="BC69" s="22"/>
-      <c r="BD69" s="22"/>
-      <c r="BE69" s="22"/>
-      <c r="BF69" s="22"/>
-      <c r="BG69" s="22"/>
-      <c r="BH69" s="22"/>
-      <c r="BI69" s="22"/>
-      <c r="BJ69" s="22"/>
-      <c r="BK69" s="22"/>
-      <c r="BL69" s="22"/>
-      <c r="BM69" s="22"/>
-      <c r="BN69" s="22"/>
-    </row>
-    <row r="70" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L69" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M69" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N69" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O69" s="63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D70" s="53" t="s">
+      <c r="C70" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="53" t="s">
+      <c r="E70" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F70" s="53" t="s">
+      <c r="F70" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G70" s="54">
-        <v>400</v>
+      <c r="G70" s="24">
+        <v>403</v>
       </c>
       <c r="H70" s="58" t="s">
         <v>218</v>
@@ -27649,34 +27583,85 @@
       <c r="I70" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J70" s="53" t="s">
+      <c r="J70" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K70" s="54" t="s">
+      <c r="K70" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L70" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M70" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N70" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O70" s="63" t="s">
-        <v>12</v>
-      </c>
+      <c r="L70" s="25">
+        <v>1006</v>
+      </c>
+      <c r="M70" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N70" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O70" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="22"/>
+      <c r="S70" s="22"/>
+      <c r="T70" s="22"/>
+      <c r="U70" s="22"/>
+      <c r="V70" s="22"/>
+      <c r="W70" s="22"/>
+      <c r="X70" s="22"/>
+      <c r="Y70" s="22"/>
+      <c r="Z70" s="22"/>
+      <c r="AA70" s="22"/>
+      <c r="AB70" s="22"/>
+      <c r="AC70" s="22"/>
+      <c r="AD70" s="22"/>
+      <c r="AE70" s="22"/>
+      <c r="AF70" s="22"/>
+      <c r="AG70" s="22"/>
+      <c r="AH70" s="22"/>
+      <c r="AI70" s="22"/>
+      <c r="AJ70" s="22"/>
+      <c r="AK70" s="22"/>
+      <c r="AL70" s="22"/>
+      <c r="AM70" s="22"/>
+      <c r="AN70" s="22"/>
+      <c r="AO70" s="22"/>
+      <c r="AP70" s="22"/>
+      <c r="AQ70" s="22"/>
+      <c r="AR70" s="22"/>
+      <c r="AS70" s="22"/>
+      <c r="AT70" s="22"/>
+      <c r="AU70" s="22"/>
+      <c r="AV70" s="22"/>
+      <c r="AW70" s="22"/>
+      <c r="AX70" s="22"/>
+      <c r="AY70" s="22"/>
+      <c r="AZ70" s="22"/>
+      <c r="BA70" s="22"/>
+      <c r="BB70" s="22"/>
+      <c r="BC70" s="22"/>
+      <c r="BD70" s="22"/>
+      <c r="BE70" s="22"/>
+      <c r="BF70" s="22"/>
+      <c r="BG70" s="22"/>
+      <c r="BH70" s="22"/>
+      <c r="BI70" s="22"/>
+      <c r="BJ70" s="22"/>
+      <c r="BK70" s="22"/>
+      <c r="BL70" s="22"/>
+      <c r="BM70" s="22"/>
+      <c r="BN70" s="22"/>
     </row>
     <row r="71" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>12</v>
@@ -27700,13 +27685,13 @@
         <v>7</v>
       </c>
       <c r="K71" s="24" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L71" s="25">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M71" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N71" s="30" t="s">
         <v>62</v>
@@ -27768,13 +27753,13 @@
     </row>
     <row r="72" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>12</v>
@@ -27801,10 +27786,10 @@
         <v>32</v>
       </c>
       <c r="L72" s="25">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M72" s="32" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N72" s="30" t="s">
         <v>62</v>
@@ -27866,15 +27851,15 @@
     </row>
     <row r="73" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D73" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="4" t="s">
@@ -27896,19 +27881,19 @@
         <v>7</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L73" s="25">
-        <v>1008</v>
+        <v>34</v>
+      </c>
+      <c r="L73" s="24">
+        <v>1011</v>
       </c>
       <c r="M73" s="32" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="N73" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O73" s="30" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="P73" s="22"/>
       <c r="Q73" s="22"/>
@@ -27964,15 +27949,15 @@
     </row>
     <row r="74" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B74" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D74" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="4" t="s">
@@ -27982,7 +27967,7 @@
         <v>142</v>
       </c>
       <c r="G74" s="24">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H74" s="58" t="s">
         <v>218</v>
@@ -27990,23 +27975,23 @@
       <c r="I74" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J74" s="24" t="s">
+      <c r="J74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K74" s="24" t="s">
+      <c r="K74" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L74" s="24">
-        <v>1011</v>
-      </c>
-      <c r="M74" s="32" t="s">
-        <v>204</v>
+      <c r="L74" s="4">
+        <v>2501</v>
+      </c>
+      <c r="M74" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="N74" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O74" s="30" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="P74" s="22"/>
       <c r="Q74" s="22"/>
@@ -28060,122 +28045,94 @@
       <c r="BM74" s="22"/>
       <c r="BN74" s="22"/>
     </row>
-    <row r="75" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <v>61</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G75" s="24">
-        <v>404</v>
-      </c>
-      <c r="H75" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="I75" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L75" s="4">
-        <v>2501</v>
-      </c>
-      <c r="M75" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="N75" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="O75" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="22"/>
-      <c r="T75" s="22"/>
-      <c r="U75" s="22"/>
-      <c r="V75" s="22"/>
-      <c r="W75" s="22"/>
-      <c r="X75" s="22"/>
-      <c r="Y75" s="22"/>
-      <c r="Z75" s="22"/>
-      <c r="AA75" s="22"/>
-      <c r="AB75" s="22"/>
-      <c r="AC75" s="22"/>
-      <c r="AD75" s="22"/>
-      <c r="AE75" s="22"/>
-      <c r="AF75" s="22"/>
-      <c r="AG75" s="22"/>
-      <c r="AH75" s="22"/>
-      <c r="AI75" s="22"/>
-      <c r="AJ75" s="22"/>
-      <c r="AK75" s="22"/>
-      <c r="AL75" s="22"/>
-      <c r="AM75" s="22"/>
-      <c r="AN75" s="22"/>
-      <c r="AO75" s="22"/>
-      <c r="AP75" s="22"/>
-      <c r="AQ75" s="22"/>
-      <c r="AR75" s="22"/>
-      <c r="AS75" s="22"/>
-      <c r="AT75" s="22"/>
-      <c r="AU75" s="22"/>
-      <c r="AV75" s="22"/>
-      <c r="AW75" s="22"/>
-      <c r="AX75" s="22"/>
-      <c r="AY75" s="22"/>
-      <c r="AZ75" s="22"/>
-      <c r="BA75" s="22"/>
-      <c r="BB75" s="22"/>
-      <c r="BC75" s="22"/>
-      <c r="BD75" s="22"/>
-      <c r="BE75" s="22"/>
-      <c r="BF75" s="22"/>
-      <c r="BG75" s="22"/>
-      <c r="BH75" s="22"/>
-      <c r="BI75" s="22"/>
-      <c r="BJ75" s="22"/>
-      <c r="BK75" s="22"/>
-      <c r="BL75" s="22"/>
-      <c r="BM75" s="22"/>
-      <c r="BN75" s="22"/>
-    </row>
-    <row r="76" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="99" t="s">
+    <row r="75" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B76" s="99"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="99"/>
-      <c r="E76" s="99"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="99"/>
-      <c r="H76" s="99"/>
-      <c r="I76" s="99"/>
-      <c r="J76" s="99"/>
-      <c r="K76" s="99"/>
-      <c r="L76" s="99"/>
-      <c r="M76" s="99"/>
-      <c r="N76" s="99"/>
-      <c r="O76" s="99"/>
+      <c r="B75" s="99"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="99"/>
+      <c r="K75" s="99"/>
+      <c r="L75" s="99"/>
+      <c r="M75" s="99"/>
+      <c r="N75" s="99"/>
+      <c r="O75" s="99"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="21"/>
+      <c r="X75" s="21"/>
+      <c r="Y75" s="21"/>
+      <c r="Z75" s="21"/>
+      <c r="AA75" s="21"/>
+      <c r="AB75" s="21"/>
+      <c r="AC75" s="21"/>
+      <c r="AD75" s="21"/>
+      <c r="AE75" s="21"/>
+      <c r="AF75" s="21"/>
+      <c r="AG75" s="21"/>
+      <c r="AH75" s="21"/>
+      <c r="AI75" s="21"/>
+      <c r="AJ75" s="21"/>
+      <c r="AK75" s="21"/>
+      <c r="AL75" s="21"/>
+      <c r="AM75" s="21"/>
+      <c r="AN75" s="21"/>
+      <c r="AO75" s="21"/>
+      <c r="AP75" s="21"/>
+      <c r="AQ75" s="21"/>
+      <c r="AR75" s="21"/>
+      <c r="AS75" s="21"/>
+      <c r="AT75" s="21"/>
+      <c r="AU75" s="21"/>
+      <c r="AV75" s="21"/>
+      <c r="AW75" s="21"/>
+      <c r="AX75" s="21"/>
+      <c r="AY75" s="21"/>
+      <c r="AZ75" s="21"/>
+      <c r="BA75" s="21"/>
+      <c r="BB75" s="21"/>
+      <c r="BC75" s="21"/>
+      <c r="BD75" s="21"/>
+      <c r="BE75" s="21"/>
+      <c r="BF75" s="21"/>
+      <c r="BG75" s="21"/>
+      <c r="BH75" s="21"/>
+      <c r="BI75" s="21"/>
+      <c r="BJ75" s="21"/>
+      <c r="BK75" s="21"/>
+      <c r="BL75" s="21"/>
+      <c r="BM75" s="21"/>
+      <c r="BN75" s="21"/>
+    </row>
+    <row r="76" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="100"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100"/>
+      <c r="H76" s="100"/>
+      <c r="I76" s="100"/>
+      <c r="J76" s="100"/>
+      <c r="K76" s="100"/>
+      <c r="L76" s="100"/>
+      <c r="M76" s="100"/>
+      <c r="N76" s="100"/>
+      <c r="O76" s="100"/>
       <c r="P76" s="21"/>
       <c r="Q76" s="21"/>
       <c r="R76" s="21"/>
@@ -28228,24 +28185,52 @@
       <c r="BM76" s="21"/>
       <c r="BN76" s="21"/>
     </row>
-    <row r="77" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="100" t="s">
+    <row r="77" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="92">
         <v>148</v>
       </c>
-      <c r="B77" s="100"/>
-      <c r="C77" s="100"/>
-      <c r="D77" s="100"/>
-      <c r="E77" s="100"/>
-      <c r="F77" s="100"/>
-      <c r="G77" s="100"/>
-      <c r="H77" s="100"/>
-      <c r="I77" s="100"/>
-      <c r="J77" s="100"/>
-      <c r="K77" s="100"/>
-      <c r="L77" s="100"/>
-      <c r="M77" s="100"/>
-      <c r="N77" s="100"/>
-      <c r="O77" s="100"/>
+      <c r="B77" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="D77" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="G77" s="92">
+        <v>403</v>
+      </c>
+      <c r="H77" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="I77" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J77" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="K77" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L77" s="92">
+        <v>1111</v>
+      </c>
+      <c r="M77" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="N77" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O77" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="P77" s="21"/>
       <c r="Q77" s="21"/>
       <c r="R77" s="21"/>
@@ -28298,15 +28283,15 @@
       <c r="BM77" s="21"/>
       <c r="BN77" s="21"/>
     </row>
-    <row r="78" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="92">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C78" s="93" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D78" s="92" t="s">
         <v>12</v>
@@ -28333,16 +28318,16 @@
         <v>34</v>
       </c>
       <c r="L78" s="92">
-        <v>1111</v>
+        <v>1016</v>
       </c>
       <c r="M78" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="N78" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O78" s="30" t="s">
-        <v>61</v>
+        <v>248</v>
+      </c>
+      <c r="N78" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O78" s="93" t="s">
+        <v>12</v>
       </c>
       <c r="P78" s="21"/>
       <c r="Q78" s="21"/>
@@ -28396,50 +28381,50 @@
       <c r="BM78" s="21"/>
       <c r="BN78" s="21"/>
     </row>
-    <row r="79" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="92">
-        <v>146</v>
+    <row r="79" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>62</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C79" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D79" s="92" t="s">
+      <c r="C79" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="92" t="s">
+      <c r="E79" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F79" s="92" t="s">
+      <c r="F79" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G79" s="92">
-        <v>403</v>
-      </c>
-      <c r="H79" s="92" t="s">
+      <c r="G79" s="24">
+        <v>401</v>
+      </c>
+      <c r="H79" s="58" t="s">
         <v>218</v>
       </c>
       <c r="I79" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J79" s="92" t="s">
+      <c r="J79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K79" s="92" t="s">
+      <c r="K79" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L79" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M79" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N79" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O79" s="93" t="s">
+      <c r="L79" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M79" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N79" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O79" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P79" s="21"/>
@@ -28494,15 +28479,15 @@
       <c r="BM79" s="21"/>
       <c r="BN79" s="21"/>
     </row>
-    <row r="80" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>12</v>
@@ -28529,15 +28514,15 @@
         <v>34</v>
       </c>
       <c r="L80" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M80" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N80" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O80" s="49" t="s">
+      <c r="O80" s="47" t="s">
         <v>12</v>
       </c>
       <c r="P80" s="21"/>
@@ -28592,15 +28577,15 @@
       <c r="BM80" s="21"/>
       <c r="BN80" s="21"/>
     </row>
-    <row r="81" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>12</v>
@@ -28612,7 +28597,7 @@
         <v>142</v>
       </c>
       <c r="G81" s="24">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H81" s="58" t="s">
         <v>218</v>
@@ -28620,85 +28605,85 @@
       <c r="I81" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="J81" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K81" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L81" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M81" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="N81" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O81" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="21"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="21"/>
-      <c r="U81" s="21"/>
-      <c r="V81" s="21"/>
-      <c r="W81" s="21"/>
-      <c r="X81" s="21"/>
-      <c r="Y81" s="21"/>
-      <c r="Z81" s="21"/>
-      <c r="AA81" s="21"/>
-      <c r="AB81" s="21"/>
-      <c r="AC81" s="21"/>
-      <c r="AD81" s="21"/>
-      <c r="AE81" s="21"/>
-      <c r="AF81" s="21"/>
-      <c r="AG81" s="21"/>
-      <c r="AH81" s="21"/>
-      <c r="AI81" s="21"/>
-      <c r="AJ81" s="21"/>
-      <c r="AK81" s="21"/>
-      <c r="AL81" s="21"/>
-      <c r="AM81" s="21"/>
-      <c r="AN81" s="21"/>
-      <c r="AO81" s="21"/>
-      <c r="AP81" s="21"/>
-      <c r="AQ81" s="21"/>
-      <c r="AR81" s="21"/>
-      <c r="AS81" s="21"/>
-      <c r="AT81" s="21"/>
-      <c r="AU81" s="21"/>
-      <c r="AV81" s="21"/>
-      <c r="AW81" s="21"/>
-      <c r="AX81" s="21"/>
-      <c r="AY81" s="21"/>
-      <c r="AZ81" s="21"/>
-      <c r="BA81" s="21"/>
-      <c r="BB81" s="21"/>
-      <c r="BC81" s="21"/>
-      <c r="BD81" s="21"/>
-      <c r="BE81" s="21"/>
-      <c r="BF81" s="21"/>
-      <c r="BG81" s="21"/>
-      <c r="BH81" s="21"/>
-      <c r="BI81" s="21"/>
-      <c r="BJ81" s="21"/>
-      <c r="BK81" s="21"/>
-      <c r="BL81" s="21"/>
-      <c r="BM81" s="21"/>
-      <c r="BN81" s="21"/>
-    </row>
-    <row r="82" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K81" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" s="25">
+        <v>1003</v>
+      </c>
+      <c r="M81" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="N81" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="22"/>
+      <c r="S81" s="22"/>
+      <c r="T81" s="22"/>
+      <c r="U81" s="22"/>
+      <c r="V81" s="22"/>
+      <c r="W81" s="22"/>
+      <c r="X81" s="22"/>
+      <c r="Y81" s="22"/>
+      <c r="Z81" s="22"/>
+      <c r="AA81" s="22"/>
+      <c r="AB81" s="22"/>
+      <c r="AC81" s="22"/>
+      <c r="AD81" s="22"/>
+      <c r="AE81" s="22"/>
+      <c r="AF81" s="22"/>
+      <c r="AG81" s="22"/>
+      <c r="AH81" s="22"/>
+      <c r="AI81" s="22"/>
+      <c r="AJ81" s="22"/>
+      <c r="AK81" s="22"/>
+      <c r="AL81" s="22"/>
+      <c r="AM81" s="22"/>
+      <c r="AN81" s="22"/>
+      <c r="AO81" s="22"/>
+      <c r="AP81" s="22"/>
+      <c r="AQ81" s="22"/>
+      <c r="AR81" s="22"/>
+      <c r="AS81" s="22"/>
+      <c r="AT81" s="22"/>
+      <c r="AU81" s="22"/>
+      <c r="AV81" s="22"/>
+      <c r="AW81" s="22"/>
+      <c r="AX81" s="22"/>
+      <c r="AY81" s="22"/>
+      <c r="AZ81" s="22"/>
+      <c r="BA81" s="22"/>
+      <c r="BB81" s="22"/>
+      <c r="BC81" s="22"/>
+      <c r="BD81" s="22"/>
+      <c r="BE81" s="22"/>
+      <c r="BF81" s="22"/>
+      <c r="BG81" s="22"/>
+      <c r="BH81" s="22"/>
+      <c r="BI81" s="22"/>
+      <c r="BJ81" s="22"/>
+      <c r="BK81" s="22"/>
+      <c r="BL81" s="22"/>
+      <c r="BM81" s="22"/>
+      <c r="BN81" s="22"/>
+    </row>
+    <row r="82" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>12</v>
@@ -28718,22 +28703,22 @@
       <c r="I82" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J82" s="25" t="s">
+      <c r="J82" s="24" t="s">
         <v>7</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L82" s="25">
-        <v>1003</v>
-      </c>
-      <c r="M82" s="47" t="s">
-        <v>14</v>
+        <v>1004</v>
+      </c>
+      <c r="M82" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="N82" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="O82" s="4" t="s">
+      <c r="O82" s="30" t="s">
         <v>45</v>
       </c>
       <c r="P82" s="22"/>
@@ -28788,26 +28773,26 @@
       <c r="BM82" s="22"/>
       <c r="BN82" s="22"/>
     </row>
-    <row r="83" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B83" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D83" s="4" t="s">
+      <c r="C83" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G83" s="24">
+      <c r="G83" s="54">
         <v>400</v>
       </c>
       <c r="H83" s="58" t="s">
@@ -28816,97 +28801,46 @@
       <c r="I83" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J83" s="24" t="s">
+      <c r="J83" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K83" s="24" t="s">
+      <c r="K83" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L83" s="25">
-        <v>1004</v>
-      </c>
-      <c r="M83" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="N83" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O83" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="22"/>
-      <c r="T83" s="22"/>
-      <c r="U83" s="22"/>
-      <c r="V83" s="22"/>
-      <c r="W83" s="22"/>
-      <c r="X83" s="22"/>
-      <c r="Y83" s="22"/>
-      <c r="Z83" s="22"/>
-      <c r="AA83" s="22"/>
-      <c r="AB83" s="22"/>
-      <c r="AC83" s="22"/>
-      <c r="AD83" s="22"/>
-      <c r="AE83" s="22"/>
-      <c r="AF83" s="22"/>
-      <c r="AG83" s="22"/>
-      <c r="AH83" s="22"/>
-      <c r="AI83" s="22"/>
-      <c r="AJ83" s="22"/>
-      <c r="AK83" s="22"/>
-      <c r="AL83" s="22"/>
-      <c r="AM83" s="22"/>
-      <c r="AN83" s="22"/>
-      <c r="AO83" s="22"/>
-      <c r="AP83" s="22"/>
-      <c r="AQ83" s="22"/>
-      <c r="AR83" s="22"/>
-      <c r="AS83" s="22"/>
-      <c r="AT83" s="22"/>
-      <c r="AU83" s="22"/>
-      <c r="AV83" s="22"/>
-      <c r="AW83" s="22"/>
-      <c r="AX83" s="22"/>
-      <c r="AY83" s="22"/>
-      <c r="AZ83" s="22"/>
-      <c r="BA83" s="22"/>
-      <c r="BB83" s="22"/>
-      <c r="BC83" s="22"/>
-      <c r="BD83" s="22"/>
-      <c r="BE83" s="22"/>
-      <c r="BF83" s="22"/>
-      <c r="BG83" s="22"/>
-      <c r="BH83" s="22"/>
-      <c r="BI83" s="22"/>
-      <c r="BJ83" s="22"/>
-      <c r="BK83" s="22"/>
-      <c r="BL83" s="22"/>
-      <c r="BM83" s="22"/>
-      <c r="BN83" s="22"/>
-    </row>
-    <row r="84" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L83" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M83" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N83" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O83" s="63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D84" s="53" t="s">
+      <c r="C84" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="53" t="s">
+      <c r="E84" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F84" s="53" t="s">
+      <c r="F84" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G84" s="54">
-        <v>400</v>
+      <c r="G84" s="24">
+        <v>403</v>
       </c>
       <c r="H84" s="58" t="s">
         <v>218</v>
@@ -28914,34 +28848,85 @@
       <c r="I84" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J84" s="53" t="s">
+      <c r="J84" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K84" s="54" t="s">
+      <c r="K84" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L84" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M84" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N84" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O84" s="63" t="s">
-        <v>12</v>
-      </c>
+      <c r="L84" s="25">
+        <v>1006</v>
+      </c>
+      <c r="M84" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O84" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="22"/>
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="22"/>
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
+      <c r="AC84" s="22"/>
+      <c r="AD84" s="22"/>
+      <c r="AE84" s="22"/>
+      <c r="AF84" s="22"/>
+      <c r="AG84" s="22"/>
+      <c r="AH84" s="22"/>
+      <c r="AI84" s="22"/>
+      <c r="AJ84" s="22"/>
+      <c r="AK84" s="22"/>
+      <c r="AL84" s="22"/>
+      <c r="AM84" s="22"/>
+      <c r="AN84" s="22"/>
+      <c r="AO84" s="22"/>
+      <c r="AP84" s="22"/>
+      <c r="AQ84" s="22"/>
+      <c r="AR84" s="22"/>
+      <c r="AS84" s="22"/>
+      <c r="AT84" s="22"/>
+      <c r="AU84" s="22"/>
+      <c r="AV84" s="22"/>
+      <c r="AW84" s="22"/>
+      <c r="AX84" s="22"/>
+      <c r="AY84" s="22"/>
+      <c r="AZ84" s="22"/>
+      <c r="BA84" s="22"/>
+      <c r="BB84" s="22"/>
+      <c r="BC84" s="22"/>
+      <c r="BD84" s="22"/>
+      <c r="BE84" s="22"/>
+      <c r="BF84" s="22"/>
+      <c r="BG84" s="22"/>
+      <c r="BH84" s="22"/>
+      <c r="BI84" s="22"/>
+      <c r="BJ84" s="22"/>
+      <c r="BK84" s="22"/>
+      <c r="BL84" s="22"/>
+      <c r="BM84" s="22"/>
+      <c r="BN84" s="22"/>
     </row>
     <row r="85" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>12</v>
@@ -28965,13 +28950,13 @@
         <v>7</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L85" s="25">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M85" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N85" s="30" t="s">
         <v>62</v>
@@ -29033,13 +29018,13 @@
     </row>
     <row r="86" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>12</v>
@@ -29066,10 +29051,10 @@
         <v>32</v>
       </c>
       <c r="L86" s="25">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M86" s="30" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N86" s="30" t="s">
         <v>62</v>
@@ -29131,15 +29116,15 @@
     </row>
     <row r="87" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -29161,19 +29146,19 @@
         <v>7</v>
       </c>
       <c r="K87" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L87" s="25">
-        <v>1008</v>
-      </c>
-      <c r="M87" s="30" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="L87" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M87" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N87" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O87" s="30" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="P87" s="22"/>
       <c r="Q87" s="22"/>
@@ -29229,15 +29214,15 @@
     </row>
     <row r="88" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B88" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D88" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="4" t="s">
@@ -29247,7 +29232,7 @@
         <v>142</v>
       </c>
       <c r="G88" s="24">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H88" s="58" t="s">
         <v>218</v>
@@ -29255,23 +29240,23 @@
       <c r="I88" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J88" s="24" t="s">
+      <c r="J88" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K88" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L88" s="24">
-        <v>1011</v>
-      </c>
-      <c r="M88" s="32" t="s">
-        <v>204</v>
+      <c r="K88" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L88" s="10">
+        <v>2506</v>
+      </c>
+      <c r="M88" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="N88" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O88" s="30" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="P88" s="22"/>
       <c r="Q88" s="22"/>
@@ -29325,122 +29310,94 @@
       <c r="BM88" s="22"/>
       <c r="BN88" s="22"/>
     </row>
-    <row r="89" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
-        <v>71</v>
-      </c>
-      <c r="B89" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G89" s="24">
-        <v>404</v>
-      </c>
-      <c r="H89" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="I89" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L89" s="10">
-        <v>2506</v>
-      </c>
-      <c r="M89" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="N89" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O89" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="22"/>
-      <c r="S89" s="22"/>
-      <c r="T89" s="22"/>
-      <c r="U89" s="22"/>
-      <c r="V89" s="22"/>
-      <c r="W89" s="22"/>
-      <c r="X89" s="22"/>
-      <c r="Y89" s="22"/>
-      <c r="Z89" s="22"/>
-      <c r="AA89" s="22"/>
-      <c r="AB89" s="22"/>
-      <c r="AC89" s="22"/>
-      <c r="AD89" s="22"/>
-      <c r="AE89" s="22"/>
-      <c r="AF89" s="22"/>
-      <c r="AG89" s="22"/>
-      <c r="AH89" s="22"/>
-      <c r="AI89" s="22"/>
-      <c r="AJ89" s="22"/>
-      <c r="AK89" s="22"/>
-      <c r="AL89" s="22"/>
-      <c r="AM89" s="22"/>
-      <c r="AN89" s="22"/>
-      <c r="AO89" s="22"/>
-      <c r="AP89" s="22"/>
-      <c r="AQ89" s="22"/>
-      <c r="AR89" s="22"/>
-      <c r="AS89" s="22"/>
-      <c r="AT89" s="22"/>
-      <c r="AU89" s="22"/>
-      <c r="AV89" s="22"/>
-      <c r="AW89" s="22"/>
-      <c r="AX89" s="22"/>
-      <c r="AY89" s="22"/>
-      <c r="AZ89" s="22"/>
-      <c r="BA89" s="22"/>
-      <c r="BB89" s="22"/>
-      <c r="BC89" s="22"/>
-      <c r="BD89" s="22"/>
-      <c r="BE89" s="22"/>
-      <c r="BF89" s="22"/>
-      <c r="BG89" s="22"/>
-      <c r="BH89" s="22"/>
-      <c r="BI89" s="22"/>
-      <c r="BJ89" s="22"/>
-      <c r="BK89" s="22"/>
-      <c r="BL89" s="22"/>
-      <c r="BM89" s="22"/>
-      <c r="BN89" s="22"/>
-    </row>
-    <row r="90" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="99" t="s">
+    <row r="89" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="B90" s="99"/>
-      <c r="C90" s="99"/>
-      <c r="D90" s="99"/>
-      <c r="E90" s="99"/>
-      <c r="F90" s="99"/>
-      <c r="G90" s="99"/>
-      <c r="H90" s="99"/>
-      <c r="I90" s="99"/>
-      <c r="J90" s="99"/>
-      <c r="K90" s="99"/>
-      <c r="L90" s="99"/>
-      <c r="M90" s="99"/>
-      <c r="N90" s="99"/>
-      <c r="O90" s="99"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="99"/>
+      <c r="F89" s="99"/>
+      <c r="G89" s="99"/>
+      <c r="H89" s="99"/>
+      <c r="I89" s="99"/>
+      <c r="J89" s="99"/>
+      <c r="K89" s="99"/>
+      <c r="L89" s="99"/>
+      <c r="M89" s="99"/>
+      <c r="N89" s="99"/>
+      <c r="O89" s="99"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
+      <c r="U89" s="21"/>
+      <c r="V89" s="21"/>
+      <c r="W89" s="21"/>
+      <c r="X89" s="21"/>
+      <c r="Y89" s="21"/>
+      <c r="Z89" s="21"/>
+      <c r="AA89" s="21"/>
+      <c r="AB89" s="21"/>
+      <c r="AC89" s="21"/>
+      <c r="AD89" s="21"/>
+      <c r="AE89" s="21"/>
+      <c r="AF89" s="21"/>
+      <c r="AG89" s="21"/>
+      <c r="AH89" s="21"/>
+      <c r="AI89" s="21"/>
+      <c r="AJ89" s="21"/>
+      <c r="AK89" s="21"/>
+      <c r="AL89" s="21"/>
+      <c r="AM89" s="21"/>
+      <c r="AN89" s="21"/>
+      <c r="AO89" s="21"/>
+      <c r="AP89" s="21"/>
+      <c r="AQ89" s="21"/>
+      <c r="AR89" s="21"/>
+      <c r="AS89" s="21"/>
+      <c r="AT89" s="21"/>
+      <c r="AU89" s="21"/>
+      <c r="AV89" s="21"/>
+      <c r="AW89" s="21"/>
+      <c r="AX89" s="21"/>
+      <c r="AY89" s="21"/>
+      <c r="AZ89" s="21"/>
+      <c r="BA89" s="21"/>
+      <c r="BB89" s="21"/>
+      <c r="BC89" s="21"/>
+      <c r="BD89" s="21"/>
+      <c r="BE89" s="21"/>
+      <c r="BF89" s="21"/>
+      <c r="BG89" s="21"/>
+      <c r="BH89" s="21"/>
+      <c r="BI89" s="21"/>
+      <c r="BJ89" s="21"/>
+      <c r="BK89" s="21"/>
+      <c r="BL89" s="21"/>
+      <c r="BM89" s="21"/>
+      <c r="BN89" s="21"/>
+    </row>
+    <row r="90" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="100"/>
+      <c r="C90" s="100"/>
+      <c r="D90" s="100"/>
+      <c r="E90" s="100"/>
+      <c r="F90" s="100"/>
+      <c r="G90" s="100"/>
+      <c r="H90" s="100"/>
+      <c r="I90" s="100"/>
+      <c r="J90" s="100"/>
+      <c r="K90" s="100"/>
+      <c r="L90" s="100"/>
+      <c r="M90" s="100"/>
+      <c r="N90" s="100"/>
+      <c r="O90" s="100"/>
       <c r="P90" s="21"/>
       <c r="Q90" s="21"/>
       <c r="R90" s="21"/>
@@ -29493,24 +29450,52 @@
       <c r="BM90" s="21"/>
       <c r="BN90" s="21"/>
     </row>
-    <row r="91" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B91" s="100"/>
-      <c r="C91" s="100"/>
-      <c r="D91" s="100"/>
-      <c r="E91" s="100"/>
-      <c r="F91" s="100"/>
-      <c r="G91" s="100"/>
-      <c r="H91" s="100"/>
-      <c r="I91" s="100"/>
-      <c r="J91" s="100"/>
-      <c r="K91" s="100"/>
-      <c r="L91" s="100"/>
-      <c r="M91" s="100"/>
-      <c r="N91" s="100"/>
-      <c r="O91" s="100"/>
+    <row r="91" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="92">
+        <v>146</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D91" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="F91" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="G91" s="92">
+        <v>403</v>
+      </c>
+      <c r="H91" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="I91" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J91" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="K91" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L91" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M91" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N91" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O91" s="93" t="s">
+        <v>12</v>
+      </c>
       <c r="P91" s="21"/>
       <c r="Q91" s="21"/>
       <c r="R91" s="21"/>
@@ -29563,50 +29548,50 @@
       <c r="BM91" s="21"/>
       <c r="BN91" s="21"/>
     </row>
-    <row r="92" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="92">
-        <v>146</v>
+    <row r="92" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>72</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D92" s="92" t="s">
+      <c r="C92" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="92" t="s">
+      <c r="E92" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F92" s="92" t="s">
+      <c r="F92" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G92" s="92">
-        <v>403</v>
-      </c>
-      <c r="H92" s="92" t="s">
+      <c r="G92" s="24">
+        <v>401</v>
+      </c>
+      <c r="H92" s="58" t="s">
         <v>218</v>
       </c>
       <c r="I92" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J92" s="92" t="s">
+      <c r="J92" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K92" s="92" t="s">
+      <c r="K92" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L92" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M92" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N92" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O92" s="93" t="s">
+      <c r="L92" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M92" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N92" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O92" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P92" s="21"/>
@@ -29661,15 +29646,15 @@
       <c r="BM92" s="21"/>
       <c r="BN92" s="21"/>
     </row>
-    <row r="93" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B93" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>12</v>
@@ -29696,15 +29681,15 @@
         <v>34</v>
       </c>
       <c r="L93" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M93" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N93" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O93" s="49" t="s">
+      <c r="O93" s="47" t="s">
         <v>12</v>
       </c>
       <c r="P93" s="21"/>
@@ -29759,15 +29744,15 @@
       <c r="BM93" s="21"/>
       <c r="BN93" s="21"/>
     </row>
-    <row r="94" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B94" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>12</v>
@@ -29779,7 +29764,7 @@
         <v>142</v>
       </c>
       <c r="G94" s="24">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H94" s="58" t="s">
         <v>218</v>
@@ -29791,81 +29776,81 @@
         <v>7</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L94" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M94" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="N94" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O94" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="P94" s="21"/>
-      <c r="Q94" s="21"/>
-      <c r="R94" s="21"/>
-      <c r="S94" s="21"/>
-      <c r="T94" s="21"/>
-      <c r="U94" s="21"/>
-      <c r="V94" s="21"/>
-      <c r="W94" s="21"/>
-      <c r="X94" s="21"/>
-      <c r="Y94" s="21"/>
-      <c r="Z94" s="21"/>
-      <c r="AA94" s="21"/>
-      <c r="AB94" s="21"/>
-      <c r="AC94" s="21"/>
-      <c r="AD94" s="21"/>
-      <c r="AE94" s="21"/>
-      <c r="AF94" s="21"/>
-      <c r="AG94" s="21"/>
-      <c r="AH94" s="21"/>
-      <c r="AI94" s="21"/>
-      <c r="AJ94" s="21"/>
-      <c r="AK94" s="21"/>
-      <c r="AL94" s="21"/>
-      <c r="AM94" s="21"/>
-      <c r="AN94" s="21"/>
-      <c r="AO94" s="21"/>
-      <c r="AP94" s="21"/>
-      <c r="AQ94" s="21"/>
-      <c r="AR94" s="21"/>
-      <c r="AS94" s="21"/>
-      <c r="AT94" s="21"/>
-      <c r="AU94" s="21"/>
-      <c r="AV94" s="21"/>
-      <c r="AW94" s="21"/>
-      <c r="AX94" s="21"/>
-      <c r="AY94" s="21"/>
-      <c r="AZ94" s="21"/>
-      <c r="BA94" s="21"/>
-      <c r="BB94" s="21"/>
-      <c r="BC94" s="21"/>
-      <c r="BD94" s="21"/>
-      <c r="BE94" s="21"/>
-      <c r="BF94" s="21"/>
-      <c r="BG94" s="21"/>
-      <c r="BH94" s="21"/>
-      <c r="BI94" s="21"/>
-      <c r="BJ94" s="21"/>
-      <c r="BK94" s="21"/>
-      <c r="BL94" s="21"/>
-      <c r="BM94" s="21"/>
-      <c r="BN94" s="21"/>
-    </row>
-    <row r="95" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="L94" s="10">
+        <v>1003</v>
+      </c>
+      <c r="M94" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N94" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O94" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P94" s="22"/>
+      <c r="Q94" s="22"/>
+      <c r="R94" s="22"/>
+      <c r="S94" s="22"/>
+      <c r="T94" s="22"/>
+      <c r="U94" s="22"/>
+      <c r="V94" s="22"/>
+      <c r="W94" s="22"/>
+      <c r="X94" s="22"/>
+      <c r="Y94" s="22"/>
+      <c r="Z94" s="22"/>
+      <c r="AA94" s="22"/>
+      <c r="AB94" s="22"/>
+      <c r="AC94" s="22"/>
+      <c r="AD94" s="22"/>
+      <c r="AE94" s="22"/>
+      <c r="AF94" s="22"/>
+      <c r="AG94" s="22"/>
+      <c r="AH94" s="22"/>
+      <c r="AI94" s="22"/>
+      <c r="AJ94" s="22"/>
+      <c r="AK94" s="22"/>
+      <c r="AL94" s="22"/>
+      <c r="AM94" s="22"/>
+      <c r="AN94" s="22"/>
+      <c r="AO94" s="22"/>
+      <c r="AP94" s="22"/>
+      <c r="AQ94" s="22"/>
+      <c r="AR94" s="22"/>
+      <c r="AS94" s="22"/>
+      <c r="AT94" s="22"/>
+      <c r="AU94" s="22"/>
+      <c r="AV94" s="22"/>
+      <c r="AW94" s="22"/>
+      <c r="AX94" s="22"/>
+      <c r="AY94" s="22"/>
+      <c r="AZ94" s="22"/>
+      <c r="BA94" s="22"/>
+      <c r="BB94" s="22"/>
+      <c r="BC94" s="22"/>
+      <c r="BD94" s="22"/>
+      <c r="BE94" s="22"/>
+      <c r="BF94" s="22"/>
+      <c r="BG94" s="22"/>
+      <c r="BH94" s="22"/>
+      <c r="BI94" s="22"/>
+      <c r="BJ94" s="22"/>
+      <c r="BK94" s="22"/>
+      <c r="BL94" s="22"/>
+      <c r="BM94" s="22"/>
+      <c r="BN94" s="22"/>
+    </row>
+    <row r="95" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C95" s="23" t="s">
-        <v>267</v>
+      <c r="C95" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>12</v>
@@ -29889,13 +29874,13 @@
         <v>7</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L95" s="10">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M95" s="30" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N95" s="30" t="s">
         <v>133</v>
@@ -29955,15 +29940,15 @@
       <c r="BM95" s="22"/>
       <c r="BN95" s="22"/>
     </row>
-    <row r="96" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>12</v>
@@ -29987,13 +29972,13 @@
         <v>7</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L96" s="10">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="M96" s="30" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N96" s="30" t="s">
         <v>133</v>
@@ -30053,26 +30038,26 @@
       <c r="BM96" s="22"/>
       <c r="BN96" s="22"/>
     </row>
-    <row r="97" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D97" s="4" t="s">
+      <c r="C97" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D97" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G97" s="24">
+      <c r="G97" s="54">
         <v>400</v>
       </c>
       <c r="H97" s="58" t="s">
@@ -30081,97 +30066,46 @@
       <c r="I97" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J97" s="4" t="s">
+      <c r="J97" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K97" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L97" s="10">
-        <v>1005</v>
-      </c>
-      <c r="M97" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="N97" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="O97" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="P97" s="22"/>
-      <c r="Q97" s="22"/>
-      <c r="R97" s="22"/>
-      <c r="S97" s="22"/>
-      <c r="T97" s="22"/>
-      <c r="U97" s="22"/>
-      <c r="V97" s="22"/>
-      <c r="W97" s="22"/>
-      <c r="X97" s="22"/>
-      <c r="Y97" s="22"/>
-      <c r="Z97" s="22"/>
-      <c r="AA97" s="22"/>
-      <c r="AB97" s="22"/>
-      <c r="AC97" s="22"/>
-      <c r="AD97" s="22"/>
-      <c r="AE97" s="22"/>
-      <c r="AF97" s="22"/>
-      <c r="AG97" s="22"/>
-      <c r="AH97" s="22"/>
-      <c r="AI97" s="22"/>
-      <c r="AJ97" s="22"/>
-      <c r="AK97" s="22"/>
-      <c r="AL97" s="22"/>
-      <c r="AM97" s="22"/>
-      <c r="AN97" s="22"/>
-      <c r="AO97" s="22"/>
-      <c r="AP97" s="22"/>
-      <c r="AQ97" s="22"/>
-      <c r="AR97" s="22"/>
-      <c r="AS97" s="22"/>
-      <c r="AT97" s="22"/>
-      <c r="AU97" s="22"/>
-      <c r="AV97" s="22"/>
-      <c r="AW97" s="22"/>
-      <c r="AX97" s="22"/>
-      <c r="AY97" s="22"/>
-      <c r="AZ97" s="22"/>
-      <c r="BA97" s="22"/>
-      <c r="BB97" s="22"/>
-      <c r="BC97" s="22"/>
-      <c r="BD97" s="22"/>
-      <c r="BE97" s="22"/>
-      <c r="BF97" s="22"/>
-      <c r="BG97" s="22"/>
-      <c r="BH97" s="22"/>
-      <c r="BI97" s="22"/>
-      <c r="BJ97" s="22"/>
-      <c r="BK97" s="22"/>
-      <c r="BL97" s="22"/>
-      <c r="BM97" s="22"/>
-      <c r="BN97" s="22"/>
-    </row>
-    <row r="98" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K97" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L97" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M97" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N97" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O97" s="63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C98" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D98" s="53" t="s">
+      <c r="C98" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="53" t="s">
+      <c r="E98" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F98" s="53" t="s">
+      <c r="F98" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G98" s="54">
-        <v>400</v>
+      <c r="G98" s="24">
+        <v>403</v>
       </c>
       <c r="H98" s="58" t="s">
         <v>218</v>
@@ -30179,34 +30113,85 @@
       <c r="I98" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J98" s="53" t="s">
+      <c r="J98" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K98" s="54" t="s">
+      <c r="K98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L98" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M98" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N98" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O98" s="63" t="s">
-        <v>12</v>
-      </c>
+      <c r="L98" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M98" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N98" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O98" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P98" s="22"/>
+      <c r="Q98" s="22"/>
+      <c r="R98" s="22"/>
+      <c r="S98" s="22"/>
+      <c r="T98" s="22"/>
+      <c r="U98" s="22"/>
+      <c r="V98" s="22"/>
+      <c r="W98" s="22"/>
+      <c r="X98" s="22"/>
+      <c r="Y98" s="22"/>
+      <c r="Z98" s="22"/>
+      <c r="AA98" s="22"/>
+      <c r="AB98" s="22"/>
+      <c r="AC98" s="22"/>
+      <c r="AD98" s="22"/>
+      <c r="AE98" s="22"/>
+      <c r="AF98" s="22"/>
+      <c r="AG98" s="22"/>
+      <c r="AH98" s="22"/>
+      <c r="AI98" s="22"/>
+      <c r="AJ98" s="22"/>
+      <c r="AK98" s="22"/>
+      <c r="AL98" s="22"/>
+      <c r="AM98" s="22"/>
+      <c r="AN98" s="22"/>
+      <c r="AO98" s="22"/>
+      <c r="AP98" s="22"/>
+      <c r="AQ98" s="22"/>
+      <c r="AR98" s="22"/>
+      <c r="AS98" s="22"/>
+      <c r="AT98" s="22"/>
+      <c r="AU98" s="22"/>
+      <c r="AV98" s="22"/>
+      <c r="AW98" s="22"/>
+      <c r="AX98" s="22"/>
+      <c r="AY98" s="22"/>
+      <c r="AZ98" s="22"/>
+      <c r="BA98" s="22"/>
+      <c r="BB98" s="22"/>
+      <c r="BC98" s="22"/>
+      <c r="BD98" s="22"/>
+      <c r="BE98" s="22"/>
+      <c r="BF98" s="22"/>
+      <c r="BG98" s="22"/>
+      <c r="BH98" s="22"/>
+      <c r="BI98" s="22"/>
+      <c r="BJ98" s="22"/>
+      <c r="BK98" s="22"/>
+      <c r="BL98" s="22"/>
+      <c r="BM98" s="22"/>
+      <c r="BN98" s="22"/>
     </row>
     <row r="99" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>12</v>
@@ -30230,13 +30215,13 @@
         <v>7</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L99" s="10">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M99" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N99" s="30" t="s">
         <v>133</v>
@@ -30296,15 +30281,15 @@
       <c r="BM99" s="22"/>
       <c r="BN99" s="22"/>
     </row>
-    <row r="100" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>12</v>
@@ -30331,10 +30316,10 @@
         <v>32</v>
       </c>
       <c r="L100" s="10">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M100" s="30" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N100" s="30" t="s">
         <v>133</v>
@@ -30396,15 +30381,15 @@
     </row>
     <row r="101" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D101" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D101" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E101" s="4" t="s">
@@ -30426,19 +30411,19 @@
         <v>7</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L101" s="10">
-        <v>1008</v>
-      </c>
-      <c r="M101" s="30" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="L101" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M101" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N101" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O101" s="30" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="P101" s="22"/>
       <c r="Q101" s="22"/>
@@ -30492,27 +30477,27 @@
       <c r="BM101" s="22"/>
       <c r="BN101" s="22"/>
     </row>
-    <row r="102" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D102" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>142</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G102" s="24">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H102" s="58" t="s">
         <v>218</v>
@@ -30526,17 +30511,17 @@
       <c r="K102" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L102" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M102" s="32" t="s">
-        <v>204</v>
+      <c r="L102" s="10">
+        <v>3001</v>
+      </c>
+      <c r="M102" s="30" t="s">
+        <v>213</v>
       </c>
       <c r="N102" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O102" s="30" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="P102" s="22"/>
       <c r="Q102" s="22"/>
@@ -30590,15 +30575,15 @@
       <c r="BM102" s="22"/>
       <c r="BN102" s="22"/>
     </row>
-    <row r="103" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>12</v>
@@ -30607,7 +30592,7 @@
         <v>142</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G103" s="24">
         <v>400</v>
@@ -30622,19 +30607,19 @@
         <v>7</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L103" s="10">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="M103" s="30" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="N103" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O103" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P103" s="22"/>
       <c r="Q103" s="22"/>
@@ -30689,14 +30674,14 @@
       <c r="BN103" s="22"/>
     </row>
     <row r="104" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
-        <v>83</v>
+      <c r="A104" s="26">
+        <v>137</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>115</v>
+      <c r="C104" s="71" t="s">
+        <v>209</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>12</v>
@@ -30704,8 +30689,8 @@
       <c r="E104" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>142</v>
+      <c r="F104" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="G104" s="24">
         <v>400</v>
@@ -30722,17 +30707,17 @@
       <c r="K104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L104" s="10">
-        <v>3002</v>
-      </c>
-      <c r="M104" s="30" t="s">
-        <v>29</v>
+      <c r="L104" s="26">
+        <v>3009</v>
+      </c>
+      <c r="M104" s="71" t="s">
+        <v>209</v>
       </c>
       <c r="N104" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O104" s="30" t="s">
-        <v>68</v>
+      <c r="O104" s="33" t="s">
+        <v>214</v>
       </c>
       <c r="P104" s="22"/>
       <c r="Q104" s="22"/>
@@ -30786,15 +30771,15 @@
       <c r="BM104" s="22"/>
       <c r="BN104" s="22"/>
     </row>
-    <row r="105" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C105" s="71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>12</v>
@@ -30818,81 +30803,81 @@
         <v>7</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L105" s="26">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="M105" s="71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N105" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O105" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="P105" s="22"/>
-      <c r="Q105" s="22"/>
-      <c r="R105" s="22"/>
-      <c r="S105" s="22"/>
-      <c r="T105" s="22"/>
-      <c r="U105" s="22"/>
-      <c r="V105" s="22"/>
-      <c r="W105" s="22"/>
-      <c r="X105" s="22"/>
-      <c r="Y105" s="22"/>
-      <c r="Z105" s="22"/>
-      <c r="AA105" s="22"/>
-      <c r="AB105" s="22"/>
-      <c r="AC105" s="22"/>
-      <c r="AD105" s="22"/>
-      <c r="AE105" s="22"/>
-      <c r="AF105" s="22"/>
-      <c r="AG105" s="22"/>
-      <c r="AH105" s="22"/>
-      <c r="AI105" s="22"/>
-      <c r="AJ105" s="22"/>
-      <c r="AK105" s="22"/>
-      <c r="AL105" s="22"/>
-      <c r="AM105" s="22"/>
-      <c r="AN105" s="22"/>
-      <c r="AO105" s="22"/>
-      <c r="AP105" s="22"/>
-      <c r="AQ105" s="22"/>
-      <c r="AR105" s="22"/>
-      <c r="AS105" s="22"/>
-      <c r="AT105" s="22"/>
-      <c r="AU105" s="22"/>
-      <c r="AV105" s="22"/>
-      <c r="AW105" s="22"/>
-      <c r="AX105" s="22"/>
-      <c r="AY105" s="22"/>
-      <c r="AZ105" s="22"/>
-      <c r="BA105" s="22"/>
-      <c r="BB105" s="22"/>
-      <c r="BC105" s="22"/>
-      <c r="BD105" s="22"/>
-      <c r="BE105" s="22"/>
-      <c r="BF105" s="22"/>
-      <c r="BG105" s="22"/>
-      <c r="BH105" s="22"/>
-      <c r="BI105" s="22"/>
-      <c r="BJ105" s="22"/>
-      <c r="BK105" s="22"/>
-      <c r="BL105" s="22"/>
-      <c r="BM105" s="22"/>
-      <c r="BN105" s="22"/>
-    </row>
-    <row r="106" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="P105" s="21"/>
+      <c r="Q105" s="21"/>
+      <c r="R105" s="21"/>
+      <c r="S105" s="21"/>
+      <c r="T105" s="21"/>
+      <c r="U105" s="21"/>
+      <c r="V105" s="21"/>
+      <c r="W105" s="21"/>
+      <c r="X105" s="21"/>
+      <c r="Y105" s="21"/>
+      <c r="Z105" s="21"/>
+      <c r="AA105" s="21"/>
+      <c r="AB105" s="21"/>
+      <c r="AC105" s="21"/>
+      <c r="AD105" s="21"/>
+      <c r="AE105" s="21"/>
+      <c r="AF105" s="21"/>
+      <c r="AG105" s="21"/>
+      <c r="AH105" s="21"/>
+      <c r="AI105" s="21"/>
+      <c r="AJ105" s="21"/>
+      <c r="AK105" s="21"/>
+      <c r="AL105" s="21"/>
+      <c r="AM105" s="21"/>
+      <c r="AN105" s="21"/>
+      <c r="AO105" s="21"/>
+      <c r="AP105" s="21"/>
+      <c r="AQ105" s="21"/>
+      <c r="AR105" s="21"/>
+      <c r="AS105" s="21"/>
+      <c r="AT105" s="21"/>
+      <c r="AU105" s="21"/>
+      <c r="AV105" s="21"/>
+      <c r="AW105" s="21"/>
+      <c r="AX105" s="21"/>
+      <c r="AY105" s="21"/>
+      <c r="AZ105" s="21"/>
+      <c r="BA105" s="21"/>
+      <c r="BB105" s="21"/>
+      <c r="BC105" s="21"/>
+      <c r="BD105" s="21"/>
+      <c r="BE105" s="21"/>
+      <c r="BF105" s="21"/>
+      <c r="BG105" s="21"/>
+      <c r="BH105" s="21"/>
+      <c r="BI105" s="21"/>
+      <c r="BJ105" s="21"/>
+      <c r="BK105" s="21"/>
+      <c r="BL105" s="21"/>
+      <c r="BM105" s="21"/>
+      <c r="BN105" s="21"/>
+    </row>
+    <row r="106" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="26">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C106" s="71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>12</v>
@@ -30919,10 +30904,10 @@
         <v>32</v>
       </c>
       <c r="L106" s="26">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="M106" s="71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N106" s="30" t="s">
         <v>133</v>
@@ -30982,15 +30967,15 @@
       <c r="BM106" s="21"/>
       <c r="BN106" s="21"/>
     </row>
-    <row r="107" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A107" s="26">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B107" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C107" s="71" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>12</v>
@@ -31002,7 +30987,7 @@
         <v>143</v>
       </c>
       <c r="G107" s="24">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H107" s="58" t="s">
         <v>218</v>
@@ -31017,16 +31002,16 @@
         <v>32</v>
       </c>
       <c r="L107" s="26">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="M107" s="71" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="N107" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O107" s="33" t="s">
-        <v>215</v>
+      <c r="O107" s="30" t="s">
+        <v>12</v>
       </c>
       <c r="P107" s="21"/>
       <c r="Q107" s="21"/>
@@ -31082,13 +31067,13 @@
     </row>
     <row r="108" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A108" s="26">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B108" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C108" s="71" t="s">
-        <v>223</v>
+      <c r="C108" s="84" t="s">
+        <v>231</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>12</v>
@@ -31096,11 +31081,11 @@
       <c r="E108" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F108" s="26" t="s">
-        <v>143</v>
+      <c r="F108" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="G108" s="24">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H108" s="58" t="s">
         <v>218</v>
@@ -31115,16 +31100,16 @@
         <v>32</v>
       </c>
       <c r="L108" s="26">
-        <v>3012</v>
-      </c>
-      <c r="M108" s="71" t="s">
-        <v>224</v>
+        <v>3013</v>
+      </c>
+      <c r="M108" s="84" t="s">
+        <v>232</v>
       </c>
       <c r="N108" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O108" s="30" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="P108" s="21"/>
       <c r="Q108" s="21"/>
@@ -31178,26 +31163,26 @@
       <c r="BM108" s="21"/>
       <c r="BN108" s="21"/>
     </row>
-    <row r="109" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A109" s="26">
-        <v>141</v>
-      </c>
-      <c r="B109" s="30" t="s">
+    <row r="109" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A109" s="58">
+        <v>84</v>
+      </c>
+      <c r="B109" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C109" s="84" t="s">
-        <v>231</v>
-      </c>
-      <c r="D109" s="4" t="s">
+      <c r="C109" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D109" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="G109" s="24">
+      <c r="G109" s="58">
         <v>400</v>
       </c>
       <c r="H109" s="58" t="s">
@@ -31206,23 +31191,23 @@
       <c r="I109" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J109" s="4" t="s">
+      <c r="J109" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K109" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L109" s="26">
-        <v>3013</v>
-      </c>
-      <c r="M109" s="84" t="s">
-        <v>232</v>
-      </c>
-      <c r="N109" s="30" t="s">
+      <c r="K109" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L109" s="58">
+        <v>1002</v>
+      </c>
+      <c r="M109" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="N109" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="O109" s="30" t="s">
-        <v>233</v>
+      <c r="O109" s="59" t="s">
+        <v>68</v>
       </c>
       <c r="P109" s="21"/>
       <c r="Q109" s="21"/>
@@ -31278,13 +31263,13 @@
     </row>
     <row r="110" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A110" s="58">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="B110" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C110" s="60" t="s">
-        <v>167</v>
+      <c r="C110" s="97" t="s">
+        <v>283</v>
       </c>
       <c r="D110" s="58" t="s">
         <v>12</v>
@@ -31311,16 +31296,16 @@
         <v>11</v>
       </c>
       <c r="L110" s="58">
-        <v>1002</v>
-      </c>
-      <c r="M110" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="N110" s="59" t="s">
+        <v>3014</v>
+      </c>
+      <c r="M110" s="97" t="s">
+        <v>283</v>
+      </c>
+      <c r="N110" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O110" s="59" t="s">
-        <v>68</v>
+        <v>282</v>
       </c>
       <c r="P110" s="21"/>
       <c r="Q110" s="21"/>
@@ -31374,52 +31359,24 @@
       <c r="BM110" s="21"/>
       <c r="BN110" s="21"/>
     </row>
-    <row r="111" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A111" s="58">
-        <v>156</v>
-      </c>
-      <c r="B111" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="C111" s="97" t="s">
-        <v>283</v>
-      </c>
-      <c r="D111" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="F111" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="G111" s="58">
-        <v>400</v>
-      </c>
-      <c r="H111" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="I111" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J111" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="K111" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L111" s="58">
-        <v>3014</v>
-      </c>
-      <c r="M111" s="97" t="s">
-        <v>283</v>
-      </c>
-      <c r="N111" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="O111" s="59" t="s">
-        <v>282</v>
-      </c>
+    <row r="111" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A111" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="B111" s="100"/>
+      <c r="C111" s="100"/>
+      <c r="D111" s="100"/>
+      <c r="E111" s="100"/>
+      <c r="F111" s="100"/>
+      <c r="G111" s="100"/>
+      <c r="H111" s="100"/>
+      <c r="I111" s="100"/>
+      <c r="J111" s="100"/>
+      <c r="K111" s="100"/>
+      <c r="L111" s="100"/>
+      <c r="M111" s="100"/>
+      <c r="N111" s="100"/>
+      <c r="O111" s="100"/>
       <c r="P111" s="21"/>
       <c r="Q111" s="21"/>
       <c r="R111" s="21"/>
@@ -31472,220 +31429,220 @@
       <c r="BM111" s="21"/>
       <c r="BN111" s="21"/>
     </row>
-    <row r="112" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A112" s="100" t="s">
-        <v>147</v>
-      </c>
-      <c r="B112" s="100"/>
-      <c r="C112" s="100"/>
-      <c r="D112" s="100"/>
-      <c r="E112" s="100"/>
-      <c r="F112" s="100"/>
-      <c r="G112" s="100"/>
-      <c r="H112" s="100"/>
-      <c r="I112" s="100"/>
-      <c r="J112" s="100"/>
-      <c r="K112" s="100"/>
-      <c r="L112" s="100"/>
-      <c r="M112" s="100"/>
-      <c r="N112" s="100"/>
-      <c r="O112" s="100"/>
-      <c r="P112" s="21"/>
-      <c r="Q112" s="21"/>
-      <c r="R112" s="21"/>
-      <c r="S112" s="21"/>
-      <c r="T112" s="21"/>
-      <c r="U112" s="21"/>
-      <c r="V112" s="21"/>
-      <c r="W112" s="21"/>
-      <c r="X112" s="21"/>
-      <c r="Y112" s="21"/>
-      <c r="Z112" s="21"/>
-      <c r="AA112" s="21"/>
-      <c r="AB112" s="21"/>
-      <c r="AC112" s="21"/>
-      <c r="AD112" s="21"/>
-      <c r="AE112" s="21"/>
-      <c r="AF112" s="21"/>
-      <c r="AG112" s="21"/>
-      <c r="AH112" s="21"/>
-      <c r="AI112" s="21"/>
-      <c r="AJ112" s="21"/>
-      <c r="AK112" s="21"/>
-      <c r="AL112" s="21"/>
-      <c r="AM112" s="21"/>
-      <c r="AN112" s="21"/>
-      <c r="AO112" s="21"/>
-      <c r="AP112" s="21"/>
-      <c r="AQ112" s="21"/>
-      <c r="AR112" s="21"/>
-      <c r="AS112" s="21"/>
-      <c r="AT112" s="21"/>
-      <c r="AU112" s="21"/>
-      <c r="AV112" s="21"/>
-      <c r="AW112" s="21"/>
-      <c r="AX112" s="21"/>
-      <c r="AY112" s="21"/>
-      <c r="AZ112" s="21"/>
-      <c r="BA112" s="21"/>
-      <c r="BB112" s="21"/>
-      <c r="BC112" s="21"/>
-      <c r="BD112" s="21"/>
-      <c r="BE112" s="21"/>
-      <c r="BF112" s="21"/>
-      <c r="BG112" s="21"/>
-      <c r="BH112" s="21"/>
-      <c r="BI112" s="21"/>
-      <c r="BJ112" s="21"/>
-      <c r="BK112" s="21"/>
-      <c r="BL112" s="21"/>
-      <c r="BM112" s="21"/>
-      <c r="BN112" s="21"/>
-    </row>
-    <row r="113" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A113" s="38">
+    <row r="112" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A112" s="38">
         <v>145</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C112" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="D112" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G112" s="24">
+        <v>400</v>
+      </c>
+      <c r="H112" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="I112" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J112" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K112" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L112" s="86">
+        <v>3008</v>
+      </c>
+      <c r="M112" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="N112" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O112" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="P112" s="35"/>
+      <c r="Q112" s="35"/>
+      <c r="R112" s="35"/>
+      <c r="S112" s="35"/>
+      <c r="T112" s="35"/>
+      <c r="U112" s="35"/>
+      <c r="V112" s="35"/>
+      <c r="W112" s="35"/>
+      <c r="X112" s="35"/>
+      <c r="Y112" s="35"/>
+      <c r="Z112" s="35"/>
+      <c r="AA112" s="35"/>
+      <c r="AB112" s="35"/>
+      <c r="AC112" s="35"/>
+      <c r="AD112" s="35"/>
+      <c r="AE112" s="35"/>
+      <c r="AF112" s="35"/>
+      <c r="AG112" s="35"/>
+      <c r="AH112" s="35"/>
+      <c r="AI112" s="35"/>
+      <c r="AJ112" s="35"/>
+      <c r="AK112" s="35"/>
+      <c r="AL112" s="35"/>
+      <c r="AM112" s="35"/>
+      <c r="AN112" s="35"/>
+      <c r="AO112" s="35"/>
+      <c r="AP112" s="35"/>
+      <c r="AQ112" s="35"/>
+      <c r="AR112" s="35"/>
+      <c r="AS112" s="35"/>
+      <c r="AT112" s="35"/>
+      <c r="AU112" s="35"/>
+      <c r="AV112" s="35"/>
+      <c r="AW112" s="35"/>
+      <c r="AX112" s="35"/>
+      <c r="AY112" s="35"/>
+      <c r="AZ112" s="35"/>
+      <c r="BA112" s="35"/>
+      <c r="BB112" s="35"/>
+      <c r="BC112" s="35"/>
+      <c r="BD112" s="35"/>
+      <c r="BE112" s="35"/>
+      <c r="BF112" s="35"/>
+      <c r="BG112" s="35"/>
+      <c r="BH112" s="35"/>
+      <c r="BI112" s="35"/>
+      <c r="BJ112" s="35"/>
+      <c r="BK112" s="35"/>
+      <c r="BL112" s="35"/>
+      <c r="BM112" s="35"/>
+      <c r="BN112" s="35"/>
+    </row>
+    <row r="113" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>85</v>
       </c>
       <c r="B113" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C113" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="D113" s="38" t="s">
-        <v>12</v>
+      <c r="C113" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113" s="4">
+        <v>8</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>142</v>
       </c>
       <c r="F113" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G113" s="24">
-        <v>400</v>
+        <v>142</v>
+      </c>
+      <c r="G113" s="44">
+        <v>200</v>
       </c>
       <c r="H113" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I113" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J113" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="J113" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K113" s="38" t="s">
+      <c r="K113" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L113" s="86">
-        <v>3008</v>
-      </c>
-      <c r="M113" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="N113" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="O113" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="P113" s="35"/>
-      <c r="Q113" s="35"/>
-      <c r="R113" s="35"/>
-      <c r="S113" s="35"/>
-      <c r="T113" s="35"/>
-      <c r="U113" s="35"/>
-      <c r="V113" s="35"/>
-      <c r="W113" s="35"/>
-      <c r="X113" s="35"/>
-      <c r="Y113" s="35"/>
-      <c r="Z113" s="35"/>
-      <c r="AA113" s="35"/>
-      <c r="AB113" s="35"/>
-      <c r="AC113" s="35"/>
-      <c r="AD113" s="35"/>
-      <c r="AE113" s="35"/>
-      <c r="AF113" s="35"/>
-      <c r="AG113" s="35"/>
-      <c r="AH113" s="35"/>
-      <c r="AI113" s="35"/>
-      <c r="AJ113" s="35"/>
-      <c r="AK113" s="35"/>
-      <c r="AL113" s="35"/>
-      <c r="AM113" s="35"/>
-      <c r="AN113" s="35"/>
-      <c r="AO113" s="35"/>
-      <c r="AP113" s="35"/>
-      <c r="AQ113" s="35"/>
-      <c r="AR113" s="35"/>
-      <c r="AS113" s="35"/>
-      <c r="AT113" s="35"/>
-      <c r="AU113" s="35"/>
-      <c r="AV113" s="35"/>
-      <c r="AW113" s="35"/>
-      <c r="AX113" s="35"/>
-      <c r="AY113" s="35"/>
-      <c r="AZ113" s="35"/>
-      <c r="BA113" s="35"/>
-      <c r="BB113" s="35"/>
-      <c r="BC113" s="35"/>
-      <c r="BD113" s="35"/>
-      <c r="BE113" s="35"/>
-      <c r="BF113" s="35"/>
-      <c r="BG113" s="35"/>
-      <c r="BH113" s="35"/>
-      <c r="BI113" s="35"/>
-      <c r="BJ113" s="35"/>
-      <c r="BK113" s="35"/>
-      <c r="BL113" s="35"/>
-      <c r="BM113" s="35"/>
-      <c r="BN113" s="35"/>
-    </row>
-    <row r="114" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
-        <v>85</v>
-      </c>
-      <c r="B114" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D114" s="4">
-        <v>8</v>
-      </c>
-      <c r="E114" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F114" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G114" s="44">
-        <v>200</v>
-      </c>
-      <c r="H114" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="I114" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L114" s="4">
+      <c r="L113" s="4">
         <v>1010</v>
       </c>
-      <c r="M114" s="30" t="s">
+      <c r="M113" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N114" s="30" t="s">
+      <c r="N113" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O114" s="30" t="s">
+      <c r="O113" s="30" t="s">
         <v>1</v>
       </c>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="22"/>
+      <c r="R113" s="22"/>
+      <c r="S113" s="22"/>
+      <c r="T113" s="22"/>
+      <c r="U113" s="22"/>
+      <c r="V113" s="22"/>
+      <c r="W113" s="22"/>
+      <c r="X113" s="22"/>
+      <c r="Y113" s="22"/>
+      <c r="Z113" s="22"/>
+      <c r="AA113" s="22"/>
+      <c r="AB113" s="22"/>
+      <c r="AC113" s="22"/>
+      <c r="AD113" s="22"/>
+      <c r="AE113" s="22"/>
+      <c r="AF113" s="22"/>
+      <c r="AG113" s="22"/>
+      <c r="AH113" s="22"/>
+      <c r="AI113" s="22"/>
+      <c r="AJ113" s="22"/>
+      <c r="AK113" s="22"/>
+      <c r="AL113" s="22"/>
+      <c r="AM113" s="22"/>
+      <c r="AN113" s="22"/>
+      <c r="AO113" s="22"/>
+      <c r="AP113" s="22"/>
+      <c r="AQ113" s="22"/>
+      <c r="AR113" s="22"/>
+      <c r="AS113" s="22"/>
+      <c r="AT113" s="22"/>
+      <c r="AU113" s="22"/>
+      <c r="AV113" s="22"/>
+      <c r="AW113" s="22"/>
+      <c r="AX113" s="22"/>
+      <c r="AY113" s="22"/>
+      <c r="AZ113" s="22"/>
+      <c r="BA113" s="22"/>
+      <c r="BB113" s="22"/>
+      <c r="BC113" s="22"/>
+      <c r="BD113" s="22"/>
+      <c r="BE113" s="22"/>
+      <c r="BF113" s="22"/>
+      <c r="BG113" s="22"/>
+      <c r="BH113" s="22"/>
+      <c r="BI113" s="22"/>
+      <c r="BJ113" s="22"/>
+      <c r="BK113" s="22"/>
+      <c r="BL113" s="22"/>
+      <c r="BM113" s="22"/>
+      <c r="BN113" s="22"/>
+    </row>
+    <row r="114" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A114" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" s="99"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="99"/>
+      <c r="E114" s="99"/>
+      <c r="F114" s="99"/>
+      <c r="G114" s="99"/>
+      <c r="H114" s="99"/>
+      <c r="I114" s="99"/>
+      <c r="J114" s="99"/>
+      <c r="K114" s="99"/>
+      <c r="L114" s="99"/>
+      <c r="M114" s="99"/>
+      <c r="N114" s="99"/>
+      <c r="O114" s="99"/>
       <c r="P114" s="22"/>
       <c r="Q114" s="22"/>
       <c r="R114" s="22"/>
@@ -31738,24 +31695,24 @@
       <c r="BM114" s="22"/>
       <c r="BN114" s="22"/>
     </row>
-    <row r="115" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A115" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="B115" s="99"/>
-      <c r="C115" s="99"/>
-      <c r="D115" s="99"/>
-      <c r="E115" s="99"/>
-      <c r="F115" s="99"/>
-      <c r="G115" s="99"/>
-      <c r="H115" s="99"/>
-      <c r="I115" s="99"/>
-      <c r="J115" s="99"/>
-      <c r="K115" s="99"/>
-      <c r="L115" s="99"/>
-      <c r="M115" s="99"/>
-      <c r="N115" s="99"/>
-      <c r="O115" s="99"/>
+    <row r="115" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A115" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115" s="100"/>
+      <c r="C115" s="100"/>
+      <c r="D115" s="100"/>
+      <c r="E115" s="100"/>
+      <c r="F115" s="100"/>
+      <c r="G115" s="100"/>
+      <c r="H115" s="100"/>
+      <c r="I115" s="100"/>
+      <c r="J115" s="100"/>
+      <c r="K115" s="100"/>
+      <c r="L115" s="100"/>
+      <c r="M115" s="100"/>
+      <c r="N115" s="100"/>
+      <c r="O115" s="100"/>
       <c r="P115" s="22"/>
       <c r="Q115" s="22"/>
       <c r="R115" s="22"/>
@@ -31808,183 +31765,160 @@
       <c r="BM115" s="22"/>
       <c r="BN115" s="22"/>
     </row>
-    <row r="116" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A116" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B116" s="100"/>
-      <c r="C116" s="100"/>
-      <c r="D116" s="100"/>
-      <c r="E116" s="100"/>
-      <c r="F116" s="100"/>
-      <c r="G116" s="100"/>
-      <c r="H116" s="100"/>
-      <c r="I116" s="100"/>
-      <c r="J116" s="100"/>
-      <c r="K116" s="100"/>
-      <c r="L116" s="100"/>
-      <c r="M116" s="100"/>
-      <c r="N116" s="100"/>
-      <c r="O116" s="100"/>
-      <c r="P116" s="22"/>
-      <c r="Q116" s="22"/>
-      <c r="R116" s="22"/>
-      <c r="S116" s="22"/>
-      <c r="T116" s="22"/>
-      <c r="U116" s="22"/>
-      <c r="V116" s="22"/>
-      <c r="W116" s="22"/>
-      <c r="X116" s="22"/>
-      <c r="Y116" s="22"/>
-      <c r="Z116" s="22"/>
-      <c r="AA116" s="22"/>
-      <c r="AB116" s="22"/>
-      <c r="AC116" s="22"/>
-      <c r="AD116" s="22"/>
-      <c r="AE116" s="22"/>
-      <c r="AF116" s="22"/>
-      <c r="AG116" s="22"/>
-      <c r="AH116" s="22"/>
-      <c r="AI116" s="22"/>
-      <c r="AJ116" s="22"/>
-      <c r="AK116" s="22"/>
-      <c r="AL116" s="22"/>
-      <c r="AM116" s="22"/>
-      <c r="AN116" s="22"/>
-      <c r="AO116" s="22"/>
-      <c r="AP116" s="22"/>
-      <c r="AQ116" s="22"/>
-      <c r="AR116" s="22"/>
-      <c r="AS116" s="22"/>
-      <c r="AT116" s="22"/>
-      <c r="AU116" s="22"/>
-      <c r="AV116" s="22"/>
-      <c r="AW116" s="22"/>
-      <c r="AX116" s="22"/>
-      <c r="AY116" s="22"/>
-      <c r="AZ116" s="22"/>
-      <c r="BA116" s="22"/>
-      <c r="BB116" s="22"/>
-      <c r="BC116" s="22"/>
-      <c r="BD116" s="22"/>
-      <c r="BE116" s="22"/>
-      <c r="BF116" s="22"/>
-      <c r="BG116" s="22"/>
-      <c r="BH116" s="22"/>
-      <c r="BI116" s="22"/>
-      <c r="BJ116" s="22"/>
-      <c r="BK116" s="22"/>
-      <c r="BL116" s="22"/>
-      <c r="BM116" s="22"/>
-      <c r="BN116" s="22"/>
-    </row>
-    <row r="117" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="92">
+    <row r="116" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="92">
         <v>146</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D116" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="F116" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="G116" s="92">
+        <v>403</v>
+      </c>
+      <c r="H116" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="I116" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J116" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="K116" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L116" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M116" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N116" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O116" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="P116" s="21"/>
+      <c r="Q116" s="21"/>
+      <c r="R116" s="21"/>
+      <c r="S116" s="21"/>
+      <c r="T116" s="21"/>
+      <c r="U116" s="21"/>
+      <c r="V116" s="21"/>
+      <c r="W116" s="21"/>
+      <c r="X116" s="21"/>
+      <c r="Y116" s="21"/>
+      <c r="Z116" s="21"/>
+      <c r="AA116" s="21"/>
+      <c r="AB116" s="21"/>
+      <c r="AC116" s="21"/>
+      <c r="AD116" s="21"/>
+      <c r="AE116" s="21"/>
+      <c r="AF116" s="21"/>
+      <c r="AG116" s="21"/>
+      <c r="AH116" s="21"/>
+      <c r="AI116" s="21"/>
+      <c r="AJ116" s="21"/>
+      <c r="AK116" s="21"/>
+      <c r="AL116" s="21"/>
+      <c r="AM116" s="21"/>
+      <c r="AN116" s="21"/>
+      <c r="AO116" s="21"/>
+      <c r="AP116" s="21"/>
+      <c r="AQ116" s="21"/>
+      <c r="AR116" s="21"/>
+      <c r="AS116" s="21"/>
+      <c r="AT116" s="21"/>
+      <c r="AU116" s="21"/>
+      <c r="AV116" s="21"/>
+      <c r="AW116" s="21"/>
+      <c r="AX116" s="21"/>
+      <c r="AY116" s="21"/>
+      <c r="AZ116" s="21"/>
+      <c r="BA116" s="21"/>
+      <c r="BB116" s="21"/>
+      <c r="BC116" s="21"/>
+      <c r="BD116" s="21"/>
+      <c r="BE116" s="21"/>
+      <c r="BF116" s="21"/>
+      <c r="BG116" s="21"/>
+      <c r="BH116" s="21"/>
+      <c r="BI116" s="21"/>
+      <c r="BJ116" s="21"/>
+      <c r="BK116" s="21"/>
+      <c r="BL116" s="21"/>
+      <c r="BM116" s="21"/>
+      <c r="BN116" s="21"/>
+    </row>
+    <row r="117" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>86</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C117" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D117" s="92" t="s">
+      <c r="C117" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E117" s="92" t="s">
+      <c r="E117" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F117" s="92" t="s">
+      <c r="F117" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G117" s="92">
-        <v>403</v>
-      </c>
-      <c r="H117" s="92" t="s">
+      <c r="G117" s="24">
+        <v>401</v>
+      </c>
+      <c r="H117" s="58" t="s">
         <v>218</v>
       </c>
       <c r="I117" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J117" s="92" t="s">
+      <c r="J117" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K117" s="92" t="s">
+      <c r="K117" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L117" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M117" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N117" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O117" s="93" t="s">
+      <c r="L117" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M117" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N117" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P117" s="21"/>
-      <c r="Q117" s="21"/>
-      <c r="R117" s="21"/>
-      <c r="S117" s="21"/>
-      <c r="T117" s="21"/>
-      <c r="U117" s="21"/>
-      <c r="V117" s="21"/>
-      <c r="W117" s="21"/>
-      <c r="X117" s="21"/>
-      <c r="Y117" s="21"/>
-      <c r="Z117" s="21"/>
-      <c r="AA117" s="21"/>
-      <c r="AB117" s="21"/>
-      <c r="AC117" s="21"/>
-      <c r="AD117" s="21"/>
-      <c r="AE117" s="21"/>
-      <c r="AF117" s="21"/>
-      <c r="AG117" s="21"/>
-      <c r="AH117" s="21"/>
-      <c r="AI117" s="21"/>
-      <c r="AJ117" s="21"/>
-      <c r="AK117" s="21"/>
-      <c r="AL117" s="21"/>
-      <c r="AM117" s="21"/>
-      <c r="AN117" s="21"/>
-      <c r="AO117" s="21"/>
-      <c r="AP117" s="21"/>
-      <c r="AQ117" s="21"/>
-      <c r="AR117" s="21"/>
-      <c r="AS117" s="21"/>
-      <c r="AT117" s="21"/>
-      <c r="AU117" s="21"/>
-      <c r="AV117" s="21"/>
-      <c r="AW117" s="21"/>
-      <c r="AX117" s="21"/>
-      <c r="AY117" s="21"/>
-      <c r="AZ117" s="21"/>
-      <c r="BA117" s="21"/>
-      <c r="BB117" s="21"/>
-      <c r="BC117" s="21"/>
-      <c r="BD117" s="21"/>
-      <c r="BE117" s="21"/>
-      <c r="BF117" s="21"/>
-      <c r="BG117" s="21"/>
-      <c r="BH117" s="21"/>
-      <c r="BI117" s="21"/>
-      <c r="BJ117" s="21"/>
-      <c r="BK117" s="21"/>
-      <c r="BL117" s="21"/>
-      <c r="BM117" s="21"/>
-      <c r="BN117" s="21"/>
-    </row>
-    <row r="118" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O117" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B118" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C118" s="51" t="s">
-        <v>156</v>
+      <c r="C118" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>12</v>
@@ -32011,27 +31945,78 @@
         <v>34</v>
       </c>
       <c r="L118" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M118" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N118" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O118" s="49" t="s">
+      <c r="O118" s="47" t="s">
         <v>12</v>
       </c>
+      <c r="P118" s="22"/>
+      <c r="Q118" s="22"/>
+      <c r="R118" s="22"/>
+      <c r="S118" s="22"/>
+      <c r="T118" s="22"/>
+      <c r="U118" s="22"/>
+      <c r="V118" s="22"/>
+      <c r="W118" s="22"/>
+      <c r="X118" s="22"/>
+      <c r="Y118" s="22"/>
+      <c r="Z118" s="22"/>
+      <c r="AA118" s="22"/>
+      <c r="AB118" s="22"/>
+      <c r="AC118" s="22"/>
+      <c r="AD118" s="22"/>
+      <c r="AE118" s="22"/>
+      <c r="AF118" s="22"/>
+      <c r="AG118" s="22"/>
+      <c r="AH118" s="22"/>
+      <c r="AI118" s="22"/>
+      <c r="AJ118" s="22"/>
+      <c r="AK118" s="22"/>
+      <c r="AL118" s="22"/>
+      <c r="AM118" s="22"/>
+      <c r="AN118" s="22"/>
+      <c r="AO118" s="22"/>
+      <c r="AP118" s="22"/>
+      <c r="AQ118" s="22"/>
+      <c r="AR118" s="22"/>
+      <c r="AS118" s="22"/>
+      <c r="AT118" s="22"/>
+      <c r="AU118" s="22"/>
+      <c r="AV118" s="22"/>
+      <c r="AW118" s="22"/>
+      <c r="AX118" s="22"/>
+      <c r="AY118" s="22"/>
+      <c r="AZ118" s="22"/>
+      <c r="BA118" s="22"/>
+      <c r="BB118" s="22"/>
+      <c r="BC118" s="22"/>
+      <c r="BD118" s="22"/>
+      <c r="BE118" s="22"/>
+      <c r="BF118" s="22"/>
+      <c r="BG118" s="22"/>
+      <c r="BH118" s="22"/>
+      <c r="BI118" s="22"/>
+      <c r="BJ118" s="22"/>
+      <c r="BK118" s="22"/>
+      <c r="BL118" s="22"/>
+      <c r="BM118" s="22"/>
+      <c r="BN118" s="22"/>
     </row>
     <row r="119" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>12</v>
@@ -32043,7 +32028,7 @@
         <v>142</v>
       </c>
       <c r="G119" s="24">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H119" s="58" t="s">
         <v>218</v>
@@ -32055,19 +32040,19 @@
         <v>7</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L119" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M119" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="N119" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O119" s="47" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="L119" s="10">
+        <v>1003</v>
+      </c>
+      <c r="M119" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N119" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O119" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="P119" s="22"/>
       <c r="Q119" s="22"/>
@@ -32121,15 +32106,15 @@
       <c r="BM119" s="22"/>
       <c r="BN119" s="22"/>
     </row>
-    <row r="120" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C120" s="23" t="s">
-        <v>267</v>
+      <c r="C120" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>12</v>
@@ -32153,13 +32138,13 @@
         <v>7</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L120" s="10">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M120" s="30" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N120" s="30" t="s">
         <v>136</v>
@@ -32219,15 +32204,15 @@
       <c r="BM120" s="22"/>
       <c r="BN120" s="22"/>
     </row>
-    <row r="121" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>12</v>
@@ -32251,13 +32236,13 @@
         <v>7</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L121" s="10">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="M121" s="30" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N121" s="30" t="s">
         <v>136</v>
@@ -32317,26 +32302,26 @@
       <c r="BM121" s="22"/>
       <c r="BN121" s="22"/>
     </row>
-    <row r="122" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D122" s="4" t="s">
+      <c r="C122" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D122" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E122" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G122" s="24">
+      <c r="G122" s="54">
         <v>400</v>
       </c>
       <c r="H122" s="58" t="s">
@@ -32345,23 +32330,23 @@
       <c r="I122" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J122" s="4" t="s">
+      <c r="J122" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K122" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L122" s="10">
-        <v>1005</v>
-      </c>
-      <c r="M122" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="N122" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O122" s="30" t="s">
-        <v>45</v>
+      <c r="K122" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L122" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M122" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N122" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O122" s="63" t="s">
+        <v>12</v>
       </c>
       <c r="P122" s="22"/>
       <c r="Q122" s="22"/>
@@ -32415,27 +32400,27 @@
       <c r="BM122" s="22"/>
       <c r="BN122" s="22"/>
     </row>
-    <row r="123" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C123" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D123" s="53" t="s">
+      <c r="C123" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E123" s="53" t="s">
+      <c r="E123" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F123" s="53" t="s">
+      <c r="F123" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G123" s="54">
-        <v>400</v>
+      <c r="G123" s="24">
+        <v>404</v>
       </c>
       <c r="H123" s="58" t="s">
         <v>218</v>
@@ -32443,85 +32428,85 @@
       <c r="I123" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J123" s="53" t="s">
+      <c r="J123" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K123" s="54" t="s">
+      <c r="K123" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L123" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M123" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N123" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O123" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="P123" s="22"/>
-      <c r="Q123" s="22"/>
-      <c r="R123" s="22"/>
-      <c r="S123" s="22"/>
-      <c r="T123" s="22"/>
-      <c r="U123" s="22"/>
-      <c r="V123" s="22"/>
-      <c r="W123" s="22"/>
-      <c r="X123" s="22"/>
-      <c r="Y123" s="22"/>
-      <c r="Z123" s="22"/>
-      <c r="AA123" s="22"/>
-      <c r="AB123" s="22"/>
-      <c r="AC123" s="22"/>
-      <c r="AD123" s="22"/>
-      <c r="AE123" s="22"/>
-      <c r="AF123" s="22"/>
-      <c r="AG123" s="22"/>
-      <c r="AH123" s="22"/>
-      <c r="AI123" s="22"/>
-      <c r="AJ123" s="22"/>
-      <c r="AK123" s="22"/>
-      <c r="AL123" s="22"/>
-      <c r="AM123" s="22"/>
-      <c r="AN123" s="22"/>
-      <c r="AO123" s="22"/>
-      <c r="AP123" s="22"/>
-      <c r="AQ123" s="22"/>
-      <c r="AR123" s="22"/>
-      <c r="AS123" s="22"/>
-      <c r="AT123" s="22"/>
-      <c r="AU123" s="22"/>
-      <c r="AV123" s="22"/>
-      <c r="AW123" s="22"/>
-      <c r="AX123" s="22"/>
-      <c r="AY123" s="22"/>
-      <c r="AZ123" s="22"/>
-      <c r="BA123" s="22"/>
-      <c r="BB123" s="22"/>
-      <c r="BC123" s="22"/>
-      <c r="BD123" s="22"/>
-      <c r="BE123" s="22"/>
-      <c r="BF123" s="22"/>
-      <c r="BG123" s="22"/>
-      <c r="BH123" s="22"/>
-      <c r="BI123" s="22"/>
-      <c r="BJ123" s="22"/>
-      <c r="BK123" s="22"/>
-      <c r="BL123" s="22"/>
-      <c r="BM123" s="22"/>
-      <c r="BN123" s="22"/>
-    </row>
-    <row r="124" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="L123" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M123" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N123" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O123" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P123" s="21"/>
+      <c r="Q123" s="21"/>
+      <c r="R123" s="21"/>
+      <c r="S123" s="21"/>
+      <c r="T123" s="21"/>
+      <c r="U123" s="21"/>
+      <c r="V123" s="21"/>
+      <c r="W123" s="21"/>
+      <c r="X123" s="21"/>
+      <c r="Y123" s="21"/>
+      <c r="Z123" s="21"/>
+      <c r="AA123" s="21"/>
+      <c r="AB123" s="21"/>
+      <c r="AC123" s="21"/>
+      <c r="AD123" s="21"/>
+      <c r="AE123" s="21"/>
+      <c r="AF123" s="21"/>
+      <c r="AG123" s="21"/>
+      <c r="AH123" s="21"/>
+      <c r="AI123" s="21"/>
+      <c r="AJ123" s="21"/>
+      <c r="AK123" s="21"/>
+      <c r="AL123" s="21"/>
+      <c r="AM123" s="21"/>
+      <c r="AN123" s="21"/>
+      <c r="AO123" s="21"/>
+      <c r="AP123" s="21"/>
+      <c r="AQ123" s="21"/>
+      <c r="AR123" s="21"/>
+      <c r="AS123" s="21"/>
+      <c r="AT123" s="21"/>
+      <c r="AU123" s="21"/>
+      <c r="AV123" s="21"/>
+      <c r="AW123" s="21"/>
+      <c r="AX123" s="21"/>
+      <c r="AY123" s="21"/>
+      <c r="AZ123" s="21"/>
+      <c r="BA123" s="21"/>
+      <c r="BB123" s="21"/>
+      <c r="BC123" s="21"/>
+      <c r="BD123" s="21"/>
+      <c r="BE123" s="21"/>
+      <c r="BF123" s="21"/>
+      <c r="BG123" s="21"/>
+      <c r="BH123" s="21"/>
+      <c r="BI123" s="21"/>
+      <c r="BJ123" s="21"/>
+      <c r="BK123" s="21"/>
+      <c r="BL123" s="21"/>
+      <c r="BM123" s="21"/>
+      <c r="BN123" s="21"/>
+    </row>
+    <row r="124" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>12</v>
@@ -32545,13 +32530,13 @@
         <v>7</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L124" s="10">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M124" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N124" s="30" t="s">
         <v>136</v>
@@ -32559,67 +32544,16 @@
       <c r="O124" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="P124" s="21"/>
-      <c r="Q124" s="21"/>
-      <c r="R124" s="21"/>
-      <c r="S124" s="21"/>
-      <c r="T124" s="21"/>
-      <c r="U124" s="21"/>
-      <c r="V124" s="21"/>
-      <c r="W124" s="21"/>
-      <c r="X124" s="21"/>
-      <c r="Y124" s="21"/>
-      <c r="Z124" s="21"/>
-      <c r="AA124" s="21"/>
-      <c r="AB124" s="21"/>
-      <c r="AC124" s="21"/>
-      <c r="AD124" s="21"/>
-      <c r="AE124" s="21"/>
-      <c r="AF124" s="21"/>
-      <c r="AG124" s="21"/>
-      <c r="AH124" s="21"/>
-      <c r="AI124" s="21"/>
-      <c r="AJ124" s="21"/>
-      <c r="AK124" s="21"/>
-      <c r="AL124" s="21"/>
-      <c r="AM124" s="21"/>
-      <c r="AN124" s="21"/>
-      <c r="AO124" s="21"/>
-      <c r="AP124" s="21"/>
-      <c r="AQ124" s="21"/>
-      <c r="AR124" s="21"/>
-      <c r="AS124" s="21"/>
-      <c r="AT124" s="21"/>
-      <c r="AU124" s="21"/>
-      <c r="AV124" s="21"/>
-      <c r="AW124" s="21"/>
-      <c r="AX124" s="21"/>
-      <c r="AY124" s="21"/>
-      <c r="AZ124" s="21"/>
-      <c r="BA124" s="21"/>
-      <c r="BB124" s="21"/>
-      <c r="BC124" s="21"/>
-      <c r="BD124" s="21"/>
-      <c r="BE124" s="21"/>
-      <c r="BF124" s="21"/>
-      <c r="BG124" s="21"/>
-      <c r="BH124" s="21"/>
-      <c r="BI124" s="21"/>
-      <c r="BJ124" s="21"/>
-      <c r="BK124" s="21"/>
-      <c r="BL124" s="21"/>
-      <c r="BM124" s="21"/>
-      <c r="BN124" s="21"/>
-    </row>
-    <row r="125" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>12</v>
@@ -32631,7 +32565,7 @@
         <v>142</v>
       </c>
       <c r="G125" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H125" s="58" t="s">
         <v>218</v>
@@ -32646,10 +32580,10 @@
         <v>32</v>
       </c>
       <c r="L125" s="10">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M125" s="30" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N125" s="30" t="s">
         <v>136</v>
@@ -32658,15 +32592,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="126" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
-        <v>94</v>
+    <row r="126" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A126" s="26">
+        <v>141</v>
       </c>
       <c r="B126" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>91</v>
+      <c r="C126" s="84" t="s">
+        <v>231</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>12</v>
@@ -32674,11 +32608,11 @@
       <c r="E126" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G126" s="24">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H126" s="58" t="s">
         <v>218</v>
@@ -32692,40 +32626,91 @@
       <c r="K126" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L126" s="10">
-        <v>1008</v>
-      </c>
-      <c r="M126" s="30" t="s">
-        <v>16</v>
+      <c r="L126" s="26">
+        <v>3013</v>
+      </c>
+      <c r="M126" s="84" t="s">
+        <v>232</v>
       </c>
       <c r="N126" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O126" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="127" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A127" s="26">
-        <v>141</v>
+        <v>233</v>
+      </c>
+      <c r="P126" s="21"/>
+      <c r="Q126" s="21"/>
+      <c r="R126" s="21"/>
+      <c r="S126" s="21"/>
+      <c r="T126" s="21"/>
+      <c r="U126" s="21"/>
+      <c r="V126" s="21"/>
+      <c r="W126" s="21"/>
+      <c r="X126" s="21"/>
+      <c r="Y126" s="21"/>
+      <c r="Z126" s="21"/>
+      <c r="AA126" s="21"/>
+      <c r="AB126" s="21"/>
+      <c r="AC126" s="21"/>
+      <c r="AD126" s="21"/>
+      <c r="AE126" s="21"/>
+      <c r="AF126" s="21"/>
+      <c r="AG126" s="21"/>
+      <c r="AH126" s="21"/>
+      <c r="AI126" s="21"/>
+      <c r="AJ126" s="21"/>
+      <c r="AK126" s="21"/>
+      <c r="AL126" s="21"/>
+      <c r="AM126" s="21"/>
+      <c r="AN126" s="21"/>
+      <c r="AO126" s="21"/>
+      <c r="AP126" s="21"/>
+      <c r="AQ126" s="21"/>
+      <c r="AR126" s="21"/>
+      <c r="AS126" s="21"/>
+      <c r="AT126" s="21"/>
+      <c r="AU126" s="21"/>
+      <c r="AV126" s="21"/>
+      <c r="AW126" s="21"/>
+      <c r="AX126" s="21"/>
+      <c r="AY126" s="21"/>
+      <c r="AZ126" s="21"/>
+      <c r="BA126" s="21"/>
+      <c r="BB126" s="21"/>
+      <c r="BC126" s="21"/>
+      <c r="BD126" s="21"/>
+      <c r="BE126" s="21"/>
+      <c r="BF126" s="21"/>
+      <c r="BG126" s="21"/>
+      <c r="BH126" s="21"/>
+      <c r="BI126" s="21"/>
+      <c r="BJ126" s="21"/>
+      <c r="BK126" s="21"/>
+      <c r="BL126" s="21"/>
+      <c r="BM126" s="21"/>
+      <c r="BN126" s="21"/>
+    </row>
+    <row r="127" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>95</v>
       </c>
       <c r="B127" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="84" t="s">
-        <v>231</v>
-      </c>
-      <c r="D127" s="4" t="s">
+      <c r="C127" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D127" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F127" s="26" t="s">
+      <c r="F127" s="4" t="s">
         <v>142</v>
       </c>
       <c r="G127" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H127" s="58" t="s">
         <v>218</v>
@@ -32737,83 +32722,32 @@
         <v>7</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L127" s="26">
-        <v>3013</v>
-      </c>
-      <c r="M127" s="84" t="s">
-        <v>232</v>
+        <v>34</v>
+      </c>
+      <c r="L127" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M127" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N127" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O127" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="P127" s="21"/>
-      <c r="Q127" s="21"/>
-      <c r="R127" s="21"/>
-      <c r="S127" s="21"/>
-      <c r="T127" s="21"/>
-      <c r="U127" s="21"/>
-      <c r="V127" s="21"/>
-      <c r="W127" s="21"/>
-      <c r="X127" s="21"/>
-      <c r="Y127" s="21"/>
-      <c r="Z127" s="21"/>
-      <c r="AA127" s="21"/>
-      <c r="AB127" s="21"/>
-      <c r="AC127" s="21"/>
-      <c r="AD127" s="21"/>
-      <c r="AE127" s="21"/>
-      <c r="AF127" s="21"/>
-      <c r="AG127" s="21"/>
-      <c r="AH127" s="21"/>
-      <c r="AI127" s="21"/>
-      <c r="AJ127" s="21"/>
-      <c r="AK127" s="21"/>
-      <c r="AL127" s="21"/>
-      <c r="AM127" s="21"/>
-      <c r="AN127" s="21"/>
-      <c r="AO127" s="21"/>
-      <c r="AP127" s="21"/>
-      <c r="AQ127" s="21"/>
-      <c r="AR127" s="21"/>
-      <c r="AS127" s="21"/>
-      <c r="AT127" s="21"/>
-      <c r="AU127" s="21"/>
-      <c r="AV127" s="21"/>
-      <c r="AW127" s="21"/>
-      <c r="AX127" s="21"/>
-      <c r="AY127" s="21"/>
-      <c r="AZ127" s="21"/>
-      <c r="BA127" s="21"/>
-      <c r="BB127" s="21"/>
-      <c r="BC127" s="21"/>
-      <c r="BD127" s="21"/>
-      <c r="BE127" s="21"/>
-      <c r="BF127" s="21"/>
-      <c r="BG127" s="21"/>
-      <c r="BH127" s="21"/>
-      <c r="BI127" s="21"/>
-      <c r="BJ127" s="21"/>
-      <c r="BK127" s="21"/>
-      <c r="BL127" s="21"/>
-      <c r="BM127" s="21"/>
-      <c r="BN127" s="21"/>
-    </row>
-    <row r="128" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B128" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D128" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E128" s="4" t="s">
@@ -32823,7 +32757,7 @@
         <v>142</v>
       </c>
       <c r="G128" s="24">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H128" s="58" t="s">
         <v>218</v>
@@ -32837,187 +32771,187 @@
       <c r="K128" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L128" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M128" s="32" t="s">
-        <v>204</v>
+      <c r="L128" s="10">
+        <v>4001</v>
+      </c>
+      <c r="M128" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="N128" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O128" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
-        <v>96</v>
+        <v>65</v>
+      </c>
+      <c r="P128" s="22"/>
+      <c r="Q128" s="22"/>
+      <c r="R128" s="22"/>
+      <c r="S128" s="22"/>
+      <c r="T128" s="22"/>
+      <c r="U128" s="22"/>
+      <c r="V128" s="22"/>
+      <c r="W128" s="22"/>
+      <c r="X128" s="22"/>
+      <c r="Y128" s="22"/>
+      <c r="Z128" s="22"/>
+      <c r="AA128" s="22"/>
+      <c r="AB128" s="22"/>
+      <c r="AC128" s="22"/>
+      <c r="AD128" s="22"/>
+      <c r="AE128" s="22"/>
+      <c r="AF128" s="22"/>
+      <c r="AG128" s="22"/>
+      <c r="AH128" s="22"/>
+      <c r="AI128" s="22"/>
+      <c r="AJ128" s="22"/>
+      <c r="AK128" s="22"/>
+      <c r="AL128" s="22"/>
+      <c r="AM128" s="22"/>
+      <c r="AN128" s="22"/>
+      <c r="AO128" s="22"/>
+      <c r="AP128" s="22"/>
+      <c r="AQ128" s="22"/>
+      <c r="AR128" s="22"/>
+      <c r="AS128" s="22"/>
+      <c r="AT128" s="22"/>
+      <c r="AU128" s="22"/>
+      <c r="AV128" s="22"/>
+      <c r="AW128" s="22"/>
+      <c r="AX128" s="22"/>
+      <c r="AY128" s="22"/>
+      <c r="AZ128" s="22"/>
+      <c r="BA128" s="22"/>
+      <c r="BB128" s="22"/>
+      <c r="BC128" s="22"/>
+      <c r="BD128" s="22"/>
+      <c r="BE128" s="22"/>
+      <c r="BF128" s="22"/>
+      <c r="BG128" s="22"/>
+      <c r="BH128" s="22"/>
+      <c r="BI128" s="22"/>
+      <c r="BJ128" s="22"/>
+      <c r="BK128" s="22"/>
+      <c r="BL128" s="22"/>
+      <c r="BM128" s="22"/>
+      <c r="BN128" s="22"/>
+    </row>
+    <row r="129" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A129" s="26">
+        <v>142</v>
       </c>
       <c r="B129" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D129" s="4" t="s">
+      <c r="C129" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="65">
+        <v>413</v>
+      </c>
+      <c r="H129" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="I129" s="65"/>
+      <c r="J129" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K129" s="26"/>
+      <c r="L129" s="26"/>
+      <c r="M129" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="N129" s="33"/>
+      <c r="O129" s="33"/>
+    </row>
+    <row r="130" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A130" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130" s="100"/>
+      <c r="C130" s="100"/>
+      <c r="D130" s="100"/>
+      <c r="E130" s="100"/>
+      <c r="F130" s="100"/>
+      <c r="G130" s="100"/>
+      <c r="H130" s="100"/>
+      <c r="I130" s="100"/>
+      <c r="J130" s="100"/>
+      <c r="K130" s="100"/>
+      <c r="L130" s="100"/>
+      <c r="M130" s="100"/>
+      <c r="N130" s="100"/>
+      <c r="O130" s="100"/>
+    </row>
+    <row r="131" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>154</v>
+      </c>
+      <c r="B131" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E131" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="F131" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G129" s="24">
-        <v>400</v>
-      </c>
-      <c r="H129" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="I129" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J129" s="4" t="s">
+      <c r="G131" s="4">
+        <v>200</v>
+      </c>
+      <c r="H131" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I131" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J131" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K129" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L129" s="10">
-        <v>4001</v>
-      </c>
-      <c r="M129" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="N129" s="30" t="s">
+      <c r="K131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L131" s="4">
+        <v>4006</v>
+      </c>
+      <c r="M131" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="N131" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O129" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="P129" s="22"/>
-      <c r="Q129" s="22"/>
-      <c r="R129" s="22"/>
-      <c r="S129" s="22"/>
-      <c r="T129" s="22"/>
-      <c r="U129" s="22"/>
-      <c r="V129" s="22"/>
-      <c r="W129" s="22"/>
-      <c r="X129" s="22"/>
-      <c r="Y129" s="22"/>
-      <c r="Z129" s="22"/>
-      <c r="AA129" s="22"/>
-      <c r="AB129" s="22"/>
-      <c r="AC129" s="22"/>
-      <c r="AD129" s="22"/>
-      <c r="AE129" s="22"/>
-      <c r="AF129" s="22"/>
-      <c r="AG129" s="22"/>
-      <c r="AH129" s="22"/>
-      <c r="AI129" s="22"/>
-      <c r="AJ129" s="22"/>
-      <c r="AK129" s="22"/>
-      <c r="AL129" s="22"/>
-      <c r="AM129" s="22"/>
-      <c r="AN129" s="22"/>
-      <c r="AO129" s="22"/>
-      <c r="AP129" s="22"/>
-      <c r="AQ129" s="22"/>
-      <c r="AR129" s="22"/>
-      <c r="AS129" s="22"/>
-      <c r="AT129" s="22"/>
-      <c r="AU129" s="22"/>
-      <c r="AV129" s="22"/>
-      <c r="AW129" s="22"/>
-      <c r="AX129" s="22"/>
-      <c r="AY129" s="22"/>
-      <c r="AZ129" s="22"/>
-      <c r="BA129" s="22"/>
-      <c r="BB129" s="22"/>
-      <c r="BC129" s="22"/>
-      <c r="BD129" s="22"/>
-      <c r="BE129" s="22"/>
-      <c r="BF129" s="22"/>
-      <c r="BG129" s="22"/>
-      <c r="BH129" s="22"/>
-      <c r="BI129" s="22"/>
-      <c r="BJ129" s="22"/>
-      <c r="BK129" s="22"/>
-      <c r="BL129" s="22"/>
-      <c r="BM129" s="22"/>
-      <c r="BN129" s="22"/>
-    </row>
-    <row r="130" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A130" s="26">
-        <v>142</v>
-      </c>
-      <c r="B130" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C130" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="65">
-        <v>413</v>
-      </c>
-      <c r="H130" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="I130" s="65"/>
-      <c r="J130" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="K130" s="26"/>
-      <c r="L130" s="26"/>
-      <c r="M130" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="N130" s="33"/>
-      <c r="O130" s="33"/>
-    </row>
-    <row r="131" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A131" s="100" t="s">
-        <v>147</v>
-      </c>
-      <c r="B131" s="100"/>
-      <c r="C131" s="100"/>
-      <c r="D131" s="100"/>
-      <c r="E131" s="100"/>
-      <c r="F131" s="100"/>
-      <c r="G131" s="100"/>
-      <c r="H131" s="100"/>
-      <c r="I131" s="100"/>
-      <c r="J131" s="100"/>
-      <c r="K131" s="100"/>
-      <c r="L131" s="100"/>
-      <c r="M131" s="100"/>
-      <c r="N131" s="100"/>
-      <c r="O131" s="100"/>
+      <c r="O131" s="49" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="132" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
-        <v>154</v>
+      <c r="A132" s="8">
+        <v>151</v>
       </c>
       <c r="B132" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C132" s="49" t="s">
-        <v>277</v>
+      <c r="C132" s="96" t="s">
+        <v>271</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E132" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F132" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G132" s="4">
+      <c r="G132" s="38">
         <v>200</v>
       </c>
       <c r="H132" s="24" t="s">
@@ -33032,28 +32966,28 @@
       <c r="K132" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L132" s="4">
-        <v>4006</v>
-      </c>
-      <c r="M132" s="49" t="s">
-        <v>277</v>
+      <c r="L132" s="8">
+        <v>4005</v>
+      </c>
+      <c r="M132" s="96" t="s">
+        <v>271</v>
       </c>
       <c r="N132" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O132" s="49" t="s">
-        <v>278</v>
+      <c r="O132" s="96" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="8">
-        <v>151</v>
+      <c r="A133" s="4">
+        <v>97</v>
       </c>
       <c r="B133" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C133" s="96" t="s">
-        <v>271</v>
+      <c r="C133" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>12</v>
@@ -33076,33 +33010,33 @@
       <c r="J133" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K133" s="4" t="s">
-        <v>11</v>
+      <c r="K133" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="L133" s="8">
-        <v>4005</v>
-      </c>
-      <c r="M133" s="96" t="s">
-        <v>271</v>
+        <v>4002</v>
+      </c>
+      <c r="M133" s="32" t="s">
+        <v>40</v>
       </c>
       <c r="N133" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O133" s="96" t="s">
-        <v>270</v>
+      <c r="O133" s="31" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B134" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C134" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D134" s="5" t="s">
+      <c r="C134" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D134" s="26" t="s">
         <v>12</v>
       </c>
       <c r="E134" s="5" t="s">
@@ -33123,31 +33057,31 @@
       <c r="J134" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K134" s="5" t="s">
+      <c r="K134" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="L134" s="8">
-        <v>4002</v>
+      <c r="L134" s="26">
+        <v>4003</v>
       </c>
       <c r="M134" s="32" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="N134" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O134" s="31" t="s">
-        <v>64</v>
+      <c r="O134" s="33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B135" s="31" t="s">
         <v>135</v>
       </c>
       <c r="C135" s="27" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="D135" s="26" t="s">
         <v>12</v>
@@ -33174,35 +33108,35 @@
         <v>32</v>
       </c>
       <c r="L135" s="26">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="M135" s="32" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="N135" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O135" s="33" t="s">
-        <v>1</v>
+      <c r="O135" s="31" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B136" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C136" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="D136" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136" s="5" t="s">
+      <c r="C136" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D136" s="4">
+        <v>8</v>
+      </c>
+      <c r="E136" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="F136" s="24" t="s">
         <v>142</v>
       </c>
       <c r="G136" s="38">
@@ -33214,217 +33148,217 @@
       <c r="I136" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J136" s="5" t="s">
+      <c r="J136" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K136" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L136" s="26">
-        <v>4004</v>
-      </c>
-      <c r="M136" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="N136" s="31" t="s">
+      <c r="K136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L136" s="4">
+        <v>1010</v>
+      </c>
+      <c r="M136" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N136" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="O136" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="137" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
-        <v>99</v>
-      </c>
-      <c r="B137" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D137" s="4">
-        <v>8</v>
-      </c>
-      <c r="E137" s="24" t="s">
+      <c r="O136" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="B137" s="99"/>
+      <c r="C137" s="99"/>
+      <c r="D137" s="99"/>
+      <c r="E137" s="99"/>
+      <c r="F137" s="99"/>
+      <c r="G137" s="99"/>
+      <c r="H137" s="99"/>
+      <c r="I137" s="99"/>
+      <c r="J137" s="99"/>
+      <c r="K137" s="99"/>
+      <c r="L137" s="99"/>
+      <c r="M137" s="99"/>
+      <c r="N137" s="99"/>
+      <c r="O137" s="99"/>
+    </row>
+    <row r="138" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A138" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138" s="100"/>
+      <c r="C138" s="100"/>
+      <c r="D138" s="100"/>
+      <c r="E138" s="100"/>
+      <c r="F138" s="100"/>
+      <c r="G138" s="100"/>
+      <c r="H138" s="100"/>
+      <c r="I138" s="100"/>
+      <c r="J138" s="100"/>
+      <c r="K138" s="100"/>
+      <c r="L138" s="100"/>
+      <c r="M138" s="100"/>
+      <c r="N138" s="100"/>
+      <c r="O138" s="100"/>
+    </row>
+    <row r="139" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="92">
+        <v>146</v>
+      </c>
+      <c r="B139" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C139" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D139" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F137" s="24" t="s">
+      <c r="F139" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G137" s="38">
-        <v>200</v>
-      </c>
-      <c r="H137" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="I137" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J137" s="4" t="s">
+      <c r="G139" s="92">
+        <v>403</v>
+      </c>
+      <c r="H139" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="I139" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J139" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K137" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L137" s="4">
-        <v>1010</v>
-      </c>
-      <c r="M137" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="N137" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O137" s="30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="99" t="s">
-        <v>175</v>
-      </c>
-      <c r="B138" s="99"/>
-      <c r="C138" s="99"/>
-      <c r="D138" s="99"/>
-      <c r="E138" s="99"/>
-      <c r="F138" s="99"/>
-      <c r="G138" s="99"/>
-      <c r="H138" s="99"/>
-      <c r="I138" s="99"/>
-      <c r="J138" s="99"/>
-      <c r="K138" s="99"/>
-      <c r="L138" s="99"/>
-      <c r="M138" s="99"/>
-      <c r="N138" s="99"/>
-      <c r="O138" s="99"/>
-    </row>
-    <row r="139" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A139" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B139" s="100"/>
-      <c r="C139" s="100"/>
-      <c r="D139" s="100"/>
-      <c r="E139" s="100"/>
-      <c r="F139" s="100"/>
-      <c r="G139" s="100"/>
-      <c r="H139" s="100"/>
-      <c r="I139" s="100"/>
-      <c r="J139" s="100"/>
-      <c r="K139" s="100"/>
-      <c r="L139" s="100"/>
-      <c r="M139" s="100"/>
-      <c r="N139" s="100"/>
-      <c r="O139" s="100"/>
-    </row>
-    <row r="140" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="92">
-        <v>146</v>
+      <c r="K139" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L139" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M139" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N139" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O139" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="P139" s="21"/>
+      <c r="Q139" s="21"/>
+      <c r="R139" s="21"/>
+      <c r="S139" s="21"/>
+      <c r="T139" s="21"/>
+      <c r="U139" s="21"/>
+      <c r="V139" s="21"/>
+      <c r="W139" s="21"/>
+      <c r="X139" s="21"/>
+      <c r="Y139" s="21"/>
+      <c r="Z139" s="21"/>
+      <c r="AA139" s="21"/>
+      <c r="AB139" s="21"/>
+      <c r="AC139" s="21"/>
+      <c r="AD139" s="21"/>
+      <c r="AE139" s="21"/>
+      <c r="AF139" s="21"/>
+      <c r="AG139" s="21"/>
+      <c r="AH139" s="21"/>
+      <c r="AI139" s="21"/>
+      <c r="AJ139" s="21"/>
+      <c r="AK139" s="21"/>
+      <c r="AL139" s="21"/>
+      <c r="AM139" s="21"/>
+      <c r="AN139" s="21"/>
+      <c r="AO139" s="21"/>
+      <c r="AP139" s="21"/>
+      <c r="AQ139" s="21"/>
+      <c r="AR139" s="21"/>
+      <c r="AS139" s="21"/>
+      <c r="AT139" s="21"/>
+      <c r="AU139" s="21"/>
+      <c r="AV139" s="21"/>
+      <c r="AW139" s="21"/>
+      <c r="AX139" s="21"/>
+      <c r="AY139" s="21"/>
+      <c r="AZ139" s="21"/>
+      <c r="BA139" s="21"/>
+      <c r="BB139" s="21"/>
+      <c r="BC139" s="21"/>
+      <c r="BD139" s="21"/>
+      <c r="BE139" s="21"/>
+      <c r="BF139" s="21"/>
+      <c r="BG139" s="21"/>
+      <c r="BH139" s="21"/>
+      <c r="BI139" s="21"/>
+      <c r="BJ139" s="21"/>
+      <c r="BK139" s="21"/>
+      <c r="BL139" s="21"/>
+      <c r="BM139" s="21"/>
+      <c r="BN139" s="21"/>
+    </row>
+    <row r="140" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>102</v>
       </c>
       <c r="B140" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C140" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D140" s="92" t="s">
+      <c r="C140" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E140" s="92" t="s">
+      <c r="E140" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F140" s="92" t="s">
+      <c r="F140" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G140" s="92">
-        <v>403</v>
-      </c>
-      <c r="H140" s="92" t="s">
+      <c r="G140" s="24">
+        <v>401</v>
+      </c>
+      <c r="H140" s="65" t="s">
         <v>218</v>
       </c>
       <c r="I140" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J140" s="92" t="s">
+      <c r="J140" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K140" s="92" t="s">
+      <c r="K140" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L140" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M140" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N140" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O140" s="93" t="s">
+      <c r="L140" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M140" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N140" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P140" s="21"/>
-      <c r="Q140" s="21"/>
-      <c r="R140" s="21"/>
-      <c r="S140" s="21"/>
-      <c r="T140" s="21"/>
-      <c r="U140" s="21"/>
-      <c r="V140" s="21"/>
-      <c r="W140" s="21"/>
-      <c r="X140" s="21"/>
-      <c r="Y140" s="21"/>
-      <c r="Z140" s="21"/>
-      <c r="AA140" s="21"/>
-      <c r="AB140" s="21"/>
-      <c r="AC140" s="21"/>
-      <c r="AD140" s="21"/>
-      <c r="AE140" s="21"/>
-      <c r="AF140" s="21"/>
-      <c r="AG140" s="21"/>
-      <c r="AH140" s="21"/>
-      <c r="AI140" s="21"/>
-      <c r="AJ140" s="21"/>
-      <c r="AK140" s="21"/>
-      <c r="AL140" s="21"/>
-      <c r="AM140" s="21"/>
-      <c r="AN140" s="21"/>
-      <c r="AO140" s="21"/>
-      <c r="AP140" s="21"/>
-      <c r="AQ140" s="21"/>
-      <c r="AR140" s="21"/>
-      <c r="AS140" s="21"/>
-      <c r="AT140" s="21"/>
-      <c r="AU140" s="21"/>
-      <c r="AV140" s="21"/>
-      <c r="AW140" s="21"/>
-      <c r="AX140" s="21"/>
-      <c r="AY140" s="21"/>
-      <c r="AZ140" s="21"/>
-      <c r="BA140" s="21"/>
-      <c r="BB140" s="21"/>
-      <c r="BC140" s="21"/>
-      <c r="BD140" s="21"/>
-      <c r="BE140" s="21"/>
-      <c r="BF140" s="21"/>
-      <c r="BG140" s="21"/>
-      <c r="BH140" s="21"/>
-      <c r="BI140" s="21"/>
-      <c r="BJ140" s="21"/>
-      <c r="BK140" s="21"/>
-      <c r="BL140" s="21"/>
-      <c r="BM140" s="21"/>
-      <c r="BN140" s="21"/>
-    </row>
-    <row r="141" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="O140" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B141" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C141" s="32" t="s">
-        <v>156</v>
+      <c r="C141" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>12</v>
@@ -33451,39 +33385,39 @@
         <v>34</v>
       </c>
       <c r="L141" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M141" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N141" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O141" s="49" t="s">
+      <c r="O141" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B142" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E142" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D142" s="24">
+        <v>201</v>
+      </c>
+      <c r="E142" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F142" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G142" s="24">
-        <v>401</v>
+      <c r="G142" s="44">
+        <v>400</v>
       </c>
       <c r="H142" s="65" t="s">
         <v>218</v>
@@ -33491,34 +33425,34 @@
       <c r="I142" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J142" s="4" t="s">
+      <c r="J142" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K142" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L142" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M142" s="23" t="s">
-        <v>149</v>
+      <c r="K142" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L142" s="40">
+        <v>1003</v>
+      </c>
+      <c r="M142" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="N142" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O142" s="47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O142" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B143" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="D143" s="24">
         <v>201</v>
@@ -33529,7 +33463,7 @@
       <c r="F143" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G143" s="44">
+      <c r="G143" s="24">
         <v>400</v>
       </c>
       <c r="H143" s="65" t="s">
@@ -33542,13 +33476,13 @@
         <v>7</v>
       </c>
       <c r="K143" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L143" s="40">
-        <v>1003</v>
+        <v>11</v>
+      </c>
+      <c r="L143" s="25">
+        <v>1004</v>
       </c>
       <c r="M143" s="32" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N143" s="32" t="s">
         <v>57</v>
@@ -33557,26 +33491,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B144" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C144" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D144" s="24">
-        <v>201</v>
-      </c>
-      <c r="E144" s="24" t="s">
+      <c r="C144" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D144" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F144" s="24" t="s">
+      <c r="F144" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G144" s="24">
+      <c r="G144" s="54">
         <v>400</v>
       </c>
       <c r="H144" s="65" t="s">
@@ -33585,46 +33519,46 @@
       <c r="I144" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J144" s="24" t="s">
+      <c r="J144" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K144" s="24" t="s">
+      <c r="K144" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L144" s="25">
-        <v>1004</v>
-      </c>
-      <c r="M144" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="N144" s="32" t="s">
+      <c r="L144" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M144" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N144" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="O144" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="O144" s="63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B145" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C145" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D145" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145" s="53" t="s">
+      <c r="C145" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D145" s="24">
+        <v>202</v>
+      </c>
+      <c r="E145" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F145" s="53" t="s">
+      <c r="F145" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G145" s="54">
-        <v>400</v>
+      <c r="G145" s="44">
+        <v>403</v>
       </c>
       <c r="H145" s="65" t="s">
         <v>218</v>
@@ -33632,34 +33566,34 @@
       <c r="I145" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J145" s="53" t="s">
+      <c r="J145" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K145" s="54" t="s">
+      <c r="K145" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L145" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M145" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N145" s="52" t="s">
+      <c r="L145" s="25">
+        <v>1006</v>
+      </c>
+      <c r="M145" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N145" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O145" s="63" t="s">
-        <v>12</v>
+      <c r="O145" s="30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B146" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D146" s="24">
         <v>202</v>
@@ -33683,13 +33617,13 @@
         <v>7</v>
       </c>
       <c r="K146" s="24" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L146" s="25">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M146" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N146" s="32" t="s">
         <v>57</v>
@@ -33698,15 +33632,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B147" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D147" s="24">
         <v>202</v>
@@ -33717,7 +33651,7 @@
       <c r="F147" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G147" s="44">
+      <c r="G147" s="24">
         <v>403</v>
       </c>
       <c r="H147" s="65" t="s">
@@ -33733,10 +33667,10 @@
         <v>32</v>
       </c>
       <c r="L147" s="25">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M147" s="32" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N147" s="32" t="s">
         <v>57</v>
@@ -33747,13 +33681,13 @@
     </row>
     <row r="148" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B148" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="D148" s="24">
         <v>202</v>
@@ -33779,11 +33713,11 @@
       <c r="K148" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L148" s="25">
-        <v>1008</v>
+      <c r="L148" s="65">
+        <v>5001</v>
       </c>
       <c r="M148" s="32" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="N148" s="32" t="s">
         <v>57</v>
@@ -33792,15 +33726,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B149" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="D149" s="24">
         <v>202</v>
@@ -33811,7 +33745,7 @@
       <c r="F149" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G149" s="24">
+      <c r="G149" s="44">
         <v>403</v>
       </c>
       <c r="H149" s="65" t="s">
@@ -33824,42 +33758,42 @@
         <v>7</v>
       </c>
       <c r="K149" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L149" s="65">
-        <v>5001</v>
+        <v>34</v>
+      </c>
+      <c r="L149" s="24">
+        <v>1011</v>
       </c>
       <c r="M149" s="32" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="N149" s="32" t="s">
         <v>57</v>
       </c>
       <c r="O149" s="30" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B150" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C150" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D150" s="24">
-        <v>202</v>
-      </c>
-      <c r="E150" s="24" t="s">
+      <c r="C150" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D150" s="4">
+        <v>203</v>
+      </c>
+      <c r="E150" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F150" s="24" t="s">
+      <c r="F150" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G150" s="44">
-        <v>403</v>
+      <c r="G150" s="24">
+        <v>400</v>
       </c>
       <c r="H150" s="65" t="s">
         <v>218</v>
@@ -33867,34 +33801,34 @@
       <c r="I150" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J150" s="24" t="s">
+      <c r="J150" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K150" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L150" s="24">
-        <v>1011</v>
-      </c>
-      <c r="M150" s="32" t="s">
-        <v>204</v>
+      <c r="K150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L150" s="20">
+        <v>5005</v>
+      </c>
+      <c r="M150" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="N150" s="32" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="O150" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="4">
-        <v>112</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="26">
+        <v>132</v>
       </c>
       <c r="B151" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>179</v>
+      <c r="C151" s="57" t="s">
+        <v>197</v>
       </c>
       <c r="D151" s="4">
         <v>203</v>
@@ -33914,19 +33848,19 @@
       <c r="I151" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J151" s="4" t="s">
+      <c r="J151" s="58" t="s">
         <v>7</v>
       </c>
       <c r="K151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L151" s="20">
-        <v>5005</v>
-      </c>
-      <c r="M151" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="N151" s="32" t="s">
+      <c r="L151" s="26">
+        <v>3003</v>
+      </c>
+      <c r="M151" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="N151" s="33" t="s">
         <v>216</v>
       </c>
       <c r="O151" s="30" t="s">
@@ -33935,16 +33869,16 @@
     </row>
     <row r="152" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A152" s="26">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B152" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C152" s="57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D152" s="4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>142</v>
@@ -33968,30 +33902,30 @@
         <v>11</v>
       </c>
       <c r="L152" s="26">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="M152" s="57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N152" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O152" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="26">
-        <v>131</v>
+      <c r="O152" s="56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="8">
+        <v>130</v>
       </c>
       <c r="B153" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C153" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="D153" s="4">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>142</v>
@@ -34015,30 +33949,30 @@
         <v>11</v>
       </c>
       <c r="L153" s="26">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="M153" s="57" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N153" s="33" t="s">
         <v>216</v>
       </c>
       <c r="O153" s="56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B154" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C154" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D154" s="4">
         <v>203</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>142</v>
@@ -34062,30 +33996,30 @@
         <v>11</v>
       </c>
       <c r="L154" s="26">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="M154" s="57" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N154" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O154" s="56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="8">
-        <v>128</v>
+      <c r="O154" s="57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155" s="26">
+        <v>129</v>
       </c>
       <c r="B155" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C155" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="D155" s="4">
-        <v>203</v>
+      <c r="C155" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>142</v>
@@ -34093,8 +34027,8 @@
       <c r="F155" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G155" s="24">
-        <v>400</v>
+      <c r="G155" s="65">
+        <v>404</v>
       </c>
       <c r="H155" s="65" t="s">
         <v>218</v>
@@ -34108,11 +34042,11 @@
       <c r="K155" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L155" s="26">
-        <v>3006</v>
-      </c>
-      <c r="M155" s="57" t="s">
-        <v>200</v>
+      <c r="L155" s="66">
+        <v>3007</v>
+      </c>
+      <c r="M155" s="67" t="s">
+        <v>207</v>
       </c>
       <c r="N155" s="33" t="s">
         <v>216</v>
@@ -34122,51 +34056,21 @@
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A156" s="26">
-        <v>129</v>
-      </c>
-      <c r="B156" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C156" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G156" s="65">
-        <v>404</v>
-      </c>
-      <c r="H156" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="I156" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J156" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="K156" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L156" s="66">
-        <v>3007</v>
-      </c>
-      <c r="M156" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="N156" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="O156" s="57" t="s">
-        <v>181</v>
-      </c>
+      <c r="A156" s="20"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="45"/>
+      <c r="H156" s="45"/>
+      <c r="I156" s="45"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="20"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="34"/>
+      <c r="N156" s="21"/>
+      <c r="O156" s="21"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
@@ -34180,7 +34084,6 @@
       <c r="I157" s="45"/>
       <c r="J157" s="20"/>
       <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
       <c r="M157" s="34"/>
       <c r="N157" s="21"/>
       <c r="O157" s="21"/>
@@ -34197,6 +34100,7 @@
       <c r="I158" s="45"/>
       <c r="J158" s="20"/>
       <c r="K158" s="20"/>
+      <c r="L158" s="20"/>
       <c r="M158" s="34"/>
       <c r="N158" s="21"/>
       <c r="O158" s="21"/>
@@ -34468,7 +34372,6 @@
       <c r="I174" s="45"/>
       <c r="J174" s="20"/>
       <c r="K174" s="20"/>
-      <c r="L174" s="20"/>
       <c r="M174" s="34"/>
       <c r="N174" s="21"/>
       <c r="O174" s="21"/>
@@ -34485,6 +34388,7 @@
       <c r="I175" s="45"/>
       <c r="J175" s="20"/>
       <c r="K175" s="20"/>
+      <c r="L175" s="20"/>
       <c r="M175" s="34"/>
       <c r="N175" s="21"/>
       <c r="O175" s="21"/>
@@ -39368,51 +39272,34 @@
       <c r="N462" s="21"/>
       <c r="O462" s="21"/>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A463" s="20"/>
-      <c r="B463" s="21"/>
-      <c r="C463" s="22"/>
-      <c r="D463" s="20"/>
-      <c r="E463" s="20"/>
-      <c r="F463" s="20"/>
-      <c r="G463" s="45"/>
-      <c r="H463" s="45"/>
-      <c r="I463" s="45"/>
-      <c r="J463" s="20"/>
-      <c r="K463" s="20"/>
-      <c r="L463" s="20"/>
-      <c r="M463" s="34"/>
-      <c r="N463" s="21"/>
-      <c r="O463" s="21"/>
-    </row>
   </sheetData>
-  <autoFilter ref="G1:G463" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="G1:G462" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A137:O137"/>
+    <mergeCell ref="A138:O138"/>
+    <mergeCell ref="A130:O130"/>
+    <mergeCell ref="A111:O111"/>
+    <mergeCell ref="A115:O115"/>
+    <mergeCell ref="A90:O90"/>
+    <mergeCell ref="A89:O89"/>
+    <mergeCell ref="A114:O114"/>
+    <mergeCell ref="A76:O76"/>
+    <mergeCell ref="A62:O62"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A62:O62"/>
-    <mergeCell ref="A76:O76"/>
-    <mergeCell ref="A91:O91"/>
-    <mergeCell ref="A90:O90"/>
-    <mergeCell ref="A115:O115"/>
-    <mergeCell ref="A77:O77"/>
-    <mergeCell ref="A63:O63"/>
-    <mergeCell ref="A138:O138"/>
-    <mergeCell ref="A139:O139"/>
-    <mergeCell ref="A131:O131"/>
-    <mergeCell ref="A112:O112"/>
-    <mergeCell ref="A116:O116"/>
+    <mergeCell ref="A61:O61"/>
+    <mergeCell ref="A75:O75"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J71:J75 J132:J137 J85:J89 J7:J8 J68:J69 J82:J83 J95:J97 J120:J122 J143:J144 J10:J16 J146:J156 J124:J130 J113:J114 J28:J49 J25 J19:J20 J99:J111 J51:J61" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J70:J74 J131:J136 J84:J88 J7:J8 J67:J68 J81:J82 J94:J96 J119:J121 J142:J143 J10:J16 J145:J155 J123:J129 J112:J113 J28:J49 J25 J19:J20 J98:J110 J51:J60" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K132:K134 K71:K75 K85:K89 K137 K7:K8 K68:K69 K82:K83 K95:K97 K120:K122 K143:K144 K10:K16 K99:K111 K146:K156 K124:K130 K113:K114 K25:K49 K19:K20 K51:K61" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K131:K133 K70:K74 K84:K88 K136 K7:K8 K67:K68 K81:K82 K94:K96 K119:K121 K142:K143 K10:K16 K98:K110 K145:K155 K123:K129 K112:K113 K25:K49 K19:K20 K51:K60" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L71:L75 L10:L14 L85:L89 L114 L137 L51:L55 L150:L151 L146:L148 L7:L8 L68:L69 L82:L83 L95:L97 L120:L122 L143:L144 L16 L39:L48 L99:L104 L124:L126 L128:L130 L28 L30:L37 L25 L19:L20 L134" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L70:L74 L10:L14 L84:L88 L113 L136 L51:L55 L149:L150 L145:L147 L7:L8 L67:L68 L81:L82 L94:L96 L119:L121 L142:L143 L16 L39:L48 L98:L103 L123:L125 L127:L129 L28 L30:L37 L25 L19:L20 L133" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -39424,8 +39311,8 @@
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="20" max="16383" man="1"/>
-    <brk id="61" max="16383" man="1"/>
-    <brk id="89" max="9" man="1"/>
+    <brk id="60" max="16383" man="1"/>
+    <brk id="88" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2931796C-8020-49F7-9E82-F67D7F6368AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294E2B46-C888-47A2-B9A7-0B7C96ADE6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$480</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$148</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$149</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
@@ -22266,7 +22266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B8:M72"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22990,7 +22990,7 @@
   </sheetPr>
   <dimension ref="A1:BN480"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -24355,8 +24355,8 @@
       <c r="M25" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="N25" s="32" t="s">
-        <v>61</v>
+      <c r="N25" s="64" t="s">
+        <v>12</v>
       </c>
       <c r="O25" s="64" t="s">
         <v>12</v>
@@ -28674,8 +28674,8 @@
       <c r="M84" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="N84" s="32" t="s">
-        <v>61</v>
+      <c r="N84" s="64" t="s">
+        <v>12</v>
       </c>
       <c r="O84" s="64" t="s">
         <v>12</v>
@@ -30031,8 +30031,8 @@
       <c r="M100" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="N100" s="30" t="s">
-        <v>60</v>
+      <c r="N100" s="64" t="s">
+        <v>12</v>
       </c>
       <c r="O100" s="64" t="s">
         <v>12</v>
@@ -32132,318 +32132,318 @@
       <c r="BM123" s="21"/>
       <c r="BN123" s="21"/>
     </row>
-    <row r="124" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A124" s="107" t="s">
+    <row r="124" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="8">
+        <v>168</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C124" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D124" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G124" s="8">
+        <v>401</v>
+      </c>
+      <c r="H124" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="I124" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J124" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="K124" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="L124" s="8">
+        <v>1014</v>
+      </c>
+      <c r="M124" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="N124" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="O124" s="64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A125" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="B124" s="107"/>
-      <c r="C124" s="107"/>
-      <c r="D124" s="107"/>
-      <c r="E124" s="107"/>
-      <c r="F124" s="107"/>
-      <c r="G124" s="107"/>
-      <c r="H124" s="107"/>
-      <c r="I124" s="107"/>
-      <c r="J124" s="107"/>
-      <c r="K124" s="107"/>
-      <c r="L124" s="107"/>
-      <c r="M124" s="107"/>
-      <c r="N124" s="107"/>
-      <c r="O124" s="107"/>
-      <c r="P124" s="21"/>
-      <c r="Q124" s="21"/>
-      <c r="R124" s="21"/>
-      <c r="S124" s="21"/>
-      <c r="T124" s="21"/>
-      <c r="U124" s="21"/>
-      <c r="V124" s="21"/>
-      <c r="W124" s="21"/>
-      <c r="X124" s="21"/>
-      <c r="Y124" s="21"/>
-      <c r="Z124" s="21"/>
-      <c r="AA124" s="21"/>
-      <c r="AB124" s="21"/>
-      <c r="AC124" s="21"/>
-      <c r="AD124" s="21"/>
-      <c r="AE124" s="21"/>
-      <c r="AF124" s="21"/>
-      <c r="AG124" s="21"/>
-      <c r="AH124" s="21"/>
-      <c r="AI124" s="21"/>
-      <c r="AJ124" s="21"/>
-      <c r="AK124" s="21"/>
-      <c r="AL124" s="21"/>
-      <c r="AM124" s="21"/>
-      <c r="AN124" s="21"/>
-      <c r="AO124" s="21"/>
-      <c r="AP124" s="21"/>
-      <c r="AQ124" s="21"/>
-      <c r="AR124" s="21"/>
-      <c r="AS124" s="21"/>
-      <c r="AT124" s="21"/>
-      <c r="AU124" s="21"/>
-      <c r="AV124" s="21"/>
-      <c r="AW124" s="21"/>
-      <c r="AX124" s="21"/>
-      <c r="AY124" s="21"/>
-      <c r="AZ124" s="21"/>
-      <c r="BA124" s="21"/>
-      <c r="BB124" s="21"/>
-      <c r="BC124" s="21"/>
-      <c r="BD124" s="21"/>
-      <c r="BE124" s="21"/>
-      <c r="BF124" s="21"/>
-      <c r="BG124" s="21"/>
-      <c r="BH124" s="21"/>
-      <c r="BI124" s="21"/>
-      <c r="BJ124" s="21"/>
-      <c r="BK124" s="21"/>
-      <c r="BL124" s="21"/>
-      <c r="BM124" s="21"/>
-      <c r="BN124" s="21"/>
-    </row>
-    <row r="125" spans="1:66" s="36" customFormat="1" ht="49.7" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A125" s="38">
+      <c r="B125" s="107"/>
+      <c r="C125" s="107"/>
+      <c r="D125" s="107"/>
+      <c r="E125" s="107"/>
+      <c r="F125" s="107"/>
+      <c r="G125" s="107"/>
+      <c r="H125" s="107"/>
+      <c r="I125" s="107"/>
+      <c r="J125" s="107"/>
+      <c r="K125" s="107"/>
+      <c r="L125" s="107"/>
+      <c r="M125" s="107"/>
+      <c r="N125" s="107"/>
+      <c r="O125" s="107"/>
+      <c r="P125" s="21"/>
+      <c r="Q125" s="21"/>
+      <c r="R125" s="21"/>
+      <c r="S125" s="21"/>
+      <c r="T125" s="21"/>
+      <c r="U125" s="21"/>
+      <c r="V125" s="21"/>
+      <c r="W125" s="21"/>
+      <c r="X125" s="21"/>
+      <c r="Y125" s="21"/>
+      <c r="Z125" s="21"/>
+      <c r="AA125" s="21"/>
+      <c r="AB125" s="21"/>
+      <c r="AC125" s="21"/>
+      <c r="AD125" s="21"/>
+      <c r="AE125" s="21"/>
+      <c r="AF125" s="21"/>
+      <c r="AG125" s="21"/>
+      <c r="AH125" s="21"/>
+      <c r="AI125" s="21"/>
+      <c r="AJ125" s="21"/>
+      <c r="AK125" s="21"/>
+      <c r="AL125" s="21"/>
+      <c r="AM125" s="21"/>
+      <c r="AN125" s="21"/>
+      <c r="AO125" s="21"/>
+      <c r="AP125" s="21"/>
+      <c r="AQ125" s="21"/>
+      <c r="AR125" s="21"/>
+      <c r="AS125" s="21"/>
+      <c r="AT125" s="21"/>
+      <c r="AU125" s="21"/>
+      <c r="AV125" s="21"/>
+      <c r="AW125" s="21"/>
+      <c r="AX125" s="21"/>
+      <c r="AY125" s="21"/>
+      <c r="AZ125" s="21"/>
+      <c r="BA125" s="21"/>
+      <c r="BB125" s="21"/>
+      <c r="BC125" s="21"/>
+      <c r="BD125" s="21"/>
+      <c r="BE125" s="21"/>
+      <c r="BF125" s="21"/>
+      <c r="BG125" s="21"/>
+      <c r="BH125" s="21"/>
+      <c r="BI125" s="21"/>
+      <c r="BJ125" s="21"/>
+      <c r="BK125" s="21"/>
+      <c r="BL125" s="21"/>
+      <c r="BM125" s="21"/>
+      <c r="BN125" s="21"/>
+    </row>
+    <row r="126" spans="1:66" s="36" customFormat="1" ht="49.7" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A126" s="38">
         <v>145</v>
-      </c>
-      <c r="B125" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C125" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="D125" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="F125" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="G125" s="24">
-        <v>400</v>
-      </c>
-      <c r="H125" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="I125" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="J125" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="K125" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="L125" s="86">
-        <v>3008</v>
-      </c>
-      <c r="M125" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="N125" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="O125" s="87" t="s">
-        <v>242</v>
-      </c>
-      <c r="P125" s="35"/>
-      <c r="Q125" s="35"/>
-      <c r="R125" s="35"/>
-      <c r="S125" s="35"/>
-      <c r="T125" s="35"/>
-      <c r="U125" s="35"/>
-      <c r="V125" s="35"/>
-      <c r="W125" s="35"/>
-      <c r="X125" s="35"/>
-      <c r="Y125" s="35"/>
-      <c r="Z125" s="35"/>
-      <c r="AA125" s="35"/>
-      <c r="AB125" s="35"/>
-      <c r="AC125" s="35"/>
-      <c r="AD125" s="35"/>
-      <c r="AE125" s="35"/>
-      <c r="AF125" s="35"/>
-      <c r="AG125" s="35"/>
-      <c r="AH125" s="35"/>
-      <c r="AI125" s="35"/>
-      <c r="AJ125" s="35"/>
-      <c r="AK125" s="35"/>
-      <c r="AL125" s="35"/>
-      <c r="AM125" s="35"/>
-      <c r="AN125" s="35"/>
-      <c r="AO125" s="35"/>
-      <c r="AP125" s="35"/>
-      <c r="AQ125" s="35"/>
-      <c r="AR125" s="35"/>
-      <c r="AS125" s="35"/>
-      <c r="AT125" s="35"/>
-      <c r="AU125" s="35"/>
-      <c r="AV125" s="35"/>
-      <c r="AW125" s="35"/>
-      <c r="AX125" s="35"/>
-      <c r="AY125" s="35"/>
-      <c r="AZ125" s="35"/>
-      <c r="BA125" s="35"/>
-      <c r="BB125" s="35"/>
-      <c r="BC125" s="35"/>
-      <c r="BD125" s="35"/>
-      <c r="BE125" s="35"/>
-      <c r="BF125" s="35"/>
-      <c r="BG125" s="35"/>
-      <c r="BH125" s="35"/>
-      <c r="BI125" s="35"/>
-      <c r="BJ125" s="35"/>
-      <c r="BK125" s="35"/>
-      <c r="BL125" s="35"/>
-      <c r="BM125" s="35"/>
-      <c r="BN125" s="35"/>
-    </row>
-    <row r="126" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
-        <v>85</v>
       </c>
       <c r="B126" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D126" s="4">
-        <v>8</v>
+      <c r="C126" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="D126" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="E126" s="24" t="s">
         <v>140</v>
       </c>
       <c r="F126" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="G126" s="44">
-        <v>200</v>
+        <v>141</v>
+      </c>
+      <c r="G126" s="24">
+        <v>400</v>
       </c>
       <c r="H126" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I126" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="J126" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J126" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K126" s="4" t="s">
+      <c r="K126" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="L126" s="4">
-        <v>1010</v>
-      </c>
-      <c r="M126" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="N126" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="O126" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="P126" s="22"/>
-      <c r="Q126" s="22"/>
-      <c r="R126" s="22"/>
-      <c r="S126" s="22"/>
-      <c r="T126" s="22"/>
-      <c r="U126" s="22"/>
-      <c r="V126" s="22"/>
-      <c r="W126" s="22"/>
-      <c r="X126" s="22"/>
-      <c r="Y126" s="22"/>
-      <c r="Z126" s="22"/>
-      <c r="AA126" s="22"/>
-      <c r="AB126" s="22"/>
-      <c r="AC126" s="22"/>
-      <c r="AD126" s="22"/>
-      <c r="AE126" s="22"/>
-      <c r="AF126" s="22"/>
-      <c r="AG126" s="22"/>
-      <c r="AH126" s="22"/>
-      <c r="AI126" s="22"/>
-      <c r="AJ126" s="22"/>
-      <c r="AK126" s="22"/>
-      <c r="AL126" s="22"/>
-      <c r="AM126" s="22"/>
-      <c r="AN126" s="22"/>
-      <c r="AO126" s="22"/>
-      <c r="AP126" s="22"/>
-      <c r="AQ126" s="22"/>
-      <c r="AR126" s="22"/>
-      <c r="AS126" s="22"/>
-      <c r="AT126" s="22"/>
-      <c r="AU126" s="22"/>
-      <c r="AV126" s="22"/>
-      <c r="AW126" s="22"/>
-      <c r="AX126" s="22"/>
-      <c r="AY126" s="22"/>
-      <c r="AZ126" s="22"/>
-      <c r="BA126" s="22"/>
-      <c r="BB126" s="22"/>
-      <c r="BC126" s="22"/>
-      <c r="BD126" s="22"/>
-      <c r="BE126" s="22"/>
-      <c r="BF126" s="22"/>
-      <c r="BG126" s="22"/>
-      <c r="BH126" s="22"/>
-      <c r="BI126" s="22"/>
-      <c r="BJ126" s="22"/>
-      <c r="BK126" s="22"/>
-      <c r="BL126" s="22"/>
-      <c r="BM126" s="22"/>
-      <c r="BN126" s="22"/>
-    </row>
-    <row r="127" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="8">
-        <v>168</v>
+      <c r="L126" s="86">
+        <v>3008</v>
+      </c>
+      <c r="M126" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="N126" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O126" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="P126" s="35"/>
+      <c r="Q126" s="35"/>
+      <c r="R126" s="35"/>
+      <c r="S126" s="35"/>
+      <c r="T126" s="35"/>
+      <c r="U126" s="35"/>
+      <c r="V126" s="35"/>
+      <c r="W126" s="35"/>
+      <c r="X126" s="35"/>
+      <c r="Y126" s="35"/>
+      <c r="Z126" s="35"/>
+      <c r="AA126" s="35"/>
+      <c r="AB126" s="35"/>
+      <c r="AC126" s="35"/>
+      <c r="AD126" s="35"/>
+      <c r="AE126" s="35"/>
+      <c r="AF126" s="35"/>
+      <c r="AG126" s="35"/>
+      <c r="AH126" s="35"/>
+      <c r="AI126" s="35"/>
+      <c r="AJ126" s="35"/>
+      <c r="AK126" s="35"/>
+      <c r="AL126" s="35"/>
+      <c r="AM126" s="35"/>
+      <c r="AN126" s="35"/>
+      <c r="AO126" s="35"/>
+      <c r="AP126" s="35"/>
+      <c r="AQ126" s="35"/>
+      <c r="AR126" s="35"/>
+      <c r="AS126" s="35"/>
+      <c r="AT126" s="35"/>
+      <c r="AU126" s="35"/>
+      <c r="AV126" s="35"/>
+      <c r="AW126" s="35"/>
+      <c r="AX126" s="35"/>
+      <c r="AY126" s="35"/>
+      <c r="AZ126" s="35"/>
+      <c r="BA126" s="35"/>
+      <c r="BB126" s="35"/>
+      <c r="BC126" s="35"/>
+      <c r="BD126" s="35"/>
+      <c r="BE126" s="35"/>
+      <c r="BF126" s="35"/>
+      <c r="BG126" s="35"/>
+      <c r="BH126" s="35"/>
+      <c r="BI126" s="35"/>
+      <c r="BJ126" s="35"/>
+      <c r="BK126" s="35"/>
+      <c r="BL126" s="35"/>
+      <c r="BM126" s="35"/>
+      <c r="BN126" s="35"/>
+    </row>
+    <row r="127" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>85</v>
       </c>
       <c r="B127" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C127" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="D127" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" s="8" t="s">
+      <c r="C127" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D127" s="4">
+        <v>8</v>
+      </c>
+      <c r="E127" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F127" s="8" t="s">
+      <c r="F127" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="G127" s="8">
-        <v>401</v>
-      </c>
-      <c r="H127" s="54" t="s">
-        <v>216</v>
+      <c r="G127" s="44">
+        <v>200</v>
+      </c>
+      <c r="H127" s="24" t="s">
+        <v>217</v>
       </c>
       <c r="I127" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="J127" s="92" t="s">
+        <v>227</v>
+      </c>
+      <c r="J127" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K127" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="L127" s="8">
-        <v>1014</v>
-      </c>
-      <c r="M127" s="31" t="s">
-        <v>298</v>
+      <c r="K127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L127" s="4">
+        <v>1010</v>
+      </c>
+      <c r="M127" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="N127" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="O127" s="64" t="s">
-        <v>12</v>
-      </c>
+      <c r="O127" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="P127" s="22"/>
+      <c r="Q127" s="22"/>
+      <c r="R127" s="22"/>
+      <c r="S127" s="22"/>
+      <c r="T127" s="22"/>
+      <c r="U127" s="22"/>
+      <c r="V127" s="22"/>
+      <c r="W127" s="22"/>
+      <c r="X127" s="22"/>
+      <c r="Y127" s="22"/>
+      <c r="Z127" s="22"/>
+      <c r="AA127" s="22"/>
+      <c r="AB127" s="22"/>
+      <c r="AC127" s="22"/>
+      <c r="AD127" s="22"/>
+      <c r="AE127" s="22"/>
+      <c r="AF127" s="22"/>
+      <c r="AG127" s="22"/>
+      <c r="AH127" s="22"/>
+      <c r="AI127" s="22"/>
+      <c r="AJ127" s="22"/>
+      <c r="AK127" s="22"/>
+      <c r="AL127" s="22"/>
+      <c r="AM127" s="22"/>
+      <c r="AN127" s="22"/>
+      <c r="AO127" s="22"/>
+      <c r="AP127" s="22"/>
+      <c r="AQ127" s="22"/>
+      <c r="AR127" s="22"/>
+      <c r="AS127" s="22"/>
+      <c r="AT127" s="22"/>
+      <c r="AU127" s="22"/>
+      <c r="AV127" s="22"/>
+      <c r="AW127" s="22"/>
+      <c r="AX127" s="22"/>
+      <c r="AY127" s="22"/>
+      <c r="AZ127" s="22"/>
+      <c r="BA127" s="22"/>
+      <c r="BB127" s="22"/>
+      <c r="BC127" s="22"/>
+      <c r="BD127" s="22"/>
+      <c r="BE127" s="22"/>
+      <c r="BF127" s="22"/>
+      <c r="BG127" s="22"/>
+      <c r="BH127" s="22"/>
+      <c r="BI127" s="22"/>
+      <c r="BJ127" s="22"/>
+      <c r="BK127" s="22"/>
+      <c r="BL127" s="22"/>
+      <c r="BM127" s="22"/>
+      <c r="BN127" s="22"/>
     </row>
     <row r="128" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A128" s="106" t="s">
@@ -33731,92 +33731,92 @@
       <c r="N144" s="33"/>
       <c r="O144" s="33"/>
     </row>
-    <row r="145" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A145" s="107" t="s">
+    <row r="145" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="8">
+        <v>169</v>
+      </c>
+      <c r="B145" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C145" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D145" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G145" s="8">
+        <v>401</v>
+      </c>
+      <c r="H145" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="I145" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J145" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="K145" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="L145" s="8">
+        <v>1014</v>
+      </c>
+      <c r="M145" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="N145" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="O145" s="64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A146" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="107"/>
-      <c r="C145" s="107"/>
-      <c r="D145" s="107"/>
-      <c r="E145" s="107"/>
-      <c r="F145" s="107"/>
-      <c r="G145" s="107"/>
-      <c r="H145" s="107"/>
-      <c r="I145" s="107"/>
-      <c r="J145" s="107"/>
-      <c r="K145" s="107"/>
-      <c r="L145" s="107"/>
-      <c r="M145" s="107"/>
-      <c r="N145" s="107"/>
-      <c r="O145" s="107"/>
-    </row>
-    <row r="146" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="4">
+      <c r="B146" s="107"/>
+      <c r="C146" s="107"/>
+      <c r="D146" s="107"/>
+      <c r="E146" s="107"/>
+      <c r="F146" s="107"/>
+      <c r="G146" s="107"/>
+      <c r="H146" s="107"/>
+      <c r="I146" s="107"/>
+      <c r="J146" s="107"/>
+      <c r="K146" s="107"/>
+      <c r="L146" s="107"/>
+      <c r="M146" s="107"/>
+      <c r="N146" s="107"/>
+      <c r="O146" s="107"/>
+    </row>
+    <row r="147" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
         <v>154</v>
-      </c>
-      <c r="B146" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C146" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G146" s="4">
-        <v>200</v>
-      </c>
-      <c r="H146" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="I146" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="J146" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K146" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L146" s="4">
-        <v>4006</v>
-      </c>
-      <c r="M146" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="N146" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="O146" s="49" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="147" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="8">
-        <v>151</v>
       </c>
       <c r="B147" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C147" s="96" t="s">
-        <v>268</v>
+      <c r="C147" s="49" t="s">
+        <v>274</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E147" s="5" t="s">
+      <c r="E147" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F147" s="5" t="s">
+      <c r="F147" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G147" s="38">
+      <c r="G147" s="4">
         <v>200</v>
       </c>
       <c r="H147" s="24" t="s">
@@ -33831,28 +33831,28 @@
       <c r="K147" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L147" s="8">
-        <v>4005</v>
-      </c>
-      <c r="M147" s="96" t="s">
-        <v>268</v>
+      <c r="L147" s="4">
+        <v>4006</v>
+      </c>
+      <c r="M147" s="49" t="s">
+        <v>274</v>
       </c>
       <c r="N147" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="O147" s="96" t="s">
-        <v>267</v>
+      <c r="O147" s="49" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="148" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="4">
-        <v>97</v>
+      <c r="A148" s="8">
+        <v>151</v>
       </c>
       <c r="B148" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C148" s="23" t="s">
-        <v>85</v>
+      <c r="C148" s="96" t="s">
+        <v>268</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>12</v>
@@ -33875,33 +33875,33 @@
       <c r="J148" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K148" s="5" t="s">
-        <v>30</v>
+      <c r="K148" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="L148" s="8">
-        <v>4002</v>
-      </c>
-      <c r="M148" s="32" t="s">
-        <v>38</v>
+        <v>4005</v>
+      </c>
+      <c r="M148" s="96" t="s">
+        <v>268</v>
       </c>
       <c r="N148" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="O148" s="31" t="s">
-        <v>62</v>
+      <c r="O148" s="96" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B149" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C149" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D149" s="26" t="s">
+      <c r="C149" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E149" s="5" t="s">
@@ -33922,31 +33922,31 @@
       <c r="J149" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K149" s="26" t="s">
+      <c r="K149" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L149" s="26">
-        <v>4003</v>
+      <c r="L149" s="8">
+        <v>4002</v>
       </c>
       <c r="M149" s="32" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="N149" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="O149" s="33" t="s">
-        <v>1</v>
+      <c r="O149" s="31" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="150" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B150" s="31" t="s">
         <v>133</v>
       </c>
       <c r="C150" s="27" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="D150" s="26" t="s">
         <v>12</v>
@@ -33973,35 +33973,35 @@
         <v>30</v>
       </c>
       <c r="L150" s="26">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="M150" s="32" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="N150" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="O150" s="31" t="s">
-        <v>184</v>
+      <c r="O150" s="33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B151" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D151" s="4">
-        <v>8</v>
-      </c>
-      <c r="E151" s="24" t="s">
+      <c r="C151" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D151" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F151" s="24" t="s">
+      <c r="F151" s="5" t="s">
         <v>140</v>
       </c>
       <c r="G151" s="38">
@@ -34013,70 +34013,70 @@
       <c r="I151" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="J151" s="4" t="s">
+      <c r="J151" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K151" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L151" s="4">
-        <v>1010</v>
-      </c>
-      <c r="M151" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="N151" s="30" t="s">
+      <c r="K151" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L151" s="26">
+        <v>4004</v>
+      </c>
+      <c r="M151" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="N151" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="O151" s="30" t="s">
-        <v>1</v>
+      <c r="O151" s="31" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="152" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="8">
-        <v>169</v>
+      <c r="A152" s="4">
+        <v>99</v>
       </c>
       <c r="B152" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C152" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="D152" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" s="8" t="s">
+      <c r="C152" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D152" s="4">
+        <v>8</v>
+      </c>
+      <c r="E152" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F152" s="8" t="s">
+      <c r="F152" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="G152" s="8">
-        <v>401</v>
-      </c>
-      <c r="H152" s="54" t="s">
-        <v>216</v>
+      <c r="G152" s="38">
+        <v>200</v>
+      </c>
+      <c r="H152" s="24" t="s">
+        <v>217</v>
       </c>
       <c r="I152" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="J152" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="J152" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K152" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="L152" s="8">
-        <v>1014</v>
-      </c>
-      <c r="M152" s="31" t="s">
-        <v>298</v>
+      <c r="K152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L152" s="4">
+        <v>1010</v>
+      </c>
+      <c r="M152" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="N152" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="O152" s="64" t="s">
-        <v>12</v>
+      <c r="O152" s="30" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
@@ -35052,8 +35052,8 @@
       <c r="M173" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="N173" s="33" t="s">
-        <v>214</v>
+      <c r="N173" s="64" t="s">
+        <v>12</v>
       </c>
       <c r="O173" s="64" t="s">
         <v>12</v>
@@ -40292,18 +40292,18 @@
     <mergeCell ref="A70:O70"/>
     <mergeCell ref="A153:O153"/>
     <mergeCell ref="A154:O154"/>
-    <mergeCell ref="A145:O145"/>
-    <mergeCell ref="A124:O124"/>
+    <mergeCell ref="A146:O146"/>
+    <mergeCell ref="A125:O125"/>
     <mergeCell ref="A129:O129"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J17 J125:J126 J146:J151 J7:J8 J75:J76 J91:J92 J106:J108 J133:J135 J158:J159 J20:J21 J137:J144 J110:J123 J94:J99 J30 J78:J83 J55:J68 J161:J172 J33:J53" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J17 J126:J127 J147:J152 J7:J8 J75:J76 J91:J92 J106:J108 J133:J135 J158:J159 J20:J21 J137:J145 J110:J124 J94:J99 J30 J78:J83 J55:J68 J161:J172 J33:J53" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K146:K148 K10:K17 K151 K125:K126 K7:K8 K75:K76 K91:K92 K106:K108 K133:K135 K158:K159 K20:K21 K78:K83 K137:K144 K110:K123 K94:K99 K55:K68 K161:K172 K30:K53" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K147:K149 K10:K17 K152 K126:K127 K7:K8 K75:K76 K91:K92 K106:K108 K133:K135 K158:K159 K20:K21 K78:K83 K137:K145 K110:K124 K94:K99 K55:K68 K161:K172 K30:K53" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L15 L20:L21 L110:L116 L94:L99 L126 L55:L59 L165:L167 L161:L163 L7:L8 L75:L76 L91:L92 L106:L108 L133:L135 L158:L159 L17 L43:L52 L78:L83 L137:L139 L141:L144 L33 L30 L148 L151 L35:L41" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L15 L20:L21 L110:L116 L94:L99 L127 L55:L59 L165:L167 L161:L163 L7:L8 L75:L76 L91:L92 L106:L108 L133:L135 L158:L159 L17 L43:L52 L78:L83 L137:L139 L141:L145 L33 L30 L149 L152 L35:L41" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
